--- a/doc/요구사항_합본2_team2_최경열.xlsx
+++ b/doc/요구사항_합본2_team2_최경열.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="183">
   <si>
     <t>지역별로 여행지를 제공한다</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -571,15 +571,6 @@
     <t>개요</t>
   </si>
   <si>
-    <t>요구</t>
-  </si>
-  <si>
-    <t>사항</t>
-  </si>
-  <si>
-    <t>내역</t>
-  </si>
-  <si>
     <t>상세설명</t>
   </si>
   <si>
@@ -647,14 +638,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1.지역별 여행지는 테이블 형식으로 보여진다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.테이블의 각각의 칸들은 지역명의 이름으로 보여진다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>3.지역(이름)클릭시 지역별 여행지 페이지로 이동한다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -715,30 +698,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>진행중인 축제정보를 제공</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>진행예정인 축제정보를 제공</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>유형</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>내역</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>사항</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>요구</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>1.계절별 여행지 상단에는 봄,여름,가을,겨울 select 창이 존재한다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -768,6 +731,70 @@
   </si>
   <si>
     <t>4.댓글란은 10개 이상 초과시 비동기 형태로 페이지로 전환된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.지역별 여행지는 Select Bar 형식으로 보여진다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>요구사항 내역</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>요구사항 내역</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/UX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/UX(축제)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행 중 축제정보를 제공</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행 예정 축제정보를 제공</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.Select Bar 형식들은 지역명의 이름으로 보여진다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.지역별 축제는 Select Bar 형식으로 보여진다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.지역(이름)클릭시 지역별 축제 페이지로 이동한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.각 지역별 축제 페이지는 축제들을 썸네일 형태의 사진(1개)과 짧은 글(50자내외)로 제공한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.축제인 썸네일 형태의 사진과 짧은글은 리스트 형식으로 나열된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.썸네일 클릭시 축제 상세 페이지로 이동한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.축제 상세페이지는 회전목마형태의 사진을 제공한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.축제 상세페이지는 축제에 대한 설명과 상세정보(문의 및 안내, 주소, 홈페이지, 휴일 등)을 제공한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.축제 상세페이지는 축제의 위치를 API 지도로 제공한다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1250,7 +1277,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1299,140 +1326,143 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1753,10 +1783,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="20" t="s">
         <v>110</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -1767,43 +1797,43 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="30"/>
-      <c r="B3" s="22"/>
+      <c r="A3" s="25"/>
+      <c r="B3" s="20"/>
       <c r="C3" s="4" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="30"/>
-      <c r="B4" s="22"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="20"/>
       <c r="C4" s="4" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="30"/>
-      <c r="B5" s="22"/>
+      <c r="A5" s="25"/>
+      <c r="B5" s="20"/>
       <c r="C5" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="30"/>
-      <c r="B6" s="22"/>
+      <c r="A6" s="25"/>
+      <c r="B6" s="20"/>
       <c r="C6" s="4" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="30"/>
-      <c r="B7" s="22"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="20"/>
       <c r="C7" s="11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="30"/>
-      <c r="B8" s="22" t="s">
+      <c r="A8" s="25"/>
+      <c r="B8" s="20" t="s">
         <v>101</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -1814,29 +1844,29 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="30"/>
-      <c r="B9" s="22"/>
+      <c r="A9" s="25"/>
+      <c r="B9" s="20"/>
       <c r="C9" s="5" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="30"/>
-      <c r="B10" s="22"/>
+      <c r="A10" s="25"/>
+      <c r="B10" s="20"/>
       <c r="C10" s="4" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="30"/>
-      <c r="B11" s="22"/>
+      <c r="A11" s="25"/>
+      <c r="B11" s="20"/>
       <c r="C11" s="11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="30"/>
-      <c r="B12" s="22" t="s">
+      <c r="A12" s="25"/>
+      <c r="B12" s="20" t="s">
         <v>102</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -1847,50 +1877,50 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="30"/>
-      <c r="B13" s="22"/>
+      <c r="A13" s="25"/>
+      <c r="B13" s="20"/>
       <c r="C13" s="4" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="30"/>
-      <c r="B14" s="22"/>
+      <c r="A14" s="25"/>
+      <c r="B14" s="20"/>
       <c r="C14" s="4" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="30"/>
-      <c r="B15" s="22"/>
+      <c r="A15" s="25"/>
+      <c r="B15" s="20"/>
       <c r="C15" s="4" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="30"/>
-      <c r="B16" s="22"/>
+      <c r="A16" s="25"/>
+      <c r="B16" s="20"/>
       <c r="C16" s="3" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="30"/>
-      <c r="B17" s="22"/>
+      <c r="A17" s="25"/>
+      <c r="B17" s="20"/>
       <c r="C17" s="5" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="30"/>
-      <c r="B18" s="22"/>
+      <c r="A18" s="25"/>
+      <c r="B18" s="20"/>
       <c r="C18" s="11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="30"/>
-      <c r="B19" s="22" t="s">
+      <c r="A19" s="25"/>
+      <c r="B19" s="20" t="s">
         <v>103</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -1901,35 +1931,35 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="30"/>
-      <c r="B20" s="22"/>
+      <c r="A20" s="25"/>
+      <c r="B20" s="20"/>
       <c r="C20" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" s="30"/>
-      <c r="B21" s="22"/>
+      <c r="A21" s="25"/>
+      <c r="B21" s="20"/>
       <c r="C21" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A22" s="30"/>
-      <c r="B22" s="22"/>
+      <c r="A22" s="25"/>
+      <c r="B22" s="20"/>
       <c r="C22" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A23" s="30"/>
-      <c r="B23" s="22"/>
+      <c r="A23" s="25"/>
+      <c r="B23" s="20"/>
       <c r="C23" s="11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A24" s="30"/>
+      <c r="A24" s="25"/>
       <c r="B24" s="8" t="s">
         <v>109</v>
       </c>
@@ -1938,7 +1968,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A25" s="30"/>
+      <c r="A25" s="25"/>
       <c r="B25" s="8" t="s">
         <v>7</v>
       </c>
@@ -1947,8 +1977,8 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A26" s="30"/>
-      <c r="B26" s="22" t="s">
+      <c r="A26" s="25"/>
+      <c r="B26" s="20" t="s">
         <v>9</v>
       </c>
       <c r="C26" s="7" t="s">
@@ -1956,15 +1986,15 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" s="30"/>
-      <c r="B27" s="22"/>
+      <c r="A27" s="25"/>
+      <c r="B27" s="20"/>
       <c r="C27" s="7" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" s="30"/>
-      <c r="B28" s="25" t="s">
+      <c r="A28" s="25"/>
+      <c r="B28" s="22" t="s">
         <v>66</v>
       </c>
       <c r="C28" s="4" t="s">
@@ -1972,15 +2002,15 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A29" s="30"/>
-      <c r="B29" s="27"/>
+      <c r="A29" s="25"/>
+      <c r="B29" s="23"/>
       <c r="C29" s="4" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A30" s="30"/>
-      <c r="B30" s="25" t="s">
+      <c r="A30" s="25"/>
+      <c r="B30" s="22" t="s">
         <v>68</v>
       </c>
       <c r="C30" s="4" t="s">
@@ -1988,17 +2018,17 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A31" s="31"/>
-      <c r="B31" s="27"/>
+      <c r="A31" s="26"/>
+      <c r="B31" s="23"/>
       <c r="C31" s="4" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A32" s="28" t="s">
+      <c r="A32" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="B32" s="22" t="s">
+      <c r="B32" s="20" t="s">
         <v>104</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -2009,36 +2039,36 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A33" s="28"/>
-      <c r="B33" s="22"/>
+      <c r="A33" s="21"/>
+      <c r="B33" s="20"/>
       <c r="C33" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A34" s="28"/>
-      <c r="B34" s="22"/>
+      <c r="A34" s="21"/>
+      <c r="B34" s="20"/>
       <c r="C34" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A35" s="28"/>
-      <c r="B35" s="22"/>
+      <c r="A35" s="21"/>
+      <c r="B35" s="20"/>
       <c r="C35" s="4" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="28"/>
-      <c r="B36" s="22"/>
+      <c r="A36" s="21"/>
+      <c r="B36" s="20"/>
       <c r="C36" s="1" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37" s="28"/>
-      <c r="B37" s="24" t="s">
+      <c r="A37" s="21"/>
+      <c r="B37" s="33" t="s">
         <v>105</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -2049,57 +2079,57 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A38" s="28"/>
-      <c r="B38" s="24"/>
+      <c r="A38" s="21"/>
+      <c r="B38" s="33"/>
       <c r="C38" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A39" s="28"/>
-      <c r="B39" s="24"/>
+      <c r="A39" s="21"/>
+      <c r="B39" s="33"/>
       <c r="C39" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A40" s="28"/>
-      <c r="B40" s="24"/>
+      <c r="A40" s="21"/>
+      <c r="B40" s="33"/>
       <c r="C40" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A41" s="28"/>
-      <c r="B41" s="24"/>
+      <c r="A41" s="21"/>
+      <c r="B41" s="33"/>
       <c r="C41" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A42" s="28"/>
-      <c r="B42" s="24"/>
+      <c r="A42" s="21"/>
+      <c r="B42" s="33"/>
       <c r="C42" s="4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A43" s="28"/>
-      <c r="B43" s="24"/>
+      <c r="A43" s="21"/>
+      <c r="B43" s="33"/>
       <c r="C43" s="4" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A44" s="28"/>
-      <c r="B44" s="24"/>
+      <c r="A44" s="21"/>
+      <c r="B44" s="33"/>
       <c r="C44" s="1" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A45" s="28"/>
-      <c r="B45" s="22" t="s">
+      <c r="A45" s="21"/>
+      <c r="B45" s="20" t="s">
         <v>106</v>
       </c>
       <c r="C45" s="1" t="s">
@@ -2110,50 +2140,50 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A46" s="28"/>
-      <c r="B46" s="22"/>
+      <c r="A46" s="21"/>
+      <c r="B46" s="20"/>
       <c r="C46" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A47" s="28"/>
-      <c r="B47" s="22"/>
+      <c r="A47" s="21"/>
+      <c r="B47" s="20"/>
       <c r="C47" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A48" s="28"/>
-      <c r="B48" s="22"/>
+      <c r="A48" s="21"/>
+      <c r="B48" s="20"/>
       <c r="C48" s="4" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A49" s="28"/>
-      <c r="B49" s="22"/>
+      <c r="A49" s="21"/>
+      <c r="B49" s="20"/>
       <c r="C49" s="4" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A50" s="28"/>
-      <c r="B50" s="22"/>
+      <c r="A50" s="21"/>
+      <c r="B50" s="20"/>
       <c r="C50" s="3" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A51" s="28"/>
-      <c r="B51" s="22"/>
+      <c r="A51" s="21"/>
+      <c r="B51" s="20"/>
       <c r="C51" s="1" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A52" s="28"/>
-      <c r="B52" s="22" t="s">
+      <c r="A52" s="21"/>
+      <c r="B52" s="20" t="s">
         <v>107</v>
       </c>
       <c r="C52" s="1" t="s">
@@ -2164,50 +2194,50 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A53" s="28"/>
-      <c r="B53" s="22"/>
+      <c r="A53" s="21"/>
+      <c r="B53" s="20"/>
       <c r="C53" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A54" s="28"/>
-      <c r="B54" s="22"/>
+      <c r="A54" s="21"/>
+      <c r="B54" s="20"/>
       <c r="C54" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A55" s="28"/>
-      <c r="B55" s="22"/>
+      <c r="A55" s="21"/>
+      <c r="B55" s="20"/>
       <c r="C55" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A56" s="28"/>
-      <c r="B56" s="22"/>
+      <c r="A56" s="21"/>
+      <c r="B56" s="20"/>
       <c r="C56" s="3" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A57" s="28"/>
-      <c r="B57" s="22"/>
+      <c r="A57" s="21"/>
+      <c r="B57" s="20"/>
       <c r="C57" s="3" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="28"/>
-      <c r="B58" s="22"/>
+      <c r="A58" s="21"/>
+      <c r="B58" s="20"/>
       <c r="C58" s="1" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="28"/>
-      <c r="B59" s="22" t="s">
+      <c r="A59" s="21"/>
+      <c r="B59" s="20" t="s">
         <v>108</v>
       </c>
       <c r="C59" s="3" t="s">
@@ -2218,66 +2248,66 @@
       </c>
     </row>
     <row r="60" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="28"/>
-      <c r="B60" s="22"/>
+      <c r="A60" s="21"/>
+      <c r="B60" s="20"/>
       <c r="C60" s="4" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="28"/>
-      <c r="B61" s="22"/>
+      <c r="A61" s="21"/>
+      <c r="B61" s="20"/>
       <c r="C61" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="28"/>
-      <c r="B62" s="22"/>
+      <c r="A62" s="21"/>
+      <c r="B62" s="20"/>
       <c r="C62" s="4" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="28"/>
-      <c r="B63" s="22"/>
+      <c r="A63" s="21"/>
+      <c r="B63" s="20"/>
       <c r="C63" s="4" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="28"/>
-      <c r="B64" s="22"/>
+      <c r="A64" s="21"/>
+      <c r="B64" s="20"/>
       <c r="C64" s="10" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="28"/>
-      <c r="B65" s="22"/>
+      <c r="A65" s="21"/>
+      <c r="B65" s="20"/>
       <c r="C65" s="10" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="28"/>
-      <c r="B66" s="22"/>
+      <c r="A66" s="21"/>
+      <c r="B66" s="20"/>
       <c r="C66" s="10" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="28"/>
-      <c r="B67" s="22"/>
+      <c r="A67" s="21"/>
+      <c r="B67" s="20"/>
       <c r="C67" s="11" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A68" s="28" t="s">
+      <c r="A68" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="B68" s="25" t="s">
+      <c r="B68" s="22" t="s">
         <v>21</v>
       </c>
       <c r="C68" s="3" t="s">
@@ -2285,43 +2315,43 @@
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A69" s="28"/>
-      <c r="B69" s="26"/>
+      <c r="A69" s="21"/>
+      <c r="B69" s="34"/>
       <c r="C69" s="3" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A70" s="28"/>
-      <c r="B70" s="26"/>
+      <c r="A70" s="21"/>
+      <c r="B70" s="34"/>
       <c r="C70" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A71" s="28"/>
-      <c r="B71" s="26"/>
+      <c r="A71" s="21"/>
+      <c r="B71" s="34"/>
       <c r="C71" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A72" s="28"/>
-      <c r="B72" s="26"/>
+      <c r="A72" s="21"/>
+      <c r="B72" s="34"/>
       <c r="C72" s="4" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A73" s="28"/>
-      <c r="B73" s="27"/>
+      <c r="A73" s="21"/>
+      <c r="B73" s="23"/>
       <c r="C73" s="4" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A74" s="28"/>
-      <c r="B74" s="22" t="s">
+      <c r="A74" s="21"/>
+      <c r="B74" s="20" t="s">
         <v>25</v>
       </c>
       <c r="C74" s="3" t="s">
@@ -2329,22 +2359,22 @@
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A75" s="28"/>
-      <c r="B75" s="22"/>
+      <c r="A75" s="21"/>
+      <c r="B75" s="20"/>
       <c r="C75" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A76" s="28"/>
-      <c r="B76" s="22"/>
+      <c r="A76" s="21"/>
+      <c r="B76" s="20"/>
       <c r="C76" s="4" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A77" s="28"/>
-      <c r="B77" s="22" t="s">
+      <c r="A77" s="21"/>
+      <c r="B77" s="20" t="s">
         <v>17</v>
       </c>
       <c r="C77" s="1" t="s">
@@ -2352,52 +2382,52 @@
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A78" s="28"/>
-      <c r="B78" s="22"/>
+      <c r="A78" s="21"/>
+      <c r="B78" s="20"/>
       <c r="C78" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A79" s="28"/>
-      <c r="B79" s="22"/>
+      <c r="A79" s="21"/>
+      <c r="B79" s="20"/>
       <c r="C79" s="3" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A80" s="28"/>
-      <c r="B80" s="22"/>
+      <c r="A80" s="21"/>
+      <c r="B80" s="20"/>
       <c r="C80" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A81" s="28"/>
-      <c r="B81" s="22"/>
+      <c r="A81" s="21"/>
+      <c r="B81" s="20"/>
       <c r="C81" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A82" s="28"/>
-      <c r="B82" s="22"/>
+      <c r="A82" s="21"/>
+      <c r="B82" s="20"/>
       <c r="C82" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A83" s="28"/>
-      <c r="B83" s="22"/>
+      <c r="A83" s="21"/>
+      <c r="B83" s="20"/>
       <c r="C83" s="5" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A84" s="28" t="s">
+      <c r="A84" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="B84" s="32" t="s">
+      <c r="B84" s="27" t="s">
         <v>20</v>
       </c>
       <c r="C84" s="1" t="s">
@@ -2405,36 +2435,36 @@
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A85" s="28"/>
-      <c r="B85" s="33"/>
+      <c r="A85" s="21"/>
+      <c r="B85" s="28"/>
       <c r="C85" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A86" s="28"/>
-      <c r="B86" s="33"/>
+      <c r="A86" s="21"/>
+      <c r="B86" s="28"/>
       <c r="C86" s="4" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A87" s="28"/>
-      <c r="B87" s="33"/>
+      <c r="A87" s="21"/>
+      <c r="B87" s="28"/>
       <c r="C87" s="4" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A88" s="28"/>
-      <c r="B88" s="34"/>
+      <c r="A88" s="21"/>
+      <c r="B88" s="29"/>
       <c r="C88" s="4" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A89" s="28"/>
-      <c r="B89" s="32" t="s">
+      <c r="A89" s="21"/>
+      <c r="B89" s="27" t="s">
         <v>31</v>
       </c>
       <c r="C89" s="3" t="s">
@@ -2442,15 +2472,15 @@
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A90" s="28"/>
-      <c r="B90" s="34"/>
+      <c r="A90" s="21"/>
+      <c r="B90" s="29"/>
       <c r="C90" s="3" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A91" s="28"/>
-      <c r="B91" s="35" t="s">
+      <c r="A91" s="21"/>
+      <c r="B91" s="30" t="s">
         <v>38</v>
       </c>
       <c r="C91" s="3" t="s">
@@ -2458,14 +2488,14 @@
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A92" s="28"/>
-      <c r="B92" s="36"/>
+      <c r="A92" s="21"/>
+      <c r="B92" s="31"/>
       <c r="C92" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A93" s="28"/>
+      <c r="A93" s="21"/>
       <c r="B93" s="13" t="s">
         <v>40</v>
       </c>
@@ -2474,8 +2504,8 @@
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A94" s="28"/>
-      <c r="B94" s="23" t="s">
+      <c r="A94" s="21"/>
+      <c r="B94" s="32" t="s">
         <v>33</v>
       </c>
       <c r="C94" s="3" t="s">
@@ -2483,36 +2513,36 @@
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A95" s="28"/>
-      <c r="B95" s="23"/>
+      <c r="A95" s="21"/>
+      <c r="B95" s="32"/>
       <c r="C95" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A96" s="28"/>
-      <c r="B96" s="23"/>
+      <c r="A96" s="21"/>
+      <c r="B96" s="32"/>
       <c r="C96" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A97" s="28"/>
-      <c r="B97" s="23"/>
+      <c r="A97" s="21"/>
+      <c r="B97" s="32"/>
       <c r="C97" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B107" s="28"/>
+      <c r="B107" s="21"/>
       <c r="C107" s="4"/>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B108" s="28"/>
+      <c r="B108" s="21"/>
       <c r="C108" s="4"/>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B109" s="28"/>
+      <c r="B109" s="21"/>
       <c r="C109" s="4"/>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.15">
@@ -2554,10 +2584,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G143"/>
+  <dimension ref="A1:G152"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2567,1391 +2597,1320 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="44" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="53" t="s">
-        <v>145</v>
-      </c>
-      <c r="D1" s="54"/>
-      <c r="E1" s="55"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="46" t="s">
+        <v>142</v>
+      </c>
+      <c r="D1" s="47"/>
+      <c r="E1" s="48"/>
     </row>
     <row r="2" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="49" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="57"/>
+      <c r="B2" s="50"/>
       <c r="C2" s="14" t="s">
         <v>120</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="E2" s="19" t="s">
-        <v>139</v>
+      <c r="E2" s="16" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="58" t="s">
-        <v>140</v>
-      </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="59"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="51" t="s">
+        <v>137</v>
+      </c>
+      <c r="D3" s="36"/>
+      <c r="E3" s="52"/>
     </row>
     <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="59" t="s">
+        <v>168</v>
+      </c>
+      <c r="B4" s="53" t="s">
         <v>123</v>
       </c>
-      <c r="B4" s="46" t="s">
-        <v>126</v>
-      </c>
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="55" t="s">
+        <v>167</v>
+      </c>
+      <c r="D4" s="56"/>
+      <c r="E4" s="57"/>
+    </row>
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="60"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="38" t="s">
+        <v>174</v>
+      </c>
+      <c r="D5" s="39"/>
+      <c r="E5" s="40"/>
+      <c r="G5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="60"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="38" t="s">
+        <v>143</v>
+      </c>
+      <c r="D6" s="39"/>
+      <c r="E6" s="40"/>
+    </row>
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A7" s="60"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="38" t="s">
+        <v>144</v>
+      </c>
+      <c r="D7" s="39"/>
+      <c r="E7" s="40"/>
+    </row>
+    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A8" s="60"/>
+      <c r="B8" s="58"/>
+      <c r="C8" s="38" t="s">
+        <v>145</v>
+      </c>
+      <c r="D8" s="39"/>
+      <c r="E8" s="40"/>
+    </row>
+    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="60"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="38" t="s">
         <v>146</v>
       </c>
-      <c r="D4" s="49"/>
-      <c r="E4" s="50"/>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="16"/>
-      <c r="B5" s="60"/>
-      <c r="C5" s="37" t="s">
+      <c r="D9" s="39"/>
+      <c r="E9" s="40"/>
+    </row>
+    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="60"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="38" t="s">
         <v>147</v>
       </c>
-      <c r="D5" s="38"/>
-      <c r="E5" s="39"/>
-      <c r="G5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="16"/>
-      <c r="B6" s="60"/>
-      <c r="C6" s="37" t="s">
+      <c r="D10" s="39"/>
+      <c r="E10" s="40"/>
+    </row>
+    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A11" s="60"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="38" t="s">
         <v>148</v>
       </c>
-      <c r="D6" s="38"/>
-      <c r="E6" s="39"/>
-    </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="16"/>
-      <c r="B7" s="60"/>
-      <c r="C7" s="37" t="s">
+      <c r="D11" s="39"/>
+      <c r="E11" s="40"/>
+    </row>
+    <row r="12" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="60"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="38" t="s">
         <v>149</v>
       </c>
-      <c r="D7" s="38"/>
-      <c r="E7" s="39"/>
-    </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="16"/>
-      <c r="B8" s="60"/>
-      <c r="C8" s="37" t="s">
-        <v>150</v>
-      </c>
-      <c r="D8" s="38"/>
-      <c r="E8" s="39"/>
-    </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="16" t="s">
-        <v>167</v>
-      </c>
-      <c r="B9" s="60"/>
-      <c r="C9" s="37" t="s">
-        <v>151</v>
-      </c>
-      <c r="D9" s="38"/>
-      <c r="E9" s="39"/>
-    </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="16"/>
-      <c r="B10" s="60"/>
-      <c r="C10" s="37" t="s">
-        <v>152</v>
-      </c>
-      <c r="D10" s="38"/>
-      <c r="E10" s="39"/>
-    </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="16"/>
-      <c r="B11" s="60"/>
-      <c r="C11" s="37" t="s">
-        <v>153</v>
-      </c>
-      <c r="D11" s="38"/>
-      <c r="E11" s="39"/>
-    </row>
-    <row r="12" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="16"/>
-      <c r="B12" s="60"/>
-      <c r="C12" s="37" t="s">
-        <v>154</v>
-      </c>
-      <c r="D12" s="38"/>
-      <c r="E12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="40"/>
     </row>
     <row r="13" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="C13" s="40"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="42"/>
+      <c r="A13" s="61"/>
+      <c r="B13" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="C13" s="35"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="37"/>
     </row>
     <row r="14" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="15" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="51" t="s">
+      <c r="A15" s="44" t="s">
         <v>118</v>
       </c>
-      <c r="B15" s="52"/>
-      <c r="C15" s="53" t="s">
-        <v>145</v>
-      </c>
-      <c r="D15" s="54"/>
-      <c r="E15" s="55"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="46" t="s">
+        <v>142</v>
+      </c>
+      <c r="D15" s="47"/>
+      <c r="E15" s="48"/>
       <c r="F15" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G15" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="56" t="s">
+      <c r="A16" s="49" t="s">
         <v>119</v>
       </c>
-      <c r="B16" s="57"/>
+      <c r="B16" s="50"/>
       <c r="C16" s="14"/>
       <c r="D16" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="E16" s="20" t="s">
-        <v>143</v>
+      <c r="E16" s="17" t="s">
+        <v>140</v>
       </c>
       <c r="G16" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="B17" s="50"/>
+      <c r="C17" s="51" t="s">
+        <v>139</v>
+      </c>
+      <c r="D17" s="36"/>
+      <c r="E17" s="52"/>
+      <c r="G17" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A18" s="59" t="s">
+        <v>168</v>
+      </c>
+      <c r="B18" s="53" t="s">
+        <v>123</v>
+      </c>
+      <c r="C18" s="55" t="s">
+        <v>150</v>
+      </c>
+      <c r="D18" s="56"/>
+      <c r="E18" s="57"/>
+      <c r="G18" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="60"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="41" t="s">
+        <v>151</v>
+      </c>
+      <c r="D19" s="42"/>
+      <c r="E19" s="43"/>
+    </row>
+    <row r="20" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="61"/>
+      <c r="B20" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="C20" s="35"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="37"/>
+      <c r="F20" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="56" t="s">
-        <v>122</v>
-      </c>
-      <c r="B17" s="57"/>
-      <c r="C17" s="58" t="s">
-        <v>142</v>
-      </c>
-      <c r="D17" s="41"/>
-      <c r="E17" s="59"/>
-      <c r="G17" t="s">
+      <c r="G20" t="s">
         <v>131</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A18" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="B18" s="46" t="s">
-        <v>126</v>
-      </c>
-      <c r="C18" s="48" t="s">
-        <v>155</v>
-      </c>
-      <c r="D18" s="49"/>
-      <c r="E18" s="50"/>
-      <c r="G18" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="16"/>
-      <c r="B19" s="60"/>
-      <c r="C19" s="43" t="s">
-        <v>156</v>
-      </c>
-      <c r="D19" s="44"/>
-      <c r="E19" s="45"/>
-    </row>
-    <row r="20" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="B20" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="C20" s="40"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="42"/>
-      <c r="F20" t="s">
-        <v>133</v>
-      </c>
-      <c r="G20" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="G21" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="51" t="s">
+      <c r="A22" s="44" t="s">
         <v>118</v>
       </c>
-      <c r="B22" s="52"/>
-      <c r="C22" s="53" t="s">
-        <v>157</v>
-      </c>
-      <c r="D22" s="54"/>
-      <c r="E22" s="55"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="46" t="s">
+        <v>152</v>
+      </c>
+      <c r="D22" s="47"/>
+      <c r="E22" s="48"/>
       <c r="G22" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="56" t="s">
+      <c r="A23" s="49" t="s">
         <v>119</v>
       </c>
-      <c r="B23" s="57"/>
+      <c r="B23" s="50"/>
       <c r="C23" s="14" t="s">
         <v>120</v>
       </c>
       <c r="D23" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="E23" s="20" t="s">
-        <v>141</v>
+      <c r="E23" s="17" t="s">
+        <v>138</v>
       </c>
       <c r="G23" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="56" t="s">
+      <c r="A24" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="B24" s="57"/>
-      <c r="C24" s="58" t="s">
-        <v>158</v>
-      </c>
-      <c r="D24" s="41"/>
-      <c r="E24" s="59"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="51" t="s">
+        <v>153</v>
+      </c>
+      <c r="D24" s="36"/>
+      <c r="E24" s="52"/>
       <c r="G24" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A25" s="17" t="s">
+      <c r="A25" s="59" t="s">
+        <v>168</v>
+      </c>
+      <c r="B25" s="53" t="s">
         <v>123</v>
       </c>
-      <c r="B25" s="46" t="s">
-        <v>126</v>
-      </c>
-      <c r="C25" s="48" t="s">
-        <v>169</v>
-      </c>
-      <c r="D25" s="49"/>
-      <c r="E25" s="50"/>
+      <c r="C25" s="55" t="s">
+        <v>159</v>
+      </c>
+      <c r="D25" s="56"/>
+      <c r="E25" s="57"/>
       <c r="G25" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A26" s="16"/>
-      <c r="B26" s="60"/>
-      <c r="C26" s="37" t="s">
-        <v>170</v>
-      </c>
-      <c r="D26" s="38"/>
-      <c r="E26" s="39"/>
+      <c r="A26" s="60"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="38" t="s">
+        <v>160</v>
+      </c>
+      <c r="D26" s="39"/>
+      <c r="E26" s="40"/>
     </row>
     <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A27" s="16"/>
-      <c r="B27" s="60"/>
-      <c r="C27" s="37" t="s">
-        <v>171</v>
-      </c>
-      <c r="D27" s="38"/>
-      <c r="E27" s="39"/>
+      <c r="A27" s="60"/>
+      <c r="B27" s="58"/>
+      <c r="C27" s="38" t="s">
+        <v>161</v>
+      </c>
+      <c r="D27" s="39"/>
+      <c r="E27" s="40"/>
     </row>
     <row r="28" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="B28" s="47"/>
-      <c r="C28" s="43" t="s">
-        <v>172</v>
-      </c>
-      <c r="D28" s="44"/>
-      <c r="E28" s="45"/>
+      <c r="A28" s="60"/>
+      <c r="B28" s="54"/>
+      <c r="C28" s="41" t="s">
+        <v>162</v>
+      </c>
+      <c r="D28" s="42"/>
+      <c r="E28" s="43"/>
       <c r="G28" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="18" t="s">
-        <v>166</v>
-      </c>
-      <c r="B29" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="C29" s="40"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="42"/>
+      <c r="A29" s="61"/>
+      <c r="B29" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="C29" s="35"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="37"/>
     </row>
     <row r="30" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="31" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="51" t="s">
+      <c r="A31" s="44" t="s">
         <v>118</v>
       </c>
-      <c r="B31" s="52"/>
-      <c r="C31" s="53"/>
-      <c r="D31" s="54"/>
-      <c r="E31" s="55"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="46" t="s">
+        <v>170</v>
+      </c>
+      <c r="D31" s="47"/>
+      <c r="E31" s="48"/>
     </row>
     <row r="32" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="56" t="s">
+      <c r="A32" s="49" t="s">
         <v>119</v>
       </c>
-      <c r="B32" s="57"/>
+      <c r="B32" s="50"/>
       <c r="C32" s="14" t="s">
         <v>120</v>
       </c>
       <c r="D32" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="E32" s="20" t="s">
-        <v>160</v>
+      <c r="E32" s="17" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="56" t="s">
+      <c r="A33" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="B33" s="57"/>
-      <c r="C33" s="58" t="s">
-        <v>159</v>
-      </c>
-      <c r="D33" s="41"/>
-      <c r="E33" s="59"/>
+      <c r="B33" s="50"/>
+      <c r="C33" s="51" t="s">
+        <v>154</v>
+      </c>
+      <c r="D33" s="36"/>
+      <c r="E33" s="52"/>
     </row>
     <row r="34" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A34" s="17" t="s">
-        <v>168</v>
-      </c>
-      <c r="B34" s="46" t="s">
-        <v>126</v>
-      </c>
-      <c r="C34" s="48" t="s">
-        <v>173</v>
-      </c>
-      <c r="D34" s="49"/>
-      <c r="E34" s="50"/>
+      <c r="A34" s="59" t="s">
+        <v>169</v>
+      </c>
+      <c r="B34" s="53" t="s">
+        <v>123</v>
+      </c>
+      <c r="C34" s="55" t="s">
+        <v>163</v>
+      </c>
+      <c r="D34" s="56"/>
+      <c r="E34" s="57"/>
     </row>
     <row r="35" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A35" s="16"/>
-      <c r="B35" s="60"/>
-      <c r="C35" s="37" t="s">
-        <v>174</v>
-      </c>
-      <c r="D35" s="38"/>
-      <c r="E35" s="39"/>
+      <c r="A35" s="60"/>
+      <c r="B35" s="58"/>
+      <c r="C35" s="38" t="s">
+        <v>164</v>
+      </c>
+      <c r="D35" s="39"/>
+      <c r="E35" s="40"/>
     </row>
     <row r="36" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A36" s="16" t="s">
-        <v>167</v>
-      </c>
-      <c r="B36" s="60"/>
-      <c r="C36" s="37" t="s">
-        <v>175</v>
-      </c>
-      <c r="D36" s="38"/>
-      <c r="E36" s="39"/>
+      <c r="A36" s="60"/>
+      <c r="B36" s="58"/>
+      <c r="C36" s="38" t="s">
+        <v>165</v>
+      </c>
+      <c r="D36" s="39"/>
+      <c r="E36" s="40"/>
     </row>
     <row r="37" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="16"/>
-      <c r="B37" s="60"/>
-      <c r="C37" s="37" t="s">
-        <v>176</v>
-      </c>
-      <c r="D37" s="38"/>
-      <c r="E37" s="39"/>
+      <c r="A37" s="60"/>
+      <c r="B37" s="58"/>
+      <c r="C37" s="38" t="s">
+        <v>166</v>
+      </c>
+      <c r="D37" s="39"/>
+      <c r="E37" s="40"/>
     </row>
     <row r="38" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="B38" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="C38" s="40"/>
-      <c r="D38" s="41"/>
-      <c r="E38" s="42"/>
+      <c r="A38" s="61"/>
+      <c r="B38" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="C38" s="35"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="37"/>
     </row>
     <row r="39" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="40" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="51" t="s">
+      <c r="A40" s="44" t="s">
         <v>118</v>
       </c>
-      <c r="B40" s="52"/>
-      <c r="C40" s="53"/>
-      <c r="D40" s="54"/>
-      <c r="E40" s="55"/>
+      <c r="B40" s="45"/>
+      <c r="C40" s="46" t="s">
+        <v>171</v>
+      </c>
+      <c r="D40" s="47"/>
+      <c r="E40" s="48"/>
     </row>
     <row r="41" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="56" t="s">
+      <c r="A41" s="49" t="s">
         <v>119</v>
       </c>
-      <c r="B41" s="57"/>
+      <c r="B41" s="50"/>
       <c r="C41" s="14" t="s">
         <v>120</v>
       </c>
       <c r="D41" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="E41" s="20" t="s">
-        <v>161</v>
+      <c r="E41" s="17" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="56" t="s">
+      <c r="A42" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="B42" s="57"/>
-      <c r="C42" s="58"/>
-      <c r="D42" s="41"/>
-      <c r="E42" s="59"/>
+      <c r="B42" s="50"/>
+      <c r="C42" s="51"/>
+      <c r="D42" s="36"/>
+      <c r="E42" s="52"/>
     </row>
     <row r="43" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A43" s="17" t="s">
+      <c r="A43" s="59" t="s">
+        <v>168</v>
+      </c>
+      <c r="B43" s="53" t="s">
         <v>123</v>
       </c>
-      <c r="B43" s="46" t="s">
-        <v>126</v>
-      </c>
-      <c r="C43" s="48"/>
-      <c r="D43" s="49"/>
-      <c r="E43" s="50"/>
-    </row>
-    <row r="44" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="16" t="s">
+      <c r="C43" s="55" t="s">
+        <v>175</v>
+      </c>
+      <c r="D43" s="56"/>
+      <c r="E43" s="57"/>
+    </row>
+    <row r="44" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A44" s="60"/>
+      <c r="B44" s="58"/>
+      <c r="C44" s="38" t="s">
+        <v>174</v>
+      </c>
+      <c r="D44" s="39"/>
+      <c r="E44" s="40"/>
+    </row>
+    <row r="45" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A45" s="60"/>
+      <c r="B45" s="58"/>
+      <c r="C45" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="D45" s="39"/>
+      <c r="E45" s="40"/>
+    </row>
+    <row r="46" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A46" s="60"/>
+      <c r="B46" s="58"/>
+      <c r="C46" s="38" t="s">
+        <v>177</v>
+      </c>
+      <c r="D46" s="39"/>
+      <c r="E46" s="40"/>
+    </row>
+    <row r="47" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A47" s="60"/>
+      <c r="B47" s="58"/>
+      <c r="C47" s="38" t="s">
+        <v>178</v>
+      </c>
+      <c r="D47" s="39"/>
+      <c r="E47" s="40"/>
+    </row>
+    <row r="48" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A48" s="60"/>
+      <c r="B48" s="58"/>
+      <c r="C48" s="38" t="s">
+        <v>179</v>
+      </c>
+      <c r="D48" s="39"/>
+      <c r="E48" s="40"/>
+    </row>
+    <row r="49" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A49" s="60"/>
+      <c r="B49" s="58"/>
+      <c r="C49" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="D49" s="39"/>
+      <c r="E49" s="40"/>
+    </row>
+    <row r="50" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A50" s="60"/>
+      <c r="B50" s="58"/>
+      <c r="C50" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="D50" s="39"/>
+      <c r="E50" s="40"/>
+    </row>
+    <row r="51" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A51" s="60"/>
+      <c r="B51" s="58"/>
+      <c r="C51" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="D51" s="39"/>
+      <c r="E51" s="40"/>
+    </row>
+    <row r="52" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A52" s="60"/>
+      <c r="B52" s="58"/>
+      <c r="C52" s="38"/>
+      <c r="D52" s="39"/>
+      <c r="E52" s="40"/>
+    </row>
+    <row r="53" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A53" s="60"/>
+      <c r="B53" s="58"/>
+      <c r="C53" s="38"/>
+      <c r="D53" s="39"/>
+      <c r="E53" s="40"/>
+    </row>
+    <row r="54" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A54" s="60"/>
+      <c r="B54" s="58"/>
+      <c r="C54" s="38"/>
+      <c r="D54" s="39"/>
+      <c r="E54" s="40"/>
+    </row>
+    <row r="55" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="60"/>
+      <c r="B55" s="54"/>
+      <c r="C55" s="41"/>
+      <c r="D55" s="42"/>
+      <c r="E55" s="43"/>
+    </row>
+    <row r="56" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="61"/>
+      <c r="B56" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="B44" s="47"/>
-      <c r="C44" s="43"/>
-      <c r="D44" s="44"/>
-      <c r="E44" s="45"/>
-    </row>
-    <row r="45" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="B45" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="C45" s="40"/>
-      <c r="D45" s="41"/>
-      <c r="E45" s="42"/>
-    </row>
-    <row r="46" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="51" t="s">
+      <c r="C56" s="35"/>
+      <c r="D56" s="36"/>
+      <c r="E56" s="37"/>
+    </row>
+    <row r="57" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="58" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="44" t="s">
         <v>118</v>
       </c>
-      <c r="B47" s="52"/>
-      <c r="C47" s="53"/>
-      <c r="D47" s="54"/>
-      <c r="E47" s="55"/>
-    </row>
-    <row r="48" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="56" t="s">
+      <c r="B58" s="45"/>
+      <c r="C58" s="46" t="s">
+        <v>171</v>
+      </c>
+      <c r="D58" s="47"/>
+      <c r="E58" s="48"/>
+    </row>
+    <row r="59" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="49" t="s">
         <v>119</v>
       </c>
-      <c r="B48" s="57"/>
-      <c r="C48" s="14" t="s">
+      <c r="B59" s="50"/>
+      <c r="C59" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="D48" s="15" t="s">
+      <c r="D59" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="E48" s="20" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="56" t="s">
+      <c r="E59" s="17" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="B49" s="57"/>
-      <c r="C49" s="58"/>
-      <c r="D49" s="41"/>
-      <c r="E49" s="59"/>
-    </row>
-    <row r="50" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A50" s="17" t="s">
+      <c r="B60" s="50"/>
+      <c r="C60" s="51"/>
+      <c r="D60" s="36"/>
+      <c r="E60" s="52"/>
+    </row>
+    <row r="61" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A61" s="59" t="s">
+        <v>168</v>
+      </c>
+      <c r="B61" s="53" t="s">
         <v>123</v>
       </c>
-      <c r="B50" s="46" t="s">
-        <v>126</v>
-      </c>
-      <c r="C50" s="48"/>
-      <c r="D50" s="49"/>
-      <c r="E50" s="50"/>
-    </row>
-    <row r="51" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="16" t="s">
+      <c r="C61" s="55"/>
+      <c r="D61" s="56"/>
+      <c r="E61" s="57"/>
+    </row>
+    <row r="62" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A62" s="60"/>
+      <c r="B62" s="58"/>
+      <c r="C62" s="38"/>
+      <c r="D62" s="39"/>
+      <c r="E62" s="40"/>
+    </row>
+    <row r="63" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A63" s="60"/>
+      <c r="B63" s="58"/>
+      <c r="C63" s="38"/>
+      <c r="D63" s="39"/>
+      <c r="E63" s="40"/>
+    </row>
+    <row r="64" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A64" s="60"/>
+      <c r="B64" s="58"/>
+      <c r="C64" s="38"/>
+      <c r="D64" s="39"/>
+      <c r="E64" s="40"/>
+    </row>
+    <row r="65" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A65" s="60"/>
+      <c r="B65" s="58"/>
+      <c r="C65" s="38"/>
+      <c r="D65" s="39"/>
+      <c r="E65" s="40"/>
+    </row>
+    <row r="66" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A66" s="60"/>
+      <c r="B66" s="58"/>
+      <c r="C66" s="38"/>
+      <c r="D66" s="39"/>
+      <c r="E66" s="40"/>
+    </row>
+    <row r="67" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A67" s="60"/>
+      <c r="B67" s="58"/>
+      <c r="C67" s="38"/>
+      <c r="D67" s="39"/>
+      <c r="E67" s="40"/>
+    </row>
+    <row r="68" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A68" s="60"/>
+      <c r="B68" s="58"/>
+      <c r="C68" s="38"/>
+      <c r="D68" s="39"/>
+      <c r="E68" s="40"/>
+    </row>
+    <row r="69" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A69" s="60"/>
+      <c r="B69" s="58"/>
+      <c r="C69" s="38"/>
+      <c r="D69" s="39"/>
+      <c r="E69" s="40"/>
+    </row>
+    <row r="70" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A70" s="60"/>
+      <c r="B70" s="58"/>
+      <c r="C70" s="38"/>
+      <c r="D70" s="39"/>
+      <c r="E70" s="40"/>
+    </row>
+    <row r="71" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A71" s="60"/>
+      <c r="B71" s="58"/>
+      <c r="C71" s="38"/>
+      <c r="D71" s="39"/>
+      <c r="E71" s="40"/>
+    </row>
+    <row r="72" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A72" s="60"/>
+      <c r="B72" s="58"/>
+      <c r="C72" s="38"/>
+      <c r="D72" s="39"/>
+      <c r="E72" s="40"/>
+    </row>
+    <row r="73" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A73" s="60"/>
+      <c r="B73" s="58"/>
+      <c r="C73" s="38"/>
+      <c r="D73" s="39"/>
+      <c r="E73" s="40"/>
+    </row>
+    <row r="74" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A74" s="60"/>
+      <c r="B74" s="58"/>
+      <c r="C74" s="38"/>
+      <c r="D74" s="39"/>
+      <c r="E74" s="40"/>
+    </row>
+    <row r="75" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A75" s="60"/>
+      <c r="B75" s="58"/>
+      <c r="C75" s="38"/>
+      <c r="D75" s="39"/>
+      <c r="E75" s="40"/>
+    </row>
+    <row r="76" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A76" s="60"/>
+      <c r="B76" s="58"/>
+      <c r="C76" s="38"/>
+      <c r="D76" s="39"/>
+      <c r="E76" s="40"/>
+    </row>
+    <row r="77" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A77" s="60"/>
+      <c r="B77" s="58"/>
+      <c r="C77" s="38"/>
+      <c r="D77" s="39"/>
+      <c r="E77" s="40"/>
+    </row>
+    <row r="78" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A78" s="60"/>
+      <c r="B78" s="58"/>
+      <c r="C78" s="38"/>
+      <c r="D78" s="39"/>
+      <c r="E78" s="40"/>
+    </row>
+    <row r="79" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="60"/>
+      <c r="B79" s="54"/>
+      <c r="C79" s="41"/>
+      <c r="D79" s="42"/>
+      <c r="E79" s="43"/>
+    </row>
+    <row r="80" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="61"/>
+      <c r="B80" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="B51" s="47"/>
-      <c r="C51" s="43"/>
-      <c r="D51" s="44"/>
-      <c r="E51" s="45"/>
-    </row>
-    <row r="52" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="B52" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="C52" s="40"/>
-      <c r="D52" s="41"/>
-      <c r="E52" s="42"/>
-    </row>
-    <row r="53" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="54" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="51" t="s">
-        <v>118</v>
-      </c>
-      <c r="B54" s="52"/>
-      <c r="C54" s="53"/>
-      <c r="D54" s="54"/>
-      <c r="E54" s="55"/>
-    </row>
-    <row r="55" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="56" t="s">
-        <v>119</v>
-      </c>
-      <c r="B55" s="57"/>
-      <c r="C55" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="D55" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="E55" s="20" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="56" t="s">
-        <v>122</v>
-      </c>
-      <c r="B56" s="57"/>
-      <c r="C56" s="58"/>
-      <c r="D56" s="41"/>
-      <c r="E56" s="59"/>
-    </row>
-    <row r="57" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A57" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="B57" s="46" t="s">
-        <v>126</v>
-      </c>
-      <c r="C57" s="48"/>
-      <c r="D57" s="49"/>
-      <c r="E57" s="50"/>
-    </row>
-    <row r="58" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="B58" s="47"/>
-      <c r="C58" s="43"/>
-      <c r="D58" s="44"/>
-      <c r="E58" s="45"/>
-    </row>
-    <row r="59" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="B59" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="C59" s="40"/>
-      <c r="D59" s="41"/>
-      <c r="E59" s="42"/>
-    </row>
-    <row r="60" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="61" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="51" t="s">
-        <v>118</v>
-      </c>
-      <c r="B61" s="52"/>
-      <c r="C61" s="53"/>
-      <c r="D61" s="54"/>
-      <c r="E61" s="55"/>
-    </row>
-    <row r="62" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="56" t="s">
-        <v>119</v>
-      </c>
-      <c r="B62" s="57"/>
-      <c r="C62" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="D62" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="E62" s="20" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="56" t="s">
-        <v>122</v>
-      </c>
-      <c r="B63" s="57"/>
-      <c r="C63" s="58"/>
-      <c r="D63" s="41"/>
-      <c r="E63" s="59"/>
-    </row>
-    <row r="64" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A64" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="B64" s="46" t="s">
-        <v>126</v>
-      </c>
-      <c r="C64" s="48"/>
-      <c r="D64" s="49"/>
-      <c r="E64" s="50"/>
-    </row>
-    <row r="65" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="B65" s="47"/>
-      <c r="C65" s="43"/>
-      <c r="D65" s="44"/>
-      <c r="E65" s="45"/>
-    </row>
-    <row r="66" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="B66" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="C66" s="40"/>
-      <c r="D66" s="41"/>
-      <c r="E66" s="42"/>
-    </row>
-    <row r="67" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="68" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="51" t="s">
-        <v>118</v>
-      </c>
-      <c r="B68" s="52"/>
-      <c r="C68" s="53"/>
-      <c r="D68" s="54"/>
-      <c r="E68" s="55"/>
-    </row>
-    <row r="69" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="56" t="s">
-        <v>119</v>
-      </c>
-      <c r="B69" s="57"/>
-      <c r="C69" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="D69" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="E69" s="20"/>
-    </row>
-    <row r="70" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="56" t="s">
-        <v>122</v>
-      </c>
-      <c r="B70" s="57"/>
-      <c r="C70" s="58"/>
-      <c r="D70" s="41"/>
-      <c r="E70" s="59"/>
-    </row>
-    <row r="71" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A71" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="B71" s="46" t="s">
-        <v>126</v>
-      </c>
-      <c r="C71" s="48"/>
-      <c r="D71" s="49"/>
-      <c r="E71" s="50"/>
-    </row>
-    <row r="72" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="B72" s="47"/>
-      <c r="C72" s="43"/>
-      <c r="D72" s="44"/>
-      <c r="E72" s="45"/>
-    </row>
-    <row r="73" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="B73" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="C73" s="40"/>
-      <c r="D73" s="41"/>
-      <c r="E73" s="42"/>
-    </row>
-    <row r="74" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="75" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="51" t="s">
-        <v>118</v>
-      </c>
-      <c r="B75" s="52"/>
-      <c r="C75" s="53"/>
-      <c r="D75" s="54"/>
-      <c r="E75" s="55"/>
-    </row>
-    <row r="76" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="56" t="s">
-        <v>119</v>
-      </c>
-      <c r="B76" s="57"/>
-      <c r="C76" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="D76" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="E76" s="20"/>
-    </row>
-    <row r="77" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="56" t="s">
-        <v>122</v>
-      </c>
-      <c r="B77" s="57"/>
-      <c r="C77" s="58"/>
-      <c r="D77" s="41"/>
-      <c r="E77" s="59"/>
-    </row>
-    <row r="78" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A78" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="B78" s="46" t="s">
-        <v>126</v>
-      </c>
-      <c r="C78" s="48"/>
-      <c r="D78" s="49"/>
-      <c r="E78" s="50"/>
-    </row>
-    <row r="79" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="B79" s="47"/>
-      <c r="C79" s="43"/>
-      <c r="D79" s="44"/>
-      <c r="E79" s="45"/>
-    </row>
-    <row r="80" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="B80" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="C80" s="40"/>
-      <c r="D80" s="41"/>
-      <c r="E80" s="42"/>
+      <c r="C80" s="35"/>
+      <c r="D80" s="36"/>
+      <c r="E80" s="37"/>
     </row>
     <row r="81" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="82" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="51" t="s">
+      <c r="A82" s="44" t="s">
         <v>118</v>
       </c>
-      <c r="B82" s="52"/>
-      <c r="C82" s="53"/>
-      <c r="D82" s="54"/>
-      <c r="E82" s="55"/>
+      <c r="B82" s="45"/>
+      <c r="C82" s="46" t="s">
+        <v>171</v>
+      </c>
+      <c r="D82" s="47"/>
+      <c r="E82" s="48"/>
     </row>
     <row r="83" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="56" t="s">
+      <c r="A83" s="49" t="s">
         <v>119</v>
       </c>
-      <c r="B83" s="57"/>
+      <c r="B83" s="50"/>
       <c r="C83" s="14" t="s">
         <v>120</v>
       </c>
       <c r="D83" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="E83" s="20"/>
+      <c r="E83" s="19" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="84" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="56" t="s">
+      <c r="A84" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="B84" s="57"/>
-      <c r="C84" s="58"/>
-      <c r="D84" s="41"/>
-      <c r="E84" s="59"/>
+      <c r="B84" s="50"/>
+      <c r="C84" s="51"/>
+      <c r="D84" s="36"/>
+      <c r="E84" s="52"/>
     </row>
     <row r="85" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A85" s="17" t="s">
+      <c r="A85" s="59" t="s">
+        <v>168</v>
+      </c>
+      <c r="B85" s="53" t="s">
         <v>123</v>
       </c>
-      <c r="B85" s="46" t="s">
-        <v>126</v>
-      </c>
-      <c r="C85" s="48"/>
-      <c r="D85" s="49"/>
-      <c r="E85" s="50"/>
-    </row>
-    <row r="86" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="16" t="s">
+      <c r="C85" s="55"/>
+      <c r="D85" s="56"/>
+      <c r="E85" s="57"/>
+    </row>
+    <row r="86" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A86" s="60"/>
+      <c r="B86" s="58"/>
+      <c r="C86" s="38"/>
+      <c r="D86" s="39"/>
+      <c r="E86" s="40"/>
+    </row>
+    <row r="87" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A87" s="60"/>
+      <c r="B87" s="58"/>
+      <c r="C87" s="38"/>
+      <c r="D87" s="39"/>
+      <c r="E87" s="40"/>
+    </row>
+    <row r="88" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A88" s="60"/>
+      <c r="B88" s="58"/>
+      <c r="C88" s="38"/>
+      <c r="D88" s="39"/>
+      <c r="E88" s="40"/>
+    </row>
+    <row r="89" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A89" s="60"/>
+      <c r="B89" s="58"/>
+      <c r="C89" s="38"/>
+      <c r="D89" s="39"/>
+      <c r="E89" s="40"/>
+    </row>
+    <row r="90" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A90" s="60"/>
+      <c r="B90" s="58"/>
+      <c r="C90" s="38"/>
+      <c r="D90" s="39"/>
+      <c r="E90" s="40"/>
+    </row>
+    <row r="91" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A91" s="60"/>
+      <c r="B91" s="58"/>
+      <c r="C91" s="38"/>
+      <c r="D91" s="39"/>
+      <c r="E91" s="40"/>
+    </row>
+    <row r="92" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A92" s="60"/>
+      <c r="B92" s="58"/>
+      <c r="C92" s="38"/>
+      <c r="D92" s="39"/>
+      <c r="E92" s="40"/>
+    </row>
+    <row r="93" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A93" s="60"/>
+      <c r="B93" s="58"/>
+      <c r="C93" s="38"/>
+      <c r="D93" s="39"/>
+      <c r="E93" s="40"/>
+    </row>
+    <row r="94" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A94" s="60"/>
+      <c r="B94" s="58"/>
+      <c r="C94" s="38"/>
+      <c r="D94" s="39"/>
+      <c r="E94" s="40"/>
+    </row>
+    <row r="95" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A95" s="60"/>
+      <c r="B95" s="58"/>
+      <c r="C95" s="38"/>
+      <c r="D95" s="39"/>
+      <c r="E95" s="40"/>
+    </row>
+    <row r="96" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A96" s="60"/>
+      <c r="B96" s="58"/>
+      <c r="C96" s="38"/>
+      <c r="D96" s="39"/>
+      <c r="E96" s="40"/>
+    </row>
+    <row r="97" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A97" s="60"/>
+      <c r="B97" s="58"/>
+      <c r="C97" s="38"/>
+      <c r="D97" s="39"/>
+      <c r="E97" s="40"/>
+    </row>
+    <row r="98" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A98" s="60"/>
+      <c r="B98" s="58"/>
+      <c r="C98" s="38"/>
+      <c r="D98" s="39"/>
+      <c r="E98" s="40"/>
+    </row>
+    <row r="99" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A99" s="60"/>
+      <c r="B99" s="58"/>
+      <c r="C99" s="38"/>
+      <c r="D99" s="39"/>
+      <c r="E99" s="40"/>
+    </row>
+    <row r="100" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A100" s="60"/>
+      <c r="B100" s="58"/>
+      <c r="C100" s="38"/>
+      <c r="D100" s="39"/>
+      <c r="E100" s="40"/>
+    </row>
+    <row r="101" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A101" s="60"/>
+      <c r="B101" s="58"/>
+      <c r="C101" s="38"/>
+      <c r="D101" s="39"/>
+      <c r="E101" s="40"/>
+    </row>
+    <row r="102" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A102" s="60"/>
+      <c r="B102" s="58"/>
+      <c r="C102" s="38"/>
+      <c r="D102" s="39"/>
+      <c r="E102" s="40"/>
+    </row>
+    <row r="103" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="60"/>
+      <c r="B103" s="54"/>
+      <c r="C103" s="41"/>
+      <c r="D103" s="42"/>
+      <c r="E103" s="43"/>
+    </row>
+    <row r="104" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="61"/>
+      <c r="B104" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="B86" s="47"/>
-      <c r="C86" s="43"/>
-      <c r="D86" s="44"/>
-      <c r="E86" s="45"/>
-    </row>
-    <row r="87" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="B87" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="C87" s="40"/>
-      <c r="D87" s="41"/>
-      <c r="E87" s="42"/>
-    </row>
-    <row r="88" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="89" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="51" t="s">
+      <c r="C104" s="35"/>
+      <c r="D104" s="36"/>
+      <c r="E104" s="37"/>
+    </row>
+    <row r="105" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="106" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="44" t="s">
         <v>118</v>
       </c>
-      <c r="B89" s="52"/>
-      <c r="C89" s="53"/>
-      <c r="D89" s="54"/>
-      <c r="E89" s="55"/>
-    </row>
-    <row r="90" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="56" t="s">
+      <c r="B106" s="45"/>
+      <c r="C106" s="46" t="s">
+        <v>171</v>
+      </c>
+      <c r="D106" s="47"/>
+      <c r="E106" s="48"/>
+    </row>
+    <row r="107" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="49" t="s">
         <v>119</v>
       </c>
-      <c r="B90" s="57"/>
-      <c r="C90" s="14" t="s">
+      <c r="B107" s="50"/>
+      <c r="C107" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="D90" s="15" t="s">
+      <c r="D107" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="E90" s="20"/>
-    </row>
-    <row r="91" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="56" t="s">
+      <c r="E107" s="19" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="B91" s="57"/>
-      <c r="C91" s="58"/>
-      <c r="D91" s="41"/>
-      <c r="E91" s="59"/>
-    </row>
-    <row r="92" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A92" s="17" t="s">
+      <c r="B108" s="50"/>
+      <c r="C108" s="51"/>
+      <c r="D108" s="36"/>
+      <c r="E108" s="52"/>
+    </row>
+    <row r="109" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A109" s="59" t="s">
+        <v>168</v>
+      </c>
+      <c r="B109" s="53" t="s">
         <v>123</v>
       </c>
-      <c r="B92" s="46" t="s">
-        <v>126</v>
-      </c>
-      <c r="C92" s="48"/>
-      <c r="D92" s="49"/>
-      <c r="E92" s="50"/>
-    </row>
-    <row r="93" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="16" t="s">
+      <c r="C109" s="55"/>
+      <c r="D109" s="56"/>
+      <c r="E109" s="57"/>
+    </row>
+    <row r="110" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A110" s="60"/>
+      <c r="B110" s="58"/>
+      <c r="C110" s="38"/>
+      <c r="D110" s="39"/>
+      <c r="E110" s="40"/>
+    </row>
+    <row r="111" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A111" s="60"/>
+      <c r="B111" s="58"/>
+      <c r="C111" s="38"/>
+      <c r="D111" s="39"/>
+      <c r="E111" s="40"/>
+    </row>
+    <row r="112" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A112" s="60"/>
+      <c r="B112" s="58"/>
+      <c r="C112" s="38"/>
+      <c r="D112" s="39"/>
+      <c r="E112" s="40"/>
+    </row>
+    <row r="113" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A113" s="60"/>
+      <c r="B113" s="58"/>
+      <c r="C113" s="38"/>
+      <c r="D113" s="39"/>
+      <c r="E113" s="40"/>
+    </row>
+    <row r="114" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A114" s="60"/>
+      <c r="B114" s="58"/>
+      <c r="C114" s="38"/>
+      <c r="D114" s="39"/>
+      <c r="E114" s="40"/>
+    </row>
+    <row r="115" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A115" s="60"/>
+      <c r="B115" s="58"/>
+      <c r="C115" s="38"/>
+      <c r="D115" s="39"/>
+      <c r="E115" s="40"/>
+    </row>
+    <row r="116" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A116" s="60"/>
+      <c r="B116" s="58"/>
+      <c r="C116" s="38"/>
+      <c r="D116" s="39"/>
+      <c r="E116" s="40"/>
+    </row>
+    <row r="117" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A117" s="60"/>
+      <c r="B117" s="58"/>
+      <c r="C117" s="38"/>
+      <c r="D117" s="39"/>
+      <c r="E117" s="40"/>
+    </row>
+    <row r="118" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A118" s="60"/>
+      <c r="B118" s="58"/>
+      <c r="C118" s="38"/>
+      <c r="D118" s="39"/>
+      <c r="E118" s="40"/>
+    </row>
+    <row r="119" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A119" s="60"/>
+      <c r="B119" s="58"/>
+      <c r="C119" s="38"/>
+      <c r="D119" s="39"/>
+      <c r="E119" s="40"/>
+    </row>
+    <row r="120" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A120" s="60"/>
+      <c r="B120" s="58"/>
+      <c r="C120" s="38"/>
+      <c r="D120" s="39"/>
+      <c r="E120" s="40"/>
+    </row>
+    <row r="121" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A121" s="60"/>
+      <c r="B121" s="58"/>
+      <c r="C121" s="38"/>
+      <c r="D121" s="39"/>
+      <c r="E121" s="40"/>
+    </row>
+    <row r="122" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A122" s="60"/>
+      <c r="B122" s="58"/>
+      <c r="C122" s="38"/>
+      <c r="D122" s="39"/>
+      <c r="E122" s="40"/>
+    </row>
+    <row r="123" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A123" s="60"/>
+      <c r="B123" s="58"/>
+      <c r="C123" s="38"/>
+      <c r="D123" s="39"/>
+      <c r="E123" s="40"/>
+    </row>
+    <row r="124" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A124" s="60"/>
+      <c r="B124" s="58"/>
+      <c r="C124" s="38"/>
+      <c r="D124" s="39"/>
+      <c r="E124" s="40"/>
+    </row>
+    <row r="125" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A125" s="60"/>
+      <c r="B125" s="58"/>
+      <c r="C125" s="38"/>
+      <c r="D125" s="39"/>
+      <c r="E125" s="40"/>
+    </row>
+    <row r="126" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A126" s="60"/>
+      <c r="B126" s="58"/>
+      <c r="C126" s="38"/>
+      <c r="D126" s="39"/>
+      <c r="E126" s="40"/>
+    </row>
+    <row r="127" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="60"/>
+      <c r="B127" s="54"/>
+      <c r="C127" s="41"/>
+      <c r="D127" s="42"/>
+      <c r="E127" s="43"/>
+    </row>
+    <row r="128" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="61"/>
+      <c r="B128" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="B93" s="47"/>
-      <c r="C93" s="43"/>
-      <c r="D93" s="44"/>
-      <c r="E93" s="45"/>
-    </row>
-    <row r="94" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="B94" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="C94" s="40"/>
-      <c r="D94" s="41"/>
-      <c r="E94" s="42"/>
-    </row>
-    <row r="95" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="96" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="51" t="s">
+      <c r="C128" s="35"/>
+      <c r="D128" s="36"/>
+      <c r="E128" s="37"/>
+    </row>
+    <row r="129" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="130" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="44" t="s">
         <v>118</v>
       </c>
-      <c r="B96" s="52"/>
-      <c r="C96" s="53"/>
-      <c r="D96" s="54"/>
-      <c r="E96" s="55"/>
-    </row>
-    <row r="97" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="56" t="s">
+      <c r="B130" s="45"/>
+      <c r="C130" s="46"/>
+      <c r="D130" s="47"/>
+      <c r="E130" s="48"/>
+    </row>
+    <row r="131" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="49" t="s">
         <v>119</v>
       </c>
-      <c r="B97" s="57"/>
-      <c r="C97" s="14" t="s">
+      <c r="B131" s="50"/>
+      <c r="C131" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="D97" s="15" t="s">
+      <c r="D131" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="E97" s="20"/>
-    </row>
-    <row r="98" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="56" t="s">
+      <c r="E131" s="19" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="B98" s="57"/>
-      <c r="C98" s="58"/>
-      <c r="D98" s="41"/>
-      <c r="E98" s="59"/>
-    </row>
-    <row r="99" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A99" s="17" t="s">
+      <c r="B132" s="50"/>
+      <c r="C132" s="51"/>
+      <c r="D132" s="36"/>
+      <c r="E132" s="52"/>
+    </row>
+    <row r="133" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A133" s="59" t="s">
+        <v>168</v>
+      </c>
+      <c r="B133" s="53" t="s">
         <v>123</v>
       </c>
-      <c r="B99" s="46" t="s">
-        <v>126</v>
-      </c>
-      <c r="C99" s="48"/>
-      <c r="D99" s="49"/>
-      <c r="E99" s="50"/>
-    </row>
-    <row r="100" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="16" t="s">
+      <c r="C133" s="55"/>
+      <c r="D133" s="56"/>
+      <c r="E133" s="57"/>
+    </row>
+    <row r="134" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A134" s="60"/>
+      <c r="B134" s="58"/>
+      <c r="C134" s="38"/>
+      <c r="D134" s="39"/>
+      <c r="E134" s="40"/>
+    </row>
+    <row r="135" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A135" s="60"/>
+      <c r="B135" s="58"/>
+      <c r="C135" s="38"/>
+      <c r="D135" s="39"/>
+      <c r="E135" s="40"/>
+    </row>
+    <row r="136" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A136" s="60"/>
+      <c r="B136" s="58"/>
+      <c r="C136" s="38"/>
+      <c r="D136" s="39"/>
+      <c r="E136" s="40"/>
+    </row>
+    <row r="137" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A137" s="60"/>
+      <c r="B137" s="58"/>
+      <c r="C137" s="38"/>
+      <c r="D137" s="39"/>
+      <c r="E137" s="40"/>
+    </row>
+    <row r="138" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A138" s="60"/>
+      <c r="B138" s="58"/>
+      <c r="C138" s="38"/>
+      <c r="D138" s="39"/>
+      <c r="E138" s="40"/>
+    </row>
+    <row r="139" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A139" s="60"/>
+      <c r="B139" s="58"/>
+      <c r="C139" s="38"/>
+      <c r="D139" s="39"/>
+      <c r="E139" s="40"/>
+    </row>
+    <row r="140" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A140" s="60"/>
+      <c r="B140" s="58"/>
+      <c r="C140" s="38"/>
+      <c r="D140" s="39"/>
+      <c r="E140" s="40"/>
+    </row>
+    <row r="141" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A141" s="60"/>
+      <c r="B141" s="58"/>
+      <c r="C141" s="38"/>
+      <c r="D141" s="39"/>
+      <c r="E141" s="40"/>
+    </row>
+    <row r="142" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A142" s="60"/>
+      <c r="B142" s="58"/>
+      <c r="C142" s="38"/>
+      <c r="D142" s="39"/>
+      <c r="E142" s="40"/>
+    </row>
+    <row r="143" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A143" s="60"/>
+      <c r="B143" s="58"/>
+      <c r="C143" s="38"/>
+      <c r="D143" s="39"/>
+      <c r="E143" s="40"/>
+    </row>
+    <row r="144" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A144" s="60"/>
+      <c r="B144" s="58"/>
+      <c r="C144" s="38"/>
+      <c r="D144" s="39"/>
+      <c r="E144" s="40"/>
+    </row>
+    <row r="145" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A145" s="60"/>
+      <c r="B145" s="58"/>
+      <c r="C145" s="38"/>
+      <c r="D145" s="39"/>
+      <c r="E145" s="40"/>
+    </row>
+    <row r="146" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A146" s="60"/>
+      <c r="B146" s="58"/>
+      <c r="C146" s="38"/>
+      <c r="D146" s="39"/>
+      <c r="E146" s="40"/>
+    </row>
+    <row r="147" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A147" s="60"/>
+      <c r="B147" s="58"/>
+      <c r="C147" s="38"/>
+      <c r="D147" s="39"/>
+      <c r="E147" s="40"/>
+    </row>
+    <row r="148" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A148" s="60"/>
+      <c r="B148" s="58"/>
+      <c r="C148" s="38"/>
+      <c r="D148" s="39"/>
+      <c r="E148" s="40"/>
+    </row>
+    <row r="149" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A149" s="60"/>
+      <c r="B149" s="58"/>
+      <c r="C149" s="38"/>
+      <c r="D149" s="39"/>
+      <c r="E149" s="40"/>
+    </row>
+    <row r="150" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A150" s="60"/>
+      <c r="B150" s="58"/>
+      <c r="C150" s="38"/>
+      <c r="D150" s="39"/>
+      <c r="E150" s="40"/>
+    </row>
+    <row r="151" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A151" s="60"/>
+      <c r="B151" s="54"/>
+      <c r="C151" s="41"/>
+      <c r="D151" s="42"/>
+      <c r="E151" s="43"/>
+    </row>
+    <row r="152" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A152" s="61"/>
+      <c r="B152" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="B100" s="47"/>
-      <c r="C100" s="43"/>
-      <c r="D100" s="44"/>
-      <c r="E100" s="45"/>
-    </row>
-    <row r="101" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="B101" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="C101" s="40"/>
-      <c r="D101" s="41"/>
-      <c r="E101" s="42"/>
-    </row>
-    <row r="102" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="103" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="51" t="s">
-        <v>118</v>
-      </c>
-      <c r="B103" s="52"/>
-      <c r="C103" s="53"/>
-      <c r="D103" s="54"/>
-      <c r="E103" s="55"/>
-    </row>
-    <row r="104" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="56" t="s">
-        <v>119</v>
-      </c>
-      <c r="B104" s="57"/>
-      <c r="C104" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="D104" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="E104" s="20"/>
-    </row>
-    <row r="105" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="56" t="s">
-        <v>122</v>
-      </c>
-      <c r="B105" s="57"/>
-      <c r="C105" s="58"/>
-      <c r="D105" s="41"/>
-      <c r="E105" s="59"/>
-    </row>
-    <row r="106" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A106" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="B106" s="46" t="s">
-        <v>126</v>
-      </c>
-      <c r="C106" s="48"/>
-      <c r="D106" s="49"/>
-      <c r="E106" s="50"/>
-    </row>
-    <row r="107" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="B107" s="47"/>
-      <c r="C107" s="43"/>
-      <c r="D107" s="44"/>
-      <c r="E107" s="45"/>
-    </row>
-    <row r="108" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="B108" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="C108" s="40"/>
-      <c r="D108" s="41"/>
-      <c r="E108" s="42"/>
-    </row>
-    <row r="109" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="110" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="51" t="s">
-        <v>118</v>
-      </c>
-      <c r="B110" s="52"/>
-      <c r="C110" s="53"/>
-      <c r="D110" s="54"/>
-      <c r="E110" s="55"/>
-    </row>
-    <row r="111" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="56" t="s">
-        <v>119</v>
-      </c>
-      <c r="B111" s="57"/>
-      <c r="C111" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="D111" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="E111" s="20"/>
-    </row>
-    <row r="112" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="56" t="s">
-        <v>122</v>
-      </c>
-      <c r="B112" s="57"/>
-      <c r="C112" s="58"/>
-      <c r="D112" s="41"/>
-      <c r="E112" s="59"/>
-    </row>
-    <row r="113" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A113" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="B113" s="46" t="s">
-        <v>126</v>
-      </c>
-      <c r="C113" s="48"/>
-      <c r="D113" s="49"/>
-      <c r="E113" s="50"/>
-    </row>
-    <row r="114" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="B114" s="47"/>
-      <c r="C114" s="43"/>
-      <c r="D114" s="44"/>
-      <c r="E114" s="45"/>
-    </row>
-    <row r="115" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="B115" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="C115" s="40"/>
-      <c r="D115" s="41"/>
-      <c r="E115" s="42"/>
-    </row>
-    <row r="116" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="117" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="51" t="s">
-        <v>118</v>
-      </c>
-      <c r="B117" s="52"/>
-      <c r="C117" s="53"/>
-      <c r="D117" s="54"/>
-      <c r="E117" s="55"/>
-    </row>
-    <row r="118" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="56" t="s">
-        <v>119</v>
-      </c>
-      <c r="B118" s="57"/>
-      <c r="C118" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="D118" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="E118" s="20"/>
-    </row>
-    <row r="119" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="56" t="s">
-        <v>122</v>
-      </c>
-      <c r="B119" s="57"/>
-      <c r="C119" s="58"/>
-      <c r="D119" s="41"/>
-      <c r="E119" s="59"/>
-    </row>
-    <row r="120" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A120" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="B120" s="46" t="s">
-        <v>126</v>
-      </c>
-      <c r="C120" s="48"/>
-      <c r="D120" s="49"/>
-      <c r="E120" s="50"/>
-    </row>
-    <row r="121" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="B121" s="47"/>
-      <c r="C121" s="43"/>
-      <c r="D121" s="44"/>
-      <c r="E121" s="45"/>
-    </row>
-    <row r="122" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="B122" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="C122" s="40"/>
-      <c r="D122" s="41"/>
-      <c r="E122" s="42"/>
-    </row>
-    <row r="123" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="124" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="51" t="s">
-        <v>118</v>
-      </c>
-      <c r="B124" s="52"/>
-      <c r="C124" s="53"/>
-      <c r="D124" s="54"/>
-      <c r="E124" s="55"/>
-    </row>
-    <row r="125" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="56" t="s">
-        <v>119</v>
-      </c>
-      <c r="B125" s="57"/>
-      <c r="C125" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="D125" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="E125" s="20"/>
-    </row>
-    <row r="126" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="56" t="s">
-        <v>122</v>
-      </c>
-      <c r="B126" s="57"/>
-      <c r="C126" s="58"/>
-      <c r="D126" s="41"/>
-      <c r="E126" s="59"/>
-    </row>
-    <row r="127" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A127" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="B127" s="46" t="s">
-        <v>126</v>
-      </c>
-      <c r="C127" s="48"/>
-      <c r="D127" s="49"/>
-      <c r="E127" s="50"/>
-    </row>
-    <row r="128" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="B128" s="47"/>
-      <c r="C128" s="43"/>
-      <c r="D128" s="44"/>
-      <c r="E128" s="45"/>
-    </row>
-    <row r="129" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="B129" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="C129" s="40"/>
-      <c r="D129" s="41"/>
-      <c r="E129" s="42"/>
-    </row>
-    <row r="130" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="131" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="51" t="s">
-        <v>118</v>
-      </c>
-      <c r="B131" s="52"/>
-      <c r="C131" s="53"/>
-      <c r="D131" s="54"/>
-      <c r="E131" s="55"/>
-    </row>
-    <row r="132" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="56" t="s">
-        <v>119</v>
-      </c>
-      <c r="B132" s="57"/>
-      <c r="C132" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="D132" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="E132" s="20"/>
-    </row>
-    <row r="133" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="56" t="s">
-        <v>122</v>
-      </c>
-      <c r="B133" s="57"/>
-      <c r="C133" s="58"/>
-      <c r="D133" s="41"/>
-      <c r="E133" s="59"/>
-    </row>
-    <row r="134" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A134" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="B134" s="46" t="s">
-        <v>126</v>
-      </c>
-      <c r="C134" s="48"/>
-      <c r="D134" s="49"/>
-      <c r="E134" s="50"/>
-    </row>
-    <row r="135" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="B135" s="47"/>
-      <c r="C135" s="43"/>
-      <c r="D135" s="44"/>
-      <c r="E135" s="45"/>
-    </row>
-    <row r="136" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="B136" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="C136" s="40"/>
-      <c r="D136" s="41"/>
-      <c r="E136" s="42"/>
-    </row>
-    <row r="137" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="138" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="51" t="s">
-        <v>118</v>
-      </c>
-      <c r="B138" s="52"/>
-      <c r="C138" s="53"/>
-      <c r="D138" s="54"/>
-      <c r="E138" s="55"/>
-    </row>
-    <row r="139" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="56" t="s">
-        <v>119</v>
-      </c>
-      <c r="B139" s="57"/>
-      <c r="C139" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="D139" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="E139" s="20"/>
-    </row>
-    <row r="140" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="56" t="s">
-        <v>122</v>
-      </c>
-      <c r="B140" s="57"/>
-      <c r="C140" s="58"/>
-      <c r="D140" s="41"/>
-      <c r="E140" s="59"/>
-    </row>
-    <row r="141" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A141" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="B141" s="46" t="s">
-        <v>126</v>
-      </c>
-      <c r="C141" s="48"/>
-      <c r="D141" s="49"/>
-      <c r="E141" s="50"/>
-    </row>
-    <row r="142" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="B142" s="47"/>
-      <c r="C142" s="43"/>
-      <c r="D142" s="44"/>
-      <c r="E142" s="45"/>
-    </row>
-    <row r="143" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="B143" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="C143" s="40"/>
-      <c r="D143" s="41"/>
-      <c r="E143" s="42"/>
+      <c r="C152" s="35"/>
+      <c r="D152" s="36"/>
+      <c r="E152" s="37"/>
     </row>
   </sheetData>
-  <mergeCells count="182">
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C13:E13"/>
+  <mergeCells count="180">
+    <mergeCell ref="A61:A80"/>
+    <mergeCell ref="A85:A104"/>
+    <mergeCell ref="A109:A128"/>
+    <mergeCell ref="A133:A152"/>
+    <mergeCell ref="C68:E68"/>
+    <mergeCell ref="C69:E69"/>
+    <mergeCell ref="C70:E70"/>
+    <mergeCell ref="C75:E75"/>
+    <mergeCell ref="C76:E76"/>
+    <mergeCell ref="C77:E77"/>
+    <mergeCell ref="C71:E71"/>
+    <mergeCell ref="C72:E72"/>
+    <mergeCell ref="C73:E73"/>
+    <mergeCell ref="C74:E74"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A2:B2"/>
@@ -3959,162 +3918,143 @@
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="B4:B12"/>
     <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="A43:A56"/>
+    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A25:A29"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A4:A13"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:E31"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="C22:E22"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="C24:E24"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="B43:B55"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="C55:E55"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="C33:E33"/>
     <mergeCell ref="B34:B37"/>
     <mergeCell ref="C34:E34"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C46:E46"/>
     <mergeCell ref="C47:E47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C48:E48"/>
     <mergeCell ref="C49:E49"/>
-    <mergeCell ref="B50:B51"/>
     <mergeCell ref="C50:E50"/>
     <mergeCell ref="C51:E51"/>
     <mergeCell ref="C52:E52"/>
-    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C53:E53"/>
     <mergeCell ref="C54:E54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="C61:E61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="C63:E63"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="C64:E64"/>
-    <mergeCell ref="C65:E65"/>
-    <mergeCell ref="C66:E66"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="C68:E68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="C70:E70"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:E71"/>
-    <mergeCell ref="C72:E72"/>
-    <mergeCell ref="C73:E73"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="C75:E75"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="C77:E77"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="C78:E78"/>
-    <mergeCell ref="C79:E79"/>
-    <mergeCell ref="C80:E80"/>
     <mergeCell ref="A82:B82"/>
     <mergeCell ref="C82:E82"/>
     <mergeCell ref="A83:B83"/>
     <mergeCell ref="A84:B84"/>
     <mergeCell ref="C84:E84"/>
-    <mergeCell ref="B85:B86"/>
     <mergeCell ref="C85:E85"/>
     <mergeCell ref="C86:E86"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:E60"/>
+    <mergeCell ref="B61:B79"/>
+    <mergeCell ref="C61:E61"/>
+    <mergeCell ref="C79:E79"/>
+    <mergeCell ref="C78:E78"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="C63:E63"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="C66:E66"/>
+    <mergeCell ref="C67:E67"/>
+    <mergeCell ref="C96:E96"/>
+    <mergeCell ref="C98:E98"/>
+    <mergeCell ref="C99:E99"/>
+    <mergeCell ref="C100:E100"/>
     <mergeCell ref="C87:E87"/>
-    <mergeCell ref="A89:B89"/>
     <mergeCell ref="C89:E89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="A91:B91"/>
     <mergeCell ref="C91:E91"/>
-    <mergeCell ref="B92:B93"/>
     <mergeCell ref="C92:E92"/>
     <mergeCell ref="C93:E93"/>
-    <mergeCell ref="C94:E94"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="C96:E96"/>
-    <mergeCell ref="A97:B97"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="C98:E98"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="C99:E99"/>
-    <mergeCell ref="C100:E100"/>
-    <mergeCell ref="C101:E101"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="C103:E103"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="A105:B105"/>
-    <mergeCell ref="C105:E105"/>
-    <mergeCell ref="B106:B107"/>
-    <mergeCell ref="C106:E106"/>
-    <mergeCell ref="C107:E107"/>
-    <mergeCell ref="C108:E108"/>
-    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="B85:B103"/>
+    <mergeCell ref="C88:E88"/>
+    <mergeCell ref="C90:E90"/>
+    <mergeCell ref="C95:E95"/>
+    <mergeCell ref="C97:E97"/>
+    <mergeCell ref="C102:E102"/>
     <mergeCell ref="C110:E110"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="A112:B112"/>
     <mergeCell ref="C112:E112"/>
-    <mergeCell ref="B113:B114"/>
     <mergeCell ref="C113:E113"/>
     <mergeCell ref="C114:E114"/>
+    <mergeCell ref="C101:E101"/>
+    <mergeCell ref="C103:E103"/>
+    <mergeCell ref="C106:E106"/>
+    <mergeCell ref="C104:E104"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="B109:B127"/>
+    <mergeCell ref="C109:E109"/>
+    <mergeCell ref="C111:E111"/>
+    <mergeCell ref="C124:E124"/>
+    <mergeCell ref="C126:E126"/>
+    <mergeCell ref="C127:E127"/>
+    <mergeCell ref="C128:E128"/>
     <mergeCell ref="C115:E115"/>
-    <mergeCell ref="A117:B117"/>
     <mergeCell ref="C117:E117"/>
-    <mergeCell ref="A118:B118"/>
-    <mergeCell ref="A119:B119"/>
     <mergeCell ref="C119:E119"/>
-    <mergeCell ref="B120:B121"/>
     <mergeCell ref="C120:E120"/>
     <mergeCell ref="C121:E121"/>
-    <mergeCell ref="C122:E122"/>
-    <mergeCell ref="A124:B124"/>
-    <mergeCell ref="C124:E124"/>
-    <mergeCell ref="A125:B125"/>
-    <mergeCell ref="A126:B126"/>
-    <mergeCell ref="C126:E126"/>
-    <mergeCell ref="B127:B128"/>
-    <mergeCell ref="C127:E127"/>
-    <mergeCell ref="C128:E128"/>
-    <mergeCell ref="C129:E129"/>
+    <mergeCell ref="C116:E116"/>
+    <mergeCell ref="C118:E118"/>
+    <mergeCell ref="C123:E123"/>
+    <mergeCell ref="C125:E125"/>
+    <mergeCell ref="C138:E138"/>
+    <mergeCell ref="C140:E140"/>
+    <mergeCell ref="C141:E141"/>
+    <mergeCell ref="C142:E142"/>
     <mergeCell ref="A131:B131"/>
-    <mergeCell ref="C131:E131"/>
     <mergeCell ref="A132:B132"/>
-    <mergeCell ref="A133:B133"/>
     <mergeCell ref="C133:E133"/>
-    <mergeCell ref="B134:B135"/>
     <mergeCell ref="C134:E134"/>
     <mergeCell ref="C135:E135"/>
-    <mergeCell ref="C136:E136"/>
-    <mergeCell ref="A138:B138"/>
-    <mergeCell ref="C138:E138"/>
-    <mergeCell ref="A139:B139"/>
-    <mergeCell ref="A140:B140"/>
-    <mergeCell ref="C140:E140"/>
-    <mergeCell ref="B141:B142"/>
-    <mergeCell ref="C141:E141"/>
-    <mergeCell ref="C142:E142"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="C130:E130"/>
+    <mergeCell ref="C132:E132"/>
+    <mergeCell ref="B133:B151"/>
+    <mergeCell ref="C137:E137"/>
+    <mergeCell ref="C139:E139"/>
+    <mergeCell ref="C144:E144"/>
+    <mergeCell ref="C152:E152"/>
     <mergeCell ref="C143:E143"/>
+    <mergeCell ref="C145:E145"/>
+    <mergeCell ref="C147:E147"/>
+    <mergeCell ref="C148:E148"/>
+    <mergeCell ref="C149:E149"/>
+    <mergeCell ref="C146:E146"/>
+    <mergeCell ref="C151:E151"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="C7:E7"/>
@@ -4130,6 +4070,13 @@
     <mergeCell ref="C26:E26"/>
     <mergeCell ref="C27:E27"/>
     <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C150:E150"/>
+    <mergeCell ref="C136:E136"/>
+    <mergeCell ref="C122:E122"/>
+    <mergeCell ref="C108:E108"/>
+    <mergeCell ref="C94:E94"/>
+    <mergeCell ref="C80:E80"/>
+    <mergeCell ref="C38:E38"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/요구사항_합본2_team2_최경열.xlsx
+++ b/doc/요구사항_합본2_team2_최경열.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SmartWeb\Bit2Final\doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7605" tabRatio="995" activeTab="1"/>
   </bookViews>
@@ -10,12 +15,12 @@
     <sheet name="요구사항정의서_최종" sheetId="43" r:id="rId1"/>
     <sheet name="회원정보" sheetId="44" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="211">
   <si>
     <t>지역별로 여행지를 제공한다</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -562,9 +567,6 @@
     <t>요구사항 ID</t>
   </si>
   <si>
-    <t>R-0-001</t>
-  </si>
-  <si>
     <t>요구사항 명</t>
   </si>
   <si>
@@ -577,39 +579,6 @@
     <t>유형</t>
   </si>
   <si>
-    <t>축제4</t>
-  </si>
-  <si>
-    <t>지역별 축제정보를 제공한다</t>
-  </si>
-  <si>
-    <t>기간별 축제정보를 제공한다</t>
-  </si>
-  <si>
-    <t>진행중인 축제정보를 제공한다</t>
-  </si>
-  <si>
-    <t>진행예정 축제정보를 제공한다</t>
-  </si>
-  <si>
-    <t>포토게시판7</t>
-  </si>
-  <si>
-    <t>관리자 및 회원만 작성,수정,삭제 가능하다</t>
-  </si>
-  <si>
-    <t>반드시 사진 1장을 포함해야한다.</t>
-  </si>
-  <si>
-    <t>관리자 및 회원은 게시글에 댓글을 작성 할 수 있다</t>
-  </si>
-  <si>
-    <t>비회원은 상세보기를 할 수 없다</t>
-  </si>
-  <si>
-    <t>게시글의 누적 조회수를 확인 가능하다</t>
-  </si>
-  <si>
     <t>지역별로 여행지를 제공</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -622,186 +591,346 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/ UX (여행지)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.지역(이름)클릭시 지역별 여행지 페이지로 이동한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.각 지역별 여행지 페이지는 여행지들을 썸네일 형태의 사진(1개)과 짧은 글(50자내외)로 제공한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.여행지인 썸네일 형태의 사진과 짧은글은 리스트 형식으로 나열된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.썸네일 클릭시 여행지 상세 페이지로 이동한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.여행지 상세페이지는 회전목마형태의 사진을 제공한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.여행 상세페이지는 여행지에 대한 설명과 상세정보(문의 및 안내, 주소, 홈페이지, 휴일 등)을 제공한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.여행지 상세페이지는 여행지의 위치를 API 지도로 제공한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/UX(여행지)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>봄,여름,가을,겨울 별로 여행지를 제공한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원들은 여행 상세페이지에 평점 및 리뷰 댓글을 작성할 수 있다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/UX(리뷰댓글)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역별 축제정보를 제공</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기간 별 축제정보를 제공</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>유형</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.계절별 여행지 상단에는 봄,여름,가을,겨울 select 창이 존재한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.클릭시 비동기 형태로 계절별 추천 여행지를 보여준다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.썸네일 형태를 클릭시 여행지 상세 페이지로 이동한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.클릭시 비동기 형태로 계절별 추천여행지를 보여준다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.평점은 ☆5개의 형태로 구성되며 클릭으로 평점을 매길 수 있으며 클릭시 ★형태로 바뀐다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.별 옆에는 숫자로 평점에 표기되며 별 한개당 1.0점 총 5.0으로 구성된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.댓글란은 평점 아래에 위치하며 회원들은 댓글을 작성,수정,삭제 할 수 있다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.댓글란은 10개 이상 초과시 비동기 형태로 페이지로 전환된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.지역별 여행지는 Select Bar 형식으로 보여진다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>요구사항 내역</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>요구사항 내역</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/UX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/UX(축제)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행 중 축제정보를 제공</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행 예정 축제정보를 제공</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.Select Bar 형식들은 지역명의 이름으로 보여진다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.지역별 축제는 Select Bar 형식으로 보여진다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.지역(이름)클릭시 지역별 축제 페이지로 이동한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.각 지역별 축제 페이지는 축제들을 썸네일 형태의 사진(1개)과 짧은 글(50자내외)로 제공한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.축제인 썸네일 형태의 사진과 짧은글은 리스트 형식으로 나열된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.썸네일 클릭시 축제 상세 페이지로 이동한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.축제 상세페이지는 회전목마형태의 사진을 제공한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.축제 상세페이지는 축제에 대한 설명과 상세정보(문의 및 안내, 주소, 홈페이지, 휴일 등)을 제공한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.축제 상세페이지는 축제의 위치를 API 지도로 제공한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.기간별 축제는 회전목마형식으로 보여진다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.회전목마형식들은 월별로 축제사진을 제공한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.축제사진 클릭시 해당 축제 페이지로 이동한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.축제 상세페이지는 회전목마형태의 사진을 제공한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.축제 상세페이지는 축제에 대한 설명과 상세정보(문의 및 안내, 주소, 홈페이지, 휴일 등)을 제공한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.축제 상세페이지는 축제의 위치를 API 지도로 제공한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.진행 중인 축제는 회전목마형식으로 보여진다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.회전목마형식들은 진행 중인 축제사진을 제공한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.진행 예정 축제는 회전목마형식으로 보여진다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.회전목마형식들은 진행 예정인 축제사진을 제공한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/UX(포토게시판)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글 작성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.포토 게시판은 화면란에 썸네일 형태로 보여진다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.각 썸네일은 상단 사진, 하단 부제목,제목 순으로 구성된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 각 썸네일은 제목 우측에 누적 조회수를 제공한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.썸네일은 화면단에 최대6개로 구성이 되며 6개 초과서 페이지 전환 처리 해야한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.썸네일에 마우스를 올릴시 사진이 축소된다(썸네일 크기는 그대로, 사진만)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.썸네일 클릭시 각 포토상세 페이지로 이동한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.중단-맵api를 제공하여 사진의 장소에 마커를 표시할 수 있다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.하단-댓글란을 제공한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.댓글은 관리자,회원만 작성할 수 있다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.비회원은 포토 상세페이지를 볼 수 없다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/UX(포토게시판)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글 수정, 삭제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.관리자 및 회원은 게시글을 수정, 삭제 할 수 있다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.관리자 및 회원은 포토 게시판을 작성 할 수 있다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.수정 및 삭제 버튼은 포토 상세 페이지란 하단에 위치한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 수정시 게시글 작성 페이지로 전환된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.삭제시 포토 상세 페이지 및 썸네일은 소멸된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8-1.상단- 포토 상세 페이지를 작성시 반드시 사진 1장이상을 포함해아한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8-2.사진은 썸네일 대표사진을 지정할 수 있다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8-3.사진 좌측, 게시글 우측으로 구성된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8-4.게시글은 200자 이하로만 작성이 가능하다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>각 지역마다 축제정보를 화면에 제공</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기간 별(월별)축제정보를 화면에 제공</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 진행 중인 축제정보만 화면에 제공</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행지 사진으로만 이루어진 포토게시판 작성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>포토 게시판의 게시글 정보를 삭제, 수정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색 태그</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>검색 태그 선택을 통한 페이지 이동</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>검색 태그</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>UI/ UX (여행지)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>3.지역(이름)클릭시 지역별 여행지 페이지로 이동한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.각 지역별 여행지 페이지는 여행지들을 썸네일 형태의 사진(1개)과 짧은 글(50자내외)로 제공한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.여행지인 썸네일 형태의 사진과 짧은글은 리스트 형식으로 나열된다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.썸네일 클릭시 여행지 상세 페이지로 이동한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>7.여행지 상세페이지는 회전목마형태의 사진을 제공한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>8.여행 상세페이지는 여행지에 대한 설명과 상세정보(문의 및 안내, 주소, 홈페이지, 휴일 등)을 제공한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>9.여행지 상세페이지는 여행지의 위치를 API 지도로 제공한다.</t>
+    <t>요구사항 내역</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.검색 태그 클릭시 페이지로 이동한다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1.여행지 페이지 여행정보 제공 상단에 여행지 연관검색어 등을 #홍길동 형태로 제공한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.검색 태그 클릭시 페이지로 이동한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI/UX(여행지)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>봄,여름,가을,겨울 별로 여행지를 제공한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원들은 여행 상세페이지에 평점 및 리뷰 댓글을 작성할 수 있다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI/UX(리뷰댓글)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>지역별 축제정보를 제공</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>기간 별 축제정보를 제공</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>유형</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.계절별 여행지 상단에는 봄,여름,가을,겨울 select 창이 존재한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.클릭시 비동기 형태로 계절별 추천 여행지를 보여준다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.썸네일 형태를 클릭시 여행지 상세 페이지로 이동한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.클릭시 비동기 형태로 계절별 추천여행지를 보여준다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.평점은 ☆5개의 형태로 구성되며 클릭으로 평점을 매길 수 있으며 클릭시 ★형태로 바뀐다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.별 옆에는 숫자로 평점에 표기되며 별 한개당 1.0점 총 5.0으로 구성된다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.댓글란은 평점 아래에 위치하며 회원들은 댓글을 작성,수정,삭제 할 수 있다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.댓글란은 10개 이상 초과시 비동기 형태로 페이지로 전환된다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.지역별 여행지는 Select Bar 형식으로 보여진다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>요구사항 내역</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>요구사항 내역</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI/UX</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI/UX(축제)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>진행 중 축제정보를 제공</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>진행 예정 축제정보를 제공</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.Select Bar 형식들은 지역명의 이름으로 보여진다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.지역별 축제는 Select Bar 형식으로 보여진다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.지역(이름)클릭시 지역별 축제 페이지로 이동한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.각 지역별 축제 페이지는 축제들을 썸네일 형태의 사진(1개)과 짧은 글(50자내외)로 제공한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.축제인 썸네일 형태의 사진과 짧은글은 리스트 형식으로 나열된다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.썸네일 클릭시 축제 상세 페이지로 이동한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>7.축제 상세페이지는 회전목마형태의 사진을 제공한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>8.축제 상세페이지는 축제에 대한 설명과 상세정보(문의 및 안내, 주소, 홈페이지, 휴일 등)을 제공한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>9.축제 상세페이지는 축제의 위치를 API 지도로 제공한다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1277,7 +1406,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1338,131 +1467,185 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1478,6 +1661,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1526,7 +1712,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1561,7 +1747,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1783,10 +1969,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="41" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="51" t="s">
         <v>110</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -1797,43 +1983,43 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="25"/>
-      <c r="B3" s="20"/>
+      <c r="A3" s="42"/>
+      <c r="B3" s="51"/>
       <c r="C3" s="4" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="25"/>
-      <c r="B4" s="20"/>
+      <c r="A4" s="42"/>
+      <c r="B4" s="51"/>
       <c r="C4" s="4" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="25"/>
-      <c r="B5" s="20"/>
+      <c r="A5" s="42"/>
+      <c r="B5" s="51"/>
       <c r="C5" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="25"/>
-      <c r="B6" s="20"/>
+      <c r="A6" s="42"/>
+      <c r="B6" s="51"/>
       <c r="C6" s="4" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="25"/>
-      <c r="B7" s="20"/>
+      <c r="A7" s="42"/>
+      <c r="B7" s="51"/>
       <c r="C7" s="11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="25"/>
-      <c r="B8" s="20" t="s">
+      <c r="A8" s="42"/>
+      <c r="B8" s="51" t="s">
         <v>101</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -1844,29 +2030,29 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="25"/>
-      <c r="B9" s="20"/>
+      <c r="A9" s="42"/>
+      <c r="B9" s="51"/>
       <c r="C9" s="5" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="25"/>
-      <c r="B10" s="20"/>
+      <c r="A10" s="42"/>
+      <c r="B10" s="51"/>
       <c r="C10" s="4" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="25"/>
-      <c r="B11" s="20"/>
+      <c r="A11" s="42"/>
+      <c r="B11" s="51"/>
       <c r="C11" s="11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="25"/>
-      <c r="B12" s="20" t="s">
+      <c r="A12" s="42"/>
+      <c r="B12" s="51" t="s">
         <v>102</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -1877,50 +2063,50 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="25"/>
-      <c r="B13" s="20"/>
+      <c r="A13" s="42"/>
+      <c r="B13" s="51"/>
       <c r="C13" s="4" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="25"/>
-      <c r="B14" s="20"/>
+      <c r="A14" s="42"/>
+      <c r="B14" s="51"/>
       <c r="C14" s="4" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="25"/>
-      <c r="B15" s="20"/>
+      <c r="A15" s="42"/>
+      <c r="B15" s="51"/>
       <c r="C15" s="4" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="25"/>
-      <c r="B16" s="20"/>
+      <c r="A16" s="42"/>
+      <c r="B16" s="51"/>
       <c r="C16" s="3" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="25"/>
-      <c r="B17" s="20"/>
+      <c r="A17" s="42"/>
+      <c r="B17" s="51"/>
       <c r="C17" s="5" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="25"/>
-      <c r="B18" s="20"/>
+      <c r="A18" s="42"/>
+      <c r="B18" s="51"/>
       <c r="C18" s="11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="25"/>
-      <c r="B19" s="20" t="s">
+      <c r="A19" s="42"/>
+      <c r="B19" s="51" t="s">
         <v>103</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -1931,35 +2117,35 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="25"/>
-      <c r="B20" s="20"/>
+      <c r="A20" s="42"/>
+      <c r="B20" s="51"/>
       <c r="C20" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" s="25"/>
-      <c r="B21" s="20"/>
+      <c r="A21" s="42"/>
+      <c r="B21" s="51"/>
       <c r="C21" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A22" s="25"/>
-      <c r="B22" s="20"/>
+      <c r="A22" s="42"/>
+      <c r="B22" s="51"/>
       <c r="C22" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A23" s="25"/>
-      <c r="B23" s="20"/>
+      <c r="A23" s="42"/>
+      <c r="B23" s="51"/>
       <c r="C23" s="11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A24" s="25"/>
+      <c r="A24" s="42"/>
       <c r="B24" s="8" t="s">
         <v>109</v>
       </c>
@@ -1968,7 +2154,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A25" s="25"/>
+      <c r="A25" s="42"/>
       <c r="B25" s="8" t="s">
         <v>7</v>
       </c>
@@ -1977,8 +2163,8 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A26" s="25"/>
-      <c r="B26" s="20" t="s">
+      <c r="A26" s="42"/>
+      <c r="B26" s="51" t="s">
         <v>9</v>
       </c>
       <c r="C26" s="7" t="s">
@@ -1986,15 +2172,15 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" s="25"/>
-      <c r="B27" s="20"/>
+      <c r="A27" s="42"/>
+      <c r="B27" s="51"/>
       <c r="C27" s="7" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" s="25"/>
-      <c r="B28" s="22" t="s">
+      <c r="A28" s="42"/>
+      <c r="B28" s="39" t="s">
         <v>66</v>
       </c>
       <c r="C28" s="4" t="s">
@@ -2002,15 +2188,15 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A29" s="25"/>
-      <c r="B29" s="23"/>
+      <c r="A29" s="42"/>
+      <c r="B29" s="40"/>
       <c r="C29" s="4" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A30" s="25"/>
-      <c r="B30" s="22" t="s">
+      <c r="A30" s="42"/>
+      <c r="B30" s="39" t="s">
         <v>68</v>
       </c>
       <c r="C30" s="4" t="s">
@@ -2018,17 +2204,17 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A31" s="26"/>
-      <c r="B31" s="23"/>
+      <c r="A31" s="43"/>
+      <c r="B31" s="40"/>
       <c r="C31" s="4" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A32" s="21" t="s">
+      <c r="A32" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="B32" s="20" t="s">
+      <c r="B32" s="51" t="s">
         <v>104</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -2039,36 +2225,36 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A33" s="21"/>
-      <c r="B33" s="20"/>
+      <c r="A33" s="38"/>
+      <c r="B33" s="51"/>
       <c r="C33" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A34" s="21"/>
-      <c r="B34" s="20"/>
+      <c r="A34" s="38"/>
+      <c r="B34" s="51"/>
       <c r="C34" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A35" s="21"/>
-      <c r="B35" s="20"/>
+      <c r="A35" s="38"/>
+      <c r="B35" s="51"/>
       <c r="C35" s="4" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="21"/>
-      <c r="B36" s="20"/>
+      <c r="A36" s="38"/>
+      <c r="B36" s="51"/>
       <c r="C36" s="1" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37" s="21"/>
-      <c r="B37" s="33" t="s">
+      <c r="A37" s="38"/>
+      <c r="B37" s="50" t="s">
         <v>105</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -2079,57 +2265,57 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A38" s="21"/>
-      <c r="B38" s="33"/>
+      <c r="A38" s="38"/>
+      <c r="B38" s="50"/>
       <c r="C38" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A39" s="21"/>
-      <c r="B39" s="33"/>
+      <c r="A39" s="38"/>
+      <c r="B39" s="50"/>
       <c r="C39" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A40" s="21"/>
-      <c r="B40" s="33"/>
+      <c r="A40" s="38"/>
+      <c r="B40" s="50"/>
       <c r="C40" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A41" s="21"/>
-      <c r="B41" s="33"/>
+      <c r="A41" s="38"/>
+      <c r="B41" s="50"/>
       <c r="C41" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A42" s="21"/>
-      <c r="B42" s="33"/>
+      <c r="A42" s="38"/>
+      <c r="B42" s="50"/>
       <c r="C42" s="4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A43" s="21"/>
-      <c r="B43" s="33"/>
+      <c r="A43" s="38"/>
+      <c r="B43" s="50"/>
       <c r="C43" s="4" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A44" s="21"/>
-      <c r="B44" s="33"/>
+      <c r="A44" s="38"/>
+      <c r="B44" s="50"/>
       <c r="C44" s="1" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A45" s="21"/>
-      <c r="B45" s="20" t="s">
+      <c r="A45" s="38"/>
+      <c r="B45" s="51" t="s">
         <v>106</v>
       </c>
       <c r="C45" s="1" t="s">
@@ -2140,50 +2326,50 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A46" s="21"/>
-      <c r="B46" s="20"/>
+      <c r="A46" s="38"/>
+      <c r="B46" s="51"/>
       <c r="C46" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A47" s="21"/>
-      <c r="B47" s="20"/>
+      <c r="A47" s="38"/>
+      <c r="B47" s="51"/>
       <c r="C47" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A48" s="21"/>
-      <c r="B48" s="20"/>
+      <c r="A48" s="38"/>
+      <c r="B48" s="51"/>
       <c r="C48" s="4" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A49" s="21"/>
-      <c r="B49" s="20"/>
+      <c r="A49" s="38"/>
+      <c r="B49" s="51"/>
       <c r="C49" s="4" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A50" s="21"/>
-      <c r="B50" s="20"/>
+      <c r="A50" s="38"/>
+      <c r="B50" s="51"/>
       <c r="C50" s="3" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A51" s="21"/>
-      <c r="B51" s="20"/>
+      <c r="A51" s="38"/>
+      <c r="B51" s="51"/>
       <c r="C51" s="1" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A52" s="21"/>
-      <c r="B52" s="20" t="s">
+      <c r="A52" s="38"/>
+      <c r="B52" s="51" t="s">
         <v>107</v>
       </c>
       <c r="C52" s="1" t="s">
@@ -2194,50 +2380,50 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A53" s="21"/>
-      <c r="B53" s="20"/>
+      <c r="A53" s="38"/>
+      <c r="B53" s="51"/>
       <c r="C53" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A54" s="21"/>
-      <c r="B54" s="20"/>
+      <c r="A54" s="38"/>
+      <c r="B54" s="51"/>
       <c r="C54" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A55" s="21"/>
-      <c r="B55" s="20"/>
+      <c r="A55" s="38"/>
+      <c r="B55" s="51"/>
       <c r="C55" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A56" s="21"/>
-      <c r="B56" s="20"/>
+      <c r="A56" s="38"/>
+      <c r="B56" s="51"/>
       <c r="C56" s="3" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A57" s="21"/>
-      <c r="B57" s="20"/>
+      <c r="A57" s="38"/>
+      <c r="B57" s="51"/>
       <c r="C57" s="3" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="21"/>
-      <c r="B58" s="20"/>
+      <c r="A58" s="38"/>
+      <c r="B58" s="51"/>
       <c r="C58" s="1" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="21"/>
-      <c r="B59" s="20" t="s">
+      <c r="A59" s="38"/>
+      <c r="B59" s="51" t="s">
         <v>108</v>
       </c>
       <c r="C59" s="3" t="s">
@@ -2248,66 +2434,66 @@
       </c>
     </row>
     <row r="60" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="21"/>
-      <c r="B60" s="20"/>
+      <c r="A60" s="38"/>
+      <c r="B60" s="51"/>
       <c r="C60" s="4" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="21"/>
-      <c r="B61" s="20"/>
+      <c r="A61" s="38"/>
+      <c r="B61" s="51"/>
       <c r="C61" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="21"/>
-      <c r="B62" s="20"/>
+      <c r="A62" s="38"/>
+      <c r="B62" s="51"/>
       <c r="C62" s="4" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="21"/>
-      <c r="B63" s="20"/>
+      <c r="A63" s="38"/>
+      <c r="B63" s="51"/>
       <c r="C63" s="4" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="21"/>
-      <c r="B64" s="20"/>
+      <c r="A64" s="38"/>
+      <c r="B64" s="51"/>
       <c r="C64" s="10" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="21"/>
-      <c r="B65" s="20"/>
+      <c r="A65" s="38"/>
+      <c r="B65" s="51"/>
       <c r="C65" s="10" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="21"/>
-      <c r="B66" s="20"/>
+      <c r="A66" s="38"/>
+      <c r="B66" s="51"/>
       <c r="C66" s="10" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="21"/>
-      <c r="B67" s="20"/>
+      <c r="A67" s="38"/>
+      <c r="B67" s="51"/>
       <c r="C67" s="11" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A68" s="21" t="s">
+      <c r="A68" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="B68" s="22" t="s">
+      <c r="B68" s="39" t="s">
         <v>21</v>
       </c>
       <c r="C68" s="3" t="s">
@@ -2315,43 +2501,43 @@
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A69" s="21"/>
-      <c r="B69" s="34"/>
+      <c r="A69" s="38"/>
+      <c r="B69" s="52"/>
       <c r="C69" s="3" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A70" s="21"/>
-      <c r="B70" s="34"/>
+      <c r="A70" s="38"/>
+      <c r="B70" s="52"/>
       <c r="C70" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A71" s="21"/>
-      <c r="B71" s="34"/>
+      <c r="A71" s="38"/>
+      <c r="B71" s="52"/>
       <c r="C71" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A72" s="21"/>
-      <c r="B72" s="34"/>
+      <c r="A72" s="38"/>
+      <c r="B72" s="52"/>
       <c r="C72" s="4" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A73" s="21"/>
-      <c r="B73" s="23"/>
+      <c r="A73" s="38"/>
+      <c r="B73" s="40"/>
       <c r="C73" s="4" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A74" s="21"/>
-      <c r="B74" s="20" t="s">
+      <c r="A74" s="38"/>
+      <c r="B74" s="51" t="s">
         <v>25</v>
       </c>
       <c r="C74" s="3" t="s">
@@ -2359,22 +2545,22 @@
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A75" s="21"/>
-      <c r="B75" s="20"/>
+      <c r="A75" s="38"/>
+      <c r="B75" s="51"/>
       <c r="C75" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A76" s="21"/>
-      <c r="B76" s="20"/>
+      <c r="A76" s="38"/>
+      <c r="B76" s="51"/>
       <c r="C76" s="4" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A77" s="21"/>
-      <c r="B77" s="20" t="s">
+      <c r="A77" s="38"/>
+      <c r="B77" s="51" t="s">
         <v>17</v>
       </c>
       <c r="C77" s="1" t="s">
@@ -2382,52 +2568,52 @@
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A78" s="21"/>
-      <c r="B78" s="20"/>
+      <c r="A78" s="38"/>
+      <c r="B78" s="51"/>
       <c r="C78" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A79" s="21"/>
-      <c r="B79" s="20"/>
+      <c r="A79" s="38"/>
+      <c r="B79" s="51"/>
       <c r="C79" s="3" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A80" s="21"/>
-      <c r="B80" s="20"/>
+      <c r="A80" s="38"/>
+      <c r="B80" s="51"/>
       <c r="C80" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A81" s="21"/>
-      <c r="B81" s="20"/>
+      <c r="A81" s="38"/>
+      <c r="B81" s="51"/>
       <c r="C81" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A82" s="21"/>
-      <c r="B82" s="20"/>
+      <c r="A82" s="38"/>
+      <c r="B82" s="51"/>
       <c r="C82" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A83" s="21"/>
-      <c r="B83" s="20"/>
+      <c r="A83" s="38"/>
+      <c r="B83" s="51"/>
       <c r="C83" s="5" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A84" s="21" t="s">
+      <c r="A84" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="B84" s="27" t="s">
+      <c r="B84" s="44" t="s">
         <v>20</v>
       </c>
       <c r="C84" s="1" t="s">
@@ -2435,36 +2621,36 @@
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A85" s="21"/>
-      <c r="B85" s="28"/>
+      <c r="A85" s="38"/>
+      <c r="B85" s="45"/>
       <c r="C85" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A86" s="21"/>
-      <c r="B86" s="28"/>
+      <c r="A86" s="38"/>
+      <c r="B86" s="45"/>
       <c r="C86" s="4" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A87" s="21"/>
-      <c r="B87" s="28"/>
+      <c r="A87" s="38"/>
+      <c r="B87" s="45"/>
       <c r="C87" s="4" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A88" s="21"/>
-      <c r="B88" s="29"/>
+      <c r="A88" s="38"/>
+      <c r="B88" s="46"/>
       <c r="C88" s="4" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A89" s="21"/>
-      <c r="B89" s="27" t="s">
+      <c r="A89" s="38"/>
+      <c r="B89" s="44" t="s">
         <v>31</v>
       </c>
       <c r="C89" s="3" t="s">
@@ -2472,15 +2658,15 @@
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A90" s="21"/>
-      <c r="B90" s="29"/>
+      <c r="A90" s="38"/>
+      <c r="B90" s="46"/>
       <c r="C90" s="3" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A91" s="21"/>
-      <c r="B91" s="30" t="s">
+      <c r="A91" s="38"/>
+      <c r="B91" s="47" t="s">
         <v>38</v>
       </c>
       <c r="C91" s="3" t="s">
@@ -2488,14 +2674,14 @@
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A92" s="21"/>
-      <c r="B92" s="31"/>
+      <c r="A92" s="38"/>
+      <c r="B92" s="48"/>
       <c r="C92" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A93" s="21"/>
+      <c r="A93" s="38"/>
       <c r="B93" s="13" t="s">
         <v>40</v>
       </c>
@@ -2504,8 +2690,8 @@
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A94" s="21"/>
-      <c r="B94" s="32" t="s">
+      <c r="A94" s="38"/>
+      <c r="B94" s="49" t="s">
         <v>33</v>
       </c>
       <c r="C94" s="3" t="s">
@@ -2513,36 +2699,36 @@
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A95" s="21"/>
-      <c r="B95" s="32"/>
+      <c r="A95" s="38"/>
+      <c r="B95" s="49"/>
       <c r="C95" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A96" s="21"/>
-      <c r="B96" s="32"/>
+      <c r="A96" s="38"/>
+      <c r="B96" s="49"/>
       <c r="C96" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A97" s="21"/>
-      <c r="B97" s="32"/>
+      <c r="A97" s="38"/>
+      <c r="B97" s="49"/>
       <c r="C97" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B107" s="21"/>
+      <c r="B107" s="38"/>
       <c r="C107" s="4"/>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B108" s="21"/>
+      <c r="B108" s="38"/>
       <c r="C108" s="4"/>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B109" s="21"/>
+      <c r="B109" s="38"/>
       <c r="C109" s="4"/>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.15">
@@ -2551,6 +2737,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B77:B83"/>
+    <mergeCell ref="B59:B67"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="B12:B18"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B32:B36"/>
     <mergeCell ref="B107:B109"/>
     <mergeCell ref="A32:A67"/>
     <mergeCell ref="A68:A83"/>
@@ -2567,14 +2761,6 @@
     <mergeCell ref="B52:B58"/>
     <mergeCell ref="B68:B73"/>
     <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B77:B83"/>
-    <mergeCell ref="B59:B67"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="B12:B18"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B32:B36"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2584,10 +2770,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G152"/>
+  <dimension ref="A1:G114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="G56" sqref="G56"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2597,1486 +2783,1152 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="53" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="46" t="s">
+      <c r="B1" s="54"/>
+      <c r="C1" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="D1" s="56"/>
+      <c r="E1" s="57"/>
+    </row>
+    <row r="2" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="58" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="59"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="59"/>
+      <c r="C3" s="60" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="61"/>
+      <c r="E3" s="62"/>
+    </row>
+    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="68" t="s">
+        <v>152</v>
+      </c>
+      <c r="B4" s="63" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" s="65" t="s">
+        <v>151</v>
+      </c>
+      <c r="D4" s="66"/>
+      <c r="E4" s="67"/>
+    </row>
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="69"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="71" t="s">
+        <v>158</v>
+      </c>
+      <c r="D5" s="72"/>
+      <c r="E5" s="73"/>
+      <c r="G5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="69"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="71" t="s">
+        <v>129</v>
+      </c>
+      <c r="D6" s="72"/>
+      <c r="E6" s="73"/>
+    </row>
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A7" s="69"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="71" t="s">
+        <v>130</v>
+      </c>
+      <c r="D7" s="72"/>
+      <c r="E7" s="73"/>
+    </row>
+    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A8" s="69"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="71" t="s">
+        <v>131</v>
+      </c>
+      <c r="D8" s="72"/>
+      <c r="E8" s="73"/>
+    </row>
+    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="69"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="71" t="s">
+        <v>132</v>
+      </c>
+      <c r="D9" s="72"/>
+      <c r="E9" s="73"/>
+    </row>
+    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="69"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="71" t="s">
+        <v>133</v>
+      </c>
+      <c r="D10" s="72"/>
+      <c r="E10" s="73"/>
+    </row>
+    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A11" s="69"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="71" t="s">
+        <v>134</v>
+      </c>
+      <c r="D11" s="72"/>
+      <c r="E11" s="73"/>
+    </row>
+    <row r="12" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="69"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="71" t="s">
+        <v>135</v>
+      </c>
+      <c r="D12" s="72"/>
+      <c r="E12" s="73"/>
+    </row>
+    <row r="13" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="70"/>
+      <c r="B13" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="D1" s="47"/>
-      <c r="E1" s="48"/>
-    </row>
-    <row r="2" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="49" t="s">
-        <v>119</v>
-      </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="49" t="s">
-        <v>122</v>
-      </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="51" t="s">
-        <v>137</v>
-      </c>
-      <c r="D3" s="36"/>
-      <c r="E3" s="52"/>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="59" t="s">
-        <v>168</v>
-      </c>
-      <c r="B4" s="53" t="s">
-        <v>123</v>
-      </c>
-      <c r="C4" s="55" t="s">
-        <v>167</v>
-      </c>
-      <c r="D4" s="56"/>
-      <c r="E4" s="57"/>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="60"/>
-      <c r="B5" s="58"/>
-      <c r="C5" s="38" t="s">
-        <v>174</v>
-      </c>
-      <c r="D5" s="39"/>
-      <c r="E5" s="40"/>
-      <c r="G5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="60"/>
-      <c r="B6" s="58"/>
-      <c r="C6" s="38" t="s">
-        <v>143</v>
-      </c>
-      <c r="D6" s="39"/>
-      <c r="E6" s="40"/>
-    </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="60"/>
-      <c r="B7" s="58"/>
-      <c r="C7" s="38" t="s">
-        <v>144</v>
-      </c>
-      <c r="D7" s="39"/>
-      <c r="E7" s="40"/>
-    </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="60"/>
-      <c r="B8" s="58"/>
-      <c r="C8" s="38" t="s">
-        <v>145</v>
-      </c>
-      <c r="D8" s="39"/>
-      <c r="E8" s="40"/>
-    </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="60"/>
-      <c r="B9" s="58"/>
-      <c r="C9" s="38" t="s">
-        <v>146</v>
-      </c>
-      <c r="D9" s="39"/>
-      <c r="E9" s="40"/>
-    </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="60"/>
-      <c r="B10" s="58"/>
-      <c r="C10" s="38" t="s">
-        <v>147</v>
-      </c>
-      <c r="D10" s="39"/>
-      <c r="E10" s="40"/>
-    </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="60"/>
-      <c r="B11" s="58"/>
-      <c r="C11" s="38" t="s">
-        <v>148</v>
-      </c>
-      <c r="D11" s="39"/>
-      <c r="E11" s="40"/>
-    </row>
-    <row r="12" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="60"/>
-      <c r="B12" s="58"/>
-      <c r="C12" s="38" t="s">
-        <v>149</v>
-      </c>
-      <c r="D12" s="39"/>
-      <c r="E12" s="40"/>
-    </row>
-    <row r="13" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="61"/>
-      <c r="B13" s="18" t="s">
-        <v>158</v>
-      </c>
-      <c r="C13" s="35"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="37"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="75"/>
     </row>
     <row r="14" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="15" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="44" t="s">
+      <c r="A15" s="53" t="s">
         <v>118</v>
       </c>
-      <c r="B15" s="45"/>
-      <c r="C15" s="46" t="s">
-        <v>142</v>
-      </c>
-      <c r="D15" s="47"/>
-      <c r="E15" s="48"/>
-      <c r="F15" t="s">
-        <v>125</v>
-      </c>
-      <c r="G15" t="s">
-        <v>126</v>
-      </c>
+      <c r="B15" s="54"/>
+      <c r="C15" s="55" t="s">
+        <v>136</v>
+      </c>
+      <c r="D15" s="56"/>
+      <c r="E15" s="57"/>
     </row>
     <row r="16" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="49" t="s">
+      <c r="A16" s="58" t="s">
         <v>119</v>
       </c>
-      <c r="B16" s="50"/>
+      <c r="B16" s="59"/>
       <c r="C16" s="14"/>
       <c r="D16" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="E16" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="G16" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="49" t="s">
+      <c r="B17" s="59"/>
+      <c r="C17" s="60" t="s">
+        <v>137</v>
+      </c>
+      <c r="D17" s="61"/>
+      <c r="E17" s="62"/>
+    </row>
+    <row r="18" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="68" t="s">
+        <v>152</v>
+      </c>
+      <c r="B18" s="63" t="s">
         <v>122</v>
       </c>
-      <c r="B17" s="50"/>
-      <c r="C17" s="51" t="s">
+      <c r="C18" s="65" t="s">
+        <v>143</v>
+      </c>
+      <c r="D18" s="66"/>
+      <c r="E18" s="67"/>
+    </row>
+    <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A19" s="69"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="71" t="s">
+        <v>144</v>
+      </c>
+      <c r="D19" s="72"/>
+      <c r="E19" s="73"/>
+    </row>
+    <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A20" s="69"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="71" t="s">
+        <v>145</v>
+      </c>
+      <c r="D20" s="72"/>
+      <c r="E20" s="73"/>
+    </row>
+    <row r="21" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="69"/>
+      <c r="B21" s="76"/>
+      <c r="C21" s="77" t="s">
+        <v>146</v>
+      </c>
+      <c r="D21" s="78"/>
+      <c r="E21" s="79"/>
+    </row>
+    <row r="22" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="70"/>
+      <c r="B22" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="C22" s="74"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="75"/>
+    </row>
+    <row r="23" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="53" t="s">
+        <v>118</v>
+      </c>
+      <c r="B24" s="54"/>
+      <c r="C24" s="55" t="s">
+        <v>154</v>
+      </c>
+      <c r="D24" s="56"/>
+      <c r="E24" s="57"/>
+    </row>
+    <row r="25" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="58" t="s">
+        <v>119</v>
+      </c>
+      <c r="B25" s="59"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="E25" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="D17" s="36"/>
-      <c r="E17" s="52"/>
-      <c r="G17" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A18" s="59" t="s">
-        <v>168</v>
-      </c>
-      <c r="B18" s="53" t="s">
+    </row>
+    <row r="26" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="B26" s="59"/>
+      <c r="C26" s="60" t="s">
+        <v>138</v>
+      </c>
+      <c r="D26" s="61"/>
+      <c r="E26" s="62"/>
+    </row>
+    <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A27" s="68" t="s">
+        <v>153</v>
+      </c>
+      <c r="B27" s="63" t="s">
+        <v>122</v>
+      </c>
+      <c r="C27" s="65" t="s">
+        <v>147</v>
+      </c>
+      <c r="D27" s="66"/>
+      <c r="E27" s="67"/>
+    </row>
+    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A28" s="69"/>
+      <c r="B28" s="64"/>
+      <c r="C28" s="71" t="s">
+        <v>148</v>
+      </c>
+      <c r="D28" s="72"/>
+      <c r="E28" s="73"/>
+    </row>
+    <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A29" s="69"/>
+      <c r="B29" s="64"/>
+      <c r="C29" s="71" t="s">
+        <v>149</v>
+      </c>
+      <c r="D29" s="72"/>
+      <c r="E29" s="73"/>
+    </row>
+    <row r="30" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="69"/>
+      <c r="B30" s="64"/>
+      <c r="C30" s="71" t="s">
+        <v>150</v>
+      </c>
+      <c r="D30" s="72"/>
+      <c r="E30" s="73"/>
+    </row>
+    <row r="31" spans="1:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="70"/>
+      <c r="B31" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="C18" s="55" t="s">
-        <v>150</v>
-      </c>
-      <c r="D18" s="56"/>
-      <c r="E18" s="57"/>
-      <c r="G18" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="60"/>
-      <c r="B19" s="58"/>
-      <c r="C19" s="41" t="s">
-        <v>151</v>
-      </c>
-      <c r="D19" s="42"/>
-      <c r="E19" s="43"/>
-    </row>
-    <row r="20" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="61"/>
-      <c r="B20" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="C20" s="35"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="37"/>
-      <c r="F20" t="s">
-        <v>130</v>
-      </c>
-      <c r="G20" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="G21" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="44" t="s">
+      <c r="C31" s="74"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="75"/>
+    </row>
+    <row r="32" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="33" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="53" t="s">
         <v>118</v>
       </c>
-      <c r="B22" s="45"/>
-      <c r="C22" s="46" t="s">
-        <v>152</v>
-      </c>
-      <c r="D22" s="47"/>
-      <c r="E22" s="48"/>
-      <c r="G22" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="49" t="s">
+      <c r="B33" s="54"/>
+      <c r="C33" s="55" t="s">
+        <v>207</v>
+      </c>
+      <c r="D33" s="56"/>
+      <c r="E33" s="57"/>
+    </row>
+    <row r="34" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="B23" s="50"/>
-      <c r="C23" s="14" t="s">
+      <c r="B34" s="26"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="E34" s="19" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="E23" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="G23" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="49" t="s">
+      <c r="B35" s="59"/>
+      <c r="C35" s="60" t="s">
+        <v>206</v>
+      </c>
+      <c r="D35" s="61"/>
+      <c r="E35" s="62"/>
+    </row>
+    <row r="36" spans="1:5" ht="33" x14ac:dyDescent="0.15">
+      <c r="A36" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="B36" s="30" t="s">
         <v>122</v>
       </c>
-      <c r="B24" s="50"/>
-      <c r="C24" s="51" t="s">
-        <v>153</v>
-      </c>
-      <c r="D24" s="36"/>
-      <c r="E24" s="52"/>
-      <c r="G24" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A25" s="59" t="s">
-        <v>168</v>
-      </c>
-      <c r="B25" s="53" t="s">
+      <c r="C36" s="65" t="s">
+        <v>210</v>
+      </c>
+      <c r="D36" s="66"/>
+      <c r="E36" s="67"/>
+    </row>
+    <row r="37" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="21"/>
+      <c r="B37" s="31"/>
+      <c r="C37" s="77" t="s">
+        <v>209</v>
+      </c>
+      <c r="D37" s="78"/>
+      <c r="E37" s="79"/>
+    </row>
+    <row r="38" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="22"/>
+      <c r="B38" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="C25" s="55" t="s">
-        <v>159</v>
-      </c>
-      <c r="D25" s="56"/>
-      <c r="E25" s="57"/>
-      <c r="G25" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A26" s="60"/>
-      <c r="B26" s="58"/>
-      <c r="C26" s="38" t="s">
-        <v>160</v>
-      </c>
-      <c r="D26" s="39"/>
-      <c r="E26" s="40"/>
-    </row>
-    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A27" s="60"/>
-      <c r="B27" s="58"/>
-      <c r="C27" s="38" t="s">
-        <v>161</v>
-      </c>
-      <c r="D27" s="39"/>
-      <c r="E27" s="40"/>
-    </row>
-    <row r="28" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="60"/>
-      <c r="B28" s="54"/>
-      <c r="C28" s="41" t="s">
-        <v>162</v>
-      </c>
-      <c r="D28" s="42"/>
-      <c r="E28" s="43"/>
-      <c r="G28" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="61"/>
-      <c r="B29" s="18" t="s">
-        <v>158</v>
-      </c>
-      <c r="C29" s="35"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="37"/>
-    </row>
-    <row r="30" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="44" t="s">
-        <v>118</v>
-      </c>
-      <c r="B31" s="45"/>
-      <c r="C31" s="46" t="s">
-        <v>170</v>
-      </c>
-      <c r="D31" s="47"/>
-      <c r="E31" s="48"/>
-    </row>
-    <row r="32" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="49" t="s">
-        <v>119</v>
-      </c>
-      <c r="B32" s="50"/>
-      <c r="C32" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="D32" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="E32" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="49" t="s">
-        <v>122</v>
-      </c>
-      <c r="B33" s="50"/>
-      <c r="C33" s="51" t="s">
-        <v>154</v>
-      </c>
-      <c r="D33" s="36"/>
-      <c r="E33" s="52"/>
-    </row>
-    <row r="34" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A34" s="59" t="s">
-        <v>169</v>
-      </c>
-      <c r="B34" s="53" t="s">
-        <v>123</v>
-      </c>
-      <c r="C34" s="55" t="s">
-        <v>163</v>
-      </c>
-      <c r="D34" s="56"/>
-      <c r="E34" s="57"/>
-    </row>
-    <row r="35" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A35" s="60"/>
-      <c r="B35" s="58"/>
-      <c r="C35" s="38" t="s">
-        <v>164</v>
-      </c>
-      <c r="D35" s="39"/>
-      <c r="E35" s="40"/>
-    </row>
-    <row r="36" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A36" s="60"/>
-      <c r="B36" s="58"/>
-      <c r="C36" s="38" t="s">
-        <v>165</v>
-      </c>
-      <c r="D36" s="39"/>
-      <c r="E36" s="40"/>
-    </row>
-    <row r="37" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="60"/>
-      <c r="B37" s="58"/>
-      <c r="C37" s="38" t="s">
-        <v>166</v>
-      </c>
-      <c r="D37" s="39"/>
-      <c r="E37" s="40"/>
-    </row>
-    <row r="38" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="61"/>
-      <c r="B38" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="C38" s="35"/>
-      <c r="D38" s="36"/>
-      <c r="E38" s="37"/>
+      <c r="C38" s="74"/>
+      <c r="D38" s="61"/>
+      <c r="E38" s="75"/>
     </row>
     <row r="39" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="40" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="44" t="s">
+      <c r="A40" s="53" t="s">
         <v>118</v>
       </c>
-      <c r="B40" s="45"/>
-      <c r="C40" s="46" t="s">
+      <c r="B40" s="54"/>
+      <c r="C40" s="55" t="s">
+        <v>155</v>
+      </c>
+      <c r="D40" s="56"/>
+      <c r="E40" s="57"/>
+    </row>
+    <row r="41" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="B41" s="26"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="E41" s="19" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="B42" s="59"/>
+      <c r="C42" s="60" t="s">
+        <v>200</v>
+      </c>
+      <c r="D42" s="61"/>
+      <c r="E42" s="62"/>
+    </row>
+    <row r="43" spans="1:5" ht="33" x14ac:dyDescent="0.15">
+      <c r="A43" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="B43" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="C43" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="D43" s="33"/>
+      <c r="E43" s="34"/>
+    </row>
+    <row r="44" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A44" s="21"/>
+      <c r="B44" s="31"/>
+      <c r="C44" s="35" t="s">
+        <v>158</v>
+      </c>
+      <c r="D44" s="36"/>
+      <c r="E44" s="37"/>
+    </row>
+    <row r="45" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A45" s="21"/>
+      <c r="B45" s="31"/>
+      <c r="C45" s="35" t="s">
+        <v>160</v>
+      </c>
+      <c r="D45" s="36"/>
+      <c r="E45" s="37"/>
+    </row>
+    <row r="46" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A46" s="21"/>
+      <c r="B46" s="31"/>
+      <c r="C46" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="D46" s="36"/>
+      <c r="E46" s="37"/>
+    </row>
+    <row r="47" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A47" s="21"/>
+      <c r="B47" s="31"/>
+      <c r="C47" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="D47" s="36"/>
+      <c r="E47" s="37"/>
+    </row>
+    <row r="48" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A48" s="21"/>
+      <c r="B48" s="31"/>
+      <c r="C48" s="35" t="s">
+        <v>163</v>
+      </c>
+      <c r="D48" s="36"/>
+      <c r="E48" s="37"/>
+    </row>
+    <row r="49" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A49" s="21"/>
+      <c r="B49" s="31"/>
+      <c r="C49" s="35" t="s">
+        <v>164</v>
+      </c>
+      <c r="D49" s="36"/>
+      <c r="E49" s="37"/>
+    </row>
+    <row r="50" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A50" s="21"/>
+      <c r="B50" s="31"/>
+      <c r="C50" s="35" t="s">
+        <v>165</v>
+      </c>
+      <c r="D50" s="36"/>
+      <c r="E50" s="37"/>
+    </row>
+    <row r="51" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="21"/>
+      <c r="B51" s="31"/>
+      <c r="C51" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="D51" s="36"/>
+      <c r="E51" s="37"/>
+    </row>
+    <row r="52" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="22"/>
+      <c r="B52" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="C52" s="74"/>
+      <c r="D52" s="61"/>
+      <c r="E52" s="75"/>
+    </row>
+    <row r="53" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="54" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="B54" s="24"/>
+      <c r="C54" s="55" t="s">
+        <v>155</v>
+      </c>
+      <c r="D54" s="56"/>
+      <c r="E54" s="57"/>
+    </row>
+    <row r="55" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="B55" s="26"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="E55" s="19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="B56" s="59"/>
+      <c r="C56" s="60" t="s">
+        <v>201</v>
+      </c>
+      <c r="D56" s="61"/>
+      <c r="E56" s="62"/>
+    </row>
+    <row r="57" spans="1:5" ht="33" x14ac:dyDescent="0.15">
+      <c r="A57" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="B57" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="C57" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="D57" s="33"/>
+      <c r="E57" s="34"/>
+    </row>
+    <row r="58" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A58" s="21"/>
+      <c r="B58" s="31"/>
+      <c r="C58" s="35" t="s">
+        <v>168</v>
+      </c>
+      <c r="D58" s="36"/>
+      <c r="E58" s="37"/>
+    </row>
+    <row r="59" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A59" s="21"/>
+      <c r="B59" s="31"/>
+      <c r="C59" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="D59" s="36"/>
+      <c r="E59" s="37"/>
+    </row>
+    <row r="60" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A60" s="21"/>
+      <c r="B60" s="31"/>
+      <c r="C60" s="35" t="s">
+        <v>170</v>
+      </c>
+      <c r="D60" s="36"/>
+      <c r="E60" s="37"/>
+    </row>
+    <row r="61" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A61" s="21"/>
+      <c r="B61" s="31"/>
+      <c r="C61" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="D40" s="47"/>
-      <c r="E40" s="48"/>
-    </row>
-    <row r="41" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="49" t="s">
+      <c r="D61" s="36"/>
+      <c r="E61" s="37"/>
+    </row>
+    <row r="62" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="21"/>
+      <c r="B62" s="31"/>
+      <c r="C62" s="35" t="s">
+        <v>172</v>
+      </c>
+      <c r="D62" s="36"/>
+      <c r="E62" s="37"/>
+    </row>
+    <row r="63" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="22"/>
+      <c r="B63" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="C63" s="74"/>
+      <c r="D63" s="61"/>
+      <c r="E63" s="75"/>
+    </row>
+    <row r="64" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="65" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="B65" s="24"/>
+      <c r="C65" s="55" t="s">
+        <v>155</v>
+      </c>
+      <c r="D65" s="56"/>
+      <c r="E65" s="57"/>
+    </row>
+    <row r="66" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="B41" s="50"/>
-      <c r="C41" s="14" t="s">
+      <c r="B66" s="26"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="D41" s="15" t="s">
+      <c r="E66" s="19" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="E41" s="17" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="49" t="s">
+      <c r="B67" s="59"/>
+      <c r="C67" s="60" t="s">
+        <v>202</v>
+      </c>
+      <c r="D67" s="61"/>
+      <c r="E67" s="62"/>
+    </row>
+    <row r="68" spans="1:5" ht="33" x14ac:dyDescent="0.15">
+      <c r="A68" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="B68" s="30" t="s">
         <v>122</v>
       </c>
-      <c r="B42" s="50"/>
-      <c r="C42" s="51"/>
-      <c r="D42" s="36"/>
-      <c r="E42" s="52"/>
-    </row>
-    <row r="43" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A43" s="59" t="s">
-        <v>168</v>
-      </c>
-      <c r="B43" s="53" t="s">
+      <c r="C68" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="D68" s="33"/>
+      <c r="E68" s="34"/>
+    </row>
+    <row r="69" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A69" s="21"/>
+      <c r="B69" s="31"/>
+      <c r="C69" s="35" t="s">
+        <v>174</v>
+      </c>
+      <c r="D69" s="36"/>
+      <c r="E69" s="37"/>
+    </row>
+    <row r="70" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A70" s="21"/>
+      <c r="B70" s="31"/>
+      <c r="C70" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="D70" s="36"/>
+      <c r="E70" s="37"/>
+    </row>
+    <row r="71" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A71" s="21"/>
+      <c r="B71" s="31"/>
+      <c r="C71" s="35" t="s">
+        <v>170</v>
+      </c>
+      <c r="D71" s="36"/>
+      <c r="E71" s="37"/>
+    </row>
+    <row r="72" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A72" s="21"/>
+      <c r="B72" s="31"/>
+      <c r="C72" s="35" t="s">
+        <v>171</v>
+      </c>
+      <c r="D72" s="36"/>
+      <c r="E72" s="37"/>
+    </row>
+    <row r="73" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="21"/>
+      <c r="B73" s="31"/>
+      <c r="C73" s="35" t="s">
+        <v>172</v>
+      </c>
+      <c r="D73" s="36"/>
+      <c r="E73" s="37"/>
+    </row>
+    <row r="74" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="22"/>
+      <c r="B74" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="C43" s="55" t="s">
+      <c r="C74" s="74"/>
+      <c r="D74" s="61"/>
+      <c r="E74" s="75"/>
+    </row>
+    <row r="75" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="76" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="B76" s="24"/>
+      <c r="C76" s="55" t="s">
+        <v>155</v>
+      </c>
+      <c r="D76" s="56"/>
+      <c r="E76" s="57"/>
+    </row>
+    <row r="77" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="B77" s="26"/>
+      <c r="C77" s="14"/>
+      <c r="D77" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="E77" s="19" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="B78" s="26"/>
+      <c r="C78" s="60"/>
+      <c r="D78" s="61"/>
+      <c r="E78" s="62"/>
+    </row>
+    <row r="79" spans="1:5" ht="33" x14ac:dyDescent="0.15">
+      <c r="A79" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="B79" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="C79" s="32" t="s">
         <v>175</v>
       </c>
-      <c r="D43" s="56"/>
-      <c r="E43" s="57"/>
-    </row>
-    <row r="44" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A44" s="60"/>
-      <c r="B44" s="58"/>
-      <c r="C44" s="38" t="s">
-        <v>174</v>
-      </c>
-      <c r="D44" s="39"/>
-      <c r="E44" s="40"/>
-    </row>
-    <row r="45" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A45" s="60"/>
-      <c r="B45" s="58"/>
-      <c r="C45" s="38" t="s">
+      <c r="D79" s="33"/>
+      <c r="E79" s="34"/>
+    </row>
+    <row r="80" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A80" s="21"/>
+      <c r="B80" s="31"/>
+      <c r="C80" s="35" t="s">
         <v>176</v>
       </c>
-      <c r="D45" s="39"/>
-      <c r="E45" s="40"/>
-    </row>
-    <row r="46" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A46" s="60"/>
-      <c r="B46" s="58"/>
-      <c r="C46" s="38" t="s">
-        <v>177</v>
-      </c>
-      <c r="D46" s="39"/>
-      <c r="E46" s="40"/>
-    </row>
-    <row r="47" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A47" s="60"/>
-      <c r="B47" s="58"/>
-      <c r="C47" s="38" t="s">
-        <v>178</v>
-      </c>
-      <c r="D47" s="39"/>
-      <c r="E47" s="40"/>
-    </row>
-    <row r="48" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A48" s="60"/>
-      <c r="B48" s="58"/>
-      <c r="C48" s="38" t="s">
-        <v>179</v>
-      </c>
-      <c r="D48" s="39"/>
-      <c r="E48" s="40"/>
-    </row>
-    <row r="49" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A49" s="60"/>
-      <c r="B49" s="58"/>
-      <c r="C49" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="D49" s="39"/>
-      <c r="E49" s="40"/>
-    </row>
-    <row r="50" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A50" s="60"/>
-      <c r="B50" s="58"/>
-      <c r="C50" s="38" t="s">
-        <v>181</v>
-      </c>
-      <c r="D50" s="39"/>
-      <c r="E50" s="40"/>
-    </row>
-    <row r="51" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A51" s="60"/>
-      <c r="B51" s="58"/>
-      <c r="C51" s="38" t="s">
-        <v>182</v>
-      </c>
-      <c r="D51" s="39"/>
-      <c r="E51" s="40"/>
-    </row>
-    <row r="52" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A52" s="60"/>
-      <c r="B52" s="58"/>
-      <c r="C52" s="38"/>
-      <c r="D52" s="39"/>
-      <c r="E52" s="40"/>
-    </row>
-    <row r="53" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A53" s="60"/>
-      <c r="B53" s="58"/>
-      <c r="C53" s="38"/>
-      <c r="D53" s="39"/>
-      <c r="E53" s="40"/>
-    </row>
-    <row r="54" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A54" s="60"/>
-      <c r="B54" s="58"/>
-      <c r="C54" s="38"/>
-      <c r="D54" s="39"/>
-      <c r="E54" s="40"/>
-    </row>
-    <row r="55" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="60"/>
-      <c r="B55" s="54"/>
-      <c r="C55" s="41"/>
-      <c r="D55" s="42"/>
-      <c r="E55" s="43"/>
-    </row>
-    <row r="56" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="61"/>
-      <c r="B56" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="C56" s="35"/>
-      <c r="D56" s="36"/>
-      <c r="E56" s="37"/>
-    </row>
-    <row r="57" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="58" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="44" t="s">
-        <v>118</v>
-      </c>
-      <c r="B58" s="45"/>
-      <c r="C58" s="46" t="s">
-        <v>171</v>
-      </c>
-      <c r="D58" s="47"/>
-      <c r="E58" s="48"/>
-    </row>
-    <row r="59" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="49" t="s">
-        <v>119</v>
-      </c>
-      <c r="B59" s="50"/>
-      <c r="C59" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="D59" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="E59" s="17" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="49" t="s">
-        <v>122</v>
-      </c>
-      <c r="B60" s="50"/>
-      <c r="C60" s="51"/>
-      <c r="D60" s="36"/>
-      <c r="E60" s="52"/>
-    </row>
-    <row r="61" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A61" s="59" t="s">
-        <v>168</v>
-      </c>
-      <c r="B61" s="53" t="s">
-        <v>123</v>
-      </c>
-      <c r="C61" s="55"/>
-      <c r="D61" s="56"/>
-      <c r="E61" s="57"/>
-    </row>
-    <row r="62" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A62" s="60"/>
-      <c r="B62" s="58"/>
-      <c r="C62" s="38"/>
-      <c r="D62" s="39"/>
-      <c r="E62" s="40"/>
-    </row>
-    <row r="63" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A63" s="60"/>
-      <c r="B63" s="58"/>
-      <c r="C63" s="38"/>
-      <c r="D63" s="39"/>
-      <c r="E63" s="40"/>
-    </row>
-    <row r="64" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A64" s="60"/>
-      <c r="B64" s="58"/>
-      <c r="C64" s="38"/>
-      <c r="D64" s="39"/>
-      <c r="E64" s="40"/>
-    </row>
-    <row r="65" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A65" s="60"/>
-      <c r="B65" s="58"/>
-      <c r="C65" s="38"/>
-      <c r="D65" s="39"/>
-      <c r="E65" s="40"/>
-    </row>
-    <row r="66" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A66" s="60"/>
-      <c r="B66" s="58"/>
-      <c r="C66" s="38"/>
-      <c r="D66" s="39"/>
-      <c r="E66" s="40"/>
-    </row>
-    <row r="67" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A67" s="60"/>
-      <c r="B67" s="58"/>
-      <c r="C67" s="38"/>
-      <c r="D67" s="39"/>
-      <c r="E67" s="40"/>
-    </row>
-    <row r="68" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A68" s="60"/>
-      <c r="B68" s="58"/>
-      <c r="C68" s="38"/>
-      <c r="D68" s="39"/>
-      <c r="E68" s="40"/>
-    </row>
-    <row r="69" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A69" s="60"/>
-      <c r="B69" s="58"/>
-      <c r="C69" s="38"/>
-      <c r="D69" s="39"/>
-      <c r="E69" s="40"/>
-    </row>
-    <row r="70" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A70" s="60"/>
-      <c r="B70" s="58"/>
-      <c r="C70" s="38"/>
-      <c r="D70" s="39"/>
-      <c r="E70" s="40"/>
-    </row>
-    <row r="71" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A71" s="60"/>
-      <c r="B71" s="58"/>
-      <c r="C71" s="38"/>
-      <c r="D71" s="39"/>
-      <c r="E71" s="40"/>
-    </row>
-    <row r="72" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A72" s="60"/>
-      <c r="B72" s="58"/>
-      <c r="C72" s="38"/>
-      <c r="D72" s="39"/>
-      <c r="E72" s="40"/>
-    </row>
-    <row r="73" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A73" s="60"/>
-      <c r="B73" s="58"/>
-      <c r="C73" s="38"/>
-      <c r="D73" s="39"/>
-      <c r="E73" s="40"/>
-    </row>
-    <row r="74" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A74" s="60"/>
-      <c r="B74" s="58"/>
-      <c r="C74" s="38"/>
-      <c r="D74" s="39"/>
-      <c r="E74" s="40"/>
-    </row>
-    <row r="75" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A75" s="60"/>
-      <c r="B75" s="58"/>
-      <c r="C75" s="38"/>
-      <c r="D75" s="39"/>
-      <c r="E75" s="40"/>
-    </row>
-    <row r="76" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A76" s="60"/>
-      <c r="B76" s="58"/>
-      <c r="C76" s="38"/>
-      <c r="D76" s="39"/>
-      <c r="E76" s="40"/>
-    </row>
-    <row r="77" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A77" s="60"/>
-      <c r="B77" s="58"/>
-      <c r="C77" s="38"/>
-      <c r="D77" s="39"/>
-      <c r="E77" s="40"/>
-    </row>
-    <row r="78" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A78" s="60"/>
-      <c r="B78" s="58"/>
-      <c r="C78" s="38"/>
-      <c r="D78" s="39"/>
-      <c r="E78" s="40"/>
-    </row>
-    <row r="79" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="60"/>
-      <c r="B79" s="54"/>
-      <c r="C79" s="41"/>
-      <c r="D79" s="42"/>
-      <c r="E79" s="43"/>
-    </row>
-    <row r="80" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="61"/>
-      <c r="B80" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="C80" s="35"/>
       <c r="D80" s="36"/>
       <c r="E80" s="37"/>
     </row>
-    <row r="81" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="82" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="44" t="s">
+    <row r="81" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A81" s="21"/>
+      <c r="B81" s="31"/>
+      <c r="C81" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="D81" s="36"/>
+      <c r="E81" s="37"/>
+    </row>
+    <row r="82" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A82" s="21"/>
+      <c r="B82" s="31"/>
+      <c r="C82" s="35" t="s">
+        <v>170</v>
+      </c>
+      <c r="D82" s="36"/>
+      <c r="E82" s="37"/>
+    </row>
+    <row r="83" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A83" s="21"/>
+      <c r="B83" s="31"/>
+      <c r="C83" s="35" t="s">
+        <v>171</v>
+      </c>
+      <c r="D83" s="36"/>
+      <c r="E83" s="37"/>
+    </row>
+    <row r="84" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="21"/>
+      <c r="B84" s="31"/>
+      <c r="C84" s="35" t="s">
+        <v>172</v>
+      </c>
+      <c r="D84" s="36"/>
+      <c r="E84" s="37"/>
+    </row>
+    <row r="85" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="22"/>
+      <c r="B85" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="C85" s="74"/>
+      <c r="D85" s="61"/>
+      <c r="E85" s="75"/>
+    </row>
+    <row r="86" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="87" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="B82" s="45"/>
-      <c r="C82" s="46" t="s">
-        <v>171</v>
-      </c>
-      <c r="D82" s="47"/>
-      <c r="E82" s="48"/>
-    </row>
-    <row r="83" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="49" t="s">
+      <c r="B87" s="24"/>
+      <c r="C87" s="55" t="s">
+        <v>177</v>
+      </c>
+      <c r="D87" s="56"/>
+      <c r="E87" s="57"/>
+    </row>
+    <row r="88" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="B83" s="50"/>
-      <c r="C83" s="14" t="s">
+      <c r="B88" s="26"/>
+      <c r="C88" s="14"/>
+      <c r="D88" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="D83" s="15" t="s">
+      <c r="E88" s="19" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="E83" s="19" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="49" t="s">
+      <c r="B89" s="59"/>
+      <c r="C89" s="60" t="s">
+        <v>203</v>
+      </c>
+      <c r="D89" s="61"/>
+      <c r="E89" s="62"/>
+    </row>
+    <row r="90" spans="1:5" ht="33" x14ac:dyDescent="0.15">
+      <c r="A90" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="B90" s="30" t="s">
         <v>122</v>
       </c>
-      <c r="B84" s="50"/>
-      <c r="C84" s="51"/>
-      <c r="D84" s="36"/>
-      <c r="E84" s="52"/>
-    </row>
-    <row r="85" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A85" s="59" t="s">
-        <v>168</v>
-      </c>
-      <c r="B85" s="53" t="s">
-        <v>123</v>
-      </c>
-      <c r="C85" s="55"/>
-      <c r="D85" s="56"/>
-      <c r="E85" s="57"/>
-    </row>
-    <row r="86" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A86" s="60"/>
-      <c r="B86" s="58"/>
-      <c r="C86" s="38"/>
-      <c r="D86" s="39"/>
-      <c r="E86" s="40"/>
-    </row>
-    <row r="87" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A87" s="60"/>
-      <c r="B87" s="58"/>
-      <c r="C87" s="38"/>
-      <c r="D87" s="39"/>
-      <c r="E87" s="40"/>
-    </row>
-    <row r="88" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A88" s="60"/>
-      <c r="B88" s="58"/>
-      <c r="C88" s="38"/>
-      <c r="D88" s="39"/>
-      <c r="E88" s="40"/>
-    </row>
-    <row r="89" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A89" s="60"/>
-      <c r="B89" s="58"/>
-      <c r="C89" s="38"/>
-      <c r="D89" s="39"/>
-      <c r="E89" s="40"/>
-    </row>
-    <row r="90" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A90" s="60"/>
-      <c r="B90" s="58"/>
-      <c r="C90" s="38"/>
-      <c r="D90" s="39"/>
-      <c r="E90" s="40"/>
+      <c r="C90" s="32" t="s">
+        <v>192</v>
+      </c>
+      <c r="D90" s="33"/>
+      <c r="E90" s="34"/>
     </row>
     <row r="91" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A91" s="60"/>
-      <c r="B91" s="58"/>
-      <c r="C91" s="38"/>
-      <c r="D91" s="39"/>
-      <c r="E91" s="40"/>
+      <c r="A91" s="21"/>
+      <c r="B91" s="31"/>
+      <c r="C91" s="35" t="s">
+        <v>179</v>
+      </c>
+      <c r="D91" s="36"/>
+      <c r="E91" s="37"/>
     </row>
     <row r="92" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A92" s="60"/>
-      <c r="B92" s="58"/>
-      <c r="C92" s="38"/>
-      <c r="D92" s="39"/>
-      <c r="E92" s="40"/>
+      <c r="A92" s="21"/>
+      <c r="B92" s="31"/>
+      <c r="C92" s="35" t="s">
+        <v>180</v>
+      </c>
+      <c r="D92" s="36"/>
+      <c r="E92" s="37"/>
     </row>
     <row r="93" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A93" s="60"/>
-      <c r="B93" s="58"/>
-      <c r="C93" s="38"/>
-      <c r="D93" s="39"/>
-      <c r="E93" s="40"/>
+      <c r="A93" s="21"/>
+      <c r="B93" s="31"/>
+      <c r="C93" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="D93" s="36"/>
+      <c r="E93" s="37"/>
     </row>
     <row r="94" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A94" s="60"/>
-      <c r="B94" s="58"/>
-      <c r="C94" s="38"/>
-      <c r="D94" s="39"/>
-      <c r="E94" s="40"/>
+      <c r="A94" s="21"/>
+      <c r="B94" s="31"/>
+      <c r="C94" s="35" t="s">
+        <v>182</v>
+      </c>
+      <c r="D94" s="36"/>
+      <c r="E94" s="37"/>
     </row>
     <row r="95" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A95" s="60"/>
-      <c r="B95" s="58"/>
-      <c r="C95" s="38"/>
-      <c r="D95" s="39"/>
-      <c r="E95" s="40"/>
+      <c r="A95" s="21"/>
+      <c r="B95" s="31"/>
+      <c r="C95" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="D95" s="36"/>
+      <c r="E95" s="37"/>
     </row>
     <row r="96" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A96" s="60"/>
-      <c r="B96" s="58"/>
-      <c r="C96" s="38"/>
-      <c r="D96" s="39"/>
-      <c r="E96" s="40"/>
+      <c r="A96" s="21"/>
+      <c r="B96" s="31"/>
+      <c r="C96" s="35" t="s">
+        <v>184</v>
+      </c>
+      <c r="D96" s="36"/>
+      <c r="E96" s="37"/>
     </row>
     <row r="97" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A97" s="60"/>
-      <c r="B97" s="58"/>
-      <c r="C97" s="38"/>
-      <c r="D97" s="39"/>
-      <c r="E97" s="40"/>
+      <c r="A97" s="21"/>
+      <c r="B97" s="31"/>
+      <c r="C97" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="D97" s="36"/>
+      <c r="E97" s="37"/>
     </row>
     <row r="98" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A98" s="60"/>
-      <c r="B98" s="58"/>
-      <c r="C98" s="38"/>
-      <c r="D98" s="39"/>
-      <c r="E98" s="40"/>
+      <c r="A98" s="21"/>
+      <c r="B98" s="31"/>
+      <c r="C98" s="35" t="s">
+        <v>197</v>
+      </c>
+      <c r="D98" s="36"/>
+      <c r="E98" s="37"/>
     </row>
     <row r="99" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A99" s="60"/>
-      <c r="B99" s="58"/>
-      <c r="C99" s="38"/>
-      <c r="D99" s="39"/>
-      <c r="E99" s="40"/>
+      <c r="A99" s="21"/>
+      <c r="B99" s="31"/>
+      <c r="C99" s="35" t="s">
+        <v>198</v>
+      </c>
+      <c r="D99" s="36"/>
+      <c r="E99" s="37"/>
     </row>
     <row r="100" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A100" s="60"/>
-      <c r="B100" s="58"/>
-      <c r="C100" s="38"/>
-      <c r="D100" s="39"/>
-      <c r="E100" s="40"/>
+      <c r="A100" s="21"/>
+      <c r="B100" s="31"/>
+      <c r="C100" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="D100" s="36"/>
+      <c r="E100" s="37"/>
     </row>
     <row r="101" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A101" s="60"/>
-      <c r="B101" s="58"/>
-      <c r="C101" s="38"/>
-      <c r="D101" s="39"/>
-      <c r="E101" s="40"/>
+      <c r="A101" s="21"/>
+      <c r="B101" s="31"/>
+      <c r="C101" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="D101" s="36"/>
+      <c r="E101" s="37"/>
     </row>
     <row r="102" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A102" s="60"/>
-      <c r="B102" s="58"/>
-      <c r="C102" s="38"/>
-      <c r="D102" s="39"/>
-      <c r="E102" s="40"/>
-    </row>
-    <row r="103" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="60"/>
-      <c r="B103" s="54"/>
-      <c r="C103" s="41"/>
-      <c r="D103" s="42"/>
-      <c r="E103" s="43"/>
+      <c r="A102" s="21"/>
+      <c r="B102" s="31"/>
+      <c r="C102" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="D102" s="36"/>
+      <c r="E102" s="37"/>
+    </row>
+    <row r="103" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A103" s="21"/>
+      <c r="B103" s="31"/>
+      <c r="C103" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="D103" s="36"/>
+      <c r="E103" s="37"/>
     </row>
     <row r="104" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="61"/>
-      <c r="B104" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="C104" s="35"/>
+      <c r="A104" s="21"/>
+      <c r="B104" s="31"/>
+      <c r="C104" s="35" t="s">
+        <v>188</v>
+      </c>
       <c r="D104" s="36"/>
       <c r="E104" s="37"/>
     </row>
-    <row r="105" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="106" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="44" t="s">
+    <row r="105" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="22"/>
+      <c r="B105" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="C105" s="74"/>
+      <c r="D105" s="61"/>
+      <c r="E105" s="75"/>
+    </row>
+    <row r="106" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="107" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="B106" s="45"/>
-      <c r="C106" s="46" t="s">
-        <v>171</v>
-      </c>
-      <c r="D106" s="47"/>
-      <c r="E106" s="48"/>
-    </row>
-    <row r="107" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="49" t="s">
+      <c r="B107" s="24"/>
+      <c r="C107" s="55" t="s">
+        <v>189</v>
+      </c>
+      <c r="D107" s="56"/>
+      <c r="E107" s="57"/>
+    </row>
+    <row r="108" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="B107" s="50"/>
-      <c r="C107" s="14" t="s">
+      <c r="B108" s="26"/>
+      <c r="C108" s="14"/>
+      <c r="D108" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="D107" s="15" t="s">
+      <c r="E108" s="19" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="E107" s="19" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="49" t="s">
+      <c r="B109" s="26"/>
+      <c r="C109" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="D109" s="28"/>
+      <c r="E109" s="29"/>
+    </row>
+    <row r="110" spans="1:5" ht="33" x14ac:dyDescent="0.15">
+      <c r="A110" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="B110" s="30" t="s">
         <v>122</v>
       </c>
-      <c r="B108" s="50"/>
-      <c r="C108" s="51"/>
-      <c r="D108" s="36"/>
-      <c r="E108" s="52"/>
-    </row>
-    <row r="109" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A109" s="59" t="s">
-        <v>168</v>
-      </c>
-      <c r="B109" s="53" t="s">
+      <c r="C110" s="32" t="s">
+        <v>191</v>
+      </c>
+      <c r="D110" s="33"/>
+      <c r="E110" s="34"/>
+    </row>
+    <row r="111" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A111" s="21"/>
+      <c r="B111" s="31"/>
+      <c r="C111" s="35" t="s">
+        <v>193</v>
+      </c>
+      <c r="D111" s="36"/>
+      <c r="E111" s="37"/>
+    </row>
+    <row r="112" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A112" s="21"/>
+      <c r="B112" s="31"/>
+      <c r="C112" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="D112" s="36"/>
+      <c r="E112" s="37"/>
+    </row>
+    <row r="113" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="21"/>
+      <c r="B113" s="31"/>
+      <c r="C113" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="D113" s="36"/>
+      <c r="E113" s="37"/>
+    </row>
+    <row r="114" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="22"/>
+      <c r="B114" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="C109" s="55"/>
-      <c r="D109" s="56"/>
-      <c r="E109" s="57"/>
-    </row>
-    <row r="110" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A110" s="60"/>
-      <c r="B110" s="58"/>
-      <c r="C110" s="38"/>
-      <c r="D110" s="39"/>
-      <c r="E110" s="40"/>
-    </row>
-    <row r="111" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A111" s="60"/>
-      <c r="B111" s="58"/>
-      <c r="C111" s="38"/>
-      <c r="D111" s="39"/>
-      <c r="E111" s="40"/>
-    </row>
-    <row r="112" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A112" s="60"/>
-      <c r="B112" s="58"/>
-      <c r="C112" s="38"/>
-      <c r="D112" s="39"/>
-      <c r="E112" s="40"/>
-    </row>
-    <row r="113" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A113" s="60"/>
-      <c r="B113" s="58"/>
-      <c r="C113" s="38"/>
-      <c r="D113" s="39"/>
-      <c r="E113" s="40"/>
-    </row>
-    <row r="114" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A114" s="60"/>
-      <c r="B114" s="58"/>
-      <c r="C114" s="38"/>
-      <c r="D114" s="39"/>
-      <c r="E114" s="40"/>
-    </row>
-    <row r="115" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A115" s="60"/>
-      <c r="B115" s="58"/>
-      <c r="C115" s="38"/>
-      <c r="D115" s="39"/>
-      <c r="E115" s="40"/>
-    </row>
-    <row r="116" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A116" s="60"/>
-      <c r="B116" s="58"/>
-      <c r="C116" s="38"/>
-      <c r="D116" s="39"/>
-      <c r="E116" s="40"/>
-    </row>
-    <row r="117" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A117" s="60"/>
-      <c r="B117" s="58"/>
-      <c r="C117" s="38"/>
-      <c r="D117" s="39"/>
-      <c r="E117" s="40"/>
-    </row>
-    <row r="118" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A118" s="60"/>
-      <c r="B118" s="58"/>
-      <c r="C118" s="38"/>
-      <c r="D118" s="39"/>
-      <c r="E118" s="40"/>
-    </row>
-    <row r="119" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A119" s="60"/>
-      <c r="B119" s="58"/>
-      <c r="C119" s="38"/>
-      <c r="D119" s="39"/>
-      <c r="E119" s="40"/>
-    </row>
-    <row r="120" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A120" s="60"/>
-      <c r="B120" s="58"/>
-      <c r="C120" s="38"/>
-      <c r="D120" s="39"/>
-      <c r="E120" s="40"/>
-    </row>
-    <row r="121" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A121" s="60"/>
-      <c r="B121" s="58"/>
-      <c r="C121" s="38"/>
-      <c r="D121" s="39"/>
-      <c r="E121" s="40"/>
-    </row>
-    <row r="122" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A122" s="60"/>
-      <c r="B122" s="58"/>
-      <c r="C122" s="38"/>
-      <c r="D122" s="39"/>
-      <c r="E122" s="40"/>
-    </row>
-    <row r="123" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A123" s="60"/>
-      <c r="B123" s="58"/>
-      <c r="C123" s="38"/>
-      <c r="D123" s="39"/>
-      <c r="E123" s="40"/>
-    </row>
-    <row r="124" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A124" s="60"/>
-      <c r="B124" s="58"/>
-      <c r="C124" s="38"/>
-      <c r="D124" s="39"/>
-      <c r="E124" s="40"/>
-    </row>
-    <row r="125" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A125" s="60"/>
-      <c r="B125" s="58"/>
-      <c r="C125" s="38"/>
-      <c r="D125" s="39"/>
-      <c r="E125" s="40"/>
-    </row>
-    <row r="126" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A126" s="60"/>
-      <c r="B126" s="58"/>
-      <c r="C126" s="38"/>
-      <c r="D126" s="39"/>
-      <c r="E126" s="40"/>
-    </row>
-    <row r="127" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="60"/>
-      <c r="B127" s="54"/>
-      <c r="C127" s="41"/>
-      <c r="D127" s="42"/>
-      <c r="E127" s="43"/>
-    </row>
-    <row r="128" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="61"/>
-      <c r="B128" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="C128" s="35"/>
-      <c r="D128" s="36"/>
-      <c r="E128" s="37"/>
-    </row>
-    <row r="129" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="130" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="44" t="s">
-        <v>118</v>
-      </c>
-      <c r="B130" s="45"/>
-      <c r="C130" s="46"/>
-      <c r="D130" s="47"/>
-      <c r="E130" s="48"/>
-    </row>
-    <row r="131" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="49" t="s">
-        <v>119</v>
-      </c>
-      <c r="B131" s="50"/>
-      <c r="C131" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="D131" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="E131" s="19" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="49" t="s">
-        <v>122</v>
-      </c>
-      <c r="B132" s="50"/>
-      <c r="C132" s="51"/>
-      <c r="D132" s="36"/>
-      <c r="E132" s="52"/>
-    </row>
-    <row r="133" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A133" s="59" t="s">
-        <v>168</v>
-      </c>
-      <c r="B133" s="53" t="s">
-        <v>123</v>
-      </c>
-      <c r="C133" s="55"/>
-      <c r="D133" s="56"/>
-      <c r="E133" s="57"/>
-    </row>
-    <row r="134" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A134" s="60"/>
-      <c r="B134" s="58"/>
-      <c r="C134" s="38"/>
-      <c r="D134" s="39"/>
-      <c r="E134" s="40"/>
-    </row>
-    <row r="135" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A135" s="60"/>
-      <c r="B135" s="58"/>
-      <c r="C135" s="38"/>
-      <c r="D135" s="39"/>
-      <c r="E135" s="40"/>
-    </row>
-    <row r="136" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A136" s="60"/>
-      <c r="B136" s="58"/>
-      <c r="C136" s="38"/>
-      <c r="D136" s="39"/>
-      <c r="E136" s="40"/>
-    </row>
-    <row r="137" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A137" s="60"/>
-      <c r="B137" s="58"/>
-      <c r="C137" s="38"/>
-      <c r="D137" s="39"/>
-      <c r="E137" s="40"/>
-    </row>
-    <row r="138" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A138" s="60"/>
-      <c r="B138" s="58"/>
-      <c r="C138" s="38"/>
-      <c r="D138" s="39"/>
-      <c r="E138" s="40"/>
-    </row>
-    <row r="139" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A139" s="60"/>
-      <c r="B139" s="58"/>
-      <c r="C139" s="38"/>
-      <c r="D139" s="39"/>
-      <c r="E139" s="40"/>
-    </row>
-    <row r="140" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A140" s="60"/>
-      <c r="B140" s="58"/>
-      <c r="C140" s="38"/>
-      <c r="D140" s="39"/>
-      <c r="E140" s="40"/>
-    </row>
-    <row r="141" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A141" s="60"/>
-      <c r="B141" s="58"/>
-      <c r="C141" s="38"/>
-      <c r="D141" s="39"/>
-      <c r="E141" s="40"/>
-    </row>
-    <row r="142" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A142" s="60"/>
-      <c r="B142" s="58"/>
-      <c r="C142" s="38"/>
-      <c r="D142" s="39"/>
-      <c r="E142" s="40"/>
-    </row>
-    <row r="143" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A143" s="60"/>
-      <c r="B143" s="58"/>
-      <c r="C143" s="38"/>
-      <c r="D143" s="39"/>
-      <c r="E143" s="40"/>
-    </row>
-    <row r="144" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A144" s="60"/>
-      <c r="B144" s="58"/>
-      <c r="C144" s="38"/>
-      <c r="D144" s="39"/>
-      <c r="E144" s="40"/>
-    </row>
-    <row r="145" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A145" s="60"/>
-      <c r="B145" s="58"/>
-      <c r="C145" s="38"/>
-      <c r="D145" s="39"/>
-      <c r="E145" s="40"/>
-    </row>
-    <row r="146" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A146" s="60"/>
-      <c r="B146" s="58"/>
-      <c r="C146" s="38"/>
-      <c r="D146" s="39"/>
-      <c r="E146" s="40"/>
-    </row>
-    <row r="147" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A147" s="60"/>
-      <c r="B147" s="58"/>
-      <c r="C147" s="38"/>
-      <c r="D147" s="39"/>
-      <c r="E147" s="40"/>
-    </row>
-    <row r="148" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A148" s="60"/>
-      <c r="B148" s="58"/>
-      <c r="C148" s="38"/>
-      <c r="D148" s="39"/>
-      <c r="E148" s="40"/>
-    </row>
-    <row r="149" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A149" s="60"/>
-      <c r="B149" s="58"/>
-      <c r="C149" s="38"/>
-      <c r="D149" s="39"/>
-      <c r="E149" s="40"/>
-    </row>
-    <row r="150" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A150" s="60"/>
-      <c r="B150" s="58"/>
-      <c r="C150" s="38"/>
-      <c r="D150" s="39"/>
-      <c r="E150" s="40"/>
-    </row>
-    <row r="151" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="60"/>
-      <c r="B151" s="54"/>
-      <c r="C151" s="41"/>
-      <c r="D151" s="42"/>
-      <c r="E151" s="43"/>
-    </row>
-    <row r="152" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="61"/>
-      <c r="B152" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="C152" s="35"/>
-      <c r="D152" s="36"/>
-      <c r="E152" s="37"/>
+      <c r="C114" s="74"/>
+      <c r="D114" s="61"/>
+      <c r="E114" s="75"/>
     </row>
   </sheetData>
-  <mergeCells count="180">
-    <mergeCell ref="A61:A80"/>
-    <mergeCell ref="A85:A104"/>
-    <mergeCell ref="A109:A128"/>
-    <mergeCell ref="A133:A152"/>
-    <mergeCell ref="C68:E68"/>
-    <mergeCell ref="C69:E69"/>
-    <mergeCell ref="C70:E70"/>
-    <mergeCell ref="C75:E75"/>
+  <mergeCells count="70">
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="C114:E114"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:E67"/>
+    <mergeCell ref="C74:E74"/>
+    <mergeCell ref="C63:E63"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:E89"/>
+    <mergeCell ref="C78:E78"/>
+    <mergeCell ref="C85:E85"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="C107:E107"/>
+    <mergeCell ref="C87:E87"/>
     <mergeCell ref="C76:E76"/>
-    <mergeCell ref="C77:E77"/>
-    <mergeCell ref="C71:E71"/>
-    <mergeCell ref="C72:E72"/>
-    <mergeCell ref="C73:E73"/>
-    <mergeCell ref="C74:E74"/>
+    <mergeCell ref="C105:E105"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="B4:B12"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="A4:A13"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C19:E19"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:E3"/>
-    <mergeCell ref="B4:B12"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="A43:A56"/>
-    <mergeCell ref="A34:A38"/>
-    <mergeCell ref="A25:A29"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="A4:A13"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:E24"/>
     <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:E15"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C15:E15"/>
     <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="B43:B55"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="C82:E82"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="C84:E84"/>
-    <mergeCell ref="C85:E85"/>
-    <mergeCell ref="C86:E86"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="C60:E60"/>
-    <mergeCell ref="B61:B79"/>
-    <mergeCell ref="C61:E61"/>
-    <mergeCell ref="C79:E79"/>
-    <mergeCell ref="C78:E78"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="C63:E63"/>
-    <mergeCell ref="C64:E64"/>
-    <mergeCell ref="C65:E65"/>
-    <mergeCell ref="C66:E66"/>
-    <mergeCell ref="C67:E67"/>
-    <mergeCell ref="C96:E96"/>
-    <mergeCell ref="C98:E98"/>
-    <mergeCell ref="C99:E99"/>
-    <mergeCell ref="C100:E100"/>
-    <mergeCell ref="C87:E87"/>
-    <mergeCell ref="C89:E89"/>
-    <mergeCell ref="C91:E91"/>
-    <mergeCell ref="C92:E92"/>
-    <mergeCell ref="C93:E93"/>
-    <mergeCell ref="B85:B103"/>
-    <mergeCell ref="C88:E88"/>
-    <mergeCell ref="C90:E90"/>
-    <mergeCell ref="C95:E95"/>
-    <mergeCell ref="C97:E97"/>
-    <mergeCell ref="C102:E102"/>
-    <mergeCell ref="C110:E110"/>
-    <mergeCell ref="C112:E112"/>
-    <mergeCell ref="C113:E113"/>
-    <mergeCell ref="C114:E114"/>
-    <mergeCell ref="C101:E101"/>
-    <mergeCell ref="C103:E103"/>
-    <mergeCell ref="C106:E106"/>
-    <mergeCell ref="C104:E104"/>
-    <mergeCell ref="A106:B106"/>
-    <mergeCell ref="A107:B107"/>
-    <mergeCell ref="A108:B108"/>
-    <mergeCell ref="B109:B127"/>
-    <mergeCell ref="C109:E109"/>
-    <mergeCell ref="C111:E111"/>
-    <mergeCell ref="C124:E124"/>
-    <mergeCell ref="C126:E126"/>
-    <mergeCell ref="C127:E127"/>
-    <mergeCell ref="C128:E128"/>
-    <mergeCell ref="C115:E115"/>
-    <mergeCell ref="C117:E117"/>
-    <mergeCell ref="C119:E119"/>
-    <mergeCell ref="C120:E120"/>
-    <mergeCell ref="C121:E121"/>
-    <mergeCell ref="C116:E116"/>
-    <mergeCell ref="C118:E118"/>
-    <mergeCell ref="C123:E123"/>
-    <mergeCell ref="C125:E125"/>
-    <mergeCell ref="C138:E138"/>
-    <mergeCell ref="C140:E140"/>
-    <mergeCell ref="C141:E141"/>
-    <mergeCell ref="C142:E142"/>
-    <mergeCell ref="A131:B131"/>
-    <mergeCell ref="A132:B132"/>
-    <mergeCell ref="C133:E133"/>
-    <mergeCell ref="C134:E134"/>
-    <mergeCell ref="C135:E135"/>
-    <mergeCell ref="A130:B130"/>
-    <mergeCell ref="C130:E130"/>
-    <mergeCell ref="C132:E132"/>
-    <mergeCell ref="B133:B151"/>
-    <mergeCell ref="C137:E137"/>
-    <mergeCell ref="C139:E139"/>
-    <mergeCell ref="C144:E144"/>
-    <mergeCell ref="C152:E152"/>
-    <mergeCell ref="C143:E143"/>
-    <mergeCell ref="C145:E145"/>
-    <mergeCell ref="C147:E147"/>
-    <mergeCell ref="C148:E148"/>
-    <mergeCell ref="C149:E149"/>
-    <mergeCell ref="C146:E146"/>
-    <mergeCell ref="C151:E151"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C150:E150"/>
-    <mergeCell ref="C136:E136"/>
-    <mergeCell ref="C122:E122"/>
-    <mergeCell ref="C108:E108"/>
-    <mergeCell ref="C94:E94"/>
-    <mergeCell ref="C80:E80"/>
-    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="C21:E21"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/요구사항_합본2_team2_최경열.xlsx
+++ b/doc/요구사항_합본2_team2_최경열.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SmartWeb\Bit2Final\doc\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7605" tabRatio="995" activeTab="1"/>
   </bookViews>
@@ -15,12 +10,12 @@
     <sheet name="요구사항정의서_최종" sheetId="43" r:id="rId1"/>
     <sheet name="회원정보" sheetId="44" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="200">
   <si>
     <t>지역별로 여행지를 제공한다</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -599,34 +594,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>3.지역(이름)클릭시 지역별 여행지 페이지로 이동한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.각 지역별 여행지 페이지는 여행지들을 썸네일 형태의 사진(1개)과 짧은 글(50자내외)로 제공한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.여행지인 썸네일 형태의 사진과 짧은글은 리스트 형식으로 나열된다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.썸네일 클릭시 여행지 상세 페이지로 이동한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>7.여행지 상세페이지는 회전목마형태의 사진을 제공한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>8.여행 상세페이지는 여행지에 대한 설명과 상세정보(문의 및 안내, 주소, 홈페이지, 휴일 등)을 제공한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>9.여행지 상세페이지는 여행지의 위치를 API 지도로 제공한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>UI/UX(여행지)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -635,14 +602,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>회원들은 여행 상세페이지에 평점 및 리뷰 댓글을 작성할 수 있다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI/UX(리뷰댓글)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>지역별 축제정보를 제공</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -655,282 +614,274 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1.계절별 여행지 상단에는 봄,여름,가을,겨울 select 창이 존재한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.클릭시 비동기 형태로 계절별 추천 여행지를 보여준다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.썸네일 형태를 클릭시 여행지 상세 페이지로 이동한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.클릭시 비동기 형태로 계절별 추천여행지를 보여준다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.평점은 ☆5개의 형태로 구성되며 클릭으로 평점을 매길 수 있으며 클릭시 ★형태로 바뀐다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.별 옆에는 숫자로 평점에 표기되며 별 한개당 1.0점 총 5.0으로 구성된다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.댓글란은 평점 아래에 위치하며 회원들은 댓글을 작성,수정,삭제 할 수 있다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.댓글란은 10개 이상 초과시 비동기 형태로 페이지로 전환된다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.지역별 여행지는 Select Bar 형식으로 보여진다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>요구사항 내역</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>UI/UX(축제)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행 중 축제정보를 제공</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행 예정 축제정보를 제공</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/UX(포토게시판)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글 작성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/UX(포토게시판)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글 수정, 삭제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>각 지역마다 축제정보를 화면에 제공</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기간 별(월별)축제정보를 화면에 제공</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 진행 중인 축제정보만 화면에 제공</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행지 사진으로만 이루어진 포토게시판 작성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>포토 게시판의 게시글 정보를 삭제, 수정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색 태그</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색 태그 선택을 통한 페이지 이동</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/ UX (여행지)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>요구사항 내역</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>UI/UX</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI/UX(축제)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>진행 중 축제정보를 제공</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>진행 예정 축제정보를 제공</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.Select Bar 형식들은 지역명의 이름으로 보여진다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.지역별 축제는 Select Bar 형식으로 보여진다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.지역(이름)클릭시 지역별 축제 페이지로 이동한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.각 지역별 축제 페이지는 축제들을 썸네일 형태의 사진(1개)과 짧은 글(50자내외)로 제공한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.축제인 썸네일 형태의 사진과 짧은글은 리스트 형식으로 나열된다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.썸네일 클릭시 축제 상세 페이지로 이동한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>7.축제 상세페이지는 회전목마형태의 사진을 제공한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>8.축제 상세페이지는 축제에 대한 설명과 상세정보(문의 및 안내, 주소, 홈페이지, 휴일 등)을 제공한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>9.축제 상세페이지는 축제의 위치를 API 지도로 제공한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.기간별 축제는 회전목마형식으로 보여진다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.회전목마형식들은 월별로 축제사진을 제공한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.축제사진 클릭시 해당 축제 페이지로 이동한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.축제 상세페이지는 회전목마형태의 사진을 제공한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.축제 상세페이지는 축제에 대한 설명과 상세정보(문의 및 안내, 주소, 홈페이지, 휴일 등)을 제공한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.축제 상세페이지는 축제의 위치를 API 지도로 제공한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.진행 중인 축제는 회전목마형식으로 보여진다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.회전목마형식들은 진행 중인 축제사진을 제공한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.진행 예정 축제는 회전목마형식으로 보여진다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.회전목마형식들은 진행 예정인 축제사진을 제공한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI/UX(포토게시판)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>게시글 작성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.포토 게시판은 화면란에 썸네일 형태로 보여진다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.각 썸네일은 상단 사진, 하단 부제목,제목 순으로 구성된다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4. 각 썸네일은 제목 우측에 누적 조회수를 제공한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.썸네일은 화면단에 최대6개로 구성이 되며 6개 초과서 페이지 전환 처리 해야한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.썸네일에 마우스를 올릴시 사진이 축소된다(썸네일 크기는 그대로, 사진만)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>7.썸네일 클릭시 각 포토상세 페이지로 이동한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>9.중단-맵api를 제공하여 사진의 장소에 마커를 표시할 수 있다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.하단-댓글란을 제공한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>11.댓글은 관리자,회원만 작성할 수 있다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>12.비회원은 포토 상세페이지를 볼 수 없다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI/UX(포토게시판)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>게시글 수정, 삭제</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.관리자 및 회원은 게시글을 수정, 삭제 할 수 있다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.관리자 및 회원은 포토 게시판을 작성 할 수 있다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.수정 및 삭제 버튼은 포토 상세 페이지란 하단에 위치한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3. 수정시 게시글 작성 페이지로 전환된다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.삭제시 포토 상세 페이지 및 썸네일은 소멸된다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>8-1.상단- 포토 상세 페이지를 작성시 반드시 사진 1장이상을 포함해아한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>8-2.사진은 썸네일 대표사진을 지정할 수 있다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>8-3.사진 좌측, 게시글 우측으로 구성된다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>8-4.게시글은 200자 이하로만 작성이 가능하다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>각 지역마다 축제정보를 화면에 제공</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>기간 별(월별)축제정보를 화면에 제공</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>현재 진행 중인 축제정보만 화면에 제공</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>여행지 사진으로만 이루어진 포토게시판 작성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>포토 게시판의 게시글 정보를 삭제, 수정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>검색 태그</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>검색 태그 선택을 통한 페이지 이동</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI/ UX (여행지)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>요구사항 내역</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.검색 태그 클릭시 페이지로 이동한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.여행지 페이지 여행정보 제공 상단에 여행지 연관검색어 등을 #홍길동 형태로 제공한다.</t>
+    <t>지역별 여행지는 Select Bar 형식으로 보여진다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Select Bar 형식들은 지역명의 이름으로 보여진다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역(이름)클릭시 지역별 여행지 페이지로 이동한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>각 지역별 여행지 페이지는 여행지들을 썸네일 형태의 사진(1개)과 짧은 글(50자내외)로 제공한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행지인 썸네일 형태의 사진과 짧은글은 리스트 형식으로 나열된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>썸네일 클릭시 여행지 상세 페이지로 이동한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행지 상세페이지는 회전목마형태의 사진을 제공한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행 상세페이지는 여행지에 대한 설명과 상세정보(문의 및 안내, 주소, 홈페이지, 휴일 등)을 제공한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행지 상세페이지는 여행지의 위치를 API 지도로 제공한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>계절별 여행지 상단에는 봄,여름,가을,겨울 select 창이 존재한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>클릭시 비동기 형태로 계절별 추천 여행지를 보여준다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>썸네일 형태를 클릭시 여행지 상세 페이지로 이동한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>클릭시 비동기 형태로 계절별 추천여행지를 보여준다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행지 페이지 여행정보 제공 상단에 여행지 연관검색어 등을 #홍길동 형태로 제공한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색 태그 클릭시 페이지로 이동한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역별 축제는 Select Bar 형식으로 보여진다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역(이름)클릭시 지역별 축제 페이지로 이동한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>각 지역별 축제 페이지는 축제들을 썸네일 형태의 사진(1개)과 짧은 글(50자내외)로 제공한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>축제인 썸네일 형태의 사진과 짧은글은 리스트 형식으로 나열된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>썸네일 클릭시 축제 상세 페이지로 이동한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>축제 상세페이지는 회전목마형태의 사진을 제공한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>축제 상세페이지는 축제에 대한 설명과 상세정보(문의 및 안내, 주소, 홈페이지, 휴일 등)을 제공한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>축제 상세페이지는 축제의 위치를 API 지도로 제공한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기간별 축제는 회전목마형식으로 보여진다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회전목마형식들은 월별로 축제사진을 제공한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>축제사진 클릭시 해당 축제 페이지로 이동한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행 중인 축제는 회전목마형식으로 보여진다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회전목마형식들은 진행 중인 축제사진을 제공한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행 예정 축제는 회전목마형식으로 보여진다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회전목마형식들은 진행 예정인 축제사진을 제공한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자 및 회원은 포토 게시판을 작성 할 수 있다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>포토 게시판은 화면란에 썸네일 형태로 보여진다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>각 썸네일은 상단 사진, 하단 부제목,제목 순으로 구성된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>각 썸네일은 제목 우측에 누적 조회수를 제공한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>썸네일은 화면단에 최대6개로 구성이 되며 6개 초과서 페이지 전환 처리 해야한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>썸네일에 마우스를 올릴시 사진이 축소된다(썸네일 크기는 그대로, 사진만)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>썸네일 클릭시 각 포토상세 페이지로 이동한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-1.상단- 포토 상세 페이지를 작성시 반드시 사진 1장이상을 포함해아한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-2.사진은 썸네일 대표사진을 지정할 수 있다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-3.사진 좌측, 게시글 우측으로 구성된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-4.게시글은 200자 이하로만 작성이 가능하다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글은 관리자,회원만 작성할 수 있다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비회원은 포토 상세페이지를 볼 수 없다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.중단-맵api를 제공하여 사진의 장소에 마커를 표시할 수 있다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.하단-댓글란을 제공한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자 및 회원은 게시글을 수정, 삭제 할 수 있다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정 및 삭제 버튼은 포토 상세 페이지란 하단에 위치한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정시 게시글 작성 페이지로 전환된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>삭제시 포토 상세 페이지 및 썸네일은 소멸된다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1406,7 +1357,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1467,6 +1418,111 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1476,42 +1532,6 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1521,131 +1541,29 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1712,7 +1630,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1747,7 +1665,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1969,10 +1887,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="23" t="s">
         <v>110</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -1983,43 +1901,43 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="42"/>
-      <c r="B3" s="51"/>
+      <c r="A3" s="28"/>
+      <c r="B3" s="23"/>
       <c r="C3" s="4" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="42"/>
-      <c r="B4" s="51"/>
+      <c r="A4" s="28"/>
+      <c r="B4" s="23"/>
       <c r="C4" s="4" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="42"/>
-      <c r="B5" s="51"/>
+      <c r="A5" s="28"/>
+      <c r="B5" s="23"/>
       <c r="C5" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="42"/>
-      <c r="B6" s="51"/>
+      <c r="A6" s="28"/>
+      <c r="B6" s="23"/>
       <c r="C6" s="4" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="42"/>
-      <c r="B7" s="51"/>
+      <c r="A7" s="28"/>
+      <c r="B7" s="23"/>
       <c r="C7" s="11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="42"/>
-      <c r="B8" s="51" t="s">
+      <c r="A8" s="28"/>
+      <c r="B8" s="23" t="s">
         <v>101</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -2030,29 +1948,29 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="42"/>
-      <c r="B9" s="51"/>
+      <c r="A9" s="28"/>
+      <c r="B9" s="23"/>
       <c r="C9" s="5" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="42"/>
-      <c r="B10" s="51"/>
+      <c r="A10" s="28"/>
+      <c r="B10" s="23"/>
       <c r="C10" s="4" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="42"/>
-      <c r="B11" s="51"/>
+      <c r="A11" s="28"/>
+      <c r="B11" s="23"/>
       <c r="C11" s="11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="42"/>
-      <c r="B12" s="51" t="s">
+      <c r="A12" s="28"/>
+      <c r="B12" s="23" t="s">
         <v>102</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -2063,50 +1981,50 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="42"/>
-      <c r="B13" s="51"/>
+      <c r="A13" s="28"/>
+      <c r="B13" s="23"/>
       <c r="C13" s="4" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="42"/>
-      <c r="B14" s="51"/>
+      <c r="A14" s="28"/>
+      <c r="B14" s="23"/>
       <c r="C14" s="4" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="42"/>
-      <c r="B15" s="51"/>
+      <c r="A15" s="28"/>
+      <c r="B15" s="23"/>
       <c r="C15" s="4" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="42"/>
-      <c r="B16" s="51"/>
+      <c r="A16" s="28"/>
+      <c r="B16" s="23"/>
       <c r="C16" s="3" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="42"/>
-      <c r="B17" s="51"/>
+      <c r="A17" s="28"/>
+      <c r="B17" s="23"/>
       <c r="C17" s="5" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="42"/>
-      <c r="B18" s="51"/>
+      <c r="A18" s="28"/>
+      <c r="B18" s="23"/>
       <c r="C18" s="11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="42"/>
-      <c r="B19" s="51" t="s">
+      <c r="A19" s="28"/>
+      <c r="B19" s="23" t="s">
         <v>103</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -2117,35 +2035,35 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="42"/>
-      <c r="B20" s="51"/>
+      <c r="A20" s="28"/>
+      <c r="B20" s="23"/>
       <c r="C20" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" s="42"/>
-      <c r="B21" s="51"/>
+      <c r="A21" s="28"/>
+      <c r="B21" s="23"/>
       <c r="C21" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A22" s="42"/>
-      <c r="B22" s="51"/>
+      <c r="A22" s="28"/>
+      <c r="B22" s="23"/>
       <c r="C22" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A23" s="42"/>
-      <c r="B23" s="51"/>
+      <c r="A23" s="28"/>
+      <c r="B23" s="23"/>
       <c r="C23" s="11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A24" s="42"/>
+      <c r="A24" s="28"/>
       <c r="B24" s="8" t="s">
         <v>109</v>
       </c>
@@ -2154,7 +2072,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A25" s="42"/>
+      <c r="A25" s="28"/>
       <c r="B25" s="8" t="s">
         <v>7</v>
       </c>
@@ -2163,8 +2081,8 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A26" s="42"/>
-      <c r="B26" s="51" t="s">
+      <c r="A26" s="28"/>
+      <c r="B26" s="23" t="s">
         <v>9</v>
       </c>
       <c r="C26" s="7" t="s">
@@ -2172,15 +2090,15 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" s="42"/>
-      <c r="B27" s="51"/>
+      <c r="A27" s="28"/>
+      <c r="B27" s="23"/>
       <c r="C27" s="7" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" s="42"/>
-      <c r="B28" s="39" t="s">
+      <c r="A28" s="28"/>
+      <c r="B28" s="25" t="s">
         <v>66</v>
       </c>
       <c r="C28" s="4" t="s">
@@ -2188,15 +2106,15 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A29" s="42"/>
-      <c r="B29" s="40"/>
+      <c r="A29" s="28"/>
+      <c r="B29" s="26"/>
       <c r="C29" s="4" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A30" s="42"/>
-      <c r="B30" s="39" t="s">
+      <c r="A30" s="28"/>
+      <c r="B30" s="25" t="s">
         <v>68</v>
       </c>
       <c r="C30" s="4" t="s">
@@ -2204,17 +2122,17 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A31" s="43"/>
-      <c r="B31" s="40"/>
+      <c r="A31" s="29"/>
+      <c r="B31" s="26"/>
       <c r="C31" s="4" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A32" s="38" t="s">
+      <c r="A32" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="B32" s="51" t="s">
+      <c r="B32" s="23" t="s">
         <v>104</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -2225,36 +2143,36 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A33" s="38"/>
-      <c r="B33" s="51"/>
+      <c r="A33" s="24"/>
+      <c r="B33" s="23"/>
       <c r="C33" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A34" s="38"/>
-      <c r="B34" s="51"/>
+      <c r="A34" s="24"/>
+      <c r="B34" s="23"/>
       <c r="C34" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A35" s="38"/>
-      <c r="B35" s="51"/>
+      <c r="A35" s="24"/>
+      <c r="B35" s="23"/>
       <c r="C35" s="4" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="38"/>
-      <c r="B36" s="51"/>
+      <c r="A36" s="24"/>
+      <c r="B36" s="23"/>
       <c r="C36" s="1" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37" s="38"/>
-      <c r="B37" s="50" t="s">
+      <c r="A37" s="24"/>
+      <c r="B37" s="36" t="s">
         <v>105</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -2265,57 +2183,57 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A38" s="38"/>
-      <c r="B38" s="50"/>
+      <c r="A38" s="24"/>
+      <c r="B38" s="36"/>
       <c r="C38" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A39" s="38"/>
-      <c r="B39" s="50"/>
+      <c r="A39" s="24"/>
+      <c r="B39" s="36"/>
       <c r="C39" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A40" s="38"/>
-      <c r="B40" s="50"/>
+      <c r="A40" s="24"/>
+      <c r="B40" s="36"/>
       <c r="C40" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A41" s="38"/>
-      <c r="B41" s="50"/>
+      <c r="A41" s="24"/>
+      <c r="B41" s="36"/>
       <c r="C41" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A42" s="38"/>
-      <c r="B42" s="50"/>
+      <c r="A42" s="24"/>
+      <c r="B42" s="36"/>
       <c r="C42" s="4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A43" s="38"/>
-      <c r="B43" s="50"/>
+      <c r="A43" s="24"/>
+      <c r="B43" s="36"/>
       <c r="C43" s="4" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A44" s="38"/>
-      <c r="B44" s="50"/>
+      <c r="A44" s="24"/>
+      <c r="B44" s="36"/>
       <c r="C44" s="1" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A45" s="38"/>
-      <c r="B45" s="51" t="s">
+      <c r="A45" s="24"/>
+      <c r="B45" s="23" t="s">
         <v>106</v>
       </c>
       <c r="C45" s="1" t="s">
@@ -2326,50 +2244,50 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A46" s="38"/>
-      <c r="B46" s="51"/>
+      <c r="A46" s="24"/>
+      <c r="B46" s="23"/>
       <c r="C46" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A47" s="38"/>
-      <c r="B47" s="51"/>
+      <c r="A47" s="24"/>
+      <c r="B47" s="23"/>
       <c r="C47" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A48" s="38"/>
-      <c r="B48" s="51"/>
+      <c r="A48" s="24"/>
+      <c r="B48" s="23"/>
       <c r="C48" s="4" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A49" s="38"/>
-      <c r="B49" s="51"/>
+      <c r="A49" s="24"/>
+      <c r="B49" s="23"/>
       <c r="C49" s="4" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A50" s="38"/>
-      <c r="B50" s="51"/>
+      <c r="A50" s="24"/>
+      <c r="B50" s="23"/>
       <c r="C50" s="3" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A51" s="38"/>
-      <c r="B51" s="51"/>
+      <c r="A51" s="24"/>
+      <c r="B51" s="23"/>
       <c r="C51" s="1" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A52" s="38"/>
-      <c r="B52" s="51" t="s">
+      <c r="A52" s="24"/>
+      <c r="B52" s="23" t="s">
         <v>107</v>
       </c>
       <c r="C52" s="1" t="s">
@@ -2380,50 +2298,50 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A53" s="38"/>
-      <c r="B53" s="51"/>
+      <c r="A53" s="24"/>
+      <c r="B53" s="23"/>
       <c r="C53" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A54" s="38"/>
-      <c r="B54" s="51"/>
+      <c r="A54" s="24"/>
+      <c r="B54" s="23"/>
       <c r="C54" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A55" s="38"/>
-      <c r="B55" s="51"/>
+      <c r="A55" s="24"/>
+      <c r="B55" s="23"/>
       <c r="C55" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A56" s="38"/>
-      <c r="B56" s="51"/>
+      <c r="A56" s="24"/>
+      <c r="B56" s="23"/>
       <c r="C56" s="3" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A57" s="38"/>
-      <c r="B57" s="51"/>
+      <c r="A57" s="24"/>
+      <c r="B57" s="23"/>
       <c r="C57" s="3" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="38"/>
-      <c r="B58" s="51"/>
+      <c r="A58" s="24"/>
+      <c r="B58" s="23"/>
       <c r="C58" s="1" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="38"/>
-      <c r="B59" s="51" t="s">
+      <c r="A59" s="24"/>
+      <c r="B59" s="23" t="s">
         <v>108</v>
       </c>
       <c r="C59" s="3" t="s">
@@ -2434,66 +2352,66 @@
       </c>
     </row>
     <row r="60" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="38"/>
-      <c r="B60" s="51"/>
+      <c r="A60" s="24"/>
+      <c r="B60" s="23"/>
       <c r="C60" s="4" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="38"/>
-      <c r="B61" s="51"/>
+      <c r="A61" s="24"/>
+      <c r="B61" s="23"/>
       <c r="C61" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="38"/>
-      <c r="B62" s="51"/>
+      <c r="A62" s="24"/>
+      <c r="B62" s="23"/>
       <c r="C62" s="4" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="38"/>
-      <c r="B63" s="51"/>
+      <c r="A63" s="24"/>
+      <c r="B63" s="23"/>
       <c r="C63" s="4" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="38"/>
-      <c r="B64" s="51"/>
+      <c r="A64" s="24"/>
+      <c r="B64" s="23"/>
       <c r="C64" s="10" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="38"/>
-      <c r="B65" s="51"/>
+      <c r="A65" s="24"/>
+      <c r="B65" s="23"/>
       <c r="C65" s="10" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="38"/>
-      <c r="B66" s="51"/>
+      <c r="A66" s="24"/>
+      <c r="B66" s="23"/>
       <c r="C66" s="10" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="38"/>
-      <c r="B67" s="51"/>
+      <c r="A67" s="24"/>
+      <c r="B67" s="23"/>
       <c r="C67" s="11" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A68" s="38" t="s">
+      <c r="A68" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="B68" s="39" t="s">
+      <c r="B68" s="25" t="s">
         <v>21</v>
       </c>
       <c r="C68" s="3" t="s">
@@ -2501,43 +2419,43 @@
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A69" s="38"/>
-      <c r="B69" s="52"/>
+      <c r="A69" s="24"/>
+      <c r="B69" s="37"/>
       <c r="C69" s="3" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A70" s="38"/>
-      <c r="B70" s="52"/>
+      <c r="A70" s="24"/>
+      <c r="B70" s="37"/>
       <c r="C70" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A71" s="38"/>
-      <c r="B71" s="52"/>
+      <c r="A71" s="24"/>
+      <c r="B71" s="37"/>
       <c r="C71" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A72" s="38"/>
-      <c r="B72" s="52"/>
+      <c r="A72" s="24"/>
+      <c r="B72" s="37"/>
       <c r="C72" s="4" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A73" s="38"/>
-      <c r="B73" s="40"/>
+      <c r="A73" s="24"/>
+      <c r="B73" s="26"/>
       <c r="C73" s="4" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A74" s="38"/>
-      <c r="B74" s="51" t="s">
+      <c r="A74" s="24"/>
+      <c r="B74" s="23" t="s">
         <v>25</v>
       </c>
       <c r="C74" s="3" t="s">
@@ -2545,22 +2463,22 @@
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A75" s="38"/>
-      <c r="B75" s="51"/>
+      <c r="A75" s="24"/>
+      <c r="B75" s="23"/>
       <c r="C75" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A76" s="38"/>
-      <c r="B76" s="51"/>
+      <c r="A76" s="24"/>
+      <c r="B76" s="23"/>
       <c r="C76" s="4" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A77" s="38"/>
-      <c r="B77" s="51" t="s">
+      <c r="A77" s="24"/>
+      <c r="B77" s="23" t="s">
         <v>17</v>
       </c>
       <c r="C77" s="1" t="s">
@@ -2568,52 +2486,52 @@
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A78" s="38"/>
-      <c r="B78" s="51"/>
+      <c r="A78" s="24"/>
+      <c r="B78" s="23"/>
       <c r="C78" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A79" s="38"/>
-      <c r="B79" s="51"/>
+      <c r="A79" s="24"/>
+      <c r="B79" s="23"/>
       <c r="C79" s="3" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A80" s="38"/>
-      <c r="B80" s="51"/>
+      <c r="A80" s="24"/>
+      <c r="B80" s="23"/>
       <c r="C80" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A81" s="38"/>
-      <c r="B81" s="51"/>
+      <c r="A81" s="24"/>
+      <c r="B81" s="23"/>
       <c r="C81" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A82" s="38"/>
-      <c r="B82" s="51"/>
+      <c r="A82" s="24"/>
+      <c r="B82" s="23"/>
       <c r="C82" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A83" s="38"/>
-      <c r="B83" s="51"/>
+      <c r="A83" s="24"/>
+      <c r="B83" s="23"/>
       <c r="C83" s="5" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A84" s="38" t="s">
+      <c r="A84" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="B84" s="44" t="s">
+      <c r="B84" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C84" s="1" t="s">
@@ -2621,36 +2539,36 @@
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A85" s="38"/>
-      <c r="B85" s="45"/>
+      <c r="A85" s="24"/>
+      <c r="B85" s="31"/>
       <c r="C85" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A86" s="38"/>
-      <c r="B86" s="45"/>
+      <c r="A86" s="24"/>
+      <c r="B86" s="31"/>
       <c r="C86" s="4" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A87" s="38"/>
-      <c r="B87" s="45"/>
+      <c r="A87" s="24"/>
+      <c r="B87" s="31"/>
       <c r="C87" s="4" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A88" s="38"/>
-      <c r="B88" s="46"/>
+      <c r="A88" s="24"/>
+      <c r="B88" s="32"/>
       <c r="C88" s="4" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A89" s="38"/>
-      <c r="B89" s="44" t="s">
+      <c r="A89" s="24"/>
+      <c r="B89" s="30" t="s">
         <v>31</v>
       </c>
       <c r="C89" s="3" t="s">
@@ -2658,15 +2576,15 @@
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A90" s="38"/>
-      <c r="B90" s="46"/>
+      <c r="A90" s="24"/>
+      <c r="B90" s="32"/>
       <c r="C90" s="3" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A91" s="38"/>
-      <c r="B91" s="47" t="s">
+      <c r="A91" s="24"/>
+      <c r="B91" s="33" t="s">
         <v>38</v>
       </c>
       <c r="C91" s="3" t="s">
@@ -2674,14 +2592,14 @@
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A92" s="38"/>
-      <c r="B92" s="48"/>
+      <c r="A92" s="24"/>
+      <c r="B92" s="34"/>
       <c r="C92" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A93" s="38"/>
+      <c r="A93" s="24"/>
       <c r="B93" s="13" t="s">
         <v>40</v>
       </c>
@@ -2690,8 +2608,8 @@
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A94" s="38"/>
-      <c r="B94" s="49" t="s">
+      <c r="A94" s="24"/>
+      <c r="B94" s="35" t="s">
         <v>33</v>
       </c>
       <c r="C94" s="3" t="s">
@@ -2699,36 +2617,36 @@
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A95" s="38"/>
-      <c r="B95" s="49"/>
+      <c r="A95" s="24"/>
+      <c r="B95" s="35"/>
       <c r="C95" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A96" s="38"/>
-      <c r="B96" s="49"/>
+      <c r="A96" s="24"/>
+      <c r="B96" s="35"/>
       <c r="C96" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A97" s="38"/>
-      <c r="B97" s="49"/>
+      <c r="A97" s="24"/>
+      <c r="B97" s="35"/>
       <c r="C97" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B107" s="38"/>
+      <c r="B107" s="24"/>
       <c r="C107" s="4"/>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B108" s="38"/>
+      <c r="B108" s="24"/>
       <c r="C108" s="4"/>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B109" s="38"/>
+      <c r="B109" s="24"/>
       <c r="C109" s="4"/>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.15">
@@ -2737,14 +2655,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B77:B83"/>
-    <mergeCell ref="B59:B67"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="B12:B18"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B32:B36"/>
     <mergeCell ref="B107:B109"/>
     <mergeCell ref="A32:A67"/>
     <mergeCell ref="A68:A83"/>
@@ -2761,6 +2671,14 @@
     <mergeCell ref="B52:B58"/>
     <mergeCell ref="B68:B73"/>
     <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B77:B83"/>
+    <mergeCell ref="B59:B67"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="B12:B18"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B32:B36"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2770,10 +2688,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G114"/>
+  <dimension ref="A1:G106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2783,21 +2701,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="51" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="55" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="48" t="s">
         <v>128</v>
       </c>
-      <c r="D1" s="56"/>
-      <c r="E1" s="57"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="50"/>
     </row>
     <row r="2" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="59"/>
+      <c r="B2" s="39"/>
       <c r="C2" s="14"/>
       <c r="D2" s="15" t="s">
         <v>120</v>
@@ -2807,130 +2725,130 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="60" t="s">
+      <c r="B3" s="39"/>
+      <c r="C3" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="D3" s="61"/>
-      <c r="E3" s="62"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="42"/>
     </row>
     <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="55" t="s">
+        <v>134</v>
+      </c>
+      <c r="B4" s="53" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" s="45" t="s">
+        <v>151</v>
+      </c>
+      <c r="D4" s="46"/>
+      <c r="E4" s="47"/>
+    </row>
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="56"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="58" t="s">
         <v>152</v>
       </c>
-      <c r="B4" s="63" t="s">
-        <v>122</v>
-      </c>
-      <c r="C4" s="65" t="s">
-        <v>151</v>
-      </c>
-      <c r="D4" s="66"/>
-      <c r="E4" s="67"/>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="69"/>
-      <c r="B5" s="64"/>
-      <c r="C5" s="71" t="s">
-        <v>158</v>
-      </c>
-      <c r="D5" s="72"/>
-      <c r="E5" s="73"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="60"/>
       <c r="G5" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="69"/>
-      <c r="B6" s="64"/>
-      <c r="C6" s="71" t="s">
-        <v>129</v>
-      </c>
-      <c r="D6" s="72"/>
-      <c r="E6" s="73"/>
+      <c r="A6" s="56"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="58" t="s">
+        <v>153</v>
+      </c>
+      <c r="D6" s="59"/>
+      <c r="E6" s="60"/>
     </row>
     <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="69"/>
-      <c r="B7" s="64"/>
-      <c r="C7" s="71" t="s">
-        <v>130</v>
-      </c>
-      <c r="D7" s="72"/>
-      <c r="E7" s="73"/>
+      <c r="A7" s="56"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="58" t="s">
+        <v>154</v>
+      </c>
+      <c r="D7" s="59"/>
+      <c r="E7" s="60"/>
     </row>
     <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="69"/>
-      <c r="B8" s="64"/>
-      <c r="C8" s="71" t="s">
-        <v>131</v>
-      </c>
-      <c r="D8" s="72"/>
-      <c r="E8" s="73"/>
+      <c r="A8" s="56"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="58" t="s">
+        <v>155</v>
+      </c>
+      <c r="D8" s="59"/>
+      <c r="E8" s="60"/>
     </row>
     <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="69"/>
-      <c r="B9" s="64"/>
-      <c r="C9" s="71" t="s">
-        <v>132</v>
-      </c>
-      <c r="D9" s="72"/>
-      <c r="E9" s="73"/>
+      <c r="A9" s="56"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="58" t="s">
+        <v>156</v>
+      </c>
+      <c r="D9" s="59"/>
+      <c r="E9" s="60"/>
     </row>
     <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="69"/>
-      <c r="B10" s="64"/>
-      <c r="C10" s="71" t="s">
+      <c r="A10" s="56"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="58" t="s">
+        <v>157</v>
+      </c>
+      <c r="D10" s="59"/>
+      <c r="E10" s="60"/>
+    </row>
+    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A11" s="56"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="58" t="s">
+        <v>158</v>
+      </c>
+      <c r="D11" s="59"/>
+      <c r="E11" s="60"/>
+    </row>
+    <row r="12" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="56"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="58" t="s">
+        <v>159</v>
+      </c>
+      <c r="D12" s="59"/>
+      <c r="E12" s="60"/>
+    </row>
+    <row r="13" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="57"/>
+      <c r="B13" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="D10" s="72"/>
-      <c r="E10" s="73"/>
-    </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="69"/>
-      <c r="B11" s="64"/>
-      <c r="C11" s="71" t="s">
-        <v>134</v>
-      </c>
-      <c r="D11" s="72"/>
-      <c r="E11" s="73"/>
-    </row>
-    <row r="12" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="69"/>
-      <c r="B12" s="64"/>
-      <c r="C12" s="71" t="s">
-        <v>135</v>
-      </c>
-      <c r="D12" s="72"/>
-      <c r="E12" s="73"/>
-    </row>
-    <row r="13" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="70"/>
-      <c r="B13" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="C13" s="74"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="75"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="44"/>
     </row>
     <row r="14" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="15" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="53" t="s">
+      <c r="A15" s="51" t="s">
         <v>118</v>
       </c>
-      <c r="B15" s="54"/>
-      <c r="C15" s="55" t="s">
-        <v>136</v>
-      </c>
-      <c r="D15" s="56"/>
-      <c r="E15" s="57"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="48" t="s">
+        <v>129</v>
+      </c>
+      <c r="D15" s="49"/>
+      <c r="E15" s="50"/>
     </row>
     <row r="16" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="58" t="s">
+      <c r="A16" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="B16" s="59"/>
+      <c r="B16" s="39"/>
       <c r="C16" s="14"/>
       <c r="D16" s="15" t="s">
         <v>120</v>
@@ -2940,964 +2858,892 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="58" t="s">
+      <c r="A17" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="B17" s="59"/>
-      <c r="C17" s="60" t="s">
+      <c r="B17" s="39"/>
+      <c r="C17" s="40" t="s">
+        <v>130</v>
+      </c>
+      <c r="D17" s="41"/>
+      <c r="E17" s="42"/>
+    </row>
+    <row r="18" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="55" t="s">
+        <v>134</v>
+      </c>
+      <c r="B18" s="53" t="s">
+        <v>122</v>
+      </c>
+      <c r="C18" s="45" t="s">
+        <v>160</v>
+      </c>
+      <c r="D18" s="46"/>
+      <c r="E18" s="47"/>
+    </row>
+    <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A19" s="56"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="58" t="s">
+        <v>161</v>
+      </c>
+      <c r="D19" s="59"/>
+      <c r="E19" s="60"/>
+    </row>
+    <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A20" s="56"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="58" t="s">
+        <v>162</v>
+      </c>
+      <c r="D20" s="59"/>
+      <c r="E20" s="60"/>
+    </row>
+    <row r="21" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="56"/>
+      <c r="B21" s="64"/>
+      <c r="C21" s="61" t="s">
+        <v>163</v>
+      </c>
+      <c r="D21" s="62"/>
+      <c r="E21" s="63"/>
+    </row>
+    <row r="22" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="57"/>
+      <c r="B22" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="C22" s="43"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="44"/>
+    </row>
+    <row r="24" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="51" t="s">
+        <v>118</v>
+      </c>
+      <c r="B25" s="52"/>
+      <c r="C25" s="48" t="s">
+        <v>149</v>
+      </c>
+      <c r="D25" s="49"/>
+      <c r="E25" s="50"/>
+    </row>
+    <row r="26" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="B26" s="39"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="B27" s="39"/>
+      <c r="C27" s="40" t="s">
+        <v>148</v>
+      </c>
+      <c r="D27" s="41"/>
+      <c r="E27" s="42"/>
+    </row>
+    <row r="28" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="55" t="s">
+        <v>150</v>
+      </c>
+      <c r="B28" s="65" t="s">
+        <v>122</v>
+      </c>
+      <c r="C28" s="45" t="s">
+        <v>164</v>
+      </c>
+      <c r="D28" s="46"/>
+      <c r="E28" s="47"/>
+    </row>
+    <row r="29" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="56"/>
+      <c r="B29" s="67"/>
+      <c r="C29" s="61" t="s">
+        <v>165</v>
+      </c>
+      <c r="D29" s="62"/>
+      <c r="E29" s="63"/>
+    </row>
+    <row r="30" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="57"/>
+      <c r="B30" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="C30" s="43"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="44"/>
+    </row>
+    <row r="31" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="51" t="s">
+        <v>118</v>
+      </c>
+      <c r="B32" s="52"/>
+      <c r="C32" s="48" t="s">
+        <v>135</v>
+      </c>
+      <c r="D32" s="49"/>
+      <c r="E32" s="50"/>
+    </row>
+    <row r="33" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="B33" s="39"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="E33" s="19" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="B34" s="39"/>
+      <c r="C34" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="D34" s="41"/>
+      <c r="E34" s="42"/>
+    </row>
+    <row r="35" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="55" t="s">
+        <v>134</v>
+      </c>
+      <c r="B35" s="65" t="s">
+        <v>122</v>
+      </c>
+      <c r="C35" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="D35" s="46"/>
+      <c r="E35" s="47"/>
+    </row>
+    <row r="36" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A36" s="56"/>
+      <c r="B36" s="66"/>
+      <c r="C36" s="58" t="s">
+        <v>152</v>
+      </c>
+      <c r="D36" s="59"/>
+      <c r="E36" s="60"/>
+    </row>
+    <row r="37" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A37" s="56"/>
+      <c r="B37" s="66"/>
+      <c r="C37" s="58" t="s">
+        <v>167</v>
+      </c>
+      <c r="D37" s="59"/>
+      <c r="E37" s="60"/>
+    </row>
+    <row r="38" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A38" s="56"/>
+      <c r="B38" s="66"/>
+      <c r="C38" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="D38" s="59"/>
+      <c r="E38" s="60"/>
+    </row>
+    <row r="39" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A39" s="56"/>
+      <c r="B39" s="66"/>
+      <c r="C39" s="58" t="s">
+        <v>169</v>
+      </c>
+      <c r="D39" s="59"/>
+      <c r="E39" s="60"/>
+    </row>
+    <row r="40" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A40" s="56"/>
+      <c r="B40" s="66"/>
+      <c r="C40" s="58" t="s">
+        <v>170</v>
+      </c>
+      <c r="D40" s="59"/>
+      <c r="E40" s="60"/>
+    </row>
+    <row r="41" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A41" s="56"/>
+      <c r="B41" s="66"/>
+      <c r="C41" s="58" t="s">
+        <v>171</v>
+      </c>
+      <c r="D41" s="59"/>
+      <c r="E41" s="60"/>
+    </row>
+    <row r="42" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A42" s="56"/>
+      <c r="B42" s="66"/>
+      <c r="C42" s="58" t="s">
+        <v>172</v>
+      </c>
+      <c r="D42" s="59"/>
+      <c r="E42" s="60"/>
+    </row>
+    <row r="43" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="56"/>
+      <c r="B43" s="67"/>
+      <c r="C43" s="61" t="s">
+        <v>173</v>
+      </c>
+      <c r="D43" s="62"/>
+      <c r="E43" s="63"/>
+    </row>
+    <row r="44" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="57"/>
+      <c r="B44" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="C44" s="43"/>
+      <c r="D44" s="41"/>
+      <c r="E44" s="44"/>
+    </row>
+    <row r="45" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="51" t="s">
+        <v>118</v>
+      </c>
+      <c r="B46" s="52"/>
+      <c r="C46" s="48" t="s">
+        <v>135</v>
+      </c>
+      <c r="D46" s="49"/>
+      <c r="E46" s="50"/>
+    </row>
+    <row r="47" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="B47" s="39"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="E47" s="19" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="B48" s="39"/>
+      <c r="C48" s="40" t="s">
+        <v>143</v>
+      </c>
+      <c r="D48" s="41"/>
+      <c r="E48" s="42"/>
+    </row>
+    <row r="49" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="55" t="s">
+        <v>134</v>
+      </c>
+      <c r="B49" s="65" t="s">
+        <v>122</v>
+      </c>
+      <c r="C49" s="45" t="s">
+        <v>174</v>
+      </c>
+      <c r="D49" s="46"/>
+      <c r="E49" s="47"/>
+    </row>
+    <row r="50" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A50" s="56"/>
+      <c r="B50" s="66"/>
+      <c r="C50" s="58" t="s">
+        <v>175</v>
+      </c>
+      <c r="D50" s="59"/>
+      <c r="E50" s="60"/>
+    </row>
+    <row r="51" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A51" s="56"/>
+      <c r="B51" s="66"/>
+      <c r="C51" s="58" t="s">
+        <v>176</v>
+      </c>
+      <c r="D51" s="59"/>
+      <c r="E51" s="60"/>
+    </row>
+    <row r="52" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A52" s="56"/>
+      <c r="B52" s="66"/>
+      <c r="C52" s="58" t="s">
+        <v>171</v>
+      </c>
+      <c r="D52" s="59"/>
+      <c r="E52" s="60"/>
+    </row>
+    <row r="53" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A53" s="56"/>
+      <c r="B53" s="66"/>
+      <c r="C53" s="58" t="s">
+        <v>172</v>
+      </c>
+      <c r="D53" s="59"/>
+      <c r="E53" s="60"/>
+    </row>
+    <row r="54" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="56"/>
+      <c r="B54" s="67"/>
+      <c r="C54" s="61" t="s">
+        <v>173</v>
+      </c>
+      <c r="D54" s="62"/>
+      <c r="E54" s="63"/>
+    </row>
+    <row r="55" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="57"/>
+      <c r="B55" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="C55" s="43"/>
+      <c r="D55" s="41"/>
+      <c r="E55" s="44"/>
+    </row>
+    <row r="56" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="57" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="51" t="s">
+        <v>118</v>
+      </c>
+      <c r="B57" s="52"/>
+      <c r="C57" s="48" t="s">
+        <v>135</v>
+      </c>
+      <c r="D57" s="49"/>
+      <c r="E57" s="50"/>
+    </row>
+    <row r="58" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="B58" s="39"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="E58" s="19" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="B59" s="39"/>
+      <c r="C59" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="D59" s="41"/>
+      <c r="E59" s="42"/>
+    </row>
+    <row r="60" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="55" t="s">
+        <v>134</v>
+      </c>
+      <c r="B60" s="65" t="s">
+        <v>122</v>
+      </c>
+      <c r="C60" s="45" t="s">
+        <v>177</v>
+      </c>
+      <c r="D60" s="46"/>
+      <c r="E60" s="47"/>
+    </row>
+    <row r="61" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A61" s="56"/>
+      <c r="B61" s="66"/>
+      <c r="C61" s="58" t="s">
+        <v>178</v>
+      </c>
+      <c r="D61" s="59"/>
+      <c r="E61" s="60"/>
+    </row>
+    <row r="62" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A62" s="56"/>
+      <c r="B62" s="66"/>
+      <c r="C62" s="58" t="s">
+        <v>176</v>
+      </c>
+      <c r="D62" s="59"/>
+      <c r="E62" s="60"/>
+    </row>
+    <row r="63" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A63" s="56"/>
+      <c r="B63" s="66"/>
+      <c r="C63" s="58" t="s">
+        <v>171</v>
+      </c>
+      <c r="D63" s="59"/>
+      <c r="E63" s="60"/>
+    </row>
+    <row r="64" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A64" s="56"/>
+      <c r="B64" s="66"/>
+      <c r="C64" s="58" t="s">
+        <v>172</v>
+      </c>
+      <c r="D64" s="59"/>
+      <c r="E64" s="60"/>
+    </row>
+    <row r="65" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="56"/>
+      <c r="B65" s="67"/>
+      <c r="C65" s="61" t="s">
+        <v>173</v>
+      </c>
+      <c r="D65" s="62"/>
+      <c r="E65" s="63"/>
+    </row>
+    <row r="66" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="57"/>
+      <c r="B66" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="C66" s="43"/>
+      <c r="D66" s="41"/>
+      <c r="E66" s="44"/>
+    </row>
+    <row r="67" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="68" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="51" t="s">
+        <v>118</v>
+      </c>
+      <c r="B68" s="52"/>
+      <c r="C68" s="48" t="s">
+        <v>135</v>
+      </c>
+      <c r="D68" s="49"/>
+      <c r="E68" s="50"/>
+    </row>
+    <row r="69" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="B69" s="39"/>
+      <c r="C69" s="14"/>
+      <c r="D69" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="E69" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="D17" s="61"/>
-      <c r="E17" s="62"/>
-    </row>
-    <row r="18" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="68" t="s">
-        <v>152</v>
-      </c>
-      <c r="B18" s="63" t="s">
+    </row>
+    <row r="70" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="B70" s="39"/>
+      <c r="C70" s="40"/>
+      <c r="D70" s="41"/>
+      <c r="E70" s="42"/>
+    </row>
+    <row r="71" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="55" t="s">
+        <v>134</v>
+      </c>
+      <c r="B71" s="65" t="s">
         <v>122</v>
       </c>
-      <c r="C18" s="65" t="s">
-        <v>143</v>
-      </c>
-      <c r="D18" s="66"/>
-      <c r="E18" s="67"/>
-    </row>
-    <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="69"/>
-      <c r="B19" s="64"/>
-      <c r="C19" s="71" t="s">
-        <v>144</v>
-      </c>
-      <c r="D19" s="72"/>
-      <c r="E19" s="73"/>
-    </row>
-    <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A20" s="69"/>
-      <c r="B20" s="64"/>
-      <c r="C20" s="71" t="s">
+      <c r="C71" s="45" t="s">
+        <v>179</v>
+      </c>
+      <c r="D71" s="46"/>
+      <c r="E71" s="47"/>
+    </row>
+    <row r="72" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A72" s="56"/>
+      <c r="B72" s="66"/>
+      <c r="C72" s="58" t="s">
+        <v>180</v>
+      </c>
+      <c r="D72" s="59"/>
+      <c r="E72" s="60"/>
+    </row>
+    <row r="73" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A73" s="56"/>
+      <c r="B73" s="66"/>
+      <c r="C73" s="58" t="s">
+        <v>176</v>
+      </c>
+      <c r="D73" s="59"/>
+      <c r="E73" s="60"/>
+    </row>
+    <row r="74" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A74" s="56"/>
+      <c r="B74" s="66"/>
+      <c r="C74" s="58" t="s">
+        <v>171</v>
+      </c>
+      <c r="D74" s="59"/>
+      <c r="E74" s="60"/>
+    </row>
+    <row r="75" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A75" s="56"/>
+      <c r="B75" s="66"/>
+      <c r="C75" s="58" t="s">
+        <v>172</v>
+      </c>
+      <c r="D75" s="59"/>
+      <c r="E75" s="60"/>
+    </row>
+    <row r="76" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="56"/>
+      <c r="B76" s="67"/>
+      <c r="C76" s="61" t="s">
+        <v>173</v>
+      </c>
+      <c r="D76" s="62"/>
+      <c r="E76" s="63"/>
+    </row>
+    <row r="77" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="57"/>
+      <c r="B77" s="68" t="s">
+        <v>123</v>
+      </c>
+      <c r="C77" s="43"/>
+      <c r="D77" s="41"/>
+      <c r="E77" s="44"/>
+    </row>
+    <row r="78" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="79" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="51" t="s">
+        <v>118</v>
+      </c>
+      <c r="B79" s="52"/>
+      <c r="C79" s="48" t="s">
+        <v>138</v>
+      </c>
+      <c r="D79" s="49"/>
+      <c r="E79" s="50"/>
+    </row>
+    <row r="80" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="B80" s="39"/>
+      <c r="C80" s="14"/>
+      <c r="D80" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="E80" s="19" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="B81" s="39"/>
+      <c r="C81" s="40" t="s">
         <v>145</v>
       </c>
-      <c r="D20" s="72"/>
-      <c r="E20" s="73"/>
-    </row>
-    <row r="21" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="69"/>
-      <c r="B21" s="76"/>
-      <c r="C21" s="77" t="s">
+      <c r="D81" s="41"/>
+      <c r="E81" s="42"/>
+    </row>
+    <row r="82" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="55" t="s">
+        <v>134</v>
+      </c>
+      <c r="B82" s="65" t="s">
+        <v>122</v>
+      </c>
+      <c r="C82" s="45" t="s">
+        <v>181</v>
+      </c>
+      <c r="D82" s="46"/>
+      <c r="E82" s="47"/>
+    </row>
+    <row r="83" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A83" s="56"/>
+      <c r="B83" s="66"/>
+      <c r="C83" s="58" t="s">
+        <v>182</v>
+      </c>
+      <c r="D83" s="59"/>
+      <c r="E83" s="60"/>
+    </row>
+    <row r="84" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A84" s="56"/>
+      <c r="B84" s="66"/>
+      <c r="C84" s="58" t="s">
+        <v>183</v>
+      </c>
+      <c r="D84" s="59"/>
+      <c r="E84" s="60"/>
+    </row>
+    <row r="85" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A85" s="56"/>
+      <c r="B85" s="66"/>
+      <c r="C85" s="58" t="s">
+        <v>184</v>
+      </c>
+      <c r="D85" s="59"/>
+      <c r="E85" s="60"/>
+    </row>
+    <row r="86" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A86" s="56"/>
+      <c r="B86" s="66"/>
+      <c r="C86" s="58" t="s">
+        <v>185</v>
+      </c>
+      <c r="D86" s="59"/>
+      <c r="E86" s="60"/>
+    </row>
+    <row r="87" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A87" s="56"/>
+      <c r="B87" s="66"/>
+      <c r="C87" s="58" t="s">
+        <v>186</v>
+      </c>
+      <c r="D87" s="59"/>
+      <c r="E87" s="60"/>
+    </row>
+    <row r="88" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A88" s="56"/>
+      <c r="B88" s="66"/>
+      <c r="C88" s="58" t="s">
+        <v>187</v>
+      </c>
+      <c r="D88" s="59"/>
+      <c r="E88" s="60"/>
+    </row>
+    <row r="89" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A89" s="56"/>
+      <c r="B89" s="66"/>
+      <c r="C89" s="58" t="s">
+        <v>188</v>
+      </c>
+      <c r="D89" s="59"/>
+      <c r="E89" s="60"/>
+    </row>
+    <row r="90" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A90" s="56"/>
+      <c r="B90" s="66"/>
+      <c r="C90" s="58" t="s">
+        <v>189</v>
+      </c>
+      <c r="D90" s="59"/>
+      <c r="E90" s="60"/>
+    </row>
+    <row r="91" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A91" s="56"/>
+      <c r="B91" s="66"/>
+      <c r="C91" s="58" t="s">
+        <v>190</v>
+      </c>
+      <c r="D91" s="59"/>
+      <c r="E91" s="60"/>
+    </row>
+    <row r="92" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A92" s="56"/>
+      <c r="B92" s="66"/>
+      <c r="C92" s="58" t="s">
+        <v>191</v>
+      </c>
+      <c r="D92" s="59"/>
+      <c r="E92" s="60"/>
+    </row>
+    <row r="93" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A93" s="56"/>
+      <c r="B93" s="66"/>
+      <c r="C93" s="58" t="s">
+        <v>194</v>
+      </c>
+      <c r="D93" s="59"/>
+      <c r="E93" s="60"/>
+    </row>
+    <row r="94" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A94" s="56"/>
+      <c r="B94" s="66"/>
+      <c r="C94" s="58" t="s">
+        <v>195</v>
+      </c>
+      <c r="D94" s="59"/>
+      <c r="E94" s="60"/>
+    </row>
+    <row r="95" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A95" s="56"/>
+      <c r="B95" s="66"/>
+      <c r="C95" s="58" t="s">
+        <v>192</v>
+      </c>
+      <c r="D95" s="59"/>
+      <c r="E95" s="60"/>
+    </row>
+    <row r="96" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="56"/>
+      <c r="B96" s="67"/>
+      <c r="C96" s="61" t="s">
+        <v>193</v>
+      </c>
+      <c r="D96" s="62"/>
+      <c r="E96" s="63"/>
+    </row>
+    <row r="97" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="57"/>
+      <c r="B97" s="68" t="s">
+        <v>123</v>
+      </c>
+      <c r="C97" s="43"/>
+      <c r="D97" s="41"/>
+      <c r="E97" s="44"/>
+    </row>
+    <row r="98" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="99" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="51" t="s">
+        <v>118</v>
+      </c>
+      <c r="B99" s="52"/>
+      <c r="C99" s="48" t="s">
+        <v>140</v>
+      </c>
+      <c r="D99" s="49"/>
+      <c r="E99" s="50"/>
+    </row>
+    <row r="100" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="B100" s="39"/>
+      <c r="C100" s="14"/>
+      <c r="D100" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="E100" s="19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="B101" s="39"/>
+      <c r="C101" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="D21" s="78"/>
-      <c r="E21" s="79"/>
-    </row>
-    <row r="22" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="70"/>
-      <c r="B22" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="C22" s="74"/>
-      <c r="D22" s="61"/>
-      <c r="E22" s="75"/>
-    </row>
-    <row r="23" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="53" t="s">
-        <v>118</v>
-      </c>
-      <c r="B24" s="54"/>
-      <c r="C24" s="55" t="s">
-        <v>154</v>
-      </c>
-      <c r="D24" s="56"/>
-      <c r="E24" s="57"/>
-    </row>
-    <row r="25" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="58" t="s">
-        <v>119</v>
-      </c>
-      <c r="B25" s="59"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="E25" s="17" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="58" t="s">
-        <v>121</v>
-      </c>
-      <c r="B26" s="59"/>
-      <c r="C26" s="60" t="s">
-        <v>138</v>
-      </c>
-      <c r="D26" s="61"/>
-      <c r="E26" s="62"/>
-    </row>
-    <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A27" s="68" t="s">
-        <v>153</v>
-      </c>
-      <c r="B27" s="63" t="s">
+      <c r="D101" s="21"/>
+      <c r="E101" s="22"/>
+    </row>
+    <row r="102" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A102" s="55" t="s">
+        <v>134</v>
+      </c>
+      <c r="B102" s="65" t="s">
         <v>122</v>
       </c>
-      <c r="C27" s="65" t="s">
-        <v>147</v>
-      </c>
-      <c r="D27" s="66"/>
-      <c r="E27" s="67"/>
-    </row>
-    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A28" s="69"/>
-      <c r="B28" s="64"/>
-      <c r="C28" s="71" t="s">
-        <v>148</v>
-      </c>
-      <c r="D28" s="72"/>
-      <c r="E28" s="73"/>
-    </row>
-    <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A29" s="69"/>
-      <c r="B29" s="64"/>
-      <c r="C29" s="71" t="s">
-        <v>149</v>
-      </c>
-      <c r="D29" s="72"/>
-      <c r="E29" s="73"/>
-    </row>
-    <row r="30" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="69"/>
-      <c r="B30" s="64"/>
-      <c r="C30" s="71" t="s">
-        <v>150</v>
-      </c>
-      <c r="D30" s="72"/>
-      <c r="E30" s="73"/>
-    </row>
-    <row r="31" spans="1:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="70"/>
-      <c r="B31" s="18" t="s">
+      <c r="C102" s="45" t="s">
+        <v>196</v>
+      </c>
+      <c r="D102" s="46"/>
+      <c r="E102" s="47"/>
+    </row>
+    <row r="103" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A103" s="56"/>
+      <c r="B103" s="66"/>
+      <c r="C103" s="58" t="s">
+        <v>197</v>
+      </c>
+      <c r="D103" s="59"/>
+      <c r="E103" s="60"/>
+    </row>
+    <row r="104" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A104" s="56"/>
+      <c r="B104" s="66"/>
+      <c r="C104" s="58" t="s">
+        <v>198</v>
+      </c>
+      <c r="D104" s="59"/>
+      <c r="E104" s="60"/>
+    </row>
+    <row r="105" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="56"/>
+      <c r="B105" s="67"/>
+      <c r="C105" s="61" t="s">
+        <v>199</v>
+      </c>
+      <c r="D105" s="62"/>
+      <c r="E105" s="63"/>
+    </row>
+    <row r="106" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="57"/>
+      <c r="B106" s="68" t="s">
         <v>123</v>
       </c>
-      <c r="C31" s="74"/>
-      <c r="D31" s="61"/>
-      <c r="E31" s="75"/>
-    </row>
-    <row r="32" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="33" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="53" t="s">
-        <v>118</v>
-      </c>
-      <c r="B33" s="54"/>
-      <c r="C33" s="55" t="s">
-        <v>207</v>
-      </c>
-      <c r="D33" s="56"/>
-      <c r="E33" s="57"/>
-    </row>
-    <row r="34" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="B34" s="26"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="E34" s="19" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="58" t="s">
-        <v>121</v>
-      </c>
-      <c r="B35" s="59"/>
-      <c r="C35" s="60" t="s">
-        <v>206</v>
-      </c>
-      <c r="D35" s="61"/>
-      <c r="E35" s="62"/>
-    </row>
-    <row r="36" spans="1:5" ht="33" x14ac:dyDescent="0.15">
-      <c r="A36" s="20" t="s">
-        <v>208</v>
-      </c>
-      <c r="B36" s="30" t="s">
-        <v>122</v>
-      </c>
-      <c r="C36" s="65" t="s">
-        <v>210</v>
-      </c>
-      <c r="D36" s="66"/>
-      <c r="E36" s="67"/>
-    </row>
-    <row r="37" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="21"/>
-      <c r="B37" s="31"/>
-      <c r="C37" s="77" t="s">
-        <v>209</v>
-      </c>
-      <c r="D37" s="78"/>
-      <c r="E37" s="79"/>
-    </row>
-    <row r="38" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="22"/>
-      <c r="B38" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="C38" s="74"/>
-      <c r="D38" s="61"/>
-      <c r="E38" s="75"/>
-    </row>
-    <row r="39" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="40" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="53" t="s">
-        <v>118</v>
-      </c>
-      <c r="B40" s="54"/>
-      <c r="C40" s="55" t="s">
-        <v>155</v>
-      </c>
-      <c r="D40" s="56"/>
-      <c r="E40" s="57"/>
-    </row>
-    <row r="41" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="B41" s="26"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="E41" s="19" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="58" t="s">
-        <v>121</v>
-      </c>
-      <c r="B42" s="59"/>
-      <c r="C42" s="60" t="s">
-        <v>200</v>
-      </c>
-      <c r="D42" s="61"/>
-      <c r="E42" s="62"/>
-    </row>
-    <row r="43" spans="1:5" ht="33" x14ac:dyDescent="0.15">
-      <c r="A43" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="B43" s="30" t="s">
-        <v>122</v>
-      </c>
-      <c r="C43" s="32" t="s">
-        <v>159</v>
-      </c>
-      <c r="D43" s="33"/>
-      <c r="E43" s="34"/>
-    </row>
-    <row r="44" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A44" s="21"/>
-      <c r="B44" s="31"/>
-      <c r="C44" s="35" t="s">
-        <v>158</v>
-      </c>
-      <c r="D44" s="36"/>
-      <c r="E44" s="37"/>
-    </row>
-    <row r="45" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A45" s="21"/>
-      <c r="B45" s="31"/>
-      <c r="C45" s="35" t="s">
-        <v>160</v>
-      </c>
-      <c r="D45" s="36"/>
-      <c r="E45" s="37"/>
-    </row>
-    <row r="46" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A46" s="21"/>
-      <c r="B46" s="31"/>
-      <c r="C46" s="35" t="s">
-        <v>161</v>
-      </c>
-      <c r="D46" s="36"/>
-      <c r="E46" s="37"/>
-    </row>
-    <row r="47" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A47" s="21"/>
-      <c r="B47" s="31"/>
-      <c r="C47" s="35" t="s">
-        <v>162</v>
-      </c>
-      <c r="D47" s="36"/>
-      <c r="E47" s="37"/>
-    </row>
-    <row r="48" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A48" s="21"/>
-      <c r="B48" s="31"/>
-      <c r="C48" s="35" t="s">
-        <v>163</v>
-      </c>
-      <c r="D48" s="36"/>
-      <c r="E48" s="37"/>
-    </row>
-    <row r="49" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A49" s="21"/>
-      <c r="B49" s="31"/>
-      <c r="C49" s="35" t="s">
-        <v>164</v>
-      </c>
-      <c r="D49" s="36"/>
-      <c r="E49" s="37"/>
-    </row>
-    <row r="50" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A50" s="21"/>
-      <c r="B50" s="31"/>
-      <c r="C50" s="35" t="s">
-        <v>165</v>
-      </c>
-      <c r="D50" s="36"/>
-      <c r="E50" s="37"/>
-    </row>
-    <row r="51" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="21"/>
-      <c r="B51" s="31"/>
-      <c r="C51" s="35" t="s">
-        <v>166</v>
-      </c>
-      <c r="D51" s="36"/>
-      <c r="E51" s="37"/>
-    </row>
-    <row r="52" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="22"/>
-      <c r="B52" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="C52" s="74"/>
-      <c r="D52" s="61"/>
-      <c r="E52" s="75"/>
-    </row>
-    <row r="53" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="54" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="B54" s="24"/>
-      <c r="C54" s="55" t="s">
-        <v>155</v>
-      </c>
-      <c r="D54" s="56"/>
-      <c r="E54" s="57"/>
-    </row>
-    <row r="55" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="B55" s="26"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="E55" s="19" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="58" t="s">
-        <v>121</v>
-      </c>
-      <c r="B56" s="59"/>
-      <c r="C56" s="60" t="s">
-        <v>201</v>
-      </c>
-      <c r="D56" s="61"/>
-      <c r="E56" s="62"/>
-    </row>
-    <row r="57" spans="1:5" ht="33" x14ac:dyDescent="0.15">
-      <c r="A57" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="B57" s="30" t="s">
-        <v>122</v>
-      </c>
-      <c r="C57" s="32" t="s">
-        <v>167</v>
-      </c>
-      <c r="D57" s="33"/>
-      <c r="E57" s="34"/>
-    </row>
-    <row r="58" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A58" s="21"/>
-      <c r="B58" s="31"/>
-      <c r="C58" s="35" t="s">
-        <v>168</v>
-      </c>
-      <c r="D58" s="36"/>
-      <c r="E58" s="37"/>
-    </row>
-    <row r="59" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A59" s="21"/>
-      <c r="B59" s="31"/>
-      <c r="C59" s="35" t="s">
-        <v>169</v>
-      </c>
-      <c r="D59" s="36"/>
-      <c r="E59" s="37"/>
-    </row>
-    <row r="60" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A60" s="21"/>
-      <c r="B60" s="31"/>
-      <c r="C60" s="35" t="s">
-        <v>170</v>
-      </c>
-      <c r="D60" s="36"/>
-      <c r="E60" s="37"/>
-    </row>
-    <row r="61" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A61" s="21"/>
-      <c r="B61" s="31"/>
-      <c r="C61" s="35" t="s">
-        <v>171</v>
-      </c>
-      <c r="D61" s="36"/>
-      <c r="E61" s="37"/>
-    </row>
-    <row r="62" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="21"/>
-      <c r="B62" s="31"/>
-      <c r="C62" s="35" t="s">
-        <v>172</v>
-      </c>
-      <c r="D62" s="36"/>
-      <c r="E62" s="37"/>
-    </row>
-    <row r="63" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="22"/>
-      <c r="B63" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="C63" s="74"/>
-      <c r="D63" s="61"/>
-      <c r="E63" s="75"/>
-    </row>
-    <row r="64" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="65" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="B65" s="24"/>
-      <c r="C65" s="55" t="s">
-        <v>155</v>
-      </c>
-      <c r="D65" s="56"/>
-      <c r="E65" s="57"/>
-    </row>
-    <row r="66" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="B66" s="26"/>
-      <c r="C66" s="14"/>
-      <c r="D66" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="E66" s="19" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="58" t="s">
-        <v>121</v>
-      </c>
-      <c r="B67" s="59"/>
-      <c r="C67" s="60" t="s">
-        <v>202</v>
-      </c>
-      <c r="D67" s="61"/>
-      <c r="E67" s="62"/>
-    </row>
-    <row r="68" spans="1:5" ht="33" x14ac:dyDescent="0.15">
-      <c r="A68" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="B68" s="30" t="s">
-        <v>122</v>
-      </c>
-      <c r="C68" s="32" t="s">
-        <v>173</v>
-      </c>
-      <c r="D68" s="33"/>
-      <c r="E68" s="34"/>
-    </row>
-    <row r="69" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A69" s="21"/>
-      <c r="B69" s="31"/>
-      <c r="C69" s="35" t="s">
-        <v>174</v>
-      </c>
-      <c r="D69" s="36"/>
-      <c r="E69" s="37"/>
-    </row>
-    <row r="70" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A70" s="21"/>
-      <c r="B70" s="31"/>
-      <c r="C70" s="35" t="s">
-        <v>169</v>
-      </c>
-      <c r="D70" s="36"/>
-      <c r="E70" s="37"/>
-    </row>
-    <row r="71" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A71" s="21"/>
-      <c r="B71" s="31"/>
-      <c r="C71" s="35" t="s">
-        <v>170</v>
-      </c>
-      <c r="D71" s="36"/>
-      <c r="E71" s="37"/>
-    </row>
-    <row r="72" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A72" s="21"/>
-      <c r="B72" s="31"/>
-      <c r="C72" s="35" t="s">
-        <v>171</v>
-      </c>
-      <c r="D72" s="36"/>
-      <c r="E72" s="37"/>
-    </row>
-    <row r="73" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="21"/>
-      <c r="B73" s="31"/>
-      <c r="C73" s="35" t="s">
-        <v>172</v>
-      </c>
-      <c r="D73" s="36"/>
-      <c r="E73" s="37"/>
-    </row>
-    <row r="74" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="22"/>
-      <c r="B74" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="C74" s="74"/>
-      <c r="D74" s="61"/>
-      <c r="E74" s="75"/>
-    </row>
-    <row r="75" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="76" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="B76" s="24"/>
-      <c r="C76" s="55" t="s">
-        <v>155</v>
-      </c>
-      <c r="D76" s="56"/>
-      <c r="E76" s="57"/>
-    </row>
-    <row r="77" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="B77" s="26"/>
-      <c r="C77" s="14"/>
-      <c r="D77" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="E77" s="19" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="B78" s="26"/>
-      <c r="C78" s="60"/>
-      <c r="D78" s="61"/>
-      <c r="E78" s="62"/>
-    </row>
-    <row r="79" spans="1:5" ht="33" x14ac:dyDescent="0.15">
-      <c r="A79" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="B79" s="30" t="s">
-        <v>122</v>
-      </c>
-      <c r="C79" s="32" t="s">
-        <v>175</v>
-      </c>
-      <c r="D79" s="33"/>
-      <c r="E79" s="34"/>
-    </row>
-    <row r="80" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A80" s="21"/>
-      <c r="B80" s="31"/>
-      <c r="C80" s="35" t="s">
-        <v>176</v>
-      </c>
-      <c r="D80" s="36"/>
-      <c r="E80" s="37"/>
-    </row>
-    <row r="81" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A81" s="21"/>
-      <c r="B81" s="31"/>
-      <c r="C81" s="35" t="s">
-        <v>169</v>
-      </c>
-      <c r="D81" s="36"/>
-      <c r="E81" s="37"/>
-    </row>
-    <row r="82" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A82" s="21"/>
-      <c r="B82" s="31"/>
-      <c r="C82" s="35" t="s">
-        <v>170</v>
-      </c>
-      <c r="D82" s="36"/>
-      <c r="E82" s="37"/>
-    </row>
-    <row r="83" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A83" s="21"/>
-      <c r="B83" s="31"/>
-      <c r="C83" s="35" t="s">
-        <v>171</v>
-      </c>
-      <c r="D83" s="36"/>
-      <c r="E83" s="37"/>
-    </row>
-    <row r="84" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="21"/>
-      <c r="B84" s="31"/>
-      <c r="C84" s="35" t="s">
-        <v>172</v>
-      </c>
-      <c r="D84" s="36"/>
-      <c r="E84" s="37"/>
-    </row>
-    <row r="85" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="22"/>
-      <c r="B85" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="C85" s="74"/>
-      <c r="D85" s="61"/>
-      <c r="E85" s="75"/>
-    </row>
-    <row r="86" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="87" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="B87" s="24"/>
-      <c r="C87" s="55" t="s">
-        <v>177</v>
-      </c>
-      <c r="D87" s="56"/>
-      <c r="E87" s="57"/>
-    </row>
-    <row r="88" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="B88" s="26"/>
-      <c r="C88" s="14"/>
-      <c r="D88" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="E88" s="19" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="58" t="s">
-        <v>121</v>
-      </c>
-      <c r="B89" s="59"/>
-      <c r="C89" s="60" t="s">
-        <v>203</v>
-      </c>
-      <c r="D89" s="61"/>
-      <c r="E89" s="62"/>
-    </row>
-    <row r="90" spans="1:5" ht="33" x14ac:dyDescent="0.15">
-      <c r="A90" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="B90" s="30" t="s">
-        <v>122</v>
-      </c>
-      <c r="C90" s="32" t="s">
-        <v>192</v>
-      </c>
-      <c r="D90" s="33"/>
-      <c r="E90" s="34"/>
-    </row>
-    <row r="91" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A91" s="21"/>
-      <c r="B91" s="31"/>
-      <c r="C91" s="35" t="s">
-        <v>179</v>
-      </c>
-      <c r="D91" s="36"/>
-      <c r="E91" s="37"/>
-    </row>
-    <row r="92" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A92" s="21"/>
-      <c r="B92" s="31"/>
-      <c r="C92" s="35" t="s">
-        <v>180</v>
-      </c>
-      <c r="D92" s="36"/>
-      <c r="E92" s="37"/>
-    </row>
-    <row r="93" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A93" s="21"/>
-      <c r="B93" s="31"/>
-      <c r="C93" s="35" t="s">
-        <v>181</v>
-      </c>
-      <c r="D93" s="36"/>
-      <c r="E93" s="37"/>
-    </row>
-    <row r="94" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A94" s="21"/>
-      <c r="B94" s="31"/>
-      <c r="C94" s="35" t="s">
-        <v>182</v>
-      </c>
-      <c r="D94" s="36"/>
-      <c r="E94" s="37"/>
-    </row>
-    <row r="95" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A95" s="21"/>
-      <c r="B95" s="31"/>
-      <c r="C95" s="35" t="s">
-        <v>183</v>
-      </c>
-      <c r="D95" s="36"/>
-      <c r="E95" s="37"/>
-    </row>
-    <row r="96" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A96" s="21"/>
-      <c r="B96" s="31"/>
-      <c r="C96" s="35" t="s">
-        <v>184</v>
-      </c>
-      <c r="D96" s="36"/>
-      <c r="E96" s="37"/>
-    </row>
-    <row r="97" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A97" s="21"/>
-      <c r="B97" s="31"/>
-      <c r="C97" s="35" t="s">
-        <v>196</v>
-      </c>
-      <c r="D97" s="36"/>
-      <c r="E97" s="37"/>
-    </row>
-    <row r="98" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A98" s="21"/>
-      <c r="B98" s="31"/>
-      <c r="C98" s="35" t="s">
-        <v>197</v>
-      </c>
-      <c r="D98" s="36"/>
-      <c r="E98" s="37"/>
-    </row>
-    <row r="99" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A99" s="21"/>
-      <c r="B99" s="31"/>
-      <c r="C99" s="35" t="s">
-        <v>198</v>
-      </c>
-      <c r="D99" s="36"/>
-      <c r="E99" s="37"/>
-    </row>
-    <row r="100" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A100" s="21"/>
-      <c r="B100" s="31"/>
-      <c r="C100" s="35" t="s">
-        <v>199</v>
-      </c>
-      <c r="D100" s="36"/>
-      <c r="E100" s="37"/>
-    </row>
-    <row r="101" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A101" s="21"/>
-      <c r="B101" s="31"/>
-      <c r="C101" s="35" t="s">
-        <v>185</v>
-      </c>
-      <c r="D101" s="36"/>
-      <c r="E101" s="37"/>
-    </row>
-    <row r="102" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A102" s="21"/>
-      <c r="B102" s="31"/>
-      <c r="C102" s="35" t="s">
-        <v>186</v>
-      </c>
-      <c r="D102" s="36"/>
-      <c r="E102" s="37"/>
-    </row>
-    <row r="103" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A103" s="21"/>
-      <c r="B103" s="31"/>
-      <c r="C103" s="35" t="s">
-        <v>187</v>
-      </c>
-      <c r="D103" s="36"/>
-      <c r="E103" s="37"/>
-    </row>
-    <row r="104" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="21"/>
-      <c r="B104" s="31"/>
-      <c r="C104" s="35" t="s">
-        <v>188</v>
-      </c>
-      <c r="D104" s="36"/>
-      <c r="E104" s="37"/>
-    </row>
-    <row r="105" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="22"/>
-      <c r="B105" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="C105" s="74"/>
-      <c r="D105" s="61"/>
-      <c r="E105" s="75"/>
-    </row>
-    <row r="106" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="107" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="B107" s="24"/>
-      <c r="C107" s="55" t="s">
-        <v>189</v>
-      </c>
-      <c r="D107" s="56"/>
-      <c r="E107" s="57"/>
-    </row>
-    <row r="108" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="B108" s="26"/>
-      <c r="C108" s="14"/>
-      <c r="D108" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="E108" s="19" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="B109" s="26"/>
-      <c r="C109" s="27" t="s">
-        <v>204</v>
-      </c>
-      <c r="D109" s="28"/>
-      <c r="E109" s="29"/>
-    </row>
-    <row r="110" spans="1:5" ht="33" x14ac:dyDescent="0.15">
-      <c r="A110" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="B110" s="30" t="s">
-        <v>122</v>
-      </c>
-      <c r="C110" s="32" t="s">
-        <v>191</v>
-      </c>
-      <c r="D110" s="33"/>
-      <c r="E110" s="34"/>
-    </row>
-    <row r="111" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A111" s="21"/>
-      <c r="B111" s="31"/>
-      <c r="C111" s="35" t="s">
-        <v>193</v>
-      </c>
-      <c r="D111" s="36"/>
-      <c r="E111" s="37"/>
-    </row>
-    <row r="112" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A112" s="21"/>
-      <c r="B112" s="31"/>
-      <c r="C112" s="35" t="s">
-        <v>194</v>
-      </c>
-      <c r="D112" s="36"/>
-      <c r="E112" s="37"/>
-    </row>
-    <row r="113" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="21"/>
-      <c r="B113" s="31"/>
-      <c r="C113" s="35" t="s">
-        <v>195</v>
-      </c>
-      <c r="D113" s="36"/>
-      <c r="E113" s="37"/>
-    </row>
-    <row r="114" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="22"/>
-      <c r="B114" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="C114" s="74"/>
-      <c r="D114" s="61"/>
-      <c r="E114" s="75"/>
+      <c r="C106" s="43"/>
+      <c r="D106" s="41"/>
+      <c r="E106" s="44"/>
     </row>
   </sheetData>
-  <mergeCells count="70">
-    <mergeCell ref="A42:B42"/>
+  <mergeCells count="132">
+    <mergeCell ref="A102:A106"/>
+    <mergeCell ref="A82:A97"/>
+    <mergeCell ref="B82:B96"/>
+    <mergeCell ref="B102:B105"/>
+    <mergeCell ref="B71:B76"/>
+    <mergeCell ref="A71:A77"/>
+    <mergeCell ref="C103:E103"/>
+    <mergeCell ref="C104:E104"/>
+    <mergeCell ref="C105:E105"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C93:E93"/>
+    <mergeCell ref="C94:E94"/>
+    <mergeCell ref="C95:E95"/>
+    <mergeCell ref="C96:E96"/>
+    <mergeCell ref="C102:E102"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="C43:E43"/>
     <mergeCell ref="C42:E42"/>
-    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="C39:E39"/>
     <mergeCell ref="C38:E38"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="C114:E114"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="C67:E67"/>
-    <mergeCell ref="C74:E74"/>
-    <mergeCell ref="C63:E63"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="C89:E89"/>
-    <mergeCell ref="C78:E78"/>
-    <mergeCell ref="C85:E85"/>
+    <mergeCell ref="C37:E37"/>
     <mergeCell ref="C36:E36"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="C65:E65"/>
-    <mergeCell ref="C107:E107"/>
-    <mergeCell ref="C87:E87"/>
-    <mergeCell ref="C76:E76"/>
-    <mergeCell ref="C105:E105"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
     <mergeCell ref="B4:B12"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="A18:A22"/>
@@ -3914,21 +3760,70 @@
     <mergeCell ref="C12:E12"/>
     <mergeCell ref="C22:E22"/>
     <mergeCell ref="C19:E19"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="C99:E99"/>
+    <mergeCell ref="C79:E79"/>
+    <mergeCell ref="C68:E68"/>
+    <mergeCell ref="C97:E97"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="C60:E60"/>
+    <mergeCell ref="C61:E61"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="C63:E63"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="C71:E71"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:E81"/>
+    <mergeCell ref="C70:E70"/>
+    <mergeCell ref="C77:E77"/>
+    <mergeCell ref="C73:E73"/>
+    <mergeCell ref="C72:E72"/>
+    <mergeCell ref="C74:E74"/>
+    <mergeCell ref="C75:E75"/>
+    <mergeCell ref="C76:E76"/>
+    <mergeCell ref="A60:A66"/>
+    <mergeCell ref="B60:B65"/>
+    <mergeCell ref="A49:A55"/>
+    <mergeCell ref="B49:B54"/>
+    <mergeCell ref="C106:E106"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="C66:E66"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="C82:E82"/>
+    <mergeCell ref="C83:E83"/>
+    <mergeCell ref="C84:E84"/>
+    <mergeCell ref="C85:E85"/>
+    <mergeCell ref="C86:E86"/>
+    <mergeCell ref="C87:E87"/>
+    <mergeCell ref="C88:E88"/>
+    <mergeCell ref="C89:E89"/>
+    <mergeCell ref="C90:E90"/>
+    <mergeCell ref="C91:E91"/>
+    <mergeCell ref="C92:E92"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="A35:A44"/>
+    <mergeCell ref="B35:B43"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/요구사항_합본2_team2_최경열.xlsx
+++ b/doc/요구사항_합본2_team2_최경열.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="201">
   <si>
     <t>지역별로 여행지를 제공한다</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -626,255 +626,258 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>UI/UX(포토게시판)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글 작성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/UX(포토게시판)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글 수정, 삭제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>각 지역마다 축제정보를 화면에 제공</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기간 별(월별)축제정보를 화면에 제공</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 진행 중인 축제정보만 화면에 제공</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행지 사진으로만 이루어진 포토게시판 작성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>포토 게시판의 게시글 정보를 삭제, 수정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색 태그</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색 태그 선택을 통한 페이지 이동</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/ UX (여행지)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>요구사항 내역</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역별 여행지는 Select Bar 형식으로 보여진다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Select Bar 형식들은 지역명의 이름으로 보여진다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역(이름)클릭시 지역별 여행지 페이지로 이동한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>각 지역별 여행지 페이지는 여행지들을 썸네일 형태의 사진(1개)과 짧은 글(50자내외)로 제공한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행지인 썸네일 형태의 사진과 짧은글은 리스트 형식으로 나열된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>썸네일 클릭시 여행지 상세 페이지로 이동한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행지 상세페이지는 회전목마형태의 사진을 제공한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행 상세페이지는 여행지에 대한 설명과 상세정보(문의 및 안내, 주소, 홈페이지, 휴일 등)을 제공한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행지 상세페이지는 여행지의 위치를 API 지도로 제공한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>계절별 여행지 상단에는 봄,여름,가을,겨울 select 창이 존재한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>클릭시 비동기 형태로 계절별 추천 여행지를 보여준다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>썸네일 형태를 클릭시 여행지 상세 페이지로 이동한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>클릭시 비동기 형태로 계절별 추천여행지를 보여준다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행지 페이지 여행정보 제공 상단에 여행지 연관검색어 등을 #홍길동 형태로 제공한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색 태그 클릭시 페이지로 이동한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역별 축제는 Select Bar 형식으로 보여진다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역(이름)클릭시 지역별 축제 페이지로 이동한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>각 지역별 축제 페이지는 축제들을 썸네일 형태의 사진(1개)과 짧은 글(50자내외)로 제공한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>축제인 썸네일 형태의 사진과 짧은글은 리스트 형식으로 나열된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>썸네일 클릭시 축제 상세 페이지로 이동한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>축제 상세페이지는 회전목마형태의 사진을 제공한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>축제 상세페이지는 축제에 대한 설명과 상세정보(문의 및 안내, 주소, 홈페이지, 휴일 등)을 제공한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>축제 상세페이지는 축제의 위치를 API 지도로 제공한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기간별 축제는 회전목마형식으로 보여진다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회전목마형식들은 월별로 축제사진을 제공한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>축제사진 클릭시 해당 축제 페이지로 이동한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행 중인 축제는 회전목마형식으로 보여진다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회전목마형식들은 진행 중인 축제사진을 제공한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행 예정 축제는 회전목마형식으로 보여진다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회전목마형식들은 진행 예정인 축제사진을 제공한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자 및 회원은 포토 게시판을 작성 할 수 있다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>포토 게시판은 화면란에 썸네일 형태로 보여진다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>각 썸네일은 상단 사진, 하단 부제목,제목 순으로 구성된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>각 썸네일은 제목 우측에 누적 조회수를 제공한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>썸네일은 화면단에 최대6개로 구성이 되며 6개 초과서 페이지 전환 처리 해야한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>썸네일에 마우스를 올릴시 사진이 축소된다(썸네일 크기는 그대로, 사진만)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>썸네일 클릭시 각 포토상세 페이지로 이동한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-1.상단- 포토 상세 페이지를 작성시 반드시 사진 1장이상을 포함해아한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-2.사진은 썸네일 대표사진을 지정할 수 있다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-3.사진 좌측, 게시글 우측으로 구성된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-4.게시글은 200자 이하로만 작성이 가능하다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글은 관리자,회원만 작성할 수 있다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비회원은 포토 상세페이지를 볼 수 없다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.중단-맵api를 제공하여 사진의 장소에 마커를 표시할 수 있다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.하단-댓글란을 제공한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자 및 회원은 게시글을 수정, 삭제 할 수 있다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정 및 삭제 버튼은 포토 상세 페이지란 하단에 위치한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정시 게시글 작성 페이지로 전환된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>삭제시 포토 상세 페이지 및 썸네일은 소멸된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>진행 예정 축제정보를 제공</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI/UX(포토게시판)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>게시글 작성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI/UX(포토게시판)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>게시글 수정, 삭제</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>각 지역마다 축제정보를 화면에 제공</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>기간 별(월별)축제정보를 화면에 제공</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>현재 진행 중인 축제정보만 화면에 제공</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>여행지 사진으로만 이루어진 포토게시판 작성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>포토 게시판의 게시글 정보를 삭제, 수정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>검색 태그</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>검색 태그 선택을 통한 페이지 이동</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI/ UX (여행지)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>요구사항 내역</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>지역별 여행지는 Select Bar 형식으로 보여진다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Select Bar 형식들은 지역명의 이름으로 보여진다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>지역(이름)클릭시 지역별 여행지 페이지로 이동한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>각 지역별 여행지 페이지는 여행지들을 썸네일 형태의 사진(1개)과 짧은 글(50자내외)로 제공한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>여행지인 썸네일 형태의 사진과 짧은글은 리스트 형식으로 나열된다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>썸네일 클릭시 여행지 상세 페이지로 이동한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>여행지 상세페이지는 회전목마형태의 사진을 제공한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>여행 상세페이지는 여행지에 대한 설명과 상세정보(문의 및 안내, 주소, 홈페이지, 휴일 등)을 제공한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>여행지 상세페이지는 여행지의 위치를 API 지도로 제공한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>계절별 여행지 상단에는 봄,여름,가을,겨울 select 창이 존재한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>클릭시 비동기 형태로 계절별 추천 여행지를 보여준다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>썸네일 형태를 클릭시 여행지 상세 페이지로 이동한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>클릭시 비동기 형태로 계절별 추천여행지를 보여준다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>여행지 페이지 여행정보 제공 상단에 여행지 연관검색어 등을 #홍길동 형태로 제공한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>검색 태그 클릭시 페이지로 이동한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>지역별 축제는 Select Bar 형식으로 보여진다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>지역(이름)클릭시 지역별 축제 페이지로 이동한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>각 지역별 축제 페이지는 축제들을 썸네일 형태의 사진(1개)과 짧은 글(50자내외)로 제공한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>축제인 썸네일 형태의 사진과 짧은글은 리스트 형식으로 나열된다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>썸네일 클릭시 축제 상세 페이지로 이동한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>축제 상세페이지는 회전목마형태의 사진을 제공한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>축제 상세페이지는 축제에 대한 설명과 상세정보(문의 및 안내, 주소, 홈페이지, 휴일 등)을 제공한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>축제 상세페이지는 축제의 위치를 API 지도로 제공한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>기간별 축제는 회전목마형식으로 보여진다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>회전목마형식들은 월별로 축제사진을 제공한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>축제사진 클릭시 해당 축제 페이지로 이동한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>진행 중인 축제는 회전목마형식으로 보여진다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>회전목마형식들은 진행 중인 축제사진을 제공한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>진행 예정 축제는 회전목마형식으로 보여진다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>회전목마형식들은 진행 예정인 축제사진을 제공한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자 및 회원은 포토 게시판을 작성 할 수 있다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>포토 게시판은 화면란에 썸네일 형태로 보여진다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>각 썸네일은 상단 사진, 하단 부제목,제목 순으로 구성된다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>각 썸네일은 제목 우측에 누적 조회수를 제공한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>썸네일은 화면단에 최대6개로 구성이 되며 6개 초과서 페이지 전환 처리 해야한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>썸네일에 마우스를 올릴시 사진이 축소된다(썸네일 크기는 그대로, 사진만)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>썸네일 클릭시 각 포토상세 페이지로 이동한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-1.상단- 포토 상세 페이지를 작성시 반드시 사진 1장이상을 포함해아한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-2.사진은 썸네일 대표사진을 지정할 수 있다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-3.사진 좌측, 게시글 우측으로 구성된다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-4.게시글은 200자 이하로만 작성이 가능하다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>댓글은 관리자,회원만 작성할 수 있다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>비회원은 포토 상세페이지를 볼 수 없다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.중단-맵api를 제공하여 사진의 장소에 마커를 표시할 수 있다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.하단-댓글란을 제공한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자 및 회원은 게시글을 수정, 삭제 할 수 있다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>수정 및 삭제 버튼은 포토 상세 페이지란 하단에 위치한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>수정시 게시글 작성 페이지로 전환된다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>삭제시 포토 상세 페이지 및 썸네일은 소멸된다.</t>
+  </si>
+  <si>
+    <t>진행 예정 축제정보를 제공</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1357,7 +1360,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1412,9 +1415,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1427,57 +1427,111 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1487,82 +1541,19 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1887,10 +1878,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="36" t="s">
         <v>110</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -1901,43 +1892,43 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="28"/>
-      <c r="B3" s="23"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="36"/>
       <c r="C3" s="4" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="28"/>
-      <c r="B4" s="23"/>
+      <c r="A4" s="27"/>
+      <c r="B4" s="36"/>
       <c r="C4" s="4" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="28"/>
-      <c r="B5" s="23"/>
+      <c r="A5" s="27"/>
+      <c r="B5" s="36"/>
       <c r="C5" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="28"/>
-      <c r="B6" s="23"/>
+      <c r="A6" s="27"/>
+      <c r="B6" s="36"/>
       <c r="C6" s="4" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="28"/>
-      <c r="B7" s="23"/>
+      <c r="A7" s="27"/>
+      <c r="B7" s="36"/>
       <c r="C7" s="11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="28"/>
-      <c r="B8" s="23" t="s">
+      <c r="A8" s="27"/>
+      <c r="B8" s="36" t="s">
         <v>101</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -1948,29 +1939,29 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="28"/>
-      <c r="B9" s="23"/>
+      <c r="A9" s="27"/>
+      <c r="B9" s="36"/>
       <c r="C9" s="5" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="28"/>
-      <c r="B10" s="23"/>
+      <c r="A10" s="27"/>
+      <c r="B10" s="36"/>
       <c r="C10" s="4" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="28"/>
-      <c r="B11" s="23"/>
+      <c r="A11" s="27"/>
+      <c r="B11" s="36"/>
       <c r="C11" s="11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="28"/>
-      <c r="B12" s="23" t="s">
+      <c r="A12" s="27"/>
+      <c r="B12" s="36" t="s">
         <v>102</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -1981,50 +1972,50 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="28"/>
-      <c r="B13" s="23"/>
+      <c r="A13" s="27"/>
+      <c r="B13" s="36"/>
       <c r="C13" s="4" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="28"/>
-      <c r="B14" s="23"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="36"/>
       <c r="C14" s="4" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="28"/>
-      <c r="B15" s="23"/>
+      <c r="A15" s="27"/>
+      <c r="B15" s="36"/>
       <c r="C15" s="4" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="28"/>
-      <c r="B16" s="23"/>
+      <c r="A16" s="27"/>
+      <c r="B16" s="36"/>
       <c r="C16" s="3" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="28"/>
-      <c r="B17" s="23"/>
+      <c r="A17" s="27"/>
+      <c r="B17" s="36"/>
       <c r="C17" s="5" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="28"/>
-      <c r="B18" s="23"/>
+      <c r="A18" s="27"/>
+      <c r="B18" s="36"/>
       <c r="C18" s="11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="28"/>
-      <c r="B19" s="23" t="s">
+      <c r="A19" s="27"/>
+      <c r="B19" s="36" t="s">
         <v>103</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -2035,35 +2026,35 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="28"/>
-      <c r="B20" s="23"/>
+      <c r="A20" s="27"/>
+      <c r="B20" s="36"/>
       <c r="C20" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" s="28"/>
-      <c r="B21" s="23"/>
+      <c r="A21" s="27"/>
+      <c r="B21" s="36"/>
       <c r="C21" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A22" s="28"/>
-      <c r="B22" s="23"/>
+      <c r="A22" s="27"/>
+      <c r="B22" s="36"/>
       <c r="C22" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A23" s="28"/>
-      <c r="B23" s="23"/>
+      <c r="A23" s="27"/>
+      <c r="B23" s="36"/>
       <c r="C23" s="11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A24" s="28"/>
+      <c r="A24" s="27"/>
       <c r="B24" s="8" t="s">
         <v>109</v>
       </c>
@@ -2072,7 +2063,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A25" s="28"/>
+      <c r="A25" s="27"/>
       <c r="B25" s="8" t="s">
         <v>7</v>
       </c>
@@ -2081,8 +2072,8 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A26" s="28"/>
-      <c r="B26" s="23" t="s">
+      <c r="A26" s="27"/>
+      <c r="B26" s="36" t="s">
         <v>9</v>
       </c>
       <c r="C26" s="7" t="s">
@@ -2090,15 +2081,15 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" s="28"/>
-      <c r="B27" s="23"/>
+      <c r="A27" s="27"/>
+      <c r="B27" s="36"/>
       <c r="C27" s="7" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" s="28"/>
-      <c r="B28" s="25" t="s">
+      <c r="A28" s="27"/>
+      <c r="B28" s="24" t="s">
         <v>66</v>
       </c>
       <c r="C28" s="4" t="s">
@@ -2106,15 +2097,15 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A29" s="28"/>
-      <c r="B29" s="26"/>
+      <c r="A29" s="27"/>
+      <c r="B29" s="25"/>
       <c r="C29" s="4" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A30" s="28"/>
-      <c r="B30" s="25" t="s">
+      <c r="A30" s="27"/>
+      <c r="B30" s="24" t="s">
         <v>68</v>
       </c>
       <c r="C30" s="4" t="s">
@@ -2122,17 +2113,17 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A31" s="29"/>
-      <c r="B31" s="26"/>
+      <c r="A31" s="28"/>
+      <c r="B31" s="25"/>
       <c r="C31" s="4" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A32" s="24" t="s">
+      <c r="A32" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="B32" s="23" t="s">
+      <c r="B32" s="36" t="s">
         <v>104</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -2143,36 +2134,36 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A33" s="24"/>
-      <c r="B33" s="23"/>
+      <c r="A33" s="23"/>
+      <c r="B33" s="36"/>
       <c r="C33" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A34" s="24"/>
-      <c r="B34" s="23"/>
+      <c r="A34" s="23"/>
+      <c r="B34" s="36"/>
       <c r="C34" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A35" s="24"/>
-      <c r="B35" s="23"/>
+      <c r="A35" s="23"/>
+      <c r="B35" s="36"/>
       <c r="C35" s="4" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="24"/>
-      <c r="B36" s="23"/>
+      <c r="A36" s="23"/>
+      <c r="B36" s="36"/>
       <c r="C36" s="1" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37" s="24"/>
-      <c r="B37" s="36" t="s">
+      <c r="A37" s="23"/>
+      <c r="B37" s="35" t="s">
         <v>105</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -2183,57 +2174,57 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A38" s="24"/>
-      <c r="B38" s="36"/>
+      <c r="A38" s="23"/>
+      <c r="B38" s="35"/>
       <c r="C38" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A39" s="24"/>
-      <c r="B39" s="36"/>
+      <c r="A39" s="23"/>
+      <c r="B39" s="35"/>
       <c r="C39" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A40" s="24"/>
-      <c r="B40" s="36"/>
+      <c r="A40" s="23"/>
+      <c r="B40" s="35"/>
       <c r="C40" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A41" s="24"/>
-      <c r="B41" s="36"/>
+      <c r="A41" s="23"/>
+      <c r="B41" s="35"/>
       <c r="C41" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A42" s="24"/>
-      <c r="B42" s="36"/>
+      <c r="A42" s="23"/>
+      <c r="B42" s="35"/>
       <c r="C42" s="4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A43" s="24"/>
-      <c r="B43" s="36"/>
+      <c r="A43" s="23"/>
+      <c r="B43" s="35"/>
       <c r="C43" s="4" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A44" s="24"/>
-      <c r="B44" s="36"/>
+      <c r="A44" s="23"/>
+      <c r="B44" s="35"/>
       <c r="C44" s="1" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A45" s="24"/>
-      <c r="B45" s="23" t="s">
+      <c r="A45" s="23"/>
+      <c r="B45" s="36" t="s">
         <v>106</v>
       </c>
       <c r="C45" s="1" t="s">
@@ -2244,50 +2235,50 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A46" s="24"/>
-      <c r="B46" s="23"/>
+      <c r="A46" s="23"/>
+      <c r="B46" s="36"/>
       <c r="C46" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A47" s="24"/>
-      <c r="B47" s="23"/>
+      <c r="A47" s="23"/>
+      <c r="B47" s="36"/>
       <c r="C47" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A48" s="24"/>
-      <c r="B48" s="23"/>
+      <c r="A48" s="23"/>
+      <c r="B48" s="36"/>
       <c r="C48" s="4" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A49" s="24"/>
-      <c r="B49" s="23"/>
+      <c r="A49" s="23"/>
+      <c r="B49" s="36"/>
       <c r="C49" s="4" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A50" s="24"/>
-      <c r="B50" s="23"/>
+      <c r="A50" s="23"/>
+      <c r="B50" s="36"/>
       <c r="C50" s="3" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A51" s="24"/>
-      <c r="B51" s="23"/>
+      <c r="A51" s="23"/>
+      <c r="B51" s="36"/>
       <c r="C51" s="1" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A52" s="24"/>
-      <c r="B52" s="23" t="s">
+      <c r="A52" s="23"/>
+      <c r="B52" s="36" t="s">
         <v>107</v>
       </c>
       <c r="C52" s="1" t="s">
@@ -2298,50 +2289,50 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A53" s="24"/>
-      <c r="B53" s="23"/>
+      <c r="A53" s="23"/>
+      <c r="B53" s="36"/>
       <c r="C53" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A54" s="24"/>
-      <c r="B54" s="23"/>
+      <c r="A54" s="23"/>
+      <c r="B54" s="36"/>
       <c r="C54" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A55" s="24"/>
-      <c r="B55" s="23"/>
+      <c r="A55" s="23"/>
+      <c r="B55" s="36"/>
       <c r="C55" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A56" s="24"/>
-      <c r="B56" s="23"/>
+      <c r="A56" s="23"/>
+      <c r="B56" s="36"/>
       <c r="C56" s="3" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A57" s="24"/>
-      <c r="B57" s="23"/>
+      <c r="A57" s="23"/>
+      <c r="B57" s="36"/>
       <c r="C57" s="3" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="24"/>
-      <c r="B58" s="23"/>
+      <c r="A58" s="23"/>
+      <c r="B58" s="36"/>
       <c r="C58" s="1" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="24"/>
-      <c r="B59" s="23" t="s">
+      <c r="A59" s="23"/>
+      <c r="B59" s="36" t="s">
         <v>108</v>
       </c>
       <c r="C59" s="3" t="s">
@@ -2352,66 +2343,66 @@
       </c>
     </row>
     <row r="60" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="24"/>
-      <c r="B60" s="23"/>
+      <c r="A60" s="23"/>
+      <c r="B60" s="36"/>
       <c r="C60" s="4" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="24"/>
-      <c r="B61" s="23"/>
+      <c r="A61" s="23"/>
+      <c r="B61" s="36"/>
       <c r="C61" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="24"/>
-      <c r="B62" s="23"/>
+      <c r="A62" s="23"/>
+      <c r="B62" s="36"/>
       <c r="C62" s="4" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="24"/>
-      <c r="B63" s="23"/>
+      <c r="A63" s="23"/>
+      <c r="B63" s="36"/>
       <c r="C63" s="4" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="24"/>
-      <c r="B64" s="23"/>
+      <c r="A64" s="23"/>
+      <c r="B64" s="36"/>
       <c r="C64" s="10" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="24"/>
-      <c r="B65" s="23"/>
+      <c r="A65" s="23"/>
+      <c r="B65" s="36"/>
       <c r="C65" s="10" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="24"/>
-      <c r="B66" s="23"/>
+      <c r="A66" s="23"/>
+      <c r="B66" s="36"/>
       <c r="C66" s="10" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="24"/>
-      <c r="B67" s="23"/>
+      <c r="A67" s="23"/>
+      <c r="B67" s="36"/>
       <c r="C67" s="11" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A68" s="24" t="s">
+      <c r="A68" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="B68" s="25" t="s">
+      <c r="B68" s="24" t="s">
         <v>21</v>
       </c>
       <c r="C68" s="3" t="s">
@@ -2419,43 +2410,43 @@
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A69" s="24"/>
+      <c r="A69" s="23"/>
       <c r="B69" s="37"/>
       <c r="C69" s="3" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A70" s="24"/>
+      <c r="A70" s="23"/>
       <c r="B70" s="37"/>
       <c r="C70" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A71" s="24"/>
+      <c r="A71" s="23"/>
       <c r="B71" s="37"/>
       <c r="C71" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A72" s="24"/>
+      <c r="A72" s="23"/>
       <c r="B72" s="37"/>
       <c r="C72" s="4" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A73" s="24"/>
-      <c r="B73" s="26"/>
+      <c r="A73" s="23"/>
+      <c r="B73" s="25"/>
       <c r="C73" s="4" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A74" s="24"/>
-      <c r="B74" s="23" t="s">
+      <c r="A74" s="23"/>
+      <c r="B74" s="36" t="s">
         <v>25</v>
       </c>
       <c r="C74" s="3" t="s">
@@ -2463,22 +2454,22 @@
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A75" s="24"/>
-      <c r="B75" s="23"/>
+      <c r="A75" s="23"/>
+      <c r="B75" s="36"/>
       <c r="C75" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A76" s="24"/>
-      <c r="B76" s="23"/>
+      <c r="A76" s="23"/>
+      <c r="B76" s="36"/>
       <c r="C76" s="4" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A77" s="24"/>
-      <c r="B77" s="23" t="s">
+      <c r="A77" s="23"/>
+      <c r="B77" s="36" t="s">
         <v>17</v>
       </c>
       <c r="C77" s="1" t="s">
@@ -2486,52 +2477,52 @@
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A78" s="24"/>
-      <c r="B78" s="23"/>
+      <c r="A78" s="23"/>
+      <c r="B78" s="36"/>
       <c r="C78" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A79" s="24"/>
-      <c r="B79" s="23"/>
+      <c r="A79" s="23"/>
+      <c r="B79" s="36"/>
       <c r="C79" s="3" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A80" s="24"/>
-      <c r="B80" s="23"/>
+      <c r="A80" s="23"/>
+      <c r="B80" s="36"/>
       <c r="C80" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A81" s="24"/>
-      <c r="B81" s="23"/>
+      <c r="A81" s="23"/>
+      <c r="B81" s="36"/>
       <c r="C81" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A82" s="24"/>
-      <c r="B82" s="23"/>
+      <c r="A82" s="23"/>
+      <c r="B82" s="36"/>
       <c r="C82" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A83" s="24"/>
-      <c r="B83" s="23"/>
+      <c r="A83" s="23"/>
+      <c r="B83" s="36"/>
       <c r="C83" s="5" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A84" s="24" t="s">
+      <c r="A84" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="B84" s="30" t="s">
+      <c r="B84" s="29" t="s">
         <v>20</v>
       </c>
       <c r="C84" s="1" t="s">
@@ -2539,36 +2530,36 @@
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A85" s="24"/>
-      <c r="B85" s="31"/>
+      <c r="A85" s="23"/>
+      <c r="B85" s="30"/>
       <c r="C85" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A86" s="24"/>
-      <c r="B86" s="31"/>
+      <c r="A86" s="23"/>
+      <c r="B86" s="30"/>
       <c r="C86" s="4" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A87" s="24"/>
-      <c r="B87" s="31"/>
+      <c r="A87" s="23"/>
+      <c r="B87" s="30"/>
       <c r="C87" s="4" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A88" s="24"/>
-      <c r="B88" s="32"/>
+      <c r="A88" s="23"/>
+      <c r="B88" s="31"/>
       <c r="C88" s="4" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A89" s="24"/>
-      <c r="B89" s="30" t="s">
+      <c r="A89" s="23"/>
+      <c r="B89" s="29" t="s">
         <v>31</v>
       </c>
       <c r="C89" s="3" t="s">
@@ -2576,15 +2567,15 @@
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A90" s="24"/>
-      <c r="B90" s="32"/>
+      <c r="A90" s="23"/>
+      <c r="B90" s="31"/>
       <c r="C90" s="3" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A91" s="24"/>
-      <c r="B91" s="33" t="s">
+      <c r="A91" s="23"/>
+      <c r="B91" s="32" t="s">
         <v>38</v>
       </c>
       <c r="C91" s="3" t="s">
@@ -2592,14 +2583,14 @@
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A92" s="24"/>
-      <c r="B92" s="34"/>
+      <c r="A92" s="23"/>
+      <c r="B92" s="33"/>
       <c r="C92" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A93" s="24"/>
+      <c r="A93" s="23"/>
       <c r="B93" s="13" t="s">
         <v>40</v>
       </c>
@@ -2608,8 +2599,8 @@
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A94" s="24"/>
-      <c r="B94" s="35" t="s">
+      <c r="A94" s="23"/>
+      <c r="B94" s="34" t="s">
         <v>33</v>
       </c>
       <c r="C94" s="3" t="s">
@@ -2617,36 +2608,36 @@
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A95" s="24"/>
-      <c r="B95" s="35"/>
+      <c r="A95" s="23"/>
+      <c r="B95" s="34"/>
       <c r="C95" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A96" s="24"/>
-      <c r="B96" s="35"/>
+      <c r="A96" s="23"/>
+      <c r="B96" s="34"/>
       <c r="C96" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A97" s="24"/>
-      <c r="B97" s="35"/>
+      <c r="A97" s="23"/>
+      <c r="B97" s="34"/>
       <c r="C97" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B107" s="24"/>
+      <c r="B107" s="23"/>
       <c r="C107" s="4"/>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B108" s="24"/>
+      <c r="B108" s="23"/>
       <c r="C108" s="4"/>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B109" s="24"/>
+      <c r="B109" s="23"/>
       <c r="C109" s="4"/>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.15">
@@ -2655,6 +2646,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B77:B83"/>
+    <mergeCell ref="B59:B67"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="B12:B18"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B32:B36"/>
     <mergeCell ref="B107:B109"/>
     <mergeCell ref="A32:A67"/>
     <mergeCell ref="A68:A83"/>
@@ -2671,14 +2670,6 @@
     <mergeCell ref="B52:B58"/>
     <mergeCell ref="B68:B73"/>
     <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B77:B83"/>
-    <mergeCell ref="B59:B67"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="B12:B18"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B32:B36"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2691,7 +2682,7 @@
   <dimension ref="A1:G106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:E7"/>
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2701,21 +2692,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="48" t="s">
+      <c r="B1" s="53"/>
+      <c r="C1" s="60" t="s">
         <v>128</v>
       </c>
-      <c r="D1" s="49"/>
-      <c r="E1" s="50"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="62"/>
     </row>
     <row r="2" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="50" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="39"/>
+      <c r="B2" s="51"/>
       <c r="C2" s="14"/>
       <c r="D2" s="15" t="s">
         <v>120</v>
@@ -2725,130 +2716,130 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="50" t="s">
         <v>121</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="40" t="s">
+      <c r="B3" s="51"/>
+      <c r="C3" s="57" t="s">
         <v>125</v>
       </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="42"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="59"/>
     </row>
     <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="38" t="s">
         <v>134</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="45" t="s">
+      <c r="C4" s="54" t="s">
+        <v>150</v>
+      </c>
+      <c r="D4" s="55"/>
+      <c r="E4" s="56"/>
+    </row>
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="39"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="44" t="s">
         <v>151</v>
       </c>
-      <c r="D4" s="46"/>
-      <c r="E4" s="47"/>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="56"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="58" t="s">
-        <v>152</v>
-      </c>
-      <c r="D5" s="59"/>
-      <c r="E5" s="60"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="46"/>
       <c r="G5" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="56"/>
-      <c r="B6" s="54"/>
-      <c r="C6" s="58" t="s">
+      <c r="A6" s="39"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="44" t="s">
+        <v>152</v>
+      </c>
+      <c r="D6" s="45"/>
+      <c r="E6" s="46"/>
+    </row>
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A7" s="39"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="44" t="s">
         <v>153</v>
       </c>
-      <c r="D6" s="59"/>
-      <c r="E6" s="60"/>
-    </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="56"/>
-      <c r="B7" s="54"/>
-      <c r="C7" s="58" t="s">
+      <c r="D7" s="45"/>
+      <c r="E7" s="46"/>
+    </row>
+    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A8" s="39"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="44" t="s">
         <v>154</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="60"/>
-    </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="56"/>
-      <c r="B8" s="54"/>
-      <c r="C8" s="58" t="s">
+      <c r="D8" s="45"/>
+      <c r="E8" s="46"/>
+    </row>
+    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="39"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="44" t="s">
         <v>155</v>
       </c>
-      <c r="D8" s="59"/>
-      <c r="E8" s="60"/>
-    </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="56"/>
-      <c r="B9" s="54"/>
-      <c r="C9" s="58" t="s">
+      <c r="D9" s="45"/>
+      <c r="E9" s="46"/>
+    </row>
+    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="39"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="44" t="s">
         <v>156</v>
       </c>
-      <c r="D9" s="59"/>
-      <c r="E9" s="60"/>
-    </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="56"/>
-      <c r="B10" s="54"/>
-      <c r="C10" s="58" t="s">
+      <c r="D10" s="45"/>
+      <c r="E10" s="46"/>
+    </row>
+    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A11" s="39"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="44" t="s">
         <v>157</v>
       </c>
-      <c r="D10" s="59"/>
-      <c r="E10" s="60"/>
-    </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="56"/>
-      <c r="B11" s="54"/>
-      <c r="C11" s="58" t="s">
+      <c r="D11" s="45"/>
+      <c r="E11" s="46"/>
+    </row>
+    <row r="12" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="39"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="44" t="s">
         <v>158</v>
       </c>
-      <c r="D11" s="59"/>
-      <c r="E11" s="60"/>
-    </row>
-    <row r="12" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="56"/>
-      <c r="B12" s="54"/>
-      <c r="C12" s="58" t="s">
-        <v>159</v>
-      </c>
-      <c r="D12" s="59"/>
-      <c r="E12" s="60"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="46"/>
     </row>
     <row r="13" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="57"/>
-      <c r="B13" s="18" t="s">
+      <c r="A13" s="40"/>
+      <c r="B13" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="C13" s="43"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="44"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="64"/>
     </row>
     <row r="14" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="15" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="51" t="s">
+      <c r="A15" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="B15" s="52"/>
-      <c r="C15" s="48" t="s">
+      <c r="B15" s="53"/>
+      <c r="C15" s="60" t="s">
         <v>129</v>
       </c>
-      <c r="D15" s="49"/>
-      <c r="E15" s="50"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="62"/>
     </row>
     <row r="16" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="38" t="s">
+      <c r="A16" s="50" t="s">
         <v>119</v>
       </c>
-      <c r="B16" s="39"/>
+      <c r="B16" s="51"/>
       <c r="C16" s="14"/>
       <c r="D16" s="15" t="s">
         <v>120</v>
@@ -2858,879 +2849,896 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="38" t="s">
+      <c r="A17" s="50" t="s">
         <v>121</v>
       </c>
-      <c r="B17" s="39"/>
-      <c r="C17" s="40" t="s">
+      <c r="B17" s="51"/>
+      <c r="C17" s="57" t="s">
         <v>130</v>
       </c>
-      <c r="D17" s="41"/>
-      <c r="E17" s="42"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="59"/>
     </row>
     <row r="18" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="55" t="s">
+      <c r="A18" s="38" t="s">
         <v>134</v>
       </c>
-      <c r="B18" s="53" t="s">
+      <c r="B18" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="C18" s="45" t="s">
+      <c r="C18" s="54" t="s">
+        <v>159</v>
+      </c>
+      <c r="D18" s="55"/>
+      <c r="E18" s="56"/>
+    </row>
+    <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A19" s="39"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="44" t="s">
         <v>160</v>
       </c>
-      <c r="D18" s="46"/>
-      <c r="E18" s="47"/>
-    </row>
-    <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="56"/>
-      <c r="B19" s="54"/>
-      <c r="C19" s="58" t="s">
+      <c r="D19" s="45"/>
+      <c r="E19" s="46"/>
+    </row>
+    <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A20" s="39"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="44" t="s">
         <v>161</v>
       </c>
-      <c r="D19" s="59"/>
-      <c r="E19" s="60"/>
-    </row>
-    <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A20" s="56"/>
-      <c r="B20" s="54"/>
-      <c r="C20" s="58" t="s">
+      <c r="D20" s="45"/>
+      <c r="E20" s="46"/>
+    </row>
+    <row r="21" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="39"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="47" t="s">
         <v>162</v>
       </c>
-      <c r="D20" s="59"/>
-      <c r="E20" s="60"/>
-    </row>
-    <row r="21" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="56"/>
-      <c r="B21" s="64"/>
-      <c r="C21" s="61" t="s">
-        <v>163</v>
-      </c>
-      <c r="D21" s="62"/>
-      <c r="E21" s="63"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="49"/>
     </row>
     <row r="22" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="57"/>
-      <c r="B22" s="18" t="s">
+      <c r="A22" s="40"/>
+      <c r="B22" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="C22" s="43"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="44"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="64"/>
     </row>
     <row r="24" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="25" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="51" t="s">
+      <c r="A25" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="B25" s="52"/>
-      <c r="C25" s="48" t="s">
-        <v>149</v>
-      </c>
-      <c r="D25" s="49"/>
-      <c r="E25" s="50"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="60" t="s">
+        <v>148</v>
+      </c>
+      <c r="D25" s="61"/>
+      <c r="E25" s="62"/>
     </row>
     <row r="26" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="38" t="s">
+      <c r="A26" s="50" t="s">
         <v>119</v>
       </c>
-      <c r="B26" s="39"/>
+      <c r="B26" s="51"/>
       <c r="C26" s="14"/>
       <c r="D26" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="E26" s="19" t="s">
+      <c r="E26" s="18" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="50" t="s">
+        <v>121</v>
+      </c>
+      <c r="B27" s="51"/>
+      <c r="C27" s="57" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="38" t="s">
-        <v>121</v>
-      </c>
-      <c r="B27" s="39"/>
-      <c r="C27" s="40" t="s">
-        <v>148</v>
-      </c>
-      <c r="D27" s="41"/>
-      <c r="E27" s="42"/>
+      <c r="D27" s="58"/>
+      <c r="E27" s="59"/>
     </row>
     <row r="28" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="55" t="s">
-        <v>150</v>
-      </c>
-      <c r="B28" s="65" t="s">
+      <c r="A28" s="38" t="s">
+        <v>149</v>
+      </c>
+      <c r="B28" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="C28" s="45" t="s">
+      <c r="C28" s="54" t="s">
+        <v>163</v>
+      </c>
+      <c r="D28" s="55"/>
+      <c r="E28" s="56"/>
+    </row>
+    <row r="29" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="39"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="47" t="s">
         <v>164</v>
       </c>
-      <c r="D28" s="46"/>
-      <c r="E28" s="47"/>
-    </row>
-    <row r="29" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="56"/>
-      <c r="B29" s="67"/>
-      <c r="C29" s="61" t="s">
-        <v>165</v>
-      </c>
-      <c r="D29" s="62"/>
-      <c r="E29" s="63"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="49"/>
     </row>
     <row r="30" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="57"/>
-      <c r="B30" s="18" t="s">
+      <c r="A30" s="40"/>
+      <c r="B30" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="C30" s="43"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="44"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="64"/>
     </row>
     <row r="31" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="32" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="51" t="s">
+      <c r="A32" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="B32" s="52"/>
-      <c r="C32" s="48" t="s">
+      <c r="B32" s="53"/>
+      <c r="C32" s="60" t="s">
         <v>135</v>
       </c>
-      <c r="D32" s="49"/>
-      <c r="E32" s="50"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="62"/>
     </row>
     <row r="33" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="38" t="s">
+      <c r="A33" s="50" t="s">
         <v>119</v>
       </c>
-      <c r="B33" s="39"/>
+      <c r="B33" s="51"/>
       <c r="C33" s="14"/>
       <c r="D33" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="E33" s="19" t="s">
+      <c r="E33" s="18" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="38" t="s">
+      <c r="A34" s="50" t="s">
         <v>121</v>
       </c>
-      <c r="B34" s="39"/>
-      <c r="C34" s="40" t="s">
-        <v>142</v>
-      </c>
-      <c r="D34" s="41"/>
-      <c r="E34" s="42"/>
+      <c r="B34" s="51"/>
+      <c r="C34" s="57" t="s">
+        <v>141</v>
+      </c>
+      <c r="D34" s="58"/>
+      <c r="E34" s="59"/>
     </row>
     <row r="35" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="55" t="s">
+      <c r="A35" s="38" t="s">
         <v>134</v>
       </c>
-      <c r="B35" s="65" t="s">
+      <c r="B35" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="C35" s="45" t="s">
+      <c r="C35" s="54" t="s">
+        <v>165</v>
+      </c>
+      <c r="D35" s="55"/>
+      <c r="E35" s="56"/>
+    </row>
+    <row r="36" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A36" s="39"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="44" t="s">
+        <v>151</v>
+      </c>
+      <c r="D36" s="45"/>
+      <c r="E36" s="46"/>
+    </row>
+    <row r="37" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A37" s="39"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="44" t="s">
         <v>166</v>
       </c>
-      <c r="D35" s="46"/>
-      <c r="E35" s="47"/>
-    </row>
-    <row r="36" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A36" s="56"/>
-      <c r="B36" s="66"/>
-      <c r="C36" s="58" t="s">
-        <v>152</v>
-      </c>
-      <c r="D36" s="59"/>
-      <c r="E36" s="60"/>
-    </row>
-    <row r="37" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A37" s="56"/>
-      <c r="B37" s="66"/>
-      <c r="C37" s="58" t="s">
+      <c r="D37" s="45"/>
+      <c r="E37" s="46"/>
+    </row>
+    <row r="38" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A38" s="39"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="44" t="s">
         <v>167</v>
       </c>
-      <c r="D37" s="59"/>
-      <c r="E37" s="60"/>
-    </row>
-    <row r="38" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A38" s="56"/>
-      <c r="B38" s="66"/>
-      <c r="C38" s="58" t="s">
+      <c r="D38" s="45"/>
+      <c r="E38" s="46"/>
+    </row>
+    <row r="39" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A39" s="39"/>
+      <c r="B39" s="42"/>
+      <c r="C39" s="44" t="s">
         <v>168</v>
       </c>
-      <c r="D38" s="59"/>
-      <c r="E38" s="60"/>
-    </row>
-    <row r="39" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A39" s="56"/>
-      <c r="B39" s="66"/>
-      <c r="C39" s="58" t="s">
+      <c r="D39" s="45"/>
+      <c r="E39" s="46"/>
+    </row>
+    <row r="40" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A40" s="39"/>
+      <c r="B40" s="42"/>
+      <c r="C40" s="44" t="s">
         <v>169</v>
       </c>
-      <c r="D39" s="59"/>
-      <c r="E39" s="60"/>
-    </row>
-    <row r="40" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A40" s="56"/>
-      <c r="B40" s="66"/>
-      <c r="C40" s="58" t="s">
+      <c r="D40" s="45"/>
+      <c r="E40" s="46"/>
+    </row>
+    <row r="41" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A41" s="39"/>
+      <c r="B41" s="42"/>
+      <c r="C41" s="44" t="s">
         <v>170</v>
       </c>
-      <c r="D40" s="59"/>
-      <c r="E40" s="60"/>
-    </row>
-    <row r="41" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A41" s="56"/>
-      <c r="B41" s="66"/>
-      <c r="C41" s="58" t="s">
+      <c r="D41" s="45"/>
+      <c r="E41" s="46"/>
+    </row>
+    <row r="42" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A42" s="39"/>
+      <c r="B42" s="42"/>
+      <c r="C42" s="44" t="s">
         <v>171</v>
       </c>
-      <c r="D41" s="59"/>
-      <c r="E41" s="60"/>
-    </row>
-    <row r="42" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A42" s="56"/>
-      <c r="B42" s="66"/>
-      <c r="C42" s="58" t="s">
+      <c r="D42" s="45"/>
+      <c r="E42" s="46"/>
+    </row>
+    <row r="43" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="39"/>
+      <c r="B43" s="43"/>
+      <c r="C43" s="47" t="s">
         <v>172</v>
       </c>
-      <c r="D42" s="59"/>
-      <c r="E42" s="60"/>
-    </row>
-    <row r="43" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="56"/>
-      <c r="B43" s="67"/>
-      <c r="C43" s="61" t="s">
-        <v>173</v>
-      </c>
-      <c r="D43" s="62"/>
-      <c r="E43" s="63"/>
+      <c r="D43" s="48"/>
+      <c r="E43" s="49"/>
     </row>
     <row r="44" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="57"/>
-      <c r="B44" s="18" t="s">
+      <c r="A44" s="40"/>
+      <c r="B44" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="C44" s="43"/>
-      <c r="D44" s="41"/>
-      <c r="E44" s="44"/>
+      <c r="C44" s="63"/>
+      <c r="D44" s="58"/>
+      <c r="E44" s="64"/>
     </row>
     <row r="45" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="46" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="51" t="s">
+      <c r="A46" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="B46" s="52"/>
-      <c r="C46" s="48" t="s">
+      <c r="B46" s="53"/>
+      <c r="C46" s="60" t="s">
         <v>135</v>
       </c>
-      <c r="D46" s="49"/>
-      <c r="E46" s="50"/>
+      <c r="D46" s="61"/>
+      <c r="E46" s="62"/>
     </row>
     <row r="47" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="38" t="s">
+      <c r="A47" s="50" t="s">
         <v>119</v>
       </c>
-      <c r="B47" s="39"/>
+      <c r="B47" s="51"/>
       <c r="C47" s="14"/>
       <c r="D47" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="E47" s="19" t="s">
+      <c r="E47" s="18" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="38" t="s">
+      <c r="A48" s="50" t="s">
         <v>121</v>
       </c>
-      <c r="B48" s="39"/>
-      <c r="C48" s="40" t="s">
-        <v>143</v>
-      </c>
-      <c r="D48" s="41"/>
-      <c r="E48" s="42"/>
+      <c r="B48" s="51"/>
+      <c r="C48" s="57" t="s">
+        <v>142</v>
+      </c>
+      <c r="D48" s="58"/>
+      <c r="E48" s="59"/>
     </row>
     <row r="49" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="55" t="s">
+      <c r="A49" s="38" t="s">
         <v>134</v>
       </c>
-      <c r="B49" s="65" t="s">
+      <c r="B49" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="C49" s="45" t="s">
+      <c r="C49" s="54" t="s">
+        <v>173</v>
+      </c>
+      <c r="D49" s="55"/>
+      <c r="E49" s="56"/>
+    </row>
+    <row r="50" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A50" s="39"/>
+      <c r="B50" s="42"/>
+      <c r="C50" s="44" t="s">
         <v>174</v>
       </c>
-      <c r="D49" s="46"/>
-      <c r="E49" s="47"/>
-    </row>
-    <row r="50" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A50" s="56"/>
-      <c r="B50" s="66"/>
-      <c r="C50" s="58" t="s">
+      <c r="D50" s="45"/>
+      <c r="E50" s="46"/>
+    </row>
+    <row r="51" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A51" s="39"/>
+      <c r="B51" s="42"/>
+      <c r="C51" s="44" t="s">
         <v>175</v>
       </c>
-      <c r="D50" s="59"/>
-      <c r="E50" s="60"/>
-    </row>
-    <row r="51" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A51" s="56"/>
-      <c r="B51" s="66"/>
-      <c r="C51" s="58" t="s">
-        <v>176</v>
-      </c>
-      <c r="D51" s="59"/>
-      <c r="E51" s="60"/>
+      <c r="D51" s="45"/>
+      <c r="E51" s="46"/>
     </row>
     <row r="52" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A52" s="56"/>
-      <c r="B52" s="66"/>
-      <c r="C52" s="58" t="s">
+      <c r="A52" s="39"/>
+      <c r="B52" s="42"/>
+      <c r="C52" s="44" t="s">
+        <v>170</v>
+      </c>
+      <c r="D52" s="45"/>
+      <c r="E52" s="46"/>
+    </row>
+    <row r="53" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A53" s="39"/>
+      <c r="B53" s="42"/>
+      <c r="C53" s="44" t="s">
         <v>171</v>
       </c>
-      <c r="D52" s="59"/>
-      <c r="E52" s="60"/>
-    </row>
-    <row r="53" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A53" s="56"/>
-      <c r="B53" s="66"/>
-      <c r="C53" s="58" t="s">
+      <c r="D53" s="45"/>
+      <c r="E53" s="46"/>
+    </row>
+    <row r="54" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="39"/>
+      <c r="B54" s="43"/>
+      <c r="C54" s="47" t="s">
         <v>172</v>
       </c>
-      <c r="D53" s="59"/>
-      <c r="E53" s="60"/>
-    </row>
-    <row r="54" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="56"/>
-      <c r="B54" s="67"/>
-      <c r="C54" s="61" t="s">
-        <v>173</v>
-      </c>
-      <c r="D54" s="62"/>
-      <c r="E54" s="63"/>
+      <c r="D54" s="48"/>
+      <c r="E54" s="49"/>
     </row>
     <row r="55" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="57"/>
-      <c r="B55" s="18" t="s">
+      <c r="A55" s="40"/>
+      <c r="B55" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="C55" s="43"/>
-      <c r="D55" s="41"/>
-      <c r="E55" s="44"/>
+      <c r="C55" s="63"/>
+      <c r="D55" s="58"/>
+      <c r="E55" s="64"/>
     </row>
     <row r="56" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="57" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="51" t="s">
+      <c r="A57" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="B57" s="52"/>
-      <c r="C57" s="48" t="s">
+      <c r="B57" s="53"/>
+      <c r="C57" s="60" t="s">
         <v>135</v>
       </c>
-      <c r="D57" s="49"/>
-      <c r="E57" s="50"/>
+      <c r="D57" s="61"/>
+      <c r="E57" s="62"/>
     </row>
     <row r="58" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="38" t="s">
+      <c r="A58" s="50" t="s">
         <v>119</v>
       </c>
-      <c r="B58" s="39"/>
+      <c r="B58" s="51"/>
       <c r="C58" s="14"/>
       <c r="D58" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="E58" s="19" t="s">
+      <c r="E58" s="18" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="38" t="s">
+      <c r="A59" s="50" t="s">
         <v>121</v>
       </c>
-      <c r="B59" s="39"/>
-      <c r="C59" s="40" t="s">
-        <v>144</v>
-      </c>
-      <c r="D59" s="41"/>
-      <c r="E59" s="42"/>
+      <c r="B59" s="51"/>
+      <c r="C59" s="57" t="s">
+        <v>143</v>
+      </c>
+      <c r="D59" s="58"/>
+      <c r="E59" s="59"/>
     </row>
     <row r="60" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="55" t="s">
+      <c r="A60" s="38" t="s">
         <v>134</v>
       </c>
-      <c r="B60" s="65" t="s">
+      <c r="B60" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="C60" s="45" t="s">
+      <c r="C60" s="54" t="s">
+        <v>176</v>
+      </c>
+      <c r="D60" s="55"/>
+      <c r="E60" s="56"/>
+    </row>
+    <row r="61" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A61" s="39"/>
+      <c r="B61" s="42"/>
+      <c r="C61" s="44" t="s">
         <v>177</v>
       </c>
-      <c r="D60" s="46"/>
-      <c r="E60" s="47"/>
-    </row>
-    <row r="61" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A61" s="56"/>
-      <c r="B61" s="66"/>
-      <c r="C61" s="58" t="s">
-        <v>178</v>
-      </c>
-      <c r="D61" s="59"/>
-      <c r="E61" s="60"/>
+      <c r="D61" s="45"/>
+      <c r="E61" s="46"/>
     </row>
     <row r="62" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A62" s="56"/>
-      <c r="B62" s="66"/>
-      <c r="C62" s="58" t="s">
-        <v>176</v>
-      </c>
-      <c r="D62" s="59"/>
-      <c r="E62" s="60"/>
+      <c r="A62" s="39"/>
+      <c r="B62" s="42"/>
+      <c r="C62" s="44" t="s">
+        <v>175</v>
+      </c>
+      <c r="D62" s="45"/>
+      <c r="E62" s="46"/>
     </row>
     <row r="63" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A63" s="56"/>
-      <c r="B63" s="66"/>
-      <c r="C63" s="58" t="s">
+      <c r="A63" s="39"/>
+      <c r="B63" s="42"/>
+      <c r="C63" s="44" t="s">
+        <v>170</v>
+      </c>
+      <c r="D63" s="45"/>
+      <c r="E63" s="46"/>
+    </row>
+    <row r="64" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A64" s="39"/>
+      <c r="B64" s="42"/>
+      <c r="C64" s="44" t="s">
         <v>171</v>
       </c>
-      <c r="D63" s="59"/>
-      <c r="E63" s="60"/>
-    </row>
-    <row r="64" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A64" s="56"/>
-      <c r="B64" s="66"/>
-      <c r="C64" s="58" t="s">
+      <c r="D64" s="45"/>
+      <c r="E64" s="46"/>
+    </row>
+    <row r="65" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="39"/>
+      <c r="B65" s="43"/>
+      <c r="C65" s="47" t="s">
         <v>172</v>
       </c>
-      <c r="D64" s="59"/>
-      <c r="E64" s="60"/>
-    </row>
-    <row r="65" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="56"/>
-      <c r="B65" s="67"/>
-      <c r="C65" s="61" t="s">
-        <v>173</v>
-      </c>
-      <c r="D65" s="62"/>
-      <c r="E65" s="63"/>
+      <c r="D65" s="48"/>
+      <c r="E65" s="49"/>
     </row>
     <row r="66" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="57"/>
-      <c r="B66" s="18" t="s">
+      <c r="A66" s="40"/>
+      <c r="B66" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="C66" s="43"/>
-      <c r="D66" s="41"/>
-      <c r="E66" s="44"/>
+      <c r="C66" s="63"/>
+      <c r="D66" s="58"/>
+      <c r="E66" s="64"/>
     </row>
     <row r="67" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="68" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="51" t="s">
+      <c r="A68" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="B68" s="52"/>
-      <c r="C68" s="48" t="s">
+      <c r="B68" s="53"/>
+      <c r="C68" s="60" t="s">
         <v>135</v>
       </c>
-      <c r="D68" s="49"/>
-      <c r="E68" s="50"/>
+      <c r="D68" s="61"/>
+      <c r="E68" s="62"/>
     </row>
     <row r="69" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="38" t="s">
+      <c r="A69" s="50" t="s">
         <v>119</v>
       </c>
-      <c r="B69" s="39"/>
+      <c r="B69" s="51"/>
       <c r="C69" s="14"/>
       <c r="D69" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="E69" s="19" t="s">
-        <v>137</v>
+      <c r="E69" s="18" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="38" t="s">
+      <c r="A70" s="50" t="s">
         <v>121</v>
       </c>
-      <c r="B70" s="39"/>
-      <c r="C70" s="40"/>
-      <c r="D70" s="41"/>
-      <c r="E70" s="42"/>
+      <c r="B70" s="51"/>
+      <c r="C70" s="57" t="s">
+        <v>199</v>
+      </c>
+      <c r="D70" s="58"/>
+      <c r="E70" s="59"/>
     </row>
     <row r="71" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="55" t="s">
+      <c r="A71" s="38" t="s">
         <v>134</v>
       </c>
-      <c r="B71" s="65" t="s">
+      <c r="B71" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="C71" s="45" t="s">
+      <c r="C71" s="54" t="s">
+        <v>178</v>
+      </c>
+      <c r="D71" s="55"/>
+      <c r="E71" s="56"/>
+    </row>
+    <row r="72" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A72" s="39"/>
+      <c r="B72" s="42"/>
+      <c r="C72" s="44" t="s">
         <v>179</v>
       </c>
-      <c r="D71" s="46"/>
-      <c r="E71" s="47"/>
-    </row>
-    <row r="72" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A72" s="56"/>
-      <c r="B72" s="66"/>
-      <c r="C72" s="58" t="s">
-        <v>180</v>
-      </c>
-      <c r="D72" s="59"/>
-      <c r="E72" s="60"/>
+      <c r="D72" s="45"/>
+      <c r="E72" s="46"/>
     </row>
     <row r="73" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A73" s="56"/>
-      <c r="B73" s="66"/>
-      <c r="C73" s="58" t="s">
-        <v>176</v>
-      </c>
-      <c r="D73" s="59"/>
-      <c r="E73" s="60"/>
+      <c r="A73" s="39"/>
+      <c r="B73" s="42"/>
+      <c r="C73" s="44" t="s">
+        <v>175</v>
+      </c>
+      <c r="D73" s="45"/>
+      <c r="E73" s="46"/>
     </row>
     <row r="74" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A74" s="56"/>
-      <c r="B74" s="66"/>
-      <c r="C74" s="58" t="s">
+      <c r="A74" s="39"/>
+      <c r="B74" s="42"/>
+      <c r="C74" s="44" t="s">
+        <v>170</v>
+      </c>
+      <c r="D74" s="45"/>
+      <c r="E74" s="46"/>
+    </row>
+    <row r="75" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A75" s="39"/>
+      <c r="B75" s="42"/>
+      <c r="C75" s="44" t="s">
         <v>171</v>
       </c>
-      <c r="D74" s="59"/>
-      <c r="E74" s="60"/>
-    </row>
-    <row r="75" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A75" s="56"/>
-      <c r="B75" s="66"/>
-      <c r="C75" s="58" t="s">
+      <c r="D75" s="45"/>
+      <c r="E75" s="46"/>
+    </row>
+    <row r="76" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="39"/>
+      <c r="B76" s="43"/>
+      <c r="C76" s="47" t="s">
         <v>172</v>
       </c>
-      <c r="D75" s="59"/>
-      <c r="E75" s="60"/>
-    </row>
-    <row r="76" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="56"/>
-      <c r="B76" s="67"/>
-      <c r="C76" s="61" t="s">
-        <v>173</v>
-      </c>
-      <c r="D76" s="62"/>
-      <c r="E76" s="63"/>
+      <c r="D76" s="48"/>
+      <c r="E76" s="49"/>
     </row>
     <row r="77" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="57"/>
-      <c r="B77" s="68" t="s">
+      <c r="A77" s="40"/>
+      <c r="B77" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="C77" s="43"/>
-      <c r="D77" s="41"/>
-      <c r="E77" s="44"/>
+      <c r="C77" s="63"/>
+      <c r="D77" s="58"/>
+      <c r="E77" s="64"/>
     </row>
     <row r="78" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="79" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="51" t="s">
+      <c r="A79" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="B79" s="52"/>
-      <c r="C79" s="48" t="s">
-        <v>138</v>
-      </c>
-      <c r="D79" s="49"/>
-      <c r="E79" s="50"/>
+      <c r="B79" s="53"/>
+      <c r="C79" s="60" t="s">
+        <v>137</v>
+      </c>
+      <c r="D79" s="61"/>
+      <c r="E79" s="62"/>
     </row>
     <row r="80" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="38" t="s">
+      <c r="A80" s="50" t="s">
         <v>119</v>
       </c>
-      <c r="B80" s="39"/>
+      <c r="B80" s="51"/>
       <c r="C80" s="14"/>
       <c r="D80" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="E80" s="19" t="s">
-        <v>139</v>
+      <c r="E80" s="18" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="38" t="s">
+      <c r="A81" s="50" t="s">
         <v>121</v>
       </c>
-      <c r="B81" s="39"/>
-      <c r="C81" s="40" t="s">
-        <v>145</v>
-      </c>
-      <c r="D81" s="41"/>
-      <c r="E81" s="42"/>
+      <c r="B81" s="51"/>
+      <c r="C81" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="D81" s="58"/>
+      <c r="E81" s="59"/>
     </row>
     <row r="82" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="55" t="s">
+      <c r="A82" s="38" t="s">
         <v>134</v>
       </c>
-      <c r="B82" s="65" t="s">
+      <c r="B82" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="C82" s="45" t="s">
+      <c r="C82" s="54" t="s">
+        <v>180</v>
+      </c>
+      <c r="D82" s="55"/>
+      <c r="E82" s="56"/>
+    </row>
+    <row r="83" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A83" s="39"/>
+      <c r="B83" s="42"/>
+      <c r="C83" s="44" t="s">
         <v>181</v>
       </c>
-      <c r="D82" s="46"/>
-      <c r="E82" s="47"/>
-    </row>
-    <row r="83" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A83" s="56"/>
-      <c r="B83" s="66"/>
-      <c r="C83" s="58" t="s">
+      <c r="D83" s="45"/>
+      <c r="E83" s="46"/>
+    </row>
+    <row r="84" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A84" s="39"/>
+      <c r="B84" s="42"/>
+      <c r="C84" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="D83" s="59"/>
-      <c r="E83" s="60"/>
-    </row>
-    <row r="84" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A84" s="56"/>
-      <c r="B84" s="66"/>
-      <c r="C84" s="58" t="s">
+      <c r="D84" s="45"/>
+      <c r="E84" s="46"/>
+    </row>
+    <row r="85" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A85" s="39"/>
+      <c r="B85" s="42"/>
+      <c r="C85" s="44" t="s">
         <v>183</v>
       </c>
-      <c r="D84" s="59"/>
-      <c r="E84" s="60"/>
-    </row>
-    <row r="85" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A85" s="56"/>
-      <c r="B85" s="66"/>
-      <c r="C85" s="58" t="s">
+      <c r="D85" s="45"/>
+      <c r="E85" s="46"/>
+    </row>
+    <row r="86" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A86" s="39"/>
+      <c r="B86" s="42"/>
+      <c r="C86" s="44" t="s">
         <v>184</v>
       </c>
-      <c r="D85" s="59"/>
-      <c r="E85" s="60"/>
-    </row>
-    <row r="86" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A86" s="56"/>
-      <c r="B86" s="66"/>
-      <c r="C86" s="58" t="s">
+      <c r="D86" s="45"/>
+      <c r="E86" s="46"/>
+    </row>
+    <row r="87" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A87" s="39"/>
+      <c r="B87" s="42"/>
+      <c r="C87" s="44" t="s">
         <v>185</v>
       </c>
-      <c r="D86" s="59"/>
-      <c r="E86" s="60"/>
-    </row>
-    <row r="87" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A87" s="56"/>
-      <c r="B87" s="66"/>
-      <c r="C87" s="58" t="s">
+      <c r="D87" s="45"/>
+      <c r="E87" s="46"/>
+    </row>
+    <row r="88" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A88" s="39"/>
+      <c r="B88" s="42"/>
+      <c r="C88" s="44" t="s">
         <v>186</v>
       </c>
-      <c r="D87" s="59"/>
-      <c r="E87" s="60"/>
-    </row>
-    <row r="88" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A88" s="56"/>
-      <c r="B88" s="66"/>
-      <c r="C88" s="58" t="s">
+      <c r="D88" s="45"/>
+      <c r="E88" s="46"/>
+    </row>
+    <row r="89" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A89" s="39"/>
+      <c r="B89" s="42"/>
+      <c r="C89" s="44" t="s">
         <v>187</v>
       </c>
-      <c r="D88" s="59"/>
-      <c r="E88" s="60"/>
-    </row>
-    <row r="89" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A89" s="56"/>
-      <c r="B89" s="66"/>
-      <c r="C89" s="58" t="s">
+      <c r="D89" s="45"/>
+      <c r="E89" s="46"/>
+    </row>
+    <row r="90" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A90" s="39"/>
+      <c r="B90" s="42"/>
+      <c r="C90" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="D89" s="59"/>
-      <c r="E89" s="60"/>
-    </row>
-    <row r="90" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A90" s="56"/>
-      <c r="B90" s="66"/>
-      <c r="C90" s="58" t="s">
+      <c r="D90" s="45"/>
+      <c r="E90" s="46"/>
+    </row>
+    <row r="91" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A91" s="39"/>
+      <c r="B91" s="42"/>
+      <c r="C91" s="44" t="s">
         <v>189</v>
       </c>
-      <c r="D90" s="59"/>
-      <c r="E90" s="60"/>
-    </row>
-    <row r="91" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A91" s="56"/>
-      <c r="B91" s="66"/>
-      <c r="C91" s="58" t="s">
+      <c r="D91" s="45"/>
+      <c r="E91" s="46"/>
+    </row>
+    <row r="92" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A92" s="39"/>
+      <c r="B92" s="42"/>
+      <c r="C92" s="44" t="s">
         <v>190</v>
       </c>
-      <c r="D91" s="59"/>
-      <c r="E91" s="60"/>
-    </row>
-    <row r="92" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A92" s="56"/>
-      <c r="B92" s="66"/>
-      <c r="C92" s="58" t="s">
+      <c r="D92" s="45"/>
+      <c r="E92" s="46"/>
+    </row>
+    <row r="93" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A93" s="39"/>
+      <c r="B93" s="42"/>
+      <c r="C93" s="44" t="s">
+        <v>193</v>
+      </c>
+      <c r="D93" s="45"/>
+      <c r="E93" s="46"/>
+    </row>
+    <row r="94" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A94" s="39"/>
+      <c r="B94" s="42"/>
+      <c r="C94" s="44" t="s">
+        <v>194</v>
+      </c>
+      <c r="D94" s="45"/>
+      <c r="E94" s="46"/>
+    </row>
+    <row r="95" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A95" s="39"/>
+      <c r="B95" s="42"/>
+      <c r="C95" s="44" t="s">
         <v>191</v>
       </c>
-      <c r="D92" s="59"/>
-      <c r="E92" s="60"/>
-    </row>
-    <row r="93" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A93" s="56"/>
-      <c r="B93" s="66"/>
-      <c r="C93" s="58" t="s">
-        <v>194</v>
-      </c>
-      <c r="D93" s="59"/>
-      <c r="E93" s="60"/>
-    </row>
-    <row r="94" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A94" s="56"/>
-      <c r="B94" s="66"/>
-      <c r="C94" s="58" t="s">
-        <v>195</v>
-      </c>
-      <c r="D94" s="59"/>
-      <c r="E94" s="60"/>
-    </row>
-    <row r="95" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A95" s="56"/>
-      <c r="B95" s="66"/>
-      <c r="C95" s="58" t="s">
+      <c r="D95" s="45"/>
+      <c r="E95" s="46"/>
+    </row>
+    <row r="96" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="39"/>
+      <c r="B96" s="43"/>
+      <c r="C96" s="47" t="s">
         <v>192</v>
       </c>
-      <c r="D95" s="59"/>
-      <c r="E95" s="60"/>
-    </row>
-    <row r="96" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="56"/>
-      <c r="B96" s="67"/>
-      <c r="C96" s="61" t="s">
-        <v>193</v>
-      </c>
-      <c r="D96" s="62"/>
-      <c r="E96" s="63"/>
+      <c r="D96" s="48"/>
+      <c r="E96" s="49"/>
     </row>
     <row r="97" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="57"/>
-      <c r="B97" s="68" t="s">
+      <c r="A97" s="40"/>
+      <c r="B97" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="C97" s="43"/>
-      <c r="D97" s="41"/>
-      <c r="E97" s="44"/>
+      <c r="C97" s="63"/>
+      <c r="D97" s="58"/>
+      <c r="E97" s="64"/>
     </row>
     <row r="98" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="99" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="51" t="s">
+      <c r="A99" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="B99" s="52"/>
-      <c r="C99" s="48" t="s">
-        <v>140</v>
-      </c>
-      <c r="D99" s="49"/>
-      <c r="E99" s="50"/>
+      <c r="B99" s="53"/>
+      <c r="C99" s="60" t="s">
+        <v>139</v>
+      </c>
+      <c r="D99" s="61"/>
+      <c r="E99" s="62"/>
     </row>
     <row r="100" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="38" t="s">
+      <c r="A100" s="50" t="s">
         <v>119</v>
       </c>
-      <c r="B100" s="39"/>
+      <c r="B100" s="51"/>
       <c r="C100" s="14"/>
       <c r="D100" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="E100" s="19" t="s">
-        <v>141</v>
+      <c r="E100" s="18" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="38" t="s">
+      <c r="A101" s="50" t="s">
         <v>121</v>
       </c>
-      <c r="B101" s="39"/>
-      <c r="C101" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="D101" s="21"/>
-      <c r="E101" s="22"/>
+      <c r="B101" s="51"/>
+      <c r="C101" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="D101" s="20"/>
+      <c r="E101" s="21"/>
     </row>
     <row r="102" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="55" t="s">
+      <c r="A102" s="38" t="s">
         <v>134</v>
       </c>
-      <c r="B102" s="65" t="s">
+      <c r="B102" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="C102" s="45" t="s">
+      <c r="C102" s="54" t="s">
+        <v>195</v>
+      </c>
+      <c r="D102" s="55"/>
+      <c r="E102" s="56"/>
+    </row>
+    <row r="103" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A103" s="39"/>
+      <c r="B103" s="42"/>
+      <c r="C103" s="44" t="s">
         <v>196</v>
       </c>
-      <c r="D102" s="46"/>
-      <c r="E102" s="47"/>
-    </row>
-    <row r="103" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A103" s="56"/>
-      <c r="B103" s="66"/>
-      <c r="C103" s="58" t="s">
+      <c r="D103" s="45"/>
+      <c r="E103" s="46"/>
+    </row>
+    <row r="104" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A104" s="39"/>
+      <c r="B104" s="42"/>
+      <c r="C104" s="44" t="s">
         <v>197</v>
       </c>
-      <c r="D103" s="59"/>
-      <c r="E103" s="60"/>
-    </row>
-    <row r="104" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A104" s="56"/>
-      <c r="B104" s="66"/>
-      <c r="C104" s="58" t="s">
+      <c r="D104" s="45"/>
+      <c r="E104" s="46"/>
+    </row>
+    <row r="105" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="39"/>
+      <c r="B105" s="43"/>
+      <c r="C105" s="47" t="s">
         <v>198</v>
       </c>
-      <c r="D104" s="59"/>
-      <c r="E104" s="60"/>
-    </row>
-    <row r="105" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="56"/>
-      <c r="B105" s="67"/>
-      <c r="C105" s="61" t="s">
-        <v>199</v>
-      </c>
-      <c r="D105" s="62"/>
-      <c r="E105" s="63"/>
+      <c r="D105" s="48"/>
+      <c r="E105" s="49"/>
     </row>
     <row r="106" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="57"/>
-      <c r="B106" s="68" t="s">
+      <c r="A106" s="40"/>
+      <c r="B106" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="C106" s="43"/>
-      <c r="D106" s="41"/>
-      <c r="E106" s="44"/>
+      <c r="C106" s="63"/>
+      <c r="D106" s="58"/>
+      <c r="E106" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="132">
-    <mergeCell ref="A102:A106"/>
-    <mergeCell ref="A82:A97"/>
-    <mergeCell ref="B82:B96"/>
-    <mergeCell ref="B102:B105"/>
-    <mergeCell ref="B71:B76"/>
-    <mergeCell ref="A71:A77"/>
-    <mergeCell ref="C103:E103"/>
-    <mergeCell ref="C104:E104"/>
-    <mergeCell ref="C105:E105"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="C93:E93"/>
-    <mergeCell ref="C94:E94"/>
-    <mergeCell ref="C95:E95"/>
-    <mergeCell ref="C96:E96"/>
-    <mergeCell ref="C102:E102"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="A35:A44"/>
+    <mergeCell ref="B35:B43"/>
+    <mergeCell ref="C66:E66"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="C82:E82"/>
+    <mergeCell ref="C83:E83"/>
+    <mergeCell ref="C84:E84"/>
+    <mergeCell ref="C85:E85"/>
+    <mergeCell ref="C86:E86"/>
+    <mergeCell ref="C87:E87"/>
+    <mergeCell ref="C88:E88"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="C99:E99"/>
+    <mergeCell ref="C79:E79"/>
+    <mergeCell ref="C68:E68"/>
+    <mergeCell ref="C97:E97"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="C60:E60"/>
+    <mergeCell ref="C61:E61"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="C63:E63"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="C71:E71"/>
+    <mergeCell ref="C81:E81"/>
+    <mergeCell ref="C70:E70"/>
+    <mergeCell ref="C77:E77"/>
+    <mergeCell ref="C73:E73"/>
+    <mergeCell ref="C72:E72"/>
+    <mergeCell ref="C74:E74"/>
+    <mergeCell ref="C75:E75"/>
+    <mergeCell ref="C76:E76"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="B28:B29"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A17:B17"/>
@@ -3755,75 +3763,60 @@
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="C36:E36"/>
     <mergeCell ref="C46:E46"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="C99:E99"/>
-    <mergeCell ref="C79:E79"/>
-    <mergeCell ref="C68:E68"/>
-    <mergeCell ref="C97:E97"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="C60:E60"/>
-    <mergeCell ref="C61:E61"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="C63:E63"/>
-    <mergeCell ref="C64:E64"/>
-    <mergeCell ref="C65:E65"/>
-    <mergeCell ref="C71:E71"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A79:B79"/>
     <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="C81:E81"/>
-    <mergeCell ref="C70:E70"/>
-    <mergeCell ref="C77:E77"/>
-    <mergeCell ref="C73:E73"/>
-    <mergeCell ref="C72:E72"/>
-    <mergeCell ref="C74:E74"/>
-    <mergeCell ref="C75:E75"/>
-    <mergeCell ref="C76:E76"/>
     <mergeCell ref="A60:A66"/>
     <mergeCell ref="B60:B65"/>
     <mergeCell ref="A49:A55"/>
     <mergeCell ref="B49:B54"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A102:A106"/>
+    <mergeCell ref="A82:A97"/>
+    <mergeCell ref="B82:B96"/>
+    <mergeCell ref="B102:B105"/>
+    <mergeCell ref="B71:B76"/>
+    <mergeCell ref="A71:A77"/>
+    <mergeCell ref="C103:E103"/>
+    <mergeCell ref="C104:E104"/>
+    <mergeCell ref="C105:E105"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C93:E93"/>
+    <mergeCell ref="C94:E94"/>
+    <mergeCell ref="C95:E95"/>
+    <mergeCell ref="C96:E96"/>
+    <mergeCell ref="C102:E102"/>
+    <mergeCell ref="A81:B81"/>
     <mergeCell ref="C106:E106"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="C66:E66"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="C82:E82"/>
-    <mergeCell ref="C83:E83"/>
-    <mergeCell ref="C84:E84"/>
-    <mergeCell ref="C85:E85"/>
-    <mergeCell ref="C86:E86"/>
-    <mergeCell ref="C87:E87"/>
-    <mergeCell ref="C88:E88"/>
     <mergeCell ref="C89:E89"/>
     <mergeCell ref="C90:E90"/>
     <mergeCell ref="C91:E91"/>
     <mergeCell ref="C92:E92"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="A35:A44"/>
-    <mergeCell ref="B35:B43"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/요구사항_합본2_team2_최경열.xlsx
+++ b/doc/요구사항_합본2_team2_최경열.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7605" tabRatio="995" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7608" tabRatio="995" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="요구사항정의서_최종" sheetId="43" r:id="rId1"/>
-    <sheet name="회원정보" sheetId="44" r:id="rId2"/>
+    <sheet name="여행지" sheetId="44" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -1430,6 +1430,9 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1469,12 +1472,63 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1501,60 +1555,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1871,17 +1871,17 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.77734375" customWidth="1"/>
-    <col min="3" max="3" width="66.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.796875" customWidth="1"/>
+    <col min="3" max="3" width="66.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="26" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="23" t="s">
         <v>110</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -1891,44 +1891,44 @@
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="27"/>
-      <c r="B3" s="36"/>
+    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A3" s="28"/>
+      <c r="B3" s="23"/>
       <c r="C3" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="27"/>
-      <c r="B4" s="36"/>
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A4" s="28"/>
+      <c r="B4" s="23"/>
       <c r="C4" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="27"/>
-      <c r="B5" s="36"/>
+    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A5" s="28"/>
+      <c r="B5" s="23"/>
       <c r="C5" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="27"/>
-      <c r="B6" s="36"/>
+    <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A6" s="28"/>
+      <c r="B6" s="23"/>
       <c r="C6" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="27"/>
-      <c r="B7" s="36"/>
+    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A7" s="28"/>
+      <c r="B7" s="23"/>
       <c r="C7" s="11" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="27"/>
-      <c r="B8" s="36" t="s">
+    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A8" s="28"/>
+      <c r="B8" s="23" t="s">
         <v>101</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -1938,30 +1938,30 @@
         <v>112</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="27"/>
-      <c r="B9" s="36"/>
+    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A9" s="28"/>
+      <c r="B9" s="23"/>
       <c r="C9" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="27"/>
-      <c r="B10" s="36"/>
+    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A10" s="28"/>
+      <c r="B10" s="23"/>
       <c r="C10" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="27"/>
-      <c r="B11" s="36"/>
+    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A11" s="28"/>
+      <c r="B11" s="23"/>
       <c r="C11" s="11" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="27"/>
-      <c r="B12" s="36" t="s">
+    <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A12" s="28"/>
+      <c r="B12" s="23" t="s">
         <v>102</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -1971,51 +1971,51 @@
         <v>113</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="27"/>
-      <c r="B13" s="36"/>
+    <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A13" s="28"/>
+      <c r="B13" s="23"/>
       <c r="C13" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="27"/>
-      <c r="B14" s="36"/>
+    <row r="14" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A14" s="28"/>
+      <c r="B14" s="23"/>
       <c r="C14" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="27"/>
-      <c r="B15" s="36"/>
+    <row r="15" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A15" s="28"/>
+      <c r="B15" s="23"/>
       <c r="C15" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="27"/>
-      <c r="B16" s="36"/>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="28"/>
+      <c r="B16" s="23"/>
       <c r="C16" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="27"/>
-      <c r="B17" s="36"/>
+    <row r="17" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A17" s="28"/>
+      <c r="B17" s="23"/>
       <c r="C17" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="27"/>
-      <c r="B18" s="36"/>
+    <row r="18" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A18" s="28"/>
+      <c r="B18" s="23"/>
       <c r="C18" s="11" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="27"/>
-      <c r="B19" s="36" t="s">
+    <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A19" s="28"/>
+      <c r="B19" s="23" t="s">
         <v>103</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -2025,36 +2025,36 @@
         <v>112</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="27"/>
-      <c r="B20" s="36"/>
+    <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A20" s="28"/>
+      <c r="B20" s="23"/>
       <c r="C20" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" s="27"/>
-      <c r="B21" s="36"/>
+    <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A21" s="28"/>
+      <c r="B21" s="23"/>
       <c r="C21" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A22" s="27"/>
-      <c r="B22" s="36"/>
+    <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A22" s="28"/>
+      <c r="B22" s="23"/>
       <c r="C22" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A23" s="27"/>
-      <c r="B23" s="36"/>
+    <row r="23" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A23" s="28"/>
+      <c r="B23" s="23"/>
       <c r="C23" s="11" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A24" s="27"/>
+    <row r="24" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A24" s="28"/>
       <c r="B24" s="8" t="s">
         <v>109</v>
       </c>
@@ -2062,8 +2062,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A25" s="27"/>
+    <row r="25" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A25" s="28"/>
       <c r="B25" s="8" t="s">
         <v>7</v>
       </c>
@@ -2071,59 +2071,59 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A26" s="27"/>
-      <c r="B26" s="36" t="s">
+    <row r="26" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A26" s="28"/>
+      <c r="B26" s="23" t="s">
         <v>9</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" s="27"/>
-      <c r="B27" s="36"/>
+    <row r="27" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A27" s="28"/>
+      <c r="B27" s="23"/>
       <c r="C27" s="7" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" s="27"/>
-      <c r="B28" s="24" t="s">
+    <row r="28" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A28" s="28"/>
+      <c r="B28" s="25" t="s">
         <v>66</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A29" s="27"/>
-      <c r="B29" s="25"/>
+    <row r="29" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A29" s="28"/>
+      <c r="B29" s="26"/>
       <c r="C29" s="4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A30" s="27"/>
-      <c r="B30" s="24" t="s">
+    <row r="30" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A30" s="28"/>
+      <c r="B30" s="25" t="s">
         <v>68</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A31" s="28"/>
-      <c r="B31" s="25"/>
+    <row r="31" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A31" s="29"/>
+      <c r="B31" s="26"/>
       <c r="C31" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A32" s="23" t="s">
+    <row r="32" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A32" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="B32" s="36" t="s">
+      <c r="B32" s="23" t="s">
         <v>104</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -2133,37 +2133,37 @@
         <v>113</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A33" s="23"/>
-      <c r="B33" s="36"/>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="24"/>
+      <c r="B33" s="23"/>
       <c r="C33" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A34" s="23"/>
-      <c r="B34" s="36"/>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="24"/>
+      <c r="B34" s="23"/>
       <c r="C34" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A35" s="23"/>
-      <c r="B35" s="36"/>
+    <row r="35" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A35" s="24"/>
+      <c r="B35" s="23"/>
       <c r="C35" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="23"/>
-      <c r="B36" s="36"/>
+    <row r="36" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A36" s="24"/>
+      <c r="B36" s="23"/>
       <c r="C36" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37" s="23"/>
-      <c r="B37" s="35" t="s">
+    <row r="37" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A37" s="24"/>
+      <c r="B37" s="36" t="s">
         <v>105</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -2173,58 +2173,58 @@
         <v>114</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A38" s="23"/>
-      <c r="B38" s="35"/>
+    <row r="38" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A38" s="24"/>
+      <c r="B38" s="36"/>
       <c r="C38" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A39" s="23"/>
-      <c r="B39" s="35"/>
+    <row r="39" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A39" s="24"/>
+      <c r="B39" s="36"/>
       <c r="C39" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A40" s="23"/>
-      <c r="B40" s="35"/>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="24"/>
+      <c r="B40" s="36"/>
       <c r="C40" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A41" s="23"/>
-      <c r="B41" s="35"/>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="24"/>
+      <c r="B41" s="36"/>
       <c r="C41" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A42" s="23"/>
-      <c r="B42" s="35"/>
+    <row r="42" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A42" s="24"/>
+      <c r="B42" s="36"/>
       <c r="C42" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A43" s="23"/>
-      <c r="B43" s="35"/>
+    <row r="43" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A43" s="24"/>
+      <c r="B43" s="36"/>
       <c r="C43" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A44" s="23"/>
-      <c r="B44" s="35"/>
+    <row r="44" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A44" s="24"/>
+      <c r="B44" s="36"/>
       <c r="C44" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A45" s="23"/>
-      <c r="B45" s="36" t="s">
+    <row r="45" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A45" s="24"/>
+      <c r="B45" s="23" t="s">
         <v>106</v>
       </c>
       <c r="C45" s="1" t="s">
@@ -2234,51 +2234,51 @@
         <v>112</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A46" s="23"/>
-      <c r="B46" s="36"/>
+    <row r="46" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A46" s="24"/>
+      <c r="B46" s="23"/>
       <c r="C46" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A47" s="23"/>
-      <c r="B47" s="36"/>
+    <row r="47" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A47" s="24"/>
+      <c r="B47" s="23"/>
       <c r="C47" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A48" s="23"/>
-      <c r="B48" s="36"/>
+    <row r="48" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A48" s="24"/>
+      <c r="B48" s="23"/>
       <c r="C48" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A49" s="23"/>
-      <c r="B49" s="36"/>
+    <row r="49" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A49" s="24"/>
+      <c r="B49" s="23"/>
       <c r="C49" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A50" s="23"/>
-      <c r="B50" s="36"/>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="24"/>
+      <c r="B50" s="23"/>
       <c r="C50" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A51" s="23"/>
-      <c r="B51" s="36"/>
+    <row r="51" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A51" s="24"/>
+      <c r="B51" s="23"/>
       <c r="C51" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A52" s="23"/>
-      <c r="B52" s="36" t="s">
+    <row r="52" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A52" s="24"/>
+      <c r="B52" s="23" t="s">
         <v>107</v>
       </c>
       <c r="C52" s="1" t="s">
@@ -2288,51 +2288,51 @@
         <v>111</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A53" s="23"/>
-      <c r="B53" s="36"/>
+    <row r="53" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A53" s="24"/>
+      <c r="B53" s="23"/>
       <c r="C53" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A54" s="23"/>
-      <c r="B54" s="36"/>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="24"/>
+      <c r="B54" s="23"/>
       <c r="C54" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A55" s="23"/>
-      <c r="B55" s="36"/>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="24"/>
+      <c r="B55" s="23"/>
       <c r="C55" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A56" s="23"/>
-      <c r="B56" s="36"/>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="24"/>
+      <c r="B56" s="23"/>
       <c r="C56" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A57" s="23"/>
-      <c r="B57" s="36"/>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="24"/>
+      <c r="B57" s="23"/>
       <c r="C57" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="23"/>
-      <c r="B58" s="36"/>
+    <row r="58" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="24"/>
+      <c r="B58" s="23"/>
       <c r="C58" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="23"/>
-      <c r="B59" s="36" t="s">
+    <row r="59" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="24"/>
+      <c r="B59" s="23" t="s">
         <v>108</v>
       </c>
       <c r="C59" s="3" t="s">
@@ -2342,255 +2342,255 @@
         <v>115</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="23"/>
-      <c r="B60" s="36"/>
+    <row r="60" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="24"/>
+      <c r="B60" s="23"/>
       <c r="C60" s="4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="23"/>
-      <c r="B61" s="36"/>
+    <row r="61" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="24"/>
+      <c r="B61" s="23"/>
       <c r="C61" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="23"/>
-      <c r="B62" s="36"/>
+    <row r="62" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="24"/>
+      <c r="B62" s="23"/>
       <c r="C62" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="23"/>
-      <c r="B63" s="36"/>
+    <row r="63" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="24"/>
+      <c r="B63" s="23"/>
       <c r="C63" s="4" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="23"/>
-      <c r="B64" s="36"/>
+    <row r="64" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="24"/>
+      <c r="B64" s="23"/>
       <c r="C64" s="10" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="23"/>
-      <c r="B65" s="36"/>
+    <row r="65" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="24"/>
+      <c r="B65" s="23"/>
       <c r="C65" s="10" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="23"/>
-      <c r="B66" s="36"/>
+    <row r="66" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="24"/>
+      <c r="B66" s="23"/>
       <c r="C66" s="10" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="23"/>
-      <c r="B67" s="36"/>
+    <row r="67" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="24"/>
+      <c r="B67" s="23"/>
       <c r="C67" s="11" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A68" s="23" t="s">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="B68" s="24" t="s">
+      <c r="B68" s="25" t="s">
         <v>21</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A69" s="23"/>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="24"/>
       <c r="B69" s="37"/>
       <c r="C69" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A70" s="23"/>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="24"/>
       <c r="B70" s="37"/>
       <c r="C70" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A71" s="23"/>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="24"/>
       <c r="B71" s="37"/>
       <c r="C71" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A72" s="23"/>
+    <row r="72" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A72" s="24"/>
       <c r="B72" s="37"/>
       <c r="C72" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A73" s="23"/>
-      <c r="B73" s="25"/>
+    <row r="73" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A73" s="24"/>
+      <c r="B73" s="26"/>
       <c r="C73" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A74" s="23"/>
-      <c r="B74" s="36" t="s">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="24"/>
+      <c r="B74" s="23" t="s">
         <v>25</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A75" s="23"/>
-      <c r="B75" s="36"/>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="24"/>
+      <c r="B75" s="23"/>
       <c r="C75" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A76" s="23"/>
-      <c r="B76" s="36"/>
+    <row r="76" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A76" s="24"/>
+      <c r="B76" s="23"/>
       <c r="C76" s="4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A77" s="23"/>
-      <c r="B77" s="36" t="s">
+    <row r="77" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A77" s="24"/>
+      <c r="B77" s="23" t="s">
         <v>17</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A78" s="23"/>
-      <c r="B78" s="36"/>
+    <row r="78" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A78" s="24"/>
+      <c r="B78" s="23"/>
       <c r="C78" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A79" s="23"/>
-      <c r="B79" s="36"/>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="24"/>
+      <c r="B79" s="23"/>
       <c r="C79" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A80" s="23"/>
-      <c r="B80" s="36"/>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="24"/>
+      <c r="B80" s="23"/>
       <c r="C80" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A81" s="23"/>
-      <c r="B81" s="36"/>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="24"/>
+      <c r="B81" s="23"/>
       <c r="C81" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A82" s="23"/>
-      <c r="B82" s="36"/>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="24"/>
+      <c r="B82" s="23"/>
       <c r="C82" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A83" s="23"/>
-      <c r="B83" s="36"/>
+    <row r="83" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A83" s="24"/>
+      <c r="B83" s="23"/>
       <c r="C83" s="5" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A84" s="23" t="s">
+    <row r="84" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A84" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="B84" s="29" t="s">
+      <c r="B84" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A85" s="23"/>
-      <c r="B85" s="30"/>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="24"/>
+      <c r="B85" s="31"/>
       <c r="C85" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A86" s="23"/>
-      <c r="B86" s="30"/>
+    <row r="86" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A86" s="24"/>
+      <c r="B86" s="31"/>
       <c r="C86" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A87" s="23"/>
-      <c r="B87" s="30"/>
+    <row r="87" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A87" s="24"/>
+      <c r="B87" s="31"/>
       <c r="C87" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A88" s="23"/>
-      <c r="B88" s="31"/>
+    <row r="88" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A88" s="24"/>
+      <c r="B88" s="32"/>
       <c r="C88" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A89" s="23"/>
-      <c r="B89" s="29" t="s">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="24"/>
+      <c r="B89" s="30" t="s">
         <v>31</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A90" s="23"/>
-      <c r="B90" s="31"/>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="24"/>
+      <c r="B90" s="32"/>
       <c r="C90" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A91" s="23"/>
-      <c r="B91" s="32" t="s">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="24"/>
+      <c r="B91" s="33" t="s">
         <v>38</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A92" s="23"/>
-      <c r="B92" s="33"/>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="24"/>
+      <c r="B92" s="34"/>
       <c r="C92" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A93" s="23"/>
+    <row r="93" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A93" s="24"/>
       <c r="B93" s="13" t="s">
         <v>40</v>
       </c>
@@ -2598,62 +2598,54 @@
         <v>90</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A94" s="23"/>
-      <c r="B94" s="34" t="s">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="24"/>
+      <c r="B94" s="35" t="s">
         <v>33</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A95" s="23"/>
-      <c r="B95" s="34"/>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="24"/>
+      <c r="B95" s="35"/>
       <c r="C95" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A96" s="23"/>
-      <c r="B96" s="34"/>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="24"/>
+      <c r="B96" s="35"/>
       <c r="C96" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A97" s="23"/>
-      <c r="B97" s="34"/>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="24"/>
+      <c r="B97" s="35"/>
       <c r="C97" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B107" s="23"/>
+    <row r="107" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B107" s="24"/>
       <c r="C107" s="4"/>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B108" s="23"/>
+    <row r="108" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B108" s="24"/>
       <c r="C108" s="4"/>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B109" s="23"/>
+    <row r="109" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B109" s="24"/>
       <c r="C109" s="4"/>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B110" s="9"/>
       <c r="C110" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B77:B83"/>
-    <mergeCell ref="B59:B67"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="B12:B18"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B32:B36"/>
     <mergeCell ref="B107:B109"/>
     <mergeCell ref="A32:A67"/>
     <mergeCell ref="A68:A83"/>
@@ -2670,6 +2662,14 @@
     <mergeCell ref="B52:B58"/>
     <mergeCell ref="B68:B73"/>
     <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B77:B83"/>
+    <mergeCell ref="B59:B67"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="B12:B18"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B32:B36"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2681,32 +2681,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12:E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="81.77734375" customWidth="1"/>
+    <col min="4" max="4" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="81.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="52" t="s">
+    <row r="1" spans="1:7" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="48" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="60" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="50" t="s">
         <v>128</v>
       </c>
-      <c r="D1" s="61"/>
-      <c r="E1" s="62"/>
-    </row>
-    <row r="2" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="50" t="s">
+      <c r="D1" s="51"/>
+      <c r="E1" s="52"/>
+    </row>
+    <row r="2" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="43" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="51"/>
+      <c r="B2" s="44"/>
       <c r="C2" s="14"/>
       <c r="D2" s="15" t="s">
         <v>120</v>
@@ -2715,131 +2715,131 @@
         <v>124</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="50" t="s">
+    <row r="3" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="43" t="s">
         <v>121</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="57" t="s">
+      <c r="B3" s="44"/>
+      <c r="C3" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="D3" s="58"/>
-      <c r="E3" s="59"/>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="38" t="s">
+      <c r="D3" s="39"/>
+      <c r="E3" s="40"/>
+    </row>
+    <row r="4" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A4" s="56" t="s">
         <v>134</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="59" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="45" t="s">
         <v>150</v>
       </c>
-      <c r="D4" s="55"/>
-      <c r="E4" s="56"/>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="39"/>
-      <c r="B5" s="42"/>
-      <c r="C5" s="44" t="s">
+      <c r="D4" s="46"/>
+      <c r="E4" s="47"/>
+    </row>
+    <row r="5" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A5" s="57"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="62" t="s">
         <v>151</v>
       </c>
-      <c r="D5" s="45"/>
-      <c r="E5" s="46"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="64"/>
       <c r="G5" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="39"/>
-      <c r="B6" s="42"/>
-      <c r="C6" s="44" t="s">
+    <row r="6" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A6" s="57"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="62" t="s">
         <v>152</v>
       </c>
-      <c r="D6" s="45"/>
-      <c r="E6" s="46"/>
-    </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="39"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="44" t="s">
+      <c r="D6" s="63"/>
+      <c r="E6" s="64"/>
+    </row>
+    <row r="7" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A7" s="57"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="62" t="s">
         <v>153</v>
       </c>
-      <c r="D7" s="45"/>
-      <c r="E7" s="46"/>
-    </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="39"/>
-      <c r="B8" s="42"/>
-      <c r="C8" s="44" t="s">
+      <c r="D7" s="63"/>
+      <c r="E7" s="64"/>
+    </row>
+    <row r="8" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A8" s="57"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="D8" s="45"/>
-      <c r="E8" s="46"/>
-    </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="39"/>
-      <c r="B9" s="42"/>
-      <c r="C9" s="44" t="s">
+      <c r="D8" s="63"/>
+      <c r="E8" s="64"/>
+    </row>
+    <row r="9" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A9" s="57"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="62" t="s">
         <v>155</v>
       </c>
-      <c r="D9" s="45"/>
-      <c r="E9" s="46"/>
-    </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="39"/>
-      <c r="B10" s="42"/>
-      <c r="C10" s="44" t="s">
+      <c r="D9" s="63"/>
+      <c r="E9" s="64"/>
+    </row>
+    <row r="10" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A10" s="57"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="62" t="s">
         <v>156</v>
       </c>
-      <c r="D10" s="45"/>
-      <c r="E10" s="46"/>
-    </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="39"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="44" t="s">
+      <c r="D10" s="63"/>
+      <c r="E10" s="64"/>
+    </row>
+    <row r="11" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A11" s="57"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="62" t="s">
         <v>157</v>
       </c>
-      <c r="D11" s="45"/>
-      <c r="E11" s="46"/>
-    </row>
-    <row r="12" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="39"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="44" t="s">
+      <c r="D11" s="63"/>
+      <c r="E11" s="64"/>
+    </row>
+    <row r="12" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="57"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="62" t="s">
         <v>158</v>
       </c>
-      <c r="D12" s="45"/>
-      <c r="E12" s="46"/>
-    </row>
-    <row r="13" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="40"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="64"/>
+    </row>
+    <row r="13" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="58"/>
       <c r="B13" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="C13" s="63"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="64"/>
-    </row>
-    <row r="14" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="52" t="s">
+      <c r="C13" s="41"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="42"/>
+    </row>
+    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="48" t="s">
         <v>118</v>
       </c>
-      <c r="B15" s="53"/>
-      <c r="C15" s="60" t="s">
+      <c r="B15" s="49"/>
+      <c r="C15" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="D15" s="61"/>
-      <c r="E15" s="62"/>
-    </row>
-    <row r="16" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="50" t="s">
+      <c r="D15" s="51"/>
+      <c r="E15" s="52"/>
+    </row>
+    <row r="16" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="43" t="s">
         <v>119</v>
       </c>
-      <c r="B16" s="51"/>
+      <c r="B16" s="44"/>
       <c r="C16" s="14"/>
       <c r="D16" s="15" t="s">
         <v>120</v>
@@ -2848,83 +2848,83 @@
         <v>126</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="50" t="s">
+    <row r="17" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="43" t="s">
         <v>121</v>
       </c>
-      <c r="B17" s="51"/>
-      <c r="C17" s="57" t="s">
+      <c r="B17" s="44"/>
+      <c r="C17" s="38" t="s">
         <v>130</v>
       </c>
-      <c r="D17" s="58"/>
-      <c r="E17" s="59"/>
-    </row>
-    <row r="18" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="38" t="s">
+      <c r="D17" s="39"/>
+      <c r="E17" s="40"/>
+    </row>
+    <row r="18" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="56" t="s">
         <v>134</v>
       </c>
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="59" t="s">
         <v>122</v>
       </c>
-      <c r="C18" s="54" t="s">
+      <c r="C18" s="45" t="s">
         <v>159</v>
       </c>
-      <c r="D18" s="55"/>
-      <c r="E18" s="56"/>
-    </row>
-    <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="39"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="44" t="s">
+      <c r="D18" s="46"/>
+      <c r="E18" s="47"/>
+    </row>
+    <row r="19" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A19" s="57"/>
+      <c r="B19" s="60"/>
+      <c r="C19" s="62" t="s">
         <v>160</v>
       </c>
-      <c r="D19" s="45"/>
-      <c r="E19" s="46"/>
-    </row>
-    <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A20" s="39"/>
-      <c r="B20" s="42"/>
-      <c r="C20" s="44" t="s">
+      <c r="D19" s="63"/>
+      <c r="E19" s="64"/>
+    </row>
+    <row r="20" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A20" s="57"/>
+      <c r="B20" s="60"/>
+      <c r="C20" s="62" t="s">
         <v>161</v>
       </c>
-      <c r="D20" s="45"/>
-      <c r="E20" s="46"/>
-    </row>
-    <row r="21" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="39"/>
-      <c r="B21" s="43"/>
-      <c r="C21" s="47" t="s">
+      <c r="D20" s="63"/>
+      <c r="E20" s="64"/>
+    </row>
+    <row r="21" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="57"/>
+      <c r="B21" s="61"/>
+      <c r="C21" s="53" t="s">
         <v>162</v>
       </c>
-      <c r="D21" s="48"/>
-      <c r="E21" s="49"/>
-    </row>
-    <row r="22" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="40"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="55"/>
+    </row>
+    <row r="22" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="58"/>
       <c r="B22" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="C22" s="63"/>
-      <c r="D22" s="58"/>
-      <c r="E22" s="64"/>
-    </row>
-    <row r="24" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="52" t="s">
+      <c r="C22" s="41"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="42"/>
+    </row>
+    <row r="24" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="48" t="s">
         <v>118</v>
       </c>
-      <c r="B25" s="53"/>
-      <c r="C25" s="60" t="s">
+      <c r="B25" s="49"/>
+      <c r="C25" s="50" t="s">
         <v>148</v>
       </c>
-      <c r="D25" s="61"/>
-      <c r="E25" s="62"/>
-    </row>
-    <row r="26" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="50" t="s">
+      <c r="D25" s="51"/>
+      <c r="E25" s="52"/>
+    </row>
+    <row r="26" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="43" t="s">
         <v>119</v>
       </c>
-      <c r="B26" s="51"/>
+      <c r="B26" s="44"/>
       <c r="C26" s="14"/>
       <c r="D26" s="15" t="s">
         <v>120</v>
@@ -2933,65 +2933,65 @@
         <v>146</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="50" t="s">
+    <row r="27" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="43" t="s">
         <v>121</v>
       </c>
-      <c r="B27" s="51"/>
-      <c r="C27" s="57" t="s">
+      <c r="B27" s="44"/>
+      <c r="C27" s="38" t="s">
         <v>147</v>
       </c>
-      <c r="D27" s="58"/>
-      <c r="E27" s="59"/>
-    </row>
-    <row r="28" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="38" t="s">
+      <c r="D27" s="39"/>
+      <c r="E27" s="40"/>
+    </row>
+    <row r="28" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="56" t="s">
         <v>149</v>
       </c>
-      <c r="B28" s="41" t="s">
+      <c r="B28" s="59" t="s">
         <v>122</v>
       </c>
-      <c r="C28" s="54" t="s">
+      <c r="C28" s="45" t="s">
         <v>163</v>
       </c>
-      <c r="D28" s="55"/>
-      <c r="E28" s="56"/>
-    </row>
-    <row r="29" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="39"/>
-      <c r="B29" s="43"/>
-      <c r="C29" s="47" t="s">
+      <c r="D28" s="46"/>
+      <c r="E28" s="47"/>
+    </row>
+    <row r="29" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="57"/>
+      <c r="B29" s="61"/>
+      <c r="C29" s="53" t="s">
         <v>164</v>
       </c>
-      <c r="D29" s="48"/>
-      <c r="E29" s="49"/>
-    </row>
-    <row r="30" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="40"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="55"/>
+    </row>
+    <row r="30" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="58"/>
       <c r="B30" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="C30" s="63"/>
-      <c r="D30" s="58"/>
-      <c r="E30" s="64"/>
-    </row>
-    <row r="31" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="52" t="s">
+      <c r="C30" s="41"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="42"/>
+    </row>
+    <row r="31" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="48" t="s">
         <v>118</v>
       </c>
-      <c r="B32" s="53"/>
-      <c r="C32" s="60" t="s">
+      <c r="B32" s="49"/>
+      <c r="C32" s="50" t="s">
         <v>135</v>
       </c>
-      <c r="D32" s="61"/>
-      <c r="E32" s="62"/>
-    </row>
-    <row r="33" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="50" t="s">
+      <c r="D32" s="51"/>
+      <c r="E32" s="52"/>
+    </row>
+    <row r="33" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="43" t="s">
         <v>119</v>
       </c>
-      <c r="B33" s="51"/>
+      <c r="B33" s="44"/>
       <c r="C33" s="14"/>
       <c r="D33" s="15" t="s">
         <v>120</v>
@@ -3000,128 +3000,128 @@
         <v>131</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="50" t="s">
+    <row r="34" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="43" t="s">
         <v>121</v>
       </c>
-      <c r="B34" s="51"/>
-      <c r="C34" s="57" t="s">
+      <c r="B34" s="44"/>
+      <c r="C34" s="38" t="s">
         <v>141</v>
       </c>
-      <c r="D34" s="58"/>
-      <c r="E34" s="59"/>
-    </row>
-    <row r="35" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="38" t="s">
+      <c r="D34" s="39"/>
+      <c r="E34" s="40"/>
+    </row>
+    <row r="35" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="56" t="s">
         <v>134</v>
       </c>
-      <c r="B35" s="41" t="s">
+      <c r="B35" s="59" t="s">
         <v>122</v>
       </c>
-      <c r="C35" s="54" t="s">
+      <c r="C35" s="45" t="s">
         <v>165</v>
       </c>
-      <c r="D35" s="55"/>
-      <c r="E35" s="56"/>
-    </row>
-    <row r="36" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A36" s="39"/>
-      <c r="B36" s="42"/>
-      <c r="C36" s="44" t="s">
+      <c r="D35" s="46"/>
+      <c r="E35" s="47"/>
+    </row>
+    <row r="36" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A36" s="57"/>
+      <c r="B36" s="60"/>
+      <c r="C36" s="62" t="s">
         <v>151</v>
       </c>
-      <c r="D36" s="45"/>
-      <c r="E36" s="46"/>
-    </row>
-    <row r="37" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A37" s="39"/>
-      <c r="B37" s="42"/>
-      <c r="C37" s="44" t="s">
+      <c r="D36" s="63"/>
+      <c r="E36" s="64"/>
+    </row>
+    <row r="37" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A37" s="57"/>
+      <c r="B37" s="60"/>
+      <c r="C37" s="62" t="s">
         <v>166</v>
       </c>
-      <c r="D37" s="45"/>
-      <c r="E37" s="46"/>
-    </row>
-    <row r="38" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A38" s="39"/>
-      <c r="B38" s="42"/>
-      <c r="C38" s="44" t="s">
+      <c r="D37" s="63"/>
+      <c r="E37" s="64"/>
+    </row>
+    <row r="38" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A38" s="57"/>
+      <c r="B38" s="60"/>
+      <c r="C38" s="62" t="s">
         <v>167</v>
       </c>
-      <c r="D38" s="45"/>
-      <c r="E38" s="46"/>
-    </row>
-    <row r="39" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A39" s="39"/>
-      <c r="B39" s="42"/>
-      <c r="C39" s="44" t="s">
+      <c r="D38" s="63"/>
+      <c r="E38" s="64"/>
+    </row>
+    <row r="39" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A39" s="57"/>
+      <c r="B39" s="60"/>
+      <c r="C39" s="62" t="s">
         <v>168</v>
       </c>
-      <c r="D39" s="45"/>
-      <c r="E39" s="46"/>
-    </row>
-    <row r="40" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A40" s="39"/>
-      <c r="B40" s="42"/>
-      <c r="C40" s="44" t="s">
+      <c r="D39" s="63"/>
+      <c r="E39" s="64"/>
+    </row>
+    <row r="40" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A40" s="57"/>
+      <c r="B40" s="60"/>
+      <c r="C40" s="62" t="s">
         <v>169</v>
       </c>
-      <c r="D40" s="45"/>
-      <c r="E40" s="46"/>
-    </row>
-    <row r="41" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A41" s="39"/>
-      <c r="B41" s="42"/>
-      <c r="C41" s="44" t="s">
+      <c r="D40" s="63"/>
+      <c r="E40" s="64"/>
+    </row>
+    <row r="41" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A41" s="57"/>
+      <c r="B41" s="60"/>
+      <c r="C41" s="62" t="s">
         <v>170</v>
       </c>
-      <c r="D41" s="45"/>
-      <c r="E41" s="46"/>
-    </row>
-    <row r="42" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A42" s="39"/>
-      <c r="B42" s="42"/>
-      <c r="C42" s="44" t="s">
+      <c r="D41" s="63"/>
+      <c r="E41" s="64"/>
+    </row>
+    <row r="42" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A42" s="57"/>
+      <c r="B42" s="60"/>
+      <c r="C42" s="62" t="s">
         <v>171</v>
       </c>
-      <c r="D42" s="45"/>
-      <c r="E42" s="46"/>
-    </row>
-    <row r="43" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="39"/>
-      <c r="B43" s="43"/>
-      <c r="C43" s="47" t="s">
+      <c r="D42" s="63"/>
+      <c r="E42" s="64"/>
+    </row>
+    <row r="43" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="57"/>
+      <c r="B43" s="61"/>
+      <c r="C43" s="53" t="s">
         <v>172</v>
       </c>
-      <c r="D43" s="48"/>
-      <c r="E43" s="49"/>
-    </row>
-    <row r="44" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="40"/>
+      <c r="D43" s="54"/>
+      <c r="E43" s="55"/>
+    </row>
+    <row r="44" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="58"/>
       <c r="B44" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="C44" s="63"/>
-      <c r="D44" s="58"/>
-      <c r="E44" s="64"/>
-    </row>
-    <row r="45" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="52" t="s">
+      <c r="C44" s="41"/>
+      <c r="D44" s="39"/>
+      <c r="E44" s="42"/>
+    </row>
+    <row r="45" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="46" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="48" t="s">
         <v>118</v>
       </c>
-      <c r="B46" s="53"/>
-      <c r="C46" s="60" t="s">
+      <c r="B46" s="49"/>
+      <c r="C46" s="50" t="s">
         <v>135</v>
       </c>
-      <c r="D46" s="61"/>
-      <c r="E46" s="62"/>
-    </row>
-    <row r="47" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="50" t="s">
+      <c r="D46" s="51"/>
+      <c r="E46" s="52"/>
+    </row>
+    <row r="47" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="43" t="s">
         <v>119</v>
       </c>
-      <c r="B47" s="51"/>
+      <c r="B47" s="44"/>
       <c r="C47" s="14"/>
       <c r="D47" s="15" t="s">
         <v>120</v>
@@ -3130,101 +3130,101 @@
         <v>132</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="50" t="s">
+    <row r="48" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="43" t="s">
         <v>121</v>
       </c>
-      <c r="B48" s="51"/>
-      <c r="C48" s="57" t="s">
+      <c r="B48" s="44"/>
+      <c r="C48" s="38" t="s">
         <v>142</v>
       </c>
-      <c r="D48" s="58"/>
-      <c r="E48" s="59"/>
-    </row>
-    <row r="49" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="38" t="s">
+      <c r="D48" s="39"/>
+      <c r="E48" s="40"/>
+    </row>
+    <row r="49" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="56" t="s">
         <v>134</v>
       </c>
-      <c r="B49" s="41" t="s">
+      <c r="B49" s="59" t="s">
         <v>122</v>
       </c>
-      <c r="C49" s="54" t="s">
+      <c r="C49" s="45" t="s">
         <v>173</v>
       </c>
-      <c r="D49" s="55"/>
-      <c r="E49" s="56"/>
-    </row>
-    <row r="50" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A50" s="39"/>
-      <c r="B50" s="42"/>
-      <c r="C50" s="44" t="s">
+      <c r="D49" s="46"/>
+      <c r="E49" s="47"/>
+    </row>
+    <row r="50" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A50" s="57"/>
+      <c r="B50" s="60"/>
+      <c r="C50" s="62" t="s">
         <v>174</v>
       </c>
-      <c r="D50" s="45"/>
-      <c r="E50" s="46"/>
-    </row>
-    <row r="51" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A51" s="39"/>
-      <c r="B51" s="42"/>
-      <c r="C51" s="44" t="s">
+      <c r="D50" s="63"/>
+      <c r="E50" s="64"/>
+    </row>
+    <row r="51" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A51" s="57"/>
+      <c r="B51" s="60"/>
+      <c r="C51" s="62" t="s">
         <v>175</v>
       </c>
-      <c r="D51" s="45"/>
-      <c r="E51" s="46"/>
-    </row>
-    <row r="52" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A52" s="39"/>
-      <c r="B52" s="42"/>
-      <c r="C52" s="44" t="s">
+      <c r="D51" s="63"/>
+      <c r="E51" s="64"/>
+    </row>
+    <row r="52" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A52" s="57"/>
+      <c r="B52" s="60"/>
+      <c r="C52" s="62" t="s">
         <v>170</v>
       </c>
-      <c r="D52" s="45"/>
-      <c r="E52" s="46"/>
-    </row>
-    <row r="53" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A53" s="39"/>
-      <c r="B53" s="42"/>
-      <c r="C53" s="44" t="s">
+      <c r="D52" s="63"/>
+      <c r="E52" s="64"/>
+    </row>
+    <row r="53" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A53" s="57"/>
+      <c r="B53" s="60"/>
+      <c r="C53" s="62" t="s">
         <v>171</v>
       </c>
-      <c r="D53" s="45"/>
-      <c r="E53" s="46"/>
-    </row>
-    <row r="54" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="39"/>
-      <c r="B54" s="43"/>
-      <c r="C54" s="47" t="s">
+      <c r="D53" s="63"/>
+      <c r="E53" s="64"/>
+    </row>
+    <row r="54" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="57"/>
+      <c r="B54" s="61"/>
+      <c r="C54" s="53" t="s">
         <v>172</v>
       </c>
-      <c r="D54" s="48"/>
-      <c r="E54" s="49"/>
-    </row>
-    <row r="55" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="40"/>
+      <c r="D54" s="54"/>
+      <c r="E54" s="55"/>
+    </row>
+    <row r="55" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="58"/>
       <c r="B55" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="C55" s="63"/>
-      <c r="D55" s="58"/>
-      <c r="E55" s="64"/>
-    </row>
-    <row r="56" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="57" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="52" t="s">
+      <c r="C55" s="41"/>
+      <c r="D55" s="39"/>
+      <c r="E55" s="42"/>
+    </row>
+    <row r="56" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="57" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="48" t="s">
         <v>118</v>
       </c>
-      <c r="B57" s="53"/>
-      <c r="C57" s="60" t="s">
+      <c r="B57" s="49"/>
+      <c r="C57" s="50" t="s">
         <v>135</v>
       </c>
-      <c r="D57" s="61"/>
-      <c r="E57" s="62"/>
-    </row>
-    <row r="58" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="50" t="s">
+      <c r="D57" s="51"/>
+      <c r="E57" s="52"/>
+    </row>
+    <row r="58" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="43" t="s">
         <v>119</v>
       </c>
-      <c r="B58" s="51"/>
+      <c r="B58" s="44"/>
       <c r="C58" s="14"/>
       <c r="D58" s="15" t="s">
         <v>120</v>
@@ -3233,101 +3233,101 @@
         <v>136</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="50" t="s">
+    <row r="59" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="43" t="s">
         <v>121</v>
       </c>
-      <c r="B59" s="51"/>
-      <c r="C59" s="57" t="s">
+      <c r="B59" s="44"/>
+      <c r="C59" s="38" t="s">
         <v>143</v>
       </c>
-      <c r="D59" s="58"/>
-      <c r="E59" s="59"/>
-    </row>
-    <row r="60" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="38" t="s">
+      <c r="D59" s="39"/>
+      <c r="E59" s="40"/>
+    </row>
+    <row r="60" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="56" t="s">
         <v>134</v>
       </c>
-      <c r="B60" s="41" t="s">
+      <c r="B60" s="59" t="s">
         <v>122</v>
       </c>
-      <c r="C60" s="54" t="s">
+      <c r="C60" s="45" t="s">
         <v>176</v>
       </c>
-      <c r="D60" s="55"/>
-      <c r="E60" s="56"/>
-    </row>
-    <row r="61" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A61" s="39"/>
-      <c r="B61" s="42"/>
-      <c r="C61" s="44" t="s">
+      <c r="D60" s="46"/>
+      <c r="E60" s="47"/>
+    </row>
+    <row r="61" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A61" s="57"/>
+      <c r="B61" s="60"/>
+      <c r="C61" s="62" t="s">
         <v>177</v>
       </c>
-      <c r="D61" s="45"/>
-      <c r="E61" s="46"/>
-    </row>
-    <row r="62" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A62" s="39"/>
-      <c r="B62" s="42"/>
-      <c r="C62" s="44" t="s">
+      <c r="D61" s="63"/>
+      <c r="E61" s="64"/>
+    </row>
+    <row r="62" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A62" s="57"/>
+      <c r="B62" s="60"/>
+      <c r="C62" s="62" t="s">
         <v>175</v>
       </c>
-      <c r="D62" s="45"/>
-      <c r="E62" s="46"/>
-    </row>
-    <row r="63" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A63" s="39"/>
-      <c r="B63" s="42"/>
-      <c r="C63" s="44" t="s">
+      <c r="D62" s="63"/>
+      <c r="E62" s="64"/>
+    </row>
+    <row r="63" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A63" s="57"/>
+      <c r="B63" s="60"/>
+      <c r="C63" s="62" t="s">
         <v>170</v>
       </c>
-      <c r="D63" s="45"/>
-      <c r="E63" s="46"/>
-    </row>
-    <row r="64" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A64" s="39"/>
-      <c r="B64" s="42"/>
-      <c r="C64" s="44" t="s">
+      <c r="D63" s="63"/>
+      <c r="E63" s="64"/>
+    </row>
+    <row r="64" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A64" s="57"/>
+      <c r="B64" s="60"/>
+      <c r="C64" s="62" t="s">
         <v>171</v>
       </c>
-      <c r="D64" s="45"/>
-      <c r="E64" s="46"/>
-    </row>
-    <row r="65" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="39"/>
-      <c r="B65" s="43"/>
-      <c r="C65" s="47" t="s">
+      <c r="D64" s="63"/>
+      <c r="E64" s="64"/>
+    </row>
+    <row r="65" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="57"/>
+      <c r="B65" s="61"/>
+      <c r="C65" s="53" t="s">
         <v>172</v>
       </c>
-      <c r="D65" s="48"/>
-      <c r="E65" s="49"/>
-    </row>
-    <row r="66" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="40"/>
+      <c r="D65" s="54"/>
+      <c r="E65" s="55"/>
+    </row>
+    <row r="66" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="58"/>
       <c r="B66" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="C66" s="63"/>
-      <c r="D66" s="58"/>
-      <c r="E66" s="64"/>
-    </row>
-    <row r="67" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="68" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="52" t="s">
+      <c r="C66" s="41"/>
+      <c r="D66" s="39"/>
+      <c r="E66" s="42"/>
+    </row>
+    <row r="67" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="68" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="48" t="s">
         <v>118</v>
       </c>
-      <c r="B68" s="53"/>
-      <c r="C68" s="60" t="s">
+      <c r="B68" s="49"/>
+      <c r="C68" s="50" t="s">
         <v>135</v>
       </c>
-      <c r="D68" s="61"/>
-      <c r="E68" s="62"/>
-    </row>
-    <row r="69" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="50" t="s">
+      <c r="D68" s="51"/>
+      <c r="E68" s="52"/>
+    </row>
+    <row r="69" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="43" t="s">
         <v>119</v>
       </c>
-      <c r="B69" s="51"/>
+      <c r="B69" s="44"/>
       <c r="C69" s="14"/>
       <c r="D69" s="15" t="s">
         <v>120</v>
@@ -3336,101 +3336,101 @@
         <v>200</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="50" t="s">
+    <row r="70" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="43" t="s">
         <v>121</v>
       </c>
-      <c r="B70" s="51"/>
-      <c r="C70" s="57" t="s">
+      <c r="B70" s="44"/>
+      <c r="C70" s="38" t="s">
         <v>199</v>
       </c>
-      <c r="D70" s="58"/>
-      <c r="E70" s="59"/>
-    </row>
-    <row r="71" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="38" t="s">
+      <c r="D70" s="39"/>
+      <c r="E70" s="40"/>
+    </row>
+    <row r="71" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="56" t="s">
         <v>134</v>
       </c>
-      <c r="B71" s="41" t="s">
+      <c r="B71" s="59" t="s">
         <v>122</v>
       </c>
-      <c r="C71" s="54" t="s">
+      <c r="C71" s="45" t="s">
         <v>178</v>
       </c>
-      <c r="D71" s="55"/>
-      <c r="E71" s="56"/>
-    </row>
-    <row r="72" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A72" s="39"/>
-      <c r="B72" s="42"/>
-      <c r="C72" s="44" t="s">
+      <c r="D71" s="46"/>
+      <c r="E71" s="47"/>
+    </row>
+    <row r="72" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A72" s="57"/>
+      <c r="B72" s="60"/>
+      <c r="C72" s="62" t="s">
         <v>179</v>
       </c>
-      <c r="D72" s="45"/>
-      <c r="E72" s="46"/>
-    </row>
-    <row r="73" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A73" s="39"/>
-      <c r="B73" s="42"/>
-      <c r="C73" s="44" t="s">
+      <c r="D72" s="63"/>
+      <c r="E72" s="64"/>
+    </row>
+    <row r="73" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A73" s="57"/>
+      <c r="B73" s="60"/>
+      <c r="C73" s="62" t="s">
         <v>175</v>
       </c>
-      <c r="D73" s="45"/>
-      <c r="E73" s="46"/>
-    </row>
-    <row r="74" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A74" s="39"/>
-      <c r="B74" s="42"/>
-      <c r="C74" s="44" t="s">
+      <c r="D73" s="63"/>
+      <c r="E73" s="64"/>
+    </row>
+    <row r="74" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A74" s="57"/>
+      <c r="B74" s="60"/>
+      <c r="C74" s="62" t="s">
         <v>170</v>
       </c>
-      <c r="D74" s="45"/>
-      <c r="E74" s="46"/>
-    </row>
-    <row r="75" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A75" s="39"/>
-      <c r="B75" s="42"/>
-      <c r="C75" s="44" t="s">
+      <c r="D74" s="63"/>
+      <c r="E74" s="64"/>
+    </row>
+    <row r="75" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A75" s="57"/>
+      <c r="B75" s="60"/>
+      <c r="C75" s="62" t="s">
         <v>171</v>
       </c>
-      <c r="D75" s="45"/>
-      <c r="E75" s="46"/>
-    </row>
-    <row r="76" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="39"/>
-      <c r="B76" s="43"/>
-      <c r="C76" s="47" t="s">
+      <c r="D75" s="63"/>
+      <c r="E75" s="64"/>
+    </row>
+    <row r="76" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="57"/>
+      <c r="B76" s="61"/>
+      <c r="C76" s="53" t="s">
         <v>172</v>
       </c>
-      <c r="D76" s="48"/>
-      <c r="E76" s="49"/>
-    </row>
-    <row r="77" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="40"/>
+      <c r="D76" s="54"/>
+      <c r="E76" s="55"/>
+    </row>
+    <row r="77" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="58"/>
       <c r="B77" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="C77" s="63"/>
-      <c r="D77" s="58"/>
-      <c r="E77" s="64"/>
-    </row>
-    <row r="78" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="79" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="52" t="s">
+      <c r="C77" s="41"/>
+      <c r="D77" s="39"/>
+      <c r="E77" s="42"/>
+    </row>
+    <row r="78" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="79" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="48" t="s">
         <v>118</v>
       </c>
-      <c r="B79" s="53"/>
-      <c r="C79" s="60" t="s">
+      <c r="B79" s="49"/>
+      <c r="C79" s="50" t="s">
         <v>137</v>
       </c>
-      <c r="D79" s="61"/>
-      <c r="E79" s="62"/>
-    </row>
-    <row r="80" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="50" t="s">
+      <c r="D79" s="51"/>
+      <c r="E79" s="52"/>
+    </row>
+    <row r="80" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="43" t="s">
         <v>119</v>
       </c>
-      <c r="B80" s="51"/>
+      <c r="B80" s="44"/>
       <c r="C80" s="14"/>
       <c r="D80" s="15" t="s">
         <v>120</v>
@@ -3439,182 +3439,182 @@
         <v>138</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="50" t="s">
+    <row r="81" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="43" t="s">
         <v>121</v>
       </c>
-      <c r="B81" s="51"/>
-      <c r="C81" s="57" t="s">
+      <c r="B81" s="44"/>
+      <c r="C81" s="38" t="s">
         <v>144</v>
       </c>
-      <c r="D81" s="58"/>
-      <c r="E81" s="59"/>
-    </row>
-    <row r="82" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="38" t="s">
+      <c r="D81" s="39"/>
+      <c r="E81" s="40"/>
+    </row>
+    <row r="82" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="56" t="s">
         <v>134</v>
       </c>
-      <c r="B82" s="41" t="s">
+      <c r="B82" s="59" t="s">
         <v>122</v>
       </c>
-      <c r="C82" s="54" t="s">
+      <c r="C82" s="45" t="s">
         <v>180</v>
       </c>
-      <c r="D82" s="55"/>
-      <c r="E82" s="56"/>
-    </row>
-    <row r="83" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A83" s="39"/>
-      <c r="B83" s="42"/>
-      <c r="C83" s="44" t="s">
+      <c r="D82" s="46"/>
+      <c r="E82" s="47"/>
+    </row>
+    <row r="83" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A83" s="57"/>
+      <c r="B83" s="60"/>
+      <c r="C83" s="62" t="s">
         <v>181</v>
       </c>
-      <c r="D83" s="45"/>
-      <c r="E83" s="46"/>
-    </row>
-    <row r="84" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A84" s="39"/>
-      <c r="B84" s="42"/>
-      <c r="C84" s="44" t="s">
+      <c r="D83" s="63"/>
+      <c r="E83" s="64"/>
+    </row>
+    <row r="84" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A84" s="57"/>
+      <c r="B84" s="60"/>
+      <c r="C84" s="62" t="s">
         <v>182</v>
       </c>
-      <c r="D84" s="45"/>
-      <c r="E84" s="46"/>
-    </row>
-    <row r="85" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A85" s="39"/>
-      <c r="B85" s="42"/>
-      <c r="C85" s="44" t="s">
+      <c r="D84" s="63"/>
+      <c r="E84" s="64"/>
+    </row>
+    <row r="85" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A85" s="57"/>
+      <c r="B85" s="60"/>
+      <c r="C85" s="62" t="s">
         <v>183</v>
       </c>
-      <c r="D85" s="45"/>
-      <c r="E85" s="46"/>
-    </row>
-    <row r="86" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A86" s="39"/>
-      <c r="B86" s="42"/>
-      <c r="C86" s="44" t="s">
+      <c r="D85" s="63"/>
+      <c r="E85" s="64"/>
+    </row>
+    <row r="86" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A86" s="57"/>
+      <c r="B86" s="60"/>
+      <c r="C86" s="62" t="s">
         <v>184</v>
       </c>
-      <c r="D86" s="45"/>
-      <c r="E86" s="46"/>
-    </row>
-    <row r="87" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A87" s="39"/>
-      <c r="B87" s="42"/>
-      <c r="C87" s="44" t="s">
+      <c r="D86" s="63"/>
+      <c r="E86" s="64"/>
+    </row>
+    <row r="87" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A87" s="57"/>
+      <c r="B87" s="60"/>
+      <c r="C87" s="62" t="s">
         <v>185</v>
       </c>
-      <c r="D87" s="45"/>
-      <c r="E87" s="46"/>
-    </row>
-    <row r="88" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A88" s="39"/>
-      <c r="B88" s="42"/>
-      <c r="C88" s="44" t="s">
+      <c r="D87" s="63"/>
+      <c r="E87" s="64"/>
+    </row>
+    <row r="88" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A88" s="57"/>
+      <c r="B88" s="60"/>
+      <c r="C88" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="D88" s="45"/>
-      <c r="E88" s="46"/>
-    </row>
-    <row r="89" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A89" s="39"/>
-      <c r="B89" s="42"/>
-      <c r="C89" s="44" t="s">
+      <c r="D88" s="63"/>
+      <c r="E88" s="64"/>
+    </row>
+    <row r="89" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A89" s="57"/>
+      <c r="B89" s="60"/>
+      <c r="C89" s="62" t="s">
         <v>187</v>
       </c>
-      <c r="D89" s="45"/>
-      <c r="E89" s="46"/>
-    </row>
-    <row r="90" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A90" s="39"/>
-      <c r="B90" s="42"/>
-      <c r="C90" s="44" t="s">
+      <c r="D89" s="63"/>
+      <c r="E89" s="64"/>
+    </row>
+    <row r="90" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A90" s="57"/>
+      <c r="B90" s="60"/>
+      <c r="C90" s="62" t="s">
         <v>188</v>
       </c>
-      <c r="D90" s="45"/>
-      <c r="E90" s="46"/>
-    </row>
-    <row r="91" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A91" s="39"/>
-      <c r="B91" s="42"/>
-      <c r="C91" s="44" t="s">
+      <c r="D90" s="63"/>
+      <c r="E90" s="64"/>
+    </row>
+    <row r="91" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A91" s="57"/>
+      <c r="B91" s="60"/>
+      <c r="C91" s="62" t="s">
         <v>189</v>
       </c>
-      <c r="D91" s="45"/>
-      <c r="E91" s="46"/>
-    </row>
-    <row r="92" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A92" s="39"/>
-      <c r="B92" s="42"/>
-      <c r="C92" s="44" t="s">
+      <c r="D91" s="63"/>
+      <c r="E91" s="64"/>
+    </row>
+    <row r="92" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A92" s="57"/>
+      <c r="B92" s="60"/>
+      <c r="C92" s="62" t="s">
         <v>190</v>
       </c>
-      <c r="D92" s="45"/>
-      <c r="E92" s="46"/>
-    </row>
-    <row r="93" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A93" s="39"/>
-      <c r="B93" s="42"/>
-      <c r="C93" s="44" t="s">
+      <c r="D92" s="63"/>
+      <c r="E92" s="64"/>
+    </row>
+    <row r="93" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A93" s="57"/>
+      <c r="B93" s="60"/>
+      <c r="C93" s="62" t="s">
         <v>193</v>
       </c>
-      <c r="D93" s="45"/>
-      <c r="E93" s="46"/>
-    </row>
-    <row r="94" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A94" s="39"/>
-      <c r="B94" s="42"/>
-      <c r="C94" s="44" t="s">
+      <c r="D93" s="63"/>
+      <c r="E93" s="64"/>
+    </row>
+    <row r="94" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A94" s="57"/>
+      <c r="B94" s="60"/>
+      <c r="C94" s="62" t="s">
         <v>194</v>
       </c>
-      <c r="D94" s="45"/>
-      <c r="E94" s="46"/>
-    </row>
-    <row r="95" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A95" s="39"/>
-      <c r="B95" s="42"/>
-      <c r="C95" s="44" t="s">
+      <c r="D94" s="63"/>
+      <c r="E94" s="64"/>
+    </row>
+    <row r="95" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A95" s="57"/>
+      <c r="B95" s="60"/>
+      <c r="C95" s="62" t="s">
         <v>191</v>
       </c>
-      <c r="D95" s="45"/>
-      <c r="E95" s="46"/>
-    </row>
-    <row r="96" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="39"/>
-      <c r="B96" s="43"/>
-      <c r="C96" s="47" t="s">
+      <c r="D95" s="63"/>
+      <c r="E95" s="64"/>
+    </row>
+    <row r="96" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="57"/>
+      <c r="B96" s="61"/>
+      <c r="C96" s="53" t="s">
         <v>192</v>
       </c>
-      <c r="D96" s="48"/>
-      <c r="E96" s="49"/>
-    </row>
-    <row r="97" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="40"/>
+      <c r="D96" s="54"/>
+      <c r="E96" s="55"/>
+    </row>
+    <row r="97" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="58"/>
       <c r="B97" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="C97" s="63"/>
-      <c r="D97" s="58"/>
-      <c r="E97" s="64"/>
-    </row>
-    <row r="98" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="99" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="52" t="s">
+      <c r="C97" s="41"/>
+      <c r="D97" s="39"/>
+      <c r="E97" s="42"/>
+    </row>
+    <row r="98" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="99" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="48" t="s">
         <v>118</v>
       </c>
-      <c r="B99" s="53"/>
-      <c r="C99" s="60" t="s">
+      <c r="B99" s="49"/>
+      <c r="C99" s="50" t="s">
         <v>139</v>
       </c>
-      <c r="D99" s="61"/>
-      <c r="E99" s="62"/>
-    </row>
-    <row r="100" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="50" t="s">
+      <c r="D99" s="51"/>
+      <c r="E99" s="52"/>
+    </row>
+    <row r="100" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="43" t="s">
         <v>119</v>
       </c>
-      <c r="B100" s="51"/>
+      <c r="B100" s="44"/>
       <c r="C100" s="14"/>
       <c r="D100" s="15" t="s">
         <v>120</v>
@@ -3623,176 +3623,68 @@
         <v>140</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="50" t="s">
+    <row r="101" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="43" t="s">
         <v>121</v>
       </c>
-      <c r="B101" s="51"/>
+      <c r="B101" s="44"/>
       <c r="C101" s="19" t="s">
         <v>145</v>
       </c>
       <c r="D101" s="20"/>
       <c r="E101" s="21"/>
     </row>
-    <row r="102" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="38" t="s">
+    <row r="102" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="56" t="s">
         <v>134</v>
       </c>
-      <c r="B102" s="41" t="s">
+      <c r="B102" s="59" t="s">
         <v>122</v>
       </c>
-      <c r="C102" s="54" t="s">
+      <c r="C102" s="45" t="s">
         <v>195</v>
       </c>
-      <c r="D102" s="55"/>
-      <c r="E102" s="56"/>
-    </row>
-    <row r="103" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A103" s="39"/>
-      <c r="B103" s="42"/>
-      <c r="C103" s="44" t="s">
+      <c r="D102" s="46"/>
+      <c r="E102" s="47"/>
+    </row>
+    <row r="103" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A103" s="57"/>
+      <c r="B103" s="60"/>
+      <c r="C103" s="62" t="s">
         <v>196</v>
       </c>
-      <c r="D103" s="45"/>
-      <c r="E103" s="46"/>
-    </row>
-    <row r="104" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A104" s="39"/>
-      <c r="B104" s="42"/>
-      <c r="C104" s="44" t="s">
+      <c r="D103" s="63"/>
+      <c r="E103" s="64"/>
+    </row>
+    <row r="104" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A104" s="57"/>
+      <c r="B104" s="60"/>
+      <c r="C104" s="62" t="s">
         <v>197</v>
       </c>
-      <c r="D104" s="45"/>
-      <c r="E104" s="46"/>
-    </row>
-    <row r="105" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="39"/>
-      <c r="B105" s="43"/>
-      <c r="C105" s="47" t="s">
+      <c r="D104" s="63"/>
+      <c r="E104" s="64"/>
+    </row>
+    <row r="105" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="57"/>
+      <c r="B105" s="61"/>
+      <c r="C105" s="53" t="s">
         <v>198</v>
       </c>
-      <c r="D105" s="48"/>
-      <c r="E105" s="49"/>
-    </row>
-    <row r="106" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="40"/>
+      <c r="D105" s="54"/>
+      <c r="E105" s="55"/>
+    </row>
+    <row r="106" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="58"/>
       <c r="B106" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="C106" s="63"/>
-      <c r="D106" s="58"/>
-      <c r="E106" s="64"/>
+      <c r="C106" s="41"/>
+      <c r="D106" s="39"/>
+      <c r="E106" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="132">
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="A35:A44"/>
-    <mergeCell ref="B35:B43"/>
-    <mergeCell ref="C66:E66"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="C82:E82"/>
-    <mergeCell ref="C83:E83"/>
-    <mergeCell ref="C84:E84"/>
-    <mergeCell ref="C85:E85"/>
-    <mergeCell ref="C86:E86"/>
-    <mergeCell ref="C87:E87"/>
-    <mergeCell ref="C88:E88"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="C99:E99"/>
-    <mergeCell ref="C79:E79"/>
-    <mergeCell ref="C68:E68"/>
-    <mergeCell ref="C97:E97"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="C60:E60"/>
-    <mergeCell ref="C61:E61"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="C63:E63"/>
-    <mergeCell ref="C64:E64"/>
-    <mergeCell ref="C65:E65"/>
-    <mergeCell ref="C71:E71"/>
-    <mergeCell ref="C81:E81"/>
-    <mergeCell ref="C70:E70"/>
-    <mergeCell ref="C77:E77"/>
-    <mergeCell ref="C73:E73"/>
-    <mergeCell ref="C72:E72"/>
-    <mergeCell ref="C74:E74"/>
-    <mergeCell ref="C75:E75"/>
-    <mergeCell ref="C76:E76"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="B4:B12"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="A18:A22"/>
-    <mergeCell ref="A4:A13"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A60:A66"/>
-    <mergeCell ref="B60:B65"/>
-    <mergeCell ref="A49:A55"/>
-    <mergeCell ref="B49:B54"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A34:B34"/>
     <mergeCell ref="A102:A106"/>
     <mergeCell ref="A82:A97"/>
     <mergeCell ref="B82:B96"/>
@@ -3817,6 +3709,114 @@
     <mergeCell ref="C90:E90"/>
     <mergeCell ref="C91:E91"/>
     <mergeCell ref="C92:E92"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A60:A66"/>
+    <mergeCell ref="B60:B65"/>
+    <mergeCell ref="A49:A55"/>
+    <mergeCell ref="B49:B54"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="B4:B12"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="A4:A13"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C99:E99"/>
+    <mergeCell ref="C79:E79"/>
+    <mergeCell ref="C68:E68"/>
+    <mergeCell ref="C97:E97"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="C60:E60"/>
+    <mergeCell ref="C61:E61"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="C63:E63"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="C71:E71"/>
+    <mergeCell ref="C81:E81"/>
+    <mergeCell ref="C70:E70"/>
+    <mergeCell ref="C77:E77"/>
+    <mergeCell ref="C73:E73"/>
+    <mergeCell ref="C72:E72"/>
+    <mergeCell ref="C74:E74"/>
+    <mergeCell ref="C75:E75"/>
+    <mergeCell ref="C76:E76"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="C66:E66"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="C82:E82"/>
+    <mergeCell ref="C83:E83"/>
+    <mergeCell ref="C84:E84"/>
+    <mergeCell ref="C85:E85"/>
+    <mergeCell ref="C86:E86"/>
+    <mergeCell ref="C87:E87"/>
+    <mergeCell ref="C88:E88"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="A35:A44"/>
+    <mergeCell ref="B35:B43"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/요구사항_합본2_team2_최경열.xlsx
+++ b/doc/요구사항_합본2_team2_최경열.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7608" tabRatio="995" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7605" tabRatio="995" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="요구사항정의서_최종" sheetId="43" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="213">
   <si>
     <t>지역별로 여행지를 제공한다</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -574,7 +574,194 @@
     <t>유형</t>
   </si>
   <si>
-    <t>지역별로 여행지를 제공</t>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/ UX (여행지)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/UX(여행지)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>봄,여름,가을,겨울 별로 여행지를 제공한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기간 별 축제정보를 제공</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>유형</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>요구사항 내역</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/UX(축제)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행 중 축제정보를 제공</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/UX(포토게시판)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글 작성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/UX(포토게시판)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글 수정, 삭제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>각 지역마다 축제정보를 화면에 제공</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기간 별(월별)축제정보를 화면에 제공</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 진행 중인 축제정보만 화면에 제공</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행지 사진으로만 이루어진 포토게시판 작성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>포토 게시판의 게시글 정보를 삭제, 수정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색 태그</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색 태그 선택을 통한 페이지 이동</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/ UX (여행지)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>요구사항 내역</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역별 여행지는 Select Bar 형식으로 보여진다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Select Bar 형식들은 지역명의 이름으로 보여진다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행지인 썸네일 형태의 사진과 짧은글은 리스트 형식으로 나열된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행지 페이지 여행정보 제공 상단에 여행지 연관검색어 등을 #홍길동 형태로 제공한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자 및 회원은 포토 게시판을 작성 할 수 있다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>포토 게시판은 화면란에 썸네일 형태로 보여진다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>각 썸네일은 상단 사진, 하단 부제목,제목 순으로 구성된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>각 썸네일은 제목 우측에 누적 조회수를 제공한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>썸네일은 화면단에 최대6개로 구성이 되며 6개 초과서 페이지 전환 처리 해야한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>썸네일에 마우스를 올릴시 사진이 축소된다(썸네일 크기는 그대로, 사진만)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>썸네일 클릭시 각 포토상세 페이지로 이동한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-1.상단- 포토 상세 페이지를 작성시 반드시 사진 1장이상을 포함해아한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-2.사진은 썸네일 대표사진을 지정할 수 있다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-3.사진 좌측, 게시글 우측으로 구성된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-4.게시글은 200자 이하로만 작성이 가능하다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글은 관리자,회원만 작성할 수 있다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비회원은 포토 상세페이지를 볼 수 없다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.중단-맵api를 제공하여 사진의 장소에 마커를 표시할 수 있다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.하단-댓글란을 제공한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자 및 회원은 게시글을 수정, 삭제 할 수 있다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정 및 삭제 버튼은 포토 상세 페이지란 하단에 위치한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정시 게시글 작성 페이지로 전환된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>삭제시 포토 상세 페이지 및 썸네일은 소멸된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행 예정 축제정보를 제공</t>
+  </si>
+  <si>
+    <t>진행 예정 축제정보를 제공</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>계절별 여행지</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -582,159 +769,79 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>계절별 여행지 분류</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI/ UX (여행지)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI/UX(여행지)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>봄,여름,가을,겨울 별로 여행지를 제공한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>지역별 축제정보를 제공</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>기간 별 축제정보를 제공</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>유형</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>요구사항 내역</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI/UX(축제)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>진행 중 축제정보를 제공</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI/UX(포토게시판)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>게시글 작성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI/UX(포토게시판)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>게시글 수정, 삭제</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>각 지역마다 축제정보를 화면에 제공</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>기간 별(월별)축제정보를 화면에 제공</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>현재 진행 중인 축제정보만 화면에 제공</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>여행지 사진으로만 이루어진 포토게시판 작성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>포토 게시판의 게시글 정보를 삭제, 수정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>검색 태그</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>검색 태그 선택을 통한 페이지 이동</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI/ UX (여행지)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>요구사항 내역</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>지역별 여행지는 Select Bar 형식으로 보여진다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Select Bar 형식들은 지역명의 이름으로 보여진다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>지역(이름)클릭시 지역별 여행지 페이지로 이동한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>각 지역별 여행지 페이지는 여행지들을 썸네일 형태의 사진(1개)과 짧은 글(50자내외)로 제공한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>여행지인 썸네일 형태의 사진과 짧은글은 리스트 형식으로 나열된다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>썸네일 클릭시 여행지 상세 페이지로 이동한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>여행지 상세페이지는 회전목마형태의 사진을 제공한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>여행 상세페이지는 여행지에 대한 설명과 상세정보(문의 및 안내, 주소, 홈페이지, 휴일 등)을 제공한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>여행지 상세페이지는 여행지의 위치를 API 지도로 제공한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>계절별 여행지 상단에는 봄,여름,가을,겨울 select 창이 존재한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>클릭시 비동기 형태로 계절별 추천 여행지를 보여준다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>썸네일 형태를 클릭시 여행지 상세 페이지로 이동한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>클릭시 비동기 형태로 계절별 추천여행지를 보여준다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>여행지 페이지 여행정보 제공 상단에 여행지 연관검색어 등을 #홍길동 형태로 제공한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>검색 태그 클릭시 페이지로 이동한다.</t>
+    <t>지역의 여행지(유명장소,관광지)정보를 화면에 제공</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Select Bar에 지역(이름)클릭시 지역별 여행지 페이지로 이동한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역 여행지 페이지는 여행지들을 썸네일 형태의 사진(1개)짧은 글(50자내외), 내 여행리스트에 담기를 좌측부터 차례로 구성된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역 여행지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>계절별 여행지 상단에는 봄,여름,가을,겨울이란 단어가 존재한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>각 단어 클릭시 비동기 형태로 계절별 추천 여행지를 보여준다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">여행지들은 회전목마 형식으로 제공되며 회전목마에 3개의 사진이 제공된다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행지,축제 상세페이지는 회전목마형태의 사진을 제공한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 여행지,축제 상세 페이지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행지,축제 썸네일 선택시 선택 여행지,축제 상세정보를 화면에 제공</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행,축제 상세페이지는 여행지,축제에 대한 설명과 상세정보(문의 및 안내, 주소, 홈페이지, 휴일 등)을 제공한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행지,축제 상세페이지는 상단에 해당 페이지 내용을 공유하기(카톡,페이스북,트위터)버튼을 제공한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행지,축제 상세 페이지는 상단에 해당 페이지 내용을 보관할 수 있는 내 여행리스트에 담기 버튼을 제공한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행지,축제 상세페이지는 상단에 여행지,축제 지역의 날씨를 날씨 API로 제공한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행지,축제 상세페이지는 하단에 여행지,축제 지역의 위치를 API 지도로 제공한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/ UX (상세 페이지)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색 태그 클릭시 태그 해당페이지로 이동한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>태그 해당여행지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 여행지 페이지는 여행지들을 썸네일 형태의 사진(1개)짧은 글(50자내외), 내 여행리스트에 담기를 좌측부터 차례로 구성된다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -742,11 +849,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>지역(이름)클릭시 지역별 축제 페이지로 이동한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>각 지역별 축제 페이지는 축제들을 썸네일 형태의 사진(1개)과 짧은 글(50자내외)로 제공한다.</t>
+    <t>지역축제 Select Bar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역  축제정보</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역의 축제정보를 화면에 제공</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>썸네일 클릭시 여행지,축제 상세 페이지로 이동한다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -754,130 +869,63 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>썸네일 클릭시 축제 상세 페이지로 이동한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>축제 상세페이지는 회전목마형태의 사진을 제공한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>축제 상세페이지는 축제에 대한 설명과 상세정보(문의 및 안내, 주소, 홈페이지, 휴일 등)을 제공한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>축제 상세페이지는 축제의 위치를 API 지도로 제공한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>기간별 축제는 회전목마형식으로 보여진다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>회전목마형식들은 월별로 축제사진을 제공한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>축제사진 클릭시 해당 축제 페이지로 이동한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>진행 중인 축제는 회전목마형식으로 보여진다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>회전목마형식들은 진행 중인 축제사진을 제공한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>진행 예정 축제는 회전목마형식으로 보여진다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>회전목마형식들은 진행 예정인 축제사진을 제공한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자 및 회원은 포토 게시판을 작성 할 수 있다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>포토 게시판은 화면란에 썸네일 형태로 보여진다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>각 썸네일은 상단 사진, 하단 부제목,제목 순으로 구성된다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>각 썸네일은 제목 우측에 누적 조회수를 제공한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>썸네일은 화면단에 최대6개로 구성이 되며 6개 초과서 페이지 전환 처리 해야한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>썸네일에 마우스를 올릴시 사진이 축소된다(썸네일 크기는 그대로, 사진만)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>썸네일 클릭시 각 포토상세 페이지로 이동한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-1.상단- 포토 상세 페이지를 작성시 반드시 사진 1장이상을 포함해아한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-2.사진은 썸네일 대표사진을 지정할 수 있다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-3.사진 좌측, 게시글 우측으로 구성된다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-4.게시글은 200자 이하로만 작성이 가능하다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>댓글은 관리자,회원만 작성할 수 있다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>비회원은 포토 상세페이지를 볼 수 없다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.중단-맵api를 제공하여 사진의 장소에 마커를 표시할 수 있다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.하단-댓글란을 제공한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자 및 회원은 게시글을 수정, 삭제 할 수 있다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>수정 및 삭제 버튼은 포토 상세 페이지란 하단에 위치한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>수정시 게시글 작성 페이지로 전환된다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>삭제시 포토 상세 페이지 및 썸네일은 소멸된다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>진행 예정 축제정보를 제공</t>
-  </si>
-  <si>
-    <t>진행 예정 축제정보를 제공</t>
+    <t>지역 축제 페이지는 축제들을 썸네일 형태의 사진(1개)짧은 글(50자내외), 내 여행리스트에 담기를 좌측부터 차례로 구성된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기간별 축제는 회전목마 형태로 구성된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>축제 사진 클릭시 여행지,축제 상세 페이지로 전환된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회전목마형태의 사진을 클릭시 여행지,축제 상세 페이지로 이동한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Select Bar에 지역(이름)클릭시 지역 축제 페이지로 이동한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[&lt;*월&gt;버튼] 클릭시 축제 사진이 변경된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상단에는 [&lt;*월&gt;버튼]방식, 하단에는 축제사진(1장)으로 구성된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행중인 축제는 회전목마 형태로 구성된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상단에는 [&lt;진행중&gt;버튼]방식, 하단에는 축제사진(1장)으로 구성된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[&lt;진행중&gt;버튼] 클릭시 축제 사진이 변경된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행예정인 축제는 회전목마 형태로 구성된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상단에는 [&lt;진행예정&gt;버튼]방식, 하단에는 축제사진(1장)으로 구성된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[&lt;진행예정&gt;버튼] 클릭시 축제 사진이 변경된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역-여행 Select Bar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;&gt;버튼 클릭시 사진을 한장씩 밀며 화면에 제공된다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -979,7 +1027,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -1339,6 +1387,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1360,7 +1456,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1415,22 +1511,37 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1472,28 +1583,58 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1505,10 +1646,13 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1520,41 +1664,50 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1867,21 +2020,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D110"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="13.796875" customWidth="1"/>
-    <col min="3" max="3" width="66.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.77734375" customWidth="1"/>
+    <col min="3" max="3" width="66.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="42" t="s">
         <v>110</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -1891,44 +2044,44 @@
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="28"/>
-      <c r="B3" s="23"/>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="33"/>
+      <c r="B3" s="42"/>
       <c r="C3" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="28"/>
-      <c r="B4" s="23"/>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="33"/>
+      <c r="B4" s="42"/>
       <c r="C4" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A5" s="28"/>
-      <c r="B5" s="23"/>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="33"/>
+      <c r="B5" s="42"/>
       <c r="C5" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="28"/>
-      <c r="B6" s="23"/>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="33"/>
+      <c r="B6" s="42"/>
       <c r="C6" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A7" s="28"/>
-      <c r="B7" s="23"/>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="33"/>
+      <c r="B7" s="42"/>
       <c r="C7" s="11" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A8" s="28"/>
-      <c r="B8" s="23" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="33"/>
+      <c r="B8" s="42" t="s">
         <v>101</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -1938,30 +2091,30 @@
         <v>112</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A9" s="28"/>
-      <c r="B9" s="23"/>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="33"/>
+      <c r="B9" s="42"/>
       <c r="C9" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A10" s="28"/>
-      <c r="B10" s="23"/>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="33"/>
+      <c r="B10" s="42"/>
       <c r="C10" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="28"/>
-      <c r="B11" s="23"/>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="33"/>
+      <c r="B11" s="42"/>
       <c r="C11" s="11" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A12" s="28"/>
-      <c r="B12" s="23" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" s="33"/>
+      <c r="B12" s="42" t="s">
         <v>102</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -1971,51 +2124,51 @@
         <v>113</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A13" s="28"/>
-      <c r="B13" s="23"/>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" s="33"/>
+      <c r="B13" s="42"/>
       <c r="C13" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A14" s="28"/>
-      <c r="B14" s="23"/>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" s="33"/>
+      <c r="B14" s="42"/>
       <c r="C14" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A15" s="28"/>
-      <c r="B15" s="23"/>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" s="33"/>
+      <c r="B15" s="42"/>
       <c r="C15" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="28"/>
-      <c r="B16" s="23"/>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" s="33"/>
+      <c r="B16" s="42"/>
       <c r="C16" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A17" s="28"/>
-      <c r="B17" s="23"/>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" s="33"/>
+      <c r="B17" s="42"/>
       <c r="C17" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A18" s="28"/>
-      <c r="B18" s="23"/>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" s="33"/>
+      <c r="B18" s="42"/>
       <c r="C18" s="11" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A19" s="28"/>
-      <c r="B19" s="23" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19" s="33"/>
+      <c r="B19" s="42" t="s">
         <v>103</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -2025,36 +2178,36 @@
         <v>112</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A20" s="28"/>
-      <c r="B20" s="23"/>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20" s="33"/>
+      <c r="B20" s="42"/>
       <c r="C20" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A21" s="28"/>
-      <c r="B21" s="23"/>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21" s="33"/>
+      <c r="B21" s="42"/>
       <c r="C21" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A22" s="28"/>
-      <c r="B22" s="23"/>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22" s="33"/>
+      <c r="B22" s="42"/>
       <c r="C22" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A23" s="28"/>
-      <c r="B23" s="23"/>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A23" s="33"/>
+      <c r="B23" s="42"/>
       <c r="C23" s="11" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A24" s="28"/>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A24" s="33"/>
       <c r="B24" s="8" t="s">
         <v>109</v>
       </c>
@@ -2062,8 +2215,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A25" s="28"/>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A25" s="33"/>
       <c r="B25" s="8" t="s">
         <v>7</v>
       </c>
@@ -2071,59 +2224,59 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A26" s="28"/>
-      <c r="B26" s="23" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A26" s="33"/>
+      <c r="B26" s="42" t="s">
         <v>9</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A27" s="28"/>
-      <c r="B27" s="23"/>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A27" s="33"/>
+      <c r="B27" s="42"/>
       <c r="C27" s="7" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A28" s="28"/>
-      <c r="B28" s="25" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A28" s="33"/>
+      <c r="B28" s="30" t="s">
         <v>66</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A29" s="28"/>
-      <c r="B29" s="26"/>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A29" s="33"/>
+      <c r="B29" s="31"/>
       <c r="C29" s="4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A30" s="28"/>
-      <c r="B30" s="25" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A30" s="33"/>
+      <c r="B30" s="30" t="s">
         <v>68</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A31" s="29"/>
-      <c r="B31" s="26"/>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A31" s="34"/>
+      <c r="B31" s="31"/>
       <c r="C31" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A32" s="24" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A32" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="B32" s="23" t="s">
+      <c r="B32" s="42" t="s">
         <v>104</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -2133,37 +2286,37 @@
         <v>113</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="24"/>
-      <c r="B33" s="23"/>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A33" s="29"/>
+      <c r="B33" s="42"/>
       <c r="C33" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="24"/>
-      <c r="B34" s="23"/>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A34" s="29"/>
+      <c r="B34" s="42"/>
       <c r="C34" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A35" s="24"/>
-      <c r="B35" s="23"/>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A35" s="29"/>
+      <c r="B35" s="42"/>
       <c r="C35" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A36" s="24"/>
-      <c r="B36" s="23"/>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A36" s="29"/>
+      <c r="B36" s="42"/>
       <c r="C36" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A37" s="24"/>
-      <c r="B37" s="36" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A37" s="29"/>
+      <c r="B37" s="41" t="s">
         <v>105</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -2173,58 +2326,58 @@
         <v>114</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A38" s="24"/>
-      <c r="B38" s="36"/>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A38" s="29"/>
+      <c r="B38" s="41"/>
       <c r="C38" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A39" s="24"/>
-      <c r="B39" s="36"/>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A39" s="29"/>
+      <c r="B39" s="41"/>
       <c r="C39" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="24"/>
-      <c r="B40" s="36"/>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A40" s="29"/>
+      <c r="B40" s="41"/>
       <c r="C40" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="24"/>
-      <c r="B41" s="36"/>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A41" s="29"/>
+      <c r="B41" s="41"/>
       <c r="C41" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A42" s="24"/>
-      <c r="B42" s="36"/>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A42" s="29"/>
+      <c r="B42" s="41"/>
       <c r="C42" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A43" s="24"/>
-      <c r="B43" s="36"/>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A43" s="29"/>
+      <c r="B43" s="41"/>
       <c r="C43" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A44" s="24"/>
-      <c r="B44" s="36"/>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A44" s="29"/>
+      <c r="B44" s="41"/>
       <c r="C44" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A45" s="24"/>
-      <c r="B45" s="23" t="s">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A45" s="29"/>
+      <c r="B45" s="42" t="s">
         <v>106</v>
       </c>
       <c r="C45" s="1" t="s">
@@ -2234,51 +2387,51 @@
         <v>112</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A46" s="24"/>
-      <c r="B46" s="23"/>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A46" s="29"/>
+      <c r="B46" s="42"/>
       <c r="C46" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A47" s="24"/>
-      <c r="B47" s="23"/>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A47" s="29"/>
+      <c r="B47" s="42"/>
       <c r="C47" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A48" s="24"/>
-      <c r="B48" s="23"/>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A48" s="29"/>
+      <c r="B48" s="42"/>
       <c r="C48" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A49" s="24"/>
-      <c r="B49" s="23"/>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A49" s="29"/>
+      <c r="B49" s="42"/>
       <c r="C49" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="24"/>
-      <c r="B50" s="23"/>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A50" s="29"/>
+      <c r="B50" s="42"/>
       <c r="C50" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A51" s="24"/>
-      <c r="B51" s="23"/>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A51" s="29"/>
+      <c r="B51" s="42"/>
       <c r="C51" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A52" s="24"/>
-      <c r="B52" s="23" t="s">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A52" s="29"/>
+      <c r="B52" s="42" t="s">
         <v>107</v>
       </c>
       <c r="C52" s="1" t="s">
@@ -2288,51 +2441,51 @@
         <v>111</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A53" s="24"/>
-      <c r="B53" s="23"/>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A53" s="29"/>
+      <c r="B53" s="42"/>
       <c r="C53" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="24"/>
-      <c r="B54" s="23"/>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A54" s="29"/>
+      <c r="B54" s="42"/>
       <c r="C54" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="24"/>
-      <c r="B55" s="23"/>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A55" s="29"/>
+      <c r="B55" s="42"/>
       <c r="C55" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="24"/>
-      <c r="B56" s="23"/>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A56" s="29"/>
+      <c r="B56" s="42"/>
       <c r="C56" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="24"/>
-      <c r="B57" s="23"/>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A57" s="29"/>
+      <c r="B57" s="42"/>
       <c r="C57" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="24"/>
-      <c r="B58" s="23"/>
+    <row r="58" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="29"/>
+      <c r="B58" s="42"/>
       <c r="C58" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="24"/>
-      <c r="B59" s="23" t="s">
+    <row r="59" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="29"/>
+      <c r="B59" s="42" t="s">
         <v>108</v>
       </c>
       <c r="C59" s="3" t="s">
@@ -2342,255 +2495,255 @@
         <v>115</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="24"/>
-      <c r="B60" s="23"/>
+    <row r="60" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="29"/>
+      <c r="B60" s="42"/>
       <c r="C60" s="4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="24"/>
-      <c r="B61" s="23"/>
+    <row r="61" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="29"/>
+      <c r="B61" s="42"/>
       <c r="C61" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="24"/>
-      <c r="B62" s="23"/>
+    <row r="62" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="29"/>
+      <c r="B62" s="42"/>
       <c r="C62" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="24"/>
-      <c r="B63" s="23"/>
+    <row r="63" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="29"/>
+      <c r="B63" s="42"/>
       <c r="C63" s="4" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="24"/>
-      <c r="B64" s="23"/>
+    <row r="64" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="29"/>
+      <c r="B64" s="42"/>
       <c r="C64" s="10" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="24"/>
-      <c r="B65" s="23"/>
+    <row r="65" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="29"/>
+      <c r="B65" s="42"/>
       <c r="C65" s="10" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="24"/>
-      <c r="B66" s="23"/>
+    <row r="66" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="29"/>
+      <c r="B66" s="42"/>
       <c r="C66" s="10" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="24"/>
-      <c r="B67" s="23"/>
+    <row r="67" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="29"/>
+      <c r="B67" s="42"/>
       <c r="C67" s="11" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="24" t="s">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A68" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="B68" s="25" t="s">
+      <c r="B68" s="30" t="s">
         <v>21</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="24"/>
-      <c r="B69" s="37"/>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A69" s="29"/>
+      <c r="B69" s="43"/>
       <c r="C69" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="24"/>
-      <c r="B70" s="37"/>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A70" s="29"/>
+      <c r="B70" s="43"/>
       <c r="C70" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="24"/>
-      <c r="B71" s="37"/>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A71" s="29"/>
+      <c r="B71" s="43"/>
       <c r="C71" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A72" s="24"/>
-      <c r="B72" s="37"/>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A72" s="29"/>
+      <c r="B72" s="43"/>
       <c r="C72" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A73" s="24"/>
-      <c r="B73" s="26"/>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A73" s="29"/>
+      <c r="B73" s="31"/>
       <c r="C73" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="24"/>
-      <c r="B74" s="23" t="s">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A74" s="29"/>
+      <c r="B74" s="42" t="s">
         <v>25</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="24"/>
-      <c r="B75" s="23"/>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A75" s="29"/>
+      <c r="B75" s="42"/>
       <c r="C75" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A76" s="24"/>
-      <c r="B76" s="23"/>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A76" s="29"/>
+      <c r="B76" s="42"/>
       <c r="C76" s="4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A77" s="24"/>
-      <c r="B77" s="23" t="s">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A77" s="29"/>
+      <c r="B77" s="42" t="s">
         <v>17</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A78" s="24"/>
-      <c r="B78" s="23"/>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A78" s="29"/>
+      <c r="B78" s="42"/>
       <c r="C78" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="24"/>
-      <c r="B79" s="23"/>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A79" s="29"/>
+      <c r="B79" s="42"/>
       <c r="C79" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="24"/>
-      <c r="B80" s="23"/>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A80" s="29"/>
+      <c r="B80" s="42"/>
       <c r="C80" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="24"/>
-      <c r="B81" s="23"/>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A81" s="29"/>
+      <c r="B81" s="42"/>
       <c r="C81" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="24"/>
-      <c r="B82" s="23"/>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A82" s="29"/>
+      <c r="B82" s="42"/>
       <c r="C82" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A83" s="24"/>
-      <c r="B83" s="23"/>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A83" s="29"/>
+      <c r="B83" s="42"/>
       <c r="C83" s="5" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A84" s="24" t="s">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A84" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="B84" s="30" t="s">
+      <c r="B84" s="35" t="s">
         <v>20</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="24"/>
-      <c r="B85" s="31"/>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A85" s="29"/>
+      <c r="B85" s="36"/>
       <c r="C85" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A86" s="24"/>
-      <c r="B86" s="31"/>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A86" s="29"/>
+      <c r="B86" s="36"/>
       <c r="C86" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A87" s="24"/>
-      <c r="B87" s="31"/>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A87" s="29"/>
+      <c r="B87" s="36"/>
       <c r="C87" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A88" s="24"/>
-      <c r="B88" s="32"/>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A88" s="29"/>
+      <c r="B88" s="37"/>
       <c r="C88" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="24"/>
-      <c r="B89" s="30" t="s">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A89" s="29"/>
+      <c r="B89" s="35" t="s">
         <v>31</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="24"/>
-      <c r="B90" s="32"/>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A90" s="29"/>
+      <c r="B90" s="37"/>
       <c r="C90" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="24"/>
-      <c r="B91" s="33" t="s">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A91" s="29"/>
+      <c r="B91" s="38" t="s">
         <v>38</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="24"/>
-      <c r="B92" s="34"/>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A92" s="29"/>
+      <c r="B92" s="39"/>
       <c r="C92" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A93" s="24"/>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A93" s="29"/>
       <c r="B93" s="13" t="s">
         <v>40</v>
       </c>
@@ -2598,54 +2751,62 @@
         <v>90</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="24"/>
-      <c r="B94" s="35" t="s">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A94" s="29"/>
+      <c r="B94" s="40" t="s">
         <v>33</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="24"/>
-      <c r="B95" s="35"/>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A95" s="29"/>
+      <c r="B95" s="40"/>
       <c r="C95" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="24"/>
-      <c r="B96" s="35"/>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A96" s="29"/>
+      <c r="B96" s="40"/>
       <c r="C96" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="24"/>
-      <c r="B97" s="35"/>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A97" s="29"/>
+      <c r="B97" s="40"/>
       <c r="C97" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B107" s="24"/>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B107" s="29"/>
       <c r="C107" s="4"/>
     </row>
-    <row r="108" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B108" s="24"/>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B108" s="29"/>
       <c r="C108" s="4"/>
     </row>
-    <row r="109" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B109" s="24"/>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B109" s="29"/>
       <c r="C109" s="4"/>
     </row>
-    <row r="110" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B110" s="9"/>
       <c r="C110" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B77:B83"/>
+    <mergeCell ref="B59:B67"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="B12:B18"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B32:B36"/>
     <mergeCell ref="B107:B109"/>
     <mergeCell ref="A32:A67"/>
     <mergeCell ref="A68:A83"/>
@@ -2662,14 +2823,6 @@
     <mergeCell ref="B52:B58"/>
     <mergeCell ref="B68:B73"/>
     <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B77:B83"/>
-    <mergeCell ref="B59:B67"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="B12:B18"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B32:B36"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2679,1144 +2832,1347 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G106"/>
+  <dimension ref="A1:G124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:E12"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="A129" sqref="A129"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="4" max="4" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="81.796875" customWidth="1"/>
+    <col min="4" max="4" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="81.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="48" t="s">
+    <row r="1" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="58" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="50" t="s">
-        <v>128</v>
-      </c>
-      <c r="D1" s="51"/>
-      <c r="E1" s="52"/>
-    </row>
-    <row r="2" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="43" t="s">
+      <c r="B1" s="59"/>
+      <c r="C1" s="66" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" s="67"/>
+      <c r="E1" s="68"/>
+    </row>
+    <row r="2" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="56" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="44"/>
+      <c r="B2" s="57"/>
       <c r="C2" s="14"/>
       <c r="D2" s="15" t="s">
         <v>120</v>
       </c>
       <c r="E2" s="16" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="56" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="57"/>
+      <c r="C3" s="69" t="s">
+        <v>172</v>
+      </c>
+      <c r="D3" s="64"/>
+      <c r="E3" s="70"/>
+    </row>
+    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="B4" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" s="60" t="s">
+        <v>146</v>
+      </c>
+      <c r="D4" s="61"/>
+      <c r="E4" s="62"/>
+    </row>
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="45"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="50" t="s">
+        <v>147</v>
+      </c>
+      <c r="D5" s="51"/>
+      <c r="E5" s="52"/>
+      <c r="G5" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="43" t="s">
+    <row r="6" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="45"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="50" t="s">
+        <v>174</v>
+      </c>
+      <c r="D6" s="51"/>
+      <c r="E6" s="52"/>
+    </row>
+    <row r="7" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="46"/>
+      <c r="B7" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="C7" s="63"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="65"/>
+    </row>
+    <row r="8" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="58" t="s">
+        <v>118</v>
+      </c>
+      <c r="B9" s="59"/>
+      <c r="C9" s="66" t="s">
+        <v>126</v>
+      </c>
+      <c r="D9" s="67"/>
+      <c r="E9" s="68"/>
+    </row>
+    <row r="10" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="56" t="s">
+        <v>119</v>
+      </c>
+      <c r="B10" s="57"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="38" t="s">
+      <c r="B11" s="57"/>
+      <c r="C11" s="69" t="s">
+        <v>173</v>
+      </c>
+      <c r="D11" s="64"/>
+      <c r="E11" s="70"/>
+    </row>
+    <row r="12" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="B12" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="C12" s="50" t="s">
+        <v>175</v>
+      </c>
+      <c r="D12" s="51"/>
+      <c r="E12" s="52"/>
+    </row>
+    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A13" s="45"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="50" t="s">
+        <v>148</v>
+      </c>
+      <c r="D13" s="51"/>
+      <c r="E13" s="52"/>
+    </row>
+    <row r="14" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="45"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="50" t="s">
+        <v>196</v>
+      </c>
+      <c r="D14" s="51"/>
+      <c r="E14" s="52"/>
+    </row>
+    <row r="15" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="46"/>
+      <c r="B15" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="C15" s="63"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="65"/>
+    </row>
+    <row r="16" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="17" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="58" t="s">
+        <v>118</v>
+      </c>
+      <c r="B17" s="59"/>
+      <c r="C17" s="66" t="s">
+        <v>126</v>
+      </c>
+      <c r="D17" s="67"/>
+      <c r="E17" s="68"/>
+    </row>
+    <row r="18" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="56" t="s">
+        <v>119</v>
+      </c>
+      <c r="B18" s="57"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="56" t="s">
+        <v>121</v>
+      </c>
+      <c r="B19" s="57"/>
+      <c r="C19" s="69" t="s">
+        <v>127</v>
+      </c>
+      <c r="D19" s="64"/>
+      <c r="E19" s="70"/>
+    </row>
+    <row r="20" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="B20" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="C20" s="60" t="s">
+        <v>177</v>
+      </c>
+      <c r="D20" s="61"/>
+      <c r="E20" s="62"/>
+    </row>
+    <row r="21" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="45"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="50" t="s">
+        <v>178</v>
+      </c>
+      <c r="D21" s="51"/>
+      <c r="E21" s="52"/>
+    </row>
+    <row r="22" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="45"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="50" t="s">
+        <v>179</v>
+      </c>
+      <c r="D22" s="51"/>
+      <c r="E22" s="52"/>
+    </row>
+    <row r="23" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="45"/>
+      <c r="B23" s="48"/>
+      <c r="C23" s="50" t="s">
+        <v>212</v>
+      </c>
+      <c r="D23" s="51"/>
+      <c r="E23" s="52"/>
+    </row>
+    <row r="24" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="45"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="50" t="s">
+        <v>201</v>
+      </c>
+      <c r="D24" s="51"/>
+      <c r="E24" s="52"/>
+    </row>
+    <row r="25" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="74"/>
+      <c r="B25" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="C25" s="75"/>
+      <c r="D25" s="76"/>
+      <c r="E25" s="77"/>
+    </row>
+    <row r="26" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="58" t="s">
+        <v>118</v>
+      </c>
+      <c r="B27" s="59"/>
+      <c r="C27" s="66" t="s">
+        <v>144</v>
+      </c>
+      <c r="D27" s="67"/>
+      <c r="E27" s="68"/>
+    </row>
+    <row r="28" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="56" t="s">
+        <v>119</v>
+      </c>
+      <c r="B28" s="57"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="56" t="s">
+        <v>121</v>
+      </c>
+      <c r="B29" s="57"/>
+      <c r="C29" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="D29" s="64"/>
+      <c r="E29" s="70"/>
+    </row>
+    <row r="30" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="44" t="s">
+        <v>145</v>
+      </c>
+      <c r="B30" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="C30" s="60" t="s">
+        <v>149</v>
+      </c>
+      <c r="D30" s="61"/>
+      <c r="E30" s="62"/>
+    </row>
+    <row r="31" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="45"/>
+      <c r="B31" s="49"/>
+      <c r="C31" s="53" t="s">
+        <v>189</v>
+      </c>
+      <c r="D31" s="54"/>
+      <c r="E31" s="55"/>
+    </row>
+    <row r="32" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="46"/>
+      <c r="B32" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="C32" s="63"/>
+      <c r="D32" s="64"/>
+      <c r="E32" s="65"/>
+    </row>
+    <row r="33" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="34" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="58" t="s">
+        <v>118</v>
+      </c>
+      <c r="B34" s="59"/>
+      <c r="C34" s="66" t="s">
         <v>125</v>
       </c>
-      <c r="D3" s="39"/>
-      <c r="E3" s="40"/>
-    </row>
-    <row r="4" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A4" s="56" t="s">
-        <v>134</v>
-      </c>
-      <c r="B4" s="59" t="s">
+      <c r="D34" s="67"/>
+      <c r="E34" s="68"/>
+    </row>
+    <row r="35" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="56" t="s">
+        <v>119</v>
+      </c>
+      <c r="B35" s="57"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="56" t="s">
+        <v>121</v>
+      </c>
+      <c r="B36" s="57"/>
+      <c r="C36" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="D36" s="64"/>
+      <c r="E36" s="70"/>
+    </row>
+    <row r="37" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="B37" s="47" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="45" t="s">
-        <v>150</v>
-      </c>
-      <c r="D4" s="46"/>
-      <c r="E4" s="47"/>
-    </row>
-    <row r="5" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A5" s="57"/>
-      <c r="B5" s="60"/>
-      <c r="C5" s="62" t="s">
-        <v>151</v>
-      </c>
-      <c r="D5" s="63"/>
-      <c r="E5" s="64"/>
-      <c r="G5" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A6" s="57"/>
-      <c r="B6" s="60"/>
-      <c r="C6" s="62" t="s">
-        <v>152</v>
-      </c>
-      <c r="D6" s="63"/>
-      <c r="E6" s="64"/>
-    </row>
-    <row r="7" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A7" s="57"/>
-      <c r="B7" s="60"/>
-      <c r="C7" s="62" t="s">
-        <v>153</v>
-      </c>
-      <c r="D7" s="63"/>
-      <c r="E7" s="64"/>
-    </row>
-    <row r="8" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A8" s="57"/>
-      <c r="B8" s="60"/>
-      <c r="C8" s="62" t="s">
-        <v>154</v>
-      </c>
-      <c r="D8" s="63"/>
-      <c r="E8" s="64"/>
-    </row>
-    <row r="9" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A9" s="57"/>
-      <c r="B9" s="60"/>
-      <c r="C9" s="62" t="s">
-        <v>155</v>
-      </c>
-      <c r="D9" s="63"/>
-      <c r="E9" s="64"/>
-    </row>
-    <row r="10" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A10" s="57"/>
-      <c r="B10" s="60"/>
-      <c r="C10" s="62" t="s">
-        <v>156</v>
-      </c>
-      <c r="D10" s="63"/>
-      <c r="E10" s="64"/>
-    </row>
-    <row r="11" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A11" s="57"/>
-      <c r="B11" s="60"/>
-      <c r="C11" s="62" t="s">
-        <v>157</v>
-      </c>
-      <c r="D11" s="63"/>
-      <c r="E11" s="64"/>
-    </row>
-    <row r="12" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="57"/>
-      <c r="B12" s="61"/>
-      <c r="C12" s="62" t="s">
-        <v>158</v>
-      </c>
-      <c r="D12" s="63"/>
-      <c r="E12" s="64"/>
-    </row>
-    <row r="13" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="58"/>
-      <c r="B13" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="C13" s="41"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="42"/>
-    </row>
-    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="48" t="s">
+      <c r="C37" s="50" t="s">
+        <v>191</v>
+      </c>
+      <c r="D37" s="51"/>
+      <c r="E37" s="52"/>
+    </row>
+    <row r="38" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A38" s="45"/>
+      <c r="B38" s="48"/>
+      <c r="C38" s="50" t="s">
+        <v>148</v>
+      </c>
+      <c r="D38" s="51"/>
+      <c r="E38" s="52"/>
+    </row>
+    <row r="39" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="45"/>
+      <c r="B39" s="49"/>
+      <c r="C39" s="50" t="s">
+        <v>196</v>
+      </c>
+      <c r="D39" s="51"/>
+      <c r="E39" s="52"/>
+    </row>
+    <row r="40" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="46"/>
+      <c r="B40" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="C40" s="63"/>
+      <c r="D40" s="64"/>
+      <c r="E40" s="65"/>
+    </row>
+    <row r="41" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="58" t="s">
         <v>118</v>
       </c>
-      <c r="B15" s="49"/>
-      <c r="C15" s="50" t="s">
-        <v>129</v>
-      </c>
-      <c r="D15" s="51"/>
-      <c r="E15" s="52"/>
-    </row>
-    <row r="16" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="43" t="s">
+      <c r="B42" s="59"/>
+      <c r="C42" s="66" t="s">
+        <v>131</v>
+      </c>
+      <c r="D42" s="67"/>
+      <c r="E42" s="68"/>
+    </row>
+    <row r="43" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="B16" s="44"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="15" t="s">
+      <c r="B43" s="23"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="E16" s="17" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="43" t="s">
+      <c r="E43" s="17" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="B17" s="44"/>
-      <c r="C17" s="38" t="s">
+      <c r="B44" s="57"/>
+      <c r="C44" s="69" t="s">
+        <v>137</v>
+      </c>
+      <c r="D44" s="64"/>
+      <c r="E44" s="70"/>
+    </row>
+    <row r="45" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="D17" s="39"/>
-      <c r="E17" s="40"/>
-    </row>
-    <row r="18" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="56" t="s">
-        <v>134</v>
-      </c>
-      <c r="B18" s="59" t="s">
+      <c r="B45" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="C18" s="45" t="s">
-        <v>159</v>
-      </c>
-      <c r="D18" s="46"/>
-      <c r="E18" s="47"/>
-    </row>
-    <row r="19" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A19" s="57"/>
-      <c r="B19" s="60"/>
-      <c r="C19" s="62" t="s">
-        <v>160</v>
-      </c>
-      <c r="D19" s="63"/>
-      <c r="E19" s="64"/>
-    </row>
-    <row r="20" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A20" s="57"/>
-      <c r="B20" s="60"/>
-      <c r="C20" s="62" t="s">
-        <v>161</v>
-      </c>
-      <c r="D20" s="63"/>
-      <c r="E20" s="64"/>
-    </row>
-    <row r="21" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="57"/>
-      <c r="B21" s="61"/>
-      <c r="C21" s="53" t="s">
-        <v>162</v>
-      </c>
-      <c r="D21" s="54"/>
-      <c r="E21" s="55"/>
-    </row>
-    <row r="22" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="58"/>
-      <c r="B22" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="C22" s="41"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="42"/>
-    </row>
-    <row r="24" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="48" t="s">
-        <v>118</v>
-      </c>
-      <c r="B25" s="49"/>
-      <c r="C25" s="50" t="s">
-        <v>148</v>
-      </c>
-      <c r="D25" s="51"/>
-      <c r="E25" s="52"/>
-    </row>
-    <row r="26" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="43" t="s">
-        <v>119</v>
-      </c>
-      <c r="B26" s="44"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="E26" s="18" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="B27" s="44"/>
-      <c r="C27" s="38" t="s">
+      <c r="C45" s="60" t="s">
+        <v>192</v>
+      </c>
+      <c r="D45" s="61"/>
+      <c r="E45" s="62"/>
+    </row>
+    <row r="46" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A46" s="25"/>
+      <c r="B46" s="28"/>
+      <c r="C46" s="50" t="s">
         <v>147</v>
-      </c>
-      <c r="D27" s="39"/>
-      <c r="E27" s="40"/>
-    </row>
-    <row r="28" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="56" t="s">
-        <v>149</v>
-      </c>
-      <c r="B28" s="59" t="s">
-        <v>122</v>
-      </c>
-      <c r="C28" s="45" t="s">
-        <v>163</v>
-      </c>
-      <c r="D28" s="46"/>
-      <c r="E28" s="47"/>
-    </row>
-    <row r="29" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="57"/>
-      <c r="B29" s="61"/>
-      <c r="C29" s="53" t="s">
-        <v>164</v>
-      </c>
-      <c r="D29" s="54"/>
-      <c r="E29" s="55"/>
-    </row>
-    <row r="30" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="58"/>
-      <c r="B30" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="C30" s="41"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="42"/>
-    </row>
-    <row r="31" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="48" t="s">
-        <v>118</v>
-      </c>
-      <c r="B32" s="49"/>
-      <c r="C32" s="50" t="s">
-        <v>135</v>
-      </c>
-      <c r="D32" s="51"/>
-      <c r="E32" s="52"/>
-    </row>
-    <row r="33" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="43" t="s">
-        <v>119</v>
-      </c>
-      <c r="B33" s="44"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="E33" s="18" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="B34" s="44"/>
-      <c r="C34" s="38" t="s">
-        <v>141</v>
-      </c>
-      <c r="D34" s="39"/>
-      <c r="E34" s="40"/>
-    </row>
-    <row r="35" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="56" t="s">
-        <v>134</v>
-      </c>
-      <c r="B35" s="59" t="s">
-        <v>122</v>
-      </c>
-      <c r="C35" s="45" t="s">
-        <v>165</v>
-      </c>
-      <c r="D35" s="46"/>
-      <c r="E35" s="47"/>
-    </row>
-    <row r="36" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A36" s="57"/>
-      <c r="B36" s="60"/>
-      <c r="C36" s="62" t="s">
-        <v>151</v>
-      </c>
-      <c r="D36" s="63"/>
-      <c r="E36" s="64"/>
-    </row>
-    <row r="37" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A37" s="57"/>
-      <c r="B37" s="60"/>
-      <c r="C37" s="62" t="s">
-        <v>166</v>
-      </c>
-      <c r="D37" s="63"/>
-      <c r="E37" s="64"/>
-    </row>
-    <row r="38" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A38" s="57"/>
-      <c r="B38" s="60"/>
-      <c r="C38" s="62" t="s">
-        <v>167</v>
-      </c>
-      <c r="D38" s="63"/>
-      <c r="E38" s="64"/>
-    </row>
-    <row r="39" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A39" s="57"/>
-      <c r="B39" s="60"/>
-      <c r="C39" s="62" t="s">
-        <v>168</v>
-      </c>
-      <c r="D39" s="63"/>
-      <c r="E39" s="64"/>
-    </row>
-    <row r="40" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A40" s="57"/>
-      <c r="B40" s="60"/>
-      <c r="C40" s="62" t="s">
-        <v>169</v>
-      </c>
-      <c r="D40" s="63"/>
-      <c r="E40" s="64"/>
-    </row>
-    <row r="41" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A41" s="57"/>
-      <c r="B41" s="60"/>
-      <c r="C41" s="62" t="s">
-        <v>170</v>
-      </c>
-      <c r="D41" s="63"/>
-      <c r="E41" s="64"/>
-    </row>
-    <row r="42" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A42" s="57"/>
-      <c r="B42" s="60"/>
-      <c r="C42" s="62" t="s">
-        <v>171</v>
-      </c>
-      <c r="D42" s="63"/>
-      <c r="E42" s="64"/>
-    </row>
-    <row r="43" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="57"/>
-      <c r="B43" s="61"/>
-      <c r="C43" s="53" t="s">
-        <v>172</v>
-      </c>
-      <c r="D43" s="54"/>
-      <c r="E43" s="55"/>
-    </row>
-    <row r="44" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="58"/>
-      <c r="B44" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="C44" s="41"/>
-      <c r="D44" s="39"/>
-      <c r="E44" s="42"/>
-    </row>
-    <row r="45" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="46" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="48" t="s">
-        <v>118</v>
-      </c>
-      <c r="B46" s="49"/>
-      <c r="C46" s="50" t="s">
-        <v>135</v>
       </c>
       <c r="D46" s="51"/>
       <c r="E46" s="52"/>
     </row>
-    <row r="47" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="43" t="s">
+    <row r="47" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="25"/>
+      <c r="B47" s="28"/>
+      <c r="C47" s="50" t="s">
+        <v>202</v>
+      </c>
+      <c r="D47" s="51"/>
+      <c r="E47" s="52"/>
+    </row>
+    <row r="48" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="26"/>
+      <c r="B48" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="C48" s="20"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="21"/>
+    </row>
+    <row r="49" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="50" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="58" t="s">
+        <v>118</v>
+      </c>
+      <c r="B50" s="59"/>
+      <c r="C50" s="66" t="s">
+        <v>131</v>
+      </c>
+      <c r="D50" s="67"/>
+      <c r="E50" s="68"/>
+    </row>
+    <row r="51" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="56" t="s">
         <v>119</v>
       </c>
-      <c r="B47" s="44"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="15" t="s">
+      <c r="B51" s="57"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="E47" s="18" t="s">
+      <c r="E51" s="17" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="56" t="s">
+        <v>121</v>
+      </c>
+      <c r="B52" s="57"/>
+      <c r="C52" s="69" t="s">
+        <v>195</v>
+      </c>
+      <c r="D52" s="64"/>
+      <c r="E52" s="70"/>
+    </row>
+    <row r="53" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="B53" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="C53" s="50" t="s">
+        <v>198</v>
+      </c>
+      <c r="D53" s="51"/>
+      <c r="E53" s="52"/>
+    </row>
+    <row r="54" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A54" s="45"/>
+      <c r="B54" s="48"/>
+      <c r="C54" s="50" t="s">
+        <v>197</v>
+      </c>
+      <c r="D54" s="51"/>
+      <c r="E54" s="52"/>
+    </row>
+    <row r="55" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="45"/>
+      <c r="B55" s="48"/>
+      <c r="C55" s="50" t="s">
+        <v>196</v>
+      </c>
+      <c r="D55" s="51"/>
+      <c r="E55" s="52"/>
+    </row>
+    <row r="56" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="46"/>
+      <c r="B56" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="C56" s="20"/>
+      <c r="D56" s="19"/>
+      <c r="E56" s="21"/>
+    </row>
+    <row r="57" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="58" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="58" t="s">
+        <v>118</v>
+      </c>
+      <c r="B58" s="59"/>
+      <c r="C58" s="66" t="s">
+        <v>131</v>
+      </c>
+      <c r="D58" s="67"/>
+      <c r="E58" s="68"/>
+    </row>
+    <row r="59" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="56" t="s">
+        <v>119</v>
+      </c>
+      <c r="B59" s="57"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="E59" s="17" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="56" t="s">
+        <v>121</v>
+      </c>
+      <c r="B60" s="57"/>
+      <c r="C60" s="69" t="s">
+        <v>138</v>
+      </c>
+      <c r="D60" s="64"/>
+      <c r="E60" s="70"/>
+    </row>
+    <row r="61" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="B61" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="C61" s="60" t="s">
+        <v>199</v>
+      </c>
+      <c r="D61" s="61"/>
+      <c r="E61" s="62"/>
+    </row>
+    <row r="62" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A62" s="45"/>
+      <c r="B62" s="48"/>
+      <c r="C62" s="50" t="s">
+        <v>204</v>
+      </c>
+      <c r="D62" s="51"/>
+      <c r="E62" s="52"/>
+    </row>
+    <row r="63" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A63" s="45"/>
+      <c r="B63" s="48"/>
+      <c r="C63" s="50" t="s">
+        <v>203</v>
+      </c>
+      <c r="D63" s="51"/>
+      <c r="E63" s="52"/>
+    </row>
+    <row r="64" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="45"/>
+      <c r="B64" s="48"/>
+      <c r="C64" s="50" t="s">
+        <v>200</v>
+      </c>
+      <c r="D64" s="51"/>
+      <c r="E64" s="52"/>
+    </row>
+    <row r="65" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="46"/>
+      <c r="B65" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="C65" s="20"/>
+      <c r="D65" s="19"/>
+      <c r="E65" s="21"/>
+    </row>
+    <row r="66" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="67" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="58" t="s">
+        <v>118</v>
+      </c>
+      <c r="B67" s="59"/>
+      <c r="C67" s="66" t="s">
+        <v>131</v>
+      </c>
+      <c r="D67" s="67"/>
+      <c r="E67" s="68"/>
+    </row>
+    <row r="68" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="56" t="s">
+        <v>119</v>
+      </c>
+      <c r="B68" s="57"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="E68" s="17" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="43" t="s">
+    <row r="69" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="B48" s="44"/>
-      <c r="C48" s="38" t="s">
-        <v>142</v>
-      </c>
-      <c r="D48" s="39"/>
-      <c r="E48" s="40"/>
-    </row>
-    <row r="49" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="56" t="s">
+      <c r="B69" s="57"/>
+      <c r="C69" s="69" t="s">
+        <v>139</v>
+      </c>
+      <c r="D69" s="64"/>
+      <c r="E69" s="70"/>
+    </row>
+    <row r="70" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="B70" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="C70" s="60" t="s">
+        <v>205</v>
+      </c>
+      <c r="D70" s="61"/>
+      <c r="E70" s="62"/>
+    </row>
+    <row r="71" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A71" s="45"/>
+      <c r="B71" s="48"/>
+      <c r="C71" s="50" t="s">
+        <v>206</v>
+      </c>
+      <c r="D71" s="51"/>
+      <c r="E71" s="52"/>
+    </row>
+    <row r="72" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A72" s="45"/>
+      <c r="B72" s="48"/>
+      <c r="C72" s="50" t="s">
+        <v>207</v>
+      </c>
+      <c r="D72" s="51"/>
+      <c r="E72" s="52"/>
+    </row>
+    <row r="73" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="45"/>
+      <c r="B73" s="49"/>
+      <c r="C73" s="50" t="s">
+        <v>200</v>
+      </c>
+      <c r="D73" s="51"/>
+      <c r="E73" s="52"/>
+    </row>
+    <row r="74" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="46"/>
+      <c r="B74" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="C74" s="63"/>
+      <c r="D74" s="64"/>
+      <c r="E74" s="65"/>
+    </row>
+    <row r="75" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="76" spans="1:5" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="58" t="s">
+        <v>118</v>
+      </c>
+      <c r="B76" s="59"/>
+      <c r="C76" s="66" t="s">
+        <v>131</v>
+      </c>
+      <c r="D76" s="67"/>
+      <c r="E76" s="68"/>
+    </row>
+    <row r="77" spans="1:5" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="56" t="s">
+        <v>119</v>
+      </c>
+      <c r="B77" s="57"/>
+      <c r="C77" s="14"/>
+      <c r="D77" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="E77" s="17" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="56" t="s">
+        <v>121</v>
+      </c>
+      <c r="B78" s="57"/>
+      <c r="C78" s="69" t="s">
+        <v>169</v>
+      </c>
+      <c r="D78" s="64"/>
+      <c r="E78" s="70"/>
+    </row>
+    <row r="79" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="B79" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="C79" s="60" t="s">
+        <v>208</v>
+      </c>
+      <c r="D79" s="61"/>
+      <c r="E79" s="62"/>
+    </row>
+    <row r="80" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A80" s="45"/>
+      <c r="B80" s="48"/>
+      <c r="C80" s="50" t="s">
+        <v>209</v>
+      </c>
+      <c r="D80" s="51"/>
+      <c r="E80" s="52"/>
+    </row>
+    <row r="81" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A81" s="45"/>
+      <c r="B81" s="48"/>
+      <c r="C81" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="D81" s="51"/>
+      <c r="E81" s="52"/>
+    </row>
+    <row r="82" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="45"/>
+      <c r="B82" s="49"/>
+      <c r="C82" s="50" t="s">
+        <v>200</v>
+      </c>
+      <c r="D82" s="51"/>
+      <c r="E82" s="52"/>
+    </row>
+    <row r="83" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="46"/>
+      <c r="B83" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="C83" s="63"/>
+      <c r="D83" s="64"/>
+      <c r="E83" s="65"/>
+    </row>
+    <row r="84" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="85" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="58" t="s">
+        <v>118</v>
+      </c>
+      <c r="B85" s="59"/>
+      <c r="C85" s="66" t="s">
+        <v>188</v>
+      </c>
+      <c r="D85" s="67"/>
+      <c r="E85" s="68"/>
+    </row>
+    <row r="86" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="56" t="s">
+        <v>119</v>
+      </c>
+      <c r="B86" s="57"/>
+      <c r="C86" s="14"/>
+      <c r="D86" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="E86" s="17" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="56" t="s">
+        <v>121</v>
+      </c>
+      <c r="B87" s="57"/>
+      <c r="C87" s="69" t="s">
+        <v>182</v>
+      </c>
+      <c r="D87" s="64"/>
+      <c r="E87" s="70"/>
+    </row>
+    <row r="88" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A88" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="B88" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="C88" s="78" t="s">
+        <v>180</v>
+      </c>
+      <c r="D88" s="79"/>
+      <c r="E88" s="80"/>
+    </row>
+    <row r="89" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A89" s="45"/>
+      <c r="B89" s="48"/>
+      <c r="C89" s="71" t="s">
+        <v>183</v>
+      </c>
+      <c r="D89" s="72"/>
+      <c r="E89" s="73"/>
+    </row>
+    <row r="90" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A90" s="45"/>
+      <c r="B90" s="48"/>
+      <c r="C90" s="71" t="s">
+        <v>184</v>
+      </c>
+      <c r="D90" s="72"/>
+      <c r="E90" s="73"/>
+    </row>
+    <row r="91" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A91" s="45"/>
+      <c r="B91" s="48"/>
+      <c r="C91" s="71" t="s">
+        <v>185</v>
+      </c>
+      <c r="D91" s="72"/>
+      <c r="E91" s="73"/>
+    </row>
+    <row r="92" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A92" s="45"/>
+      <c r="B92" s="48"/>
+      <c r="C92" s="71" t="s">
+        <v>186</v>
+      </c>
+      <c r="D92" s="72"/>
+      <c r="E92" s="73"/>
+    </row>
+    <row r="93" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="45"/>
+      <c r="B93" s="49"/>
+      <c r="C93" s="81" t="s">
+        <v>187</v>
+      </c>
+      <c r="D93" s="82"/>
+      <c r="E93" s="83"/>
+    </row>
+    <row r="94" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="46"/>
+      <c r="B94" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="C94" s="63"/>
+      <c r="D94" s="64"/>
+      <c r="E94" s="65"/>
+    </row>
+    <row r="96" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="97" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="58" t="s">
+        <v>118</v>
+      </c>
+      <c r="B97" s="59"/>
+      <c r="C97" s="66" t="s">
+        <v>133</v>
+      </c>
+      <c r="D97" s="67"/>
+      <c r="E97" s="68"/>
+    </row>
+    <row r="98" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="56" t="s">
+        <v>119</v>
+      </c>
+      <c r="B98" s="57"/>
+      <c r="C98" s="14"/>
+      <c r="D98" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="E98" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="B49" s="59" t="s">
+    </row>
+    <row r="99" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="56" t="s">
+        <v>121</v>
+      </c>
+      <c r="B99" s="57"/>
+      <c r="C99" s="69" t="s">
+        <v>140</v>
+      </c>
+      <c r="D99" s="64"/>
+      <c r="E99" s="70"/>
+    </row>
+    <row r="100" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A100" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="B100" s="47" t="s">
         <v>122</v>
       </c>
-      <c r="C49" s="45" t="s">
-        <v>173</v>
-      </c>
-      <c r="D49" s="46"/>
-      <c r="E49" s="47"/>
-    </row>
-    <row r="50" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A50" s="57"/>
-      <c r="B50" s="60"/>
-      <c r="C50" s="62" t="s">
-        <v>174</v>
-      </c>
-      <c r="D50" s="63"/>
-      <c r="E50" s="64"/>
-    </row>
-    <row r="51" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A51" s="57"/>
-      <c r="B51" s="60"/>
-      <c r="C51" s="62" t="s">
-        <v>175</v>
-      </c>
-      <c r="D51" s="63"/>
-      <c r="E51" s="64"/>
-    </row>
-    <row r="52" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A52" s="57"/>
-      <c r="B52" s="60"/>
-      <c r="C52" s="62" t="s">
-        <v>170</v>
-      </c>
-      <c r="D52" s="63"/>
-      <c r="E52" s="64"/>
-    </row>
-    <row r="53" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A53" s="57"/>
-      <c r="B53" s="60"/>
-      <c r="C53" s="62" t="s">
-        <v>171</v>
-      </c>
-      <c r="D53" s="63"/>
-      <c r="E53" s="64"/>
-    </row>
-    <row r="54" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="57"/>
-      <c r="B54" s="61"/>
-      <c r="C54" s="53" t="s">
-        <v>172</v>
-      </c>
-      <c r="D54" s="54"/>
-      <c r="E54" s="55"/>
-    </row>
-    <row r="55" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="58"/>
-      <c r="B55" s="22" t="s">
+      <c r="C100" s="60" t="s">
+        <v>150</v>
+      </c>
+      <c r="D100" s="61"/>
+      <c r="E100" s="62"/>
+    </row>
+    <row r="101" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A101" s="45"/>
+      <c r="B101" s="48"/>
+      <c r="C101" s="50" t="s">
+        <v>151</v>
+      </c>
+      <c r="D101" s="51"/>
+      <c r="E101" s="52"/>
+    </row>
+    <row r="102" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A102" s="45"/>
+      <c r="B102" s="48"/>
+      <c r="C102" s="50" t="s">
+        <v>152</v>
+      </c>
+      <c r="D102" s="51"/>
+      <c r="E102" s="52"/>
+    </row>
+    <row r="103" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A103" s="45"/>
+      <c r="B103" s="48"/>
+      <c r="C103" s="50" t="s">
+        <v>153</v>
+      </c>
+      <c r="D103" s="51"/>
+      <c r="E103" s="52"/>
+    </row>
+    <row r="104" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A104" s="45"/>
+      <c r="B104" s="48"/>
+      <c r="C104" s="50" t="s">
+        <v>154</v>
+      </c>
+      <c r="D104" s="51"/>
+      <c r="E104" s="52"/>
+    </row>
+    <row r="105" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A105" s="45"/>
+      <c r="B105" s="48"/>
+      <c r="C105" s="50" t="s">
+        <v>155</v>
+      </c>
+      <c r="D105" s="51"/>
+      <c r="E105" s="52"/>
+    </row>
+    <row r="106" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A106" s="45"/>
+      <c r="B106" s="48"/>
+      <c r="C106" s="50" t="s">
+        <v>156</v>
+      </c>
+      <c r="D106" s="51"/>
+      <c r="E106" s="52"/>
+    </row>
+    <row r="107" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A107" s="45"/>
+      <c r="B107" s="48"/>
+      <c r="C107" s="50" t="s">
+        <v>157</v>
+      </c>
+      <c r="D107" s="51"/>
+      <c r="E107" s="52"/>
+    </row>
+    <row r="108" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A108" s="45"/>
+      <c r="B108" s="48"/>
+      <c r="C108" s="50" t="s">
+        <v>158</v>
+      </c>
+      <c r="D108" s="51"/>
+      <c r="E108" s="52"/>
+    </row>
+    <row r="109" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A109" s="45"/>
+      <c r="B109" s="48"/>
+      <c r="C109" s="50" t="s">
+        <v>159</v>
+      </c>
+      <c r="D109" s="51"/>
+      <c r="E109" s="52"/>
+    </row>
+    <row r="110" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A110" s="45"/>
+      <c r="B110" s="48"/>
+      <c r="C110" s="50" t="s">
+        <v>160</v>
+      </c>
+      <c r="D110" s="51"/>
+      <c r="E110" s="52"/>
+    </row>
+    <row r="111" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A111" s="45"/>
+      <c r="B111" s="48"/>
+      <c r="C111" s="50" t="s">
+        <v>163</v>
+      </c>
+      <c r="D111" s="51"/>
+      <c r="E111" s="52"/>
+    </row>
+    <row r="112" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A112" s="45"/>
+      <c r="B112" s="48"/>
+      <c r="C112" s="50" t="s">
+        <v>164</v>
+      </c>
+      <c r="D112" s="51"/>
+      <c r="E112" s="52"/>
+    </row>
+    <row r="113" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A113" s="45"/>
+      <c r="B113" s="48"/>
+      <c r="C113" s="50" t="s">
+        <v>161</v>
+      </c>
+      <c r="D113" s="51"/>
+      <c r="E113" s="52"/>
+    </row>
+    <row r="114" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="45"/>
+      <c r="B114" s="49"/>
+      <c r="C114" s="53" t="s">
+        <v>162</v>
+      </c>
+      <c r="D114" s="54"/>
+      <c r="E114" s="55"/>
+    </row>
+    <row r="115" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="46"/>
+      <c r="B115" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="C55" s="41"/>
-      <c r="D55" s="39"/>
-      <c r="E55" s="42"/>
-    </row>
-    <row r="56" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="57" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="48" t="s">
+      <c r="C115" s="63"/>
+      <c r="D115" s="64"/>
+      <c r="E115" s="65"/>
+    </row>
+    <row r="116" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="117" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="58" t="s">
         <v>118</v>
       </c>
-      <c r="B57" s="49"/>
-      <c r="C57" s="50" t="s">
+      <c r="B117" s="59"/>
+      <c r="C117" s="66" t="s">
         <v>135</v>
       </c>
-      <c r="D57" s="51"/>
-      <c r="E57" s="52"/>
-    </row>
-    <row r="58" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="43" t="s">
+      <c r="D117" s="67"/>
+      <c r="E117" s="68"/>
+    </row>
+    <row r="118" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="56" t="s">
         <v>119</v>
       </c>
-      <c r="B58" s="44"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="15" t="s">
+      <c r="B118" s="57"/>
+      <c r="C118" s="14"/>
+      <c r="D118" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="E58" s="18" t="s">
+      <c r="E118" s="17" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="43" t="s">
+    <row r="119" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="B59" s="44"/>
-      <c r="C59" s="38" t="s">
-        <v>143</v>
-      </c>
-      <c r="D59" s="39"/>
-      <c r="E59" s="40"/>
-    </row>
-    <row r="60" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="56" t="s">
-        <v>134</v>
-      </c>
-      <c r="B60" s="59" t="s">
+      <c r="B119" s="57"/>
+      <c r="C119" s="69" t="s">
+        <v>141</v>
+      </c>
+      <c r="D119" s="64"/>
+      <c r="E119" s="70"/>
+    </row>
+    <row r="120" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A120" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="B120" s="47" t="s">
         <v>122</v>
       </c>
-      <c r="C60" s="45" t="s">
-        <v>176</v>
-      </c>
-      <c r="D60" s="46"/>
-      <c r="E60" s="47"/>
-    </row>
-    <row r="61" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A61" s="57"/>
-      <c r="B61" s="60"/>
-      <c r="C61" s="62" t="s">
-        <v>177</v>
-      </c>
-      <c r="D61" s="63"/>
-      <c r="E61" s="64"/>
-    </row>
-    <row r="62" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A62" s="57"/>
-      <c r="B62" s="60"/>
-      <c r="C62" s="62" t="s">
-        <v>175</v>
-      </c>
-      <c r="D62" s="63"/>
-      <c r="E62" s="64"/>
-    </row>
-    <row r="63" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A63" s="57"/>
-      <c r="B63" s="60"/>
-      <c r="C63" s="62" t="s">
-        <v>170</v>
-      </c>
-      <c r="D63" s="63"/>
-      <c r="E63" s="64"/>
-    </row>
-    <row r="64" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A64" s="57"/>
-      <c r="B64" s="60"/>
-      <c r="C64" s="62" t="s">
-        <v>171</v>
-      </c>
-      <c r="D64" s="63"/>
-      <c r="E64" s="64"/>
-    </row>
-    <row r="65" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="57"/>
-      <c r="B65" s="61"/>
-      <c r="C65" s="53" t="s">
-        <v>172</v>
-      </c>
-      <c r="D65" s="54"/>
-      <c r="E65" s="55"/>
-    </row>
-    <row r="66" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="58"/>
-      <c r="B66" s="22" t="s">
+      <c r="C120" s="60" t="s">
+        <v>165</v>
+      </c>
+      <c r="D120" s="61"/>
+      <c r="E120" s="62"/>
+    </row>
+    <row r="121" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A121" s="45"/>
+      <c r="B121" s="48"/>
+      <c r="C121" s="50" t="s">
+        <v>166</v>
+      </c>
+      <c r="D121" s="51"/>
+      <c r="E121" s="52"/>
+    </row>
+    <row r="122" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A122" s="45"/>
+      <c r="B122" s="48"/>
+      <c r="C122" s="50" t="s">
+        <v>167</v>
+      </c>
+      <c r="D122" s="51"/>
+      <c r="E122" s="52"/>
+    </row>
+    <row r="123" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="45"/>
+      <c r="B123" s="49"/>
+      <c r="C123" s="53" t="s">
+        <v>168</v>
+      </c>
+      <c r="D123" s="54"/>
+      <c r="E123" s="55"/>
+    </row>
+    <row r="124" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="46"/>
+      <c r="B124" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="C66" s="41"/>
-      <c r="D66" s="39"/>
-      <c r="E66" s="42"/>
-    </row>
-    <row r="67" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="68" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="48" t="s">
-        <v>118</v>
-      </c>
-      <c r="B68" s="49"/>
-      <c r="C68" s="50" t="s">
-        <v>135</v>
-      </c>
-      <c r="D68" s="51"/>
-      <c r="E68" s="52"/>
-    </row>
-    <row r="69" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="43" t="s">
-        <v>119</v>
-      </c>
-      <c r="B69" s="44"/>
-      <c r="C69" s="14"/>
-      <c r="D69" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="E69" s="18" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="B70" s="44"/>
-      <c r="C70" s="38" t="s">
-        <v>199</v>
-      </c>
-      <c r="D70" s="39"/>
-      <c r="E70" s="40"/>
-    </row>
-    <row r="71" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="56" t="s">
-        <v>134</v>
-      </c>
-      <c r="B71" s="59" t="s">
-        <v>122</v>
-      </c>
-      <c r="C71" s="45" t="s">
-        <v>178</v>
-      </c>
-      <c r="D71" s="46"/>
-      <c r="E71" s="47"/>
-    </row>
-    <row r="72" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A72" s="57"/>
-      <c r="B72" s="60"/>
-      <c r="C72" s="62" t="s">
-        <v>179</v>
-      </c>
-      <c r="D72" s="63"/>
-      <c r="E72" s="64"/>
-    </row>
-    <row r="73" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A73" s="57"/>
-      <c r="B73" s="60"/>
-      <c r="C73" s="62" t="s">
-        <v>175</v>
-      </c>
-      <c r="D73" s="63"/>
-      <c r="E73" s="64"/>
-    </row>
-    <row r="74" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A74" s="57"/>
-      <c r="B74" s="60"/>
-      <c r="C74" s="62" t="s">
-        <v>170</v>
-      </c>
-      <c r="D74" s="63"/>
-      <c r="E74" s="64"/>
-    </row>
-    <row r="75" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A75" s="57"/>
-      <c r="B75" s="60"/>
-      <c r="C75" s="62" t="s">
-        <v>171</v>
-      </c>
-      <c r="D75" s="63"/>
-      <c r="E75" s="64"/>
-    </row>
-    <row r="76" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="57"/>
-      <c r="B76" s="61"/>
-      <c r="C76" s="53" t="s">
-        <v>172</v>
-      </c>
-      <c r="D76" s="54"/>
-      <c r="E76" s="55"/>
-    </row>
-    <row r="77" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="58"/>
-      <c r="B77" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="C77" s="41"/>
-      <c r="D77" s="39"/>
-      <c r="E77" s="42"/>
-    </row>
-    <row r="78" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="79" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="48" t="s">
-        <v>118</v>
-      </c>
-      <c r="B79" s="49"/>
-      <c r="C79" s="50" t="s">
-        <v>137</v>
-      </c>
-      <c r="D79" s="51"/>
-      <c r="E79" s="52"/>
-    </row>
-    <row r="80" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="43" t="s">
-        <v>119</v>
-      </c>
-      <c r="B80" s="44"/>
-      <c r="C80" s="14"/>
-      <c r="D80" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="E80" s="18" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="B81" s="44"/>
-      <c r="C81" s="38" t="s">
-        <v>144</v>
-      </c>
-      <c r="D81" s="39"/>
-      <c r="E81" s="40"/>
-    </row>
-    <row r="82" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="56" t="s">
-        <v>134</v>
-      </c>
-      <c r="B82" s="59" t="s">
-        <v>122</v>
-      </c>
-      <c r="C82" s="45" t="s">
-        <v>180</v>
-      </c>
-      <c r="D82" s="46"/>
-      <c r="E82" s="47"/>
-    </row>
-    <row r="83" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A83" s="57"/>
-      <c r="B83" s="60"/>
-      <c r="C83" s="62" t="s">
-        <v>181</v>
-      </c>
-      <c r="D83" s="63"/>
-      <c r="E83" s="64"/>
-    </row>
-    <row r="84" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A84" s="57"/>
-      <c r="B84" s="60"/>
-      <c r="C84" s="62" t="s">
-        <v>182</v>
-      </c>
-      <c r="D84" s="63"/>
-      <c r="E84" s="64"/>
-    </row>
-    <row r="85" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A85" s="57"/>
-      <c r="B85" s="60"/>
-      <c r="C85" s="62" t="s">
-        <v>183</v>
-      </c>
-      <c r="D85" s="63"/>
-      <c r="E85" s="64"/>
-    </row>
-    <row r="86" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A86" s="57"/>
-      <c r="B86" s="60"/>
-      <c r="C86" s="62" t="s">
-        <v>184</v>
-      </c>
-      <c r="D86" s="63"/>
-      <c r="E86" s="64"/>
-    </row>
-    <row r="87" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A87" s="57"/>
-      <c r="B87" s="60"/>
-      <c r="C87" s="62" t="s">
-        <v>185</v>
-      </c>
-      <c r="D87" s="63"/>
-      <c r="E87" s="64"/>
-    </row>
-    <row r="88" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A88" s="57"/>
-      <c r="B88" s="60"/>
-      <c r="C88" s="62" t="s">
-        <v>186</v>
-      </c>
-      <c r="D88" s="63"/>
-      <c r="E88" s="64"/>
-    </row>
-    <row r="89" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A89" s="57"/>
-      <c r="B89" s="60"/>
-      <c r="C89" s="62" t="s">
-        <v>187</v>
-      </c>
-      <c r="D89" s="63"/>
-      <c r="E89" s="64"/>
-    </row>
-    <row r="90" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A90" s="57"/>
-      <c r="B90" s="60"/>
-      <c r="C90" s="62" t="s">
-        <v>188</v>
-      </c>
-      <c r="D90" s="63"/>
-      <c r="E90" s="64"/>
-    </row>
-    <row r="91" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A91" s="57"/>
-      <c r="B91" s="60"/>
-      <c r="C91" s="62" t="s">
-        <v>189</v>
-      </c>
-      <c r="D91" s="63"/>
-      <c r="E91" s="64"/>
-    </row>
-    <row r="92" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A92" s="57"/>
-      <c r="B92" s="60"/>
-      <c r="C92" s="62" t="s">
-        <v>190</v>
-      </c>
-      <c r="D92" s="63"/>
-      <c r="E92" s="64"/>
-    </row>
-    <row r="93" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A93" s="57"/>
-      <c r="B93" s="60"/>
-      <c r="C93" s="62" t="s">
-        <v>193</v>
-      </c>
-      <c r="D93" s="63"/>
-      <c r="E93" s="64"/>
-    </row>
-    <row r="94" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A94" s="57"/>
-      <c r="B94" s="60"/>
-      <c r="C94" s="62" t="s">
-        <v>194</v>
-      </c>
-      <c r="D94" s="63"/>
-      <c r="E94" s="64"/>
-    </row>
-    <row r="95" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A95" s="57"/>
-      <c r="B95" s="60"/>
-      <c r="C95" s="62" t="s">
-        <v>191</v>
-      </c>
-      <c r="D95" s="63"/>
-      <c r="E95" s="64"/>
-    </row>
-    <row r="96" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="57"/>
-      <c r="B96" s="61"/>
-      <c r="C96" s="53" t="s">
-        <v>192</v>
-      </c>
-      <c r="D96" s="54"/>
-      <c r="E96" s="55"/>
-    </row>
-    <row r="97" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="58"/>
-      <c r="B97" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="C97" s="41"/>
-      <c r="D97" s="39"/>
-      <c r="E97" s="42"/>
-    </row>
-    <row r="98" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="99" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="48" t="s">
-        <v>118</v>
-      </c>
-      <c r="B99" s="49"/>
-      <c r="C99" s="50" t="s">
-        <v>139</v>
-      </c>
-      <c r="D99" s="51"/>
-      <c r="E99" s="52"/>
-    </row>
-    <row r="100" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="43" t="s">
-        <v>119</v>
-      </c>
-      <c r="B100" s="44"/>
-      <c r="C100" s="14"/>
-      <c r="D100" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="E100" s="18" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="B101" s="44"/>
-      <c r="C101" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="D101" s="20"/>
-      <c r="E101" s="21"/>
-    </row>
-    <row r="102" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="56" t="s">
-        <v>134</v>
-      </c>
-      <c r="B102" s="59" t="s">
-        <v>122</v>
-      </c>
-      <c r="C102" s="45" t="s">
-        <v>195</v>
-      </c>
-      <c r="D102" s="46"/>
-      <c r="E102" s="47"/>
-    </row>
-    <row r="103" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A103" s="57"/>
-      <c r="B103" s="60"/>
-      <c r="C103" s="62" t="s">
-        <v>196</v>
-      </c>
-      <c r="D103" s="63"/>
-      <c r="E103" s="64"/>
-    </row>
-    <row r="104" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A104" s="57"/>
-      <c r="B104" s="60"/>
-      <c r="C104" s="62" t="s">
-        <v>197</v>
-      </c>
-      <c r="D104" s="63"/>
-      <c r="E104" s="64"/>
-    </row>
-    <row r="105" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="57"/>
-      <c r="B105" s="61"/>
-      <c r="C105" s="53" t="s">
-        <v>198</v>
-      </c>
-      <c r="D105" s="54"/>
-      <c r="E105" s="55"/>
-    </row>
-    <row r="106" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="58"/>
-      <c r="B106" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="C106" s="41"/>
-      <c r="D106" s="39"/>
-      <c r="E106" s="42"/>
+      <c r="C124" s="63"/>
+      <c r="D124" s="64"/>
+      <c r="E124" s="65"/>
     </row>
   </sheetData>
-  <mergeCells count="132">
-    <mergeCell ref="A102:A106"/>
-    <mergeCell ref="A82:A97"/>
-    <mergeCell ref="B82:B96"/>
-    <mergeCell ref="B102:B105"/>
-    <mergeCell ref="B71:B76"/>
-    <mergeCell ref="A71:A77"/>
+  <mergeCells count="157">
+    <mergeCell ref="C120:E120"/>
+    <mergeCell ref="C121:E121"/>
+    <mergeCell ref="C122:E122"/>
+    <mergeCell ref="C123:E123"/>
+    <mergeCell ref="A100:A115"/>
+    <mergeCell ref="B100:B114"/>
+    <mergeCell ref="C115:E115"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="C117:E117"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="C119:E119"/>
+    <mergeCell ref="A120:A124"/>
+    <mergeCell ref="B120:B123"/>
+    <mergeCell ref="C124:E124"/>
+    <mergeCell ref="C100:E100"/>
+    <mergeCell ref="C101:E101"/>
+    <mergeCell ref="C102:E102"/>
     <mergeCell ref="C103:E103"/>
     <mergeCell ref="C104:E104"/>
-    <mergeCell ref="C105:E105"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="C93:E93"/>
+    <mergeCell ref="C107:E107"/>
+    <mergeCell ref="C108:E108"/>
+    <mergeCell ref="C109:E109"/>
+    <mergeCell ref="C110:E110"/>
+    <mergeCell ref="C111:E111"/>
+    <mergeCell ref="C112:E112"/>
+    <mergeCell ref="C113:E113"/>
+    <mergeCell ref="C114:E114"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:E85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="A88:A94"/>
+    <mergeCell ref="B88:B93"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:E87"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C88:E88"/>
+    <mergeCell ref="C83:E83"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:E67"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:E76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A70:A74"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:E69"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:E78"/>
+    <mergeCell ref="A79:A83"/>
+    <mergeCell ref="B79:B82"/>
+    <mergeCell ref="C70:E70"/>
+    <mergeCell ref="C71:E71"/>
+    <mergeCell ref="C72:E72"/>
+    <mergeCell ref="C73:E73"/>
+    <mergeCell ref="C74:E74"/>
+    <mergeCell ref="C79:E79"/>
+    <mergeCell ref="C80:E80"/>
+    <mergeCell ref="C81:E81"/>
+    <mergeCell ref="C82:E82"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:E60"/>
+    <mergeCell ref="A61:A65"/>
+    <mergeCell ref="B61:B64"/>
+    <mergeCell ref="C61:E61"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="C63:E63"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="A53:A56"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="A20:A25"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="C55:E55"/>
     <mergeCell ref="C94:E94"/>
-    <mergeCell ref="C95:E95"/>
-    <mergeCell ref="C96:E96"/>
-    <mergeCell ref="C102:E102"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="C106:E106"/>
-    <mergeCell ref="C89:E89"/>
-    <mergeCell ref="C90:E90"/>
-    <mergeCell ref="C91:E91"/>
     <mergeCell ref="C92:E92"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A60:A66"/>
-    <mergeCell ref="B60:B65"/>
-    <mergeCell ref="A49:A55"/>
-    <mergeCell ref="B49:B54"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C20:E20"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:E3"/>
-    <mergeCell ref="B4:B12"/>
+    <mergeCell ref="B4:B6"/>
     <mergeCell ref="C4:E4"/>
-    <mergeCell ref="A18:A22"/>
-    <mergeCell ref="A4:A13"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C7:E7"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="A44:B44"/>
     <mergeCell ref="C99:E99"/>
-    <mergeCell ref="C79:E79"/>
-    <mergeCell ref="C68:E68"/>
+    <mergeCell ref="C105:E105"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C93:E93"/>
+    <mergeCell ref="C90:E90"/>
     <mergeCell ref="C97:E97"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="C60:E60"/>
-    <mergeCell ref="C61:E61"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="C63:E63"/>
-    <mergeCell ref="C64:E64"/>
-    <mergeCell ref="C65:E65"/>
-    <mergeCell ref="C71:E71"/>
-    <mergeCell ref="C81:E81"/>
-    <mergeCell ref="C70:E70"/>
-    <mergeCell ref="C77:E77"/>
-    <mergeCell ref="C73:E73"/>
-    <mergeCell ref="C72:E72"/>
-    <mergeCell ref="C74:E74"/>
-    <mergeCell ref="C75:E75"/>
-    <mergeCell ref="C76:E76"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="C66:E66"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="C82:E82"/>
-    <mergeCell ref="C83:E83"/>
-    <mergeCell ref="C84:E84"/>
-    <mergeCell ref="C85:E85"/>
-    <mergeCell ref="C86:E86"/>
-    <mergeCell ref="C87:E87"/>
-    <mergeCell ref="C88:E88"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="A35:A44"/>
-    <mergeCell ref="B35:B43"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C106:E106"/>
+    <mergeCell ref="C89:E89"/>
+    <mergeCell ref="C91:E91"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
